--- a/dataset/lg/ontimittaraguveera.xlsx
+++ b/dataset/lg/ontimittaraguveera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీకల్యాణగుణాభిరామ! విబుధశ్రేణీ కిరీటద్యుతి
 వ్యాకీర్ణాంఘ్రి సరోరుహద్వయ! సహస్రాక్షస్తుతా! యచ్యుతా!
@@ -477,32 +474,29 @@
 ద్రా! కారుణ్యసముద్ర! ధీర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('గు', '|'), ('ణా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('బు', '|'), ('ధ', 'U'), ('శ్రే', 'U'), ('ణీ', 'U'), ('కి', '|'), ('రీ', 'U'), ('ట', 'U'), ('ద్యు', '|'), ('తి', 'U'), ('వ్యా', 'U'), ('కీ', 'U'), ('ర్ణాం', 'U'), ('ఘ్రి', '|'), ('స', '|'), ('రో', 'U'), ('రు', '|'), ('హ', 'U'), ('ద్వ', '|'), ('య', '|'), ('స', '|'), ('హ', 'U'), ('స్రా', 'U'), ('క్ష', 'U'), ('స్తు', '|'), ('తా', 'U'), ('య', 'U'), ('చ్యు', '|'), ('తా', 'U'), ('నా', 'U'), ('కుం', 'U'), ('బ్రా', 'U'), ('పు', '|'), ('ను', '|'), ('దా', 'U'), ('పు', '|'), ('నీ', 'U'), ('వె', '|'), ('య', '|'), ('గు', '|'), ('చున్', 'U'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('మీ', 'U'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రా', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('స', '|'), ('ము', '|'), ('ద్ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>తారుణ్యోదయ! యొంటిమిట్టరఘునాథా! నీకు నేఁ బద్యముల్
 నూఱుం జెప్పెద నూరుఁబేరు వెలయన్ నూత్నంబుగా; నంత నా
@@ -510,32 +504,29 @@
 రారమ్మందురు గారవించి రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('రు', 'U'), ('ణ్యో', 'U'), ('ద', '|'), ('య', '|'), ('యొం', 'U'), ('టి', '|'), ('మి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('ఘు', '|'), ('నా', 'U'), ('థా', 'U'), ('నీ', 'U'), ('కు', '|'), ('నే', 'U'), ('బ', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నూ', 'U'), ('ఱుం', 'U'), ('జె', 'U'), ('ప్పె', '|'), ('ద', '|'), ('నూ', 'U'), ('రు', '|'), ('బే', 'U'), ('రు', '|'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('నూ', 'U'), ('త్నం', 'U'), ('బు', '|'), ('గా', 'U'), ('నం', 'U'), ('త', '|'), ('నా', 'U'), ('నో', 'U'), ('రుం', 'U'), ('బా', 'U'), ('వ', '|'), ('న', '|'), ('మౌ', 'U'), ('ను', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గాం', 'U'), ('తు', 'U'), ('న్భ', 'U'), ('క్తి', '|'), ('న', 'U'), ('న్నం', 'U'), ('ద', '|'), ('ఱున్', 'U'), ('రా', 'U'), ('ర', 'U'), ('మ్మం', 'U'), ('దు', '|'), ('రు', '|'), ('గా', 'U'), ('ర', '|'), ('విం', 'U'), ('చి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>ఆ కర్ణాటకమండలాధిపతిచే నాస్థానమధ్యంబులో
 నా కావ్యంబులు మెచ్చఁజేసితివి నానారాజులుం జూడఁగా
@@ -543,32 +534,29 @@
 రాకుంటెట్లు? వసించుఁగాక రఘువీరా! జానకీ నాయకా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('క', 'U'), ('ర్ణా', 'U'), ('ట', '|'), ('క', '|'), ('మం', 'U'), ('డ', '|'), ('లా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('చే', 'U'), ('నా', 'U'), ('స్థా', 'U'), ('న', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('లో', 'U'), ('నా', 'U'), ('కా', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('నా', 'U'), ('నా', 'U'), ('రా', 'U'), ('జు', '|'), ('లుం', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('నీ', 'U'), ('కుం', 'U'), ('బ', 'U'), ('ద్య', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('ని', '|'), ('పు', '|'), ('డు', '|'), ('వా', 'U'), ('ణీ', 'U'), ('దే', 'U'), ('వి', '|'), ('నా', 'U'), ('జి', 'U'), ('హ్వ', '|'), ('కున్', 'U'), ('రా', 'U'), ('కుం', 'U'), ('టె', 'U'), ('ట్లు', '|'), ('వ', '|'), ('సిం', 'U'), ('చు', '|'), ('గా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>నీ కేలన్ దృణ మంది వైవ నదియున్ నిర్ఘాతపాతక్రియన్
 గాకాకారనికారదానవుని లోకాలోకపర్యంత మీ
@@ -576,32 +564,29 @@
 రా! కాకుత్స్థ కులాగ్రగణ్య! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('కే', 'U'), ('లన్', 'U'), ('దృ', '|'), ('ణ', '|'), ('మం', 'U'), ('ది', '|'), ('వై', 'U'), ('వ', '|'), ('న', '|'), ('ది', '|'), ('యున్', 'U'), ('ని', 'U'), ('ర్ఘా', 'U'), ('త', '|'), ('పా', 'U'), ('త', 'U'), ('క్రి', '|'), ('యన్', 'U'), ('గా', 'U'), ('కా', 'U'), ('కా', 'U'), ('ర', '|'), ('ని', '|'), ('కా', 'U'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ని', '|'), ('లో', 'U'), ('కా', 'U'), ('లో', 'U'), ('క', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('త', '|'), ('మీ', 'U'), ('లో', 'U'), ('కం', 'U'), ('బుల్', 'U'), ('ప', '|'), ('దు', '|'), ('నా', 'U'), ('ల్గు', 'U'), ('త్రి', 'U'), ('ప్పి', '|'), ('న', '|'), ('ది', '|'), ('కా', 'U'), ('లు', 'U'), ('న్మో', 'U'), ('ప', '|'), ('గా', 'U'), ('నీ', 'U'), ('క', '|'), ('యౌ', 'U'), ('రా', 'U'), ('కా', 'U'), ('కు', 'U'), ('త్స్థ', '|'), ('కు', '|'), ('లా', 'U'), ('గ్ర', '|'), ('గ', 'U'), ('ణ్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>సకలామ్నాయములం బఠించు ఫల మబ్జాతాక్షు నామంబులం
 దొక టేదైనఁ బఠింపఁ గల్గు నటువం టుత్కృష్ట పుణ్యప్రవ
@@ -609,32 +594,29 @@
 ర్కకులా! నీ శుభనామ మౌర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('లా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('ము', '|'), ('లం', 'U'), ('బ', '|'), ('ఠిం', 'U'), ('చు', '|'), ('ఫ', '|'), ('ల', '|'), ('మ', 'U'), ('బ్జా', 'U'), ('తా', 'U'), ('క్షు', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లం', 'U'), ('దొ', '|'), ('క', '|'), ('టే', 'U'), ('దై', 'U'), ('న', '|'), ('బ', '|'), ('ఠిం', 'U'), ('ప', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('టు', '|'), ('వం', 'U'), ('టు', 'U'), ('త్కృ', 'U'), ('ష్ట', '|'), ('పు', 'U'), ('ణ్య', 'U'), ('ప్ర', '|'), ('వ', 'U'), ('ర్త', '|'), ('క', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('చ', 'U'), ('క్ర', '|'), ('పా', 'U'), ('ణి', '|'), ('కి', '|'), ('స', '|'), ('హ', 'U'), ('స్రం', 'U'), ('బుం', 'U'), ('డు', '|'), ('ద', 'U'), ('త్తు', 'U'), ('ల్య', '|'), ('మ', 'U'), ('ర్క', '|'), ('కు', '|'), ('లా', 'U'), ('నీ', 'U'), ('శు', '|'), ('భ', '|'), ('నా', 'U'), ('మ', '|'), ('మౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>కొంకం గారణ మేమి ధర్మములు పెక్కుల్ చేసి మర్త్యుండు నీ
 వంకం జిత్తము నిల్పలేక పెరత్రోవల్ త్రొక్కినన్ సర్వముం
@@ -642,32 +624,29 @@
 ఱంకాడంగఁ దొడంగినట్లు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('కొం', 'U'), ('కం', 'U'), ('గా', 'U'), ('ర', '|'), ('ణ', '|'), ('మే', 'U'), ('మి', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('పె', '|'), ('క్కుల్', 'U'), ('చే', 'U'), ('సి', '|'), ('మ', 'U'), ('ర్త్యుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('వం', 'U'), ('కం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('ని', 'U'), ('ల్ప', '|'), ('లే', 'U'), ('క', '|'), ('పె', '|'), ('ర', 'U'), ('త్రో', 'U'), ('వల్', 'U'), ('త్రొ', 'U'), ('క్కి', '|'), ('నన్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('ముం', 'U'), ('బొం', 'U'), ('కై', 'U'), ('పో', 'U'), ('వు', '|'), ('గు', '|'), ('రం', 'U'), ('గ', '|'), ('నే', 'U'), ('త్ర', '|'), ('త', '|'), ('గు', '|'), ('నో', 'U'), ('ముల్', 'U'), ('వే', 'U'), ('యు', '|'), ('నున్', 'U'), ('నో', 'U'), ('చి', '|'), ('తా', 'U'), ('ఱం', 'U'), ('కా', 'U'), ('డం', 'U'), ('గ', '|'), ('దొ', '|'), ('డం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>ఆ గౌరీశ్వరకీర్తనీయుఁ డగు ని న్నర్చింపఁగా లేనివా
 రోగు ల్గారొకొ చాల యోగ్యులయినన్ యోగానుసంధాను లీ
@@ -675,32 +654,29 @@
 రాగద్వేషవిదూర! ధీర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('గౌ', 'U'), ('రీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('కీ', 'U'), ('ర్త', '|'), ('నీ', 'U'), ('యు', '|'), ('డ', '|'), ('గు', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('రో', 'U'), ('గు', 'U'), ('ల్గా', 'U'), ('రొ', '|'), ('కొ', '|'), ('చా', 'U'), ('ల', '|'), ('యో', 'U'), ('గ్యు', '|'), ('ల', '|'), ('యి', '|'), ('నన్', 'U'), ('యో', 'U'), ('గా', 'U'), ('ను', '|'), ('సం', 'U'), ('ధా', 'U'), ('ను', '|'), ('లీ', 'U'), ('మా', 'U'), ('గు', 'U'), ('ల్గా', 'U'), ('న', '|'), ('య', '|'), ('థా', 'U'), ('ర్థ', '|'), ('మా', 'U'), ('డి', '|'), ('తి', '|'), ('ని', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బె', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('రా', 'U'), ('రా', 'U'), ('గ', 'U'), ('ద్వే', 'U'), ('ష', '|'), ('వి', '|'), ('దూ', 'U'), ('ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>జగముల్ మూఁడు సృజింపఁబ్రోవఁ బిదపన్ సంహారముం జేయఁగాఁ
 ద్రిగుణాకారముఁ దాల్చినట్టి వరమూర్తీ! వాసుదేవా! హరీ!
@@ -708,32 +684,29 @@
 రగతల్పా! జనకల్పభూజ! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('మూ', 'U'), ('డు', '|'), ('సృ', '|'), ('జిం', 'U'), ('ప', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('బి', '|'), ('ద', '|'), ('పన్', 'U'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('ముం', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('ద్రి', '|'), ('గు', '|'), ('ణా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('వ', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తీ', 'U'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వా', 'U'), ('హ', '|'), ('రీ', 'U'), ('ని', '|'), ('గ', '|'), ('మ', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('గా', 'U'), ('త్ర', '|'), ('నృ', '|'), ('హ', '|'), ('రీ', 'U'), ('నీ', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('వ', 'U'), ('ర్ణా', 'U'), ('మ', '|'), ('హో', 'U'), ('ర', '|'), ('గ', '|'), ('త', 'U'), ('ల్పా', 'U'), ('జ', '|'), ('న', '|'), ('క', 'U'), ('ల్ప', '|'), ('భూ', 'U'), ('జ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>నీ చారిత్రముఁ జెప్ప నద్భుతమగున్, నీ నామసంకీర్తనం
 బాచండాలునకైన మోక్ష మొసఁగున్, హత్యాదిదోషంబులన్
@@ -741,32 +714,29 @@
 రాచుం ద్రోచు నడంచు నొంచు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('చా', 'U'), ('రి', 'U'), ('త్ర', '|'), ('ము', '|'), ('జె', 'U'), ('ప్ప', '|'), ('న', 'U'), ('ద్భు', '|'), ('త', '|'), ('మ', '|'), ('గు', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('సం', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('నం', 'U'), ('బా', 'U'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('న', '|'), ('కై', 'U'), ('న', '|'), ('మో', 'U'), ('క్ష', '|'), ('మొ', '|'), ('స', '|'), ('గు', 'U'), ('న్హ', 'U'), ('త్యా', 'U'), ('ది', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వే', 'U'), ('చిం', 'U'), ('చున్', 'U'), ('వి', '|'), ('ద', '|'), ('ళిం', 'U'), ('చు', '|'), ('ద్రుం', 'U'), ('చు', '|'), ('దు', '|'), ('ను', '|'), ('మున్', 'U'), ('వే', 'U'), ('టా', 'U'), ('డు', '|'), ('నం', 'U'), ('టం', 'U'), ('బ', '|'), ('డున్', 'U'), ('రా', 'U'), ('చుం', 'U'), ('ద్రో', 'U'), ('చు', '|'), ('న', '|'), ('డం', 'U'), ('చు', '|'), ('నొం', 'U'), ('చు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>తేజం బొప్పఁగ నీవె కావె మొదలం ద్రేతాయుగాంతంబునన్
 రాజై పుట్టితి వింక నీకలియుగాంత్యం బందునన్ రౌతవై
@@ -774,32 +744,29 @@
 రాజున్ రౌతును నీవె కావె రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('తే', 'U'), ('జం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('ద్రే', 'U'), ('తా', 'U'), ('యు', '|'), ('గాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('రా', 'U'), ('జై', 'U'), ('పు', 'U'), ('ట్టి', '|'), ('తి', '|'), ('విం', 'U'), ('క', '|'), ('నీ', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('గాం', 'U'), ('త్యం', 'U'), ('బం', 'U'), ('దు', '|'), ('నన్', 'U'), ('రౌ', 'U'), ('త', '|'), ('వై', 'U'), ('వా', 'U'), ('జిం', 'U'), ('దో', 'U'), ('లి', '|'), ('వి', '|'), ('రో', 'U'), ('ధు', '|'), ('లం', 'U'), ('దు', '|'), ('ను', '|'), ('మ', '|'), ('దే', 'U'), ('వా', 'U'), ('నీ', 'U'), ('వ', '|'), ('యొం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డా', 'U'), ('రా', 'U'), ('జున్', 'U'), ('రౌ', 'U'), ('తు', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>గాజుం బూస సురేంద్రనీలమణిగాఁ గల్పించు చందంబునన్
 బాజుం జర్మము మీఁది బేగడపొరల్ బంగార మౌ రీతిగన్
@@ -807,32 +774,29 @@
 రాజీవాక్ష! కృపాకటాక్ష! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('జుం', 'U'), ('బూ', 'U'), ('స', '|'), ('సు', '|'), ('రేం', 'U'), ('ద్ర', '|'), ('నీ', 'U'), ('ల', '|'), ('మ', '|'), ('ణి', '|'), ('గా', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('బా', 'U'), ('జుం', 'U'), ('జ', '|'), ('ర్మ', '|'), ('ము', '|'), ('మీ', 'U'), ('ది', '|'), ('బే', 'U'), ('గ', '|'), ('డ', '|'), ('పొ', '|'), ('రల్', 'U'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మౌ', 'U'), ('రీ', 'U'), ('తి', '|'), ('గన్', 'U'), ('నా', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('భా', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('న', 'U'), ('న్నే', 'U'), ('ల', '|'), ('రా', 'U'), ('వే', 'U'), ('ల', '|'), ('రా', 'U'), ('రా', 'U'), ('జీ', 'U'), ('వా', 'U'), ('క్ష', '|'), ('కృ', '|'), ('పా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>నా జన్మాంతర వాసనావశమునన్ నాపాలి భాగ్యంబునన్
 నా జాడ్యంబులు పోవుకాలముతఱిన్ నా పుణ్యపాకంబునం
@@ -840,32 +804,29 @@
 రాజన్, నాకెదు రెవ్వ రుర్వి? రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('జ', 'U'), ('న్మాం', 'U'), ('త', '|'), ('ర', '|'), ('వా', 'U'), ('స', '|'), ('నా', 'U'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('నన్', 'U'), ('నా', 'U'), ('పా', 'U'), ('లి', '|'), ('భా', 'U'), ('గ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నా', 'U'), ('జా', 'U'), ('డ్యం', 'U'), ('బు', '|'), ('లు', '|'), ('పో', 'U'), ('వు', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('త', '|'), ('ఱిన్', 'U'), ('నా', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('పా', 'U'), ('కం', 'U'), ('బు', '|'), ('నం', 'U'), ('దీ', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('లి', '|'), ('గె', 'U'), ('న్హీ', 'U'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('నిం', 'U'), ('క', '|'), ('నే', 'U'), ('రా', 'U'), ('జ', 'U'), ('న్నా', 'U'), ('కె', '|'), ('దు', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', 'U'), ('ర్వి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>నేఁటం దీఱె ననేకజన్మములనుండి న్నన్ను వెంటాడుచున్
 వాటంబై చనుదెంచు పాపములు; శ్రీవత్సాంక! యీవంక నీ
@@ -873,32 +834,29 @@
 ర్ణాటాధీశ్వర! యొంటిమిట్ట రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('టం', 'U'), ('దీ', 'U'), ('ఱె', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('నుం', 'U'), ('డి', 'U'), ('న్న', 'U'), ('న్ను', '|'), ('వెం', 'U'), ('టా', 'U'), ('డు', '|'), ('చున్', 'U'), ('వా', 'U'), ('టం', 'U'), ('బై', 'U'), ('చ', '|'), ('ను', '|'), ('దెం', 'U'), ('చు', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', 'U'), ('శ్రీ', 'U'), ('వ', 'U'), ('త్సాం', 'U'), ('క', '|'), ('యీ', 'U'), ('వం', 'U'), ('క', '|'), ('నీ', 'U'), ('పా', 'U'), ('టల్', 'U'), ('పా', 'U'), ('ఠ', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('మ', '|'), ('ఱిం', 'U'), ('బా', 'U'), ('పం', 'U'), ('బు', '|'), ('లం', 'U'), ('బా', 'U'), ('పు', '|'), ('గ', 'U'), ('ర్ణా', 'U'), ('టా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('యొం', 'U'), ('టి', '|'), ('మి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>పటునిర్ఘాత కఠోరనాదము ఘనబ్రహ్మాండ భాండంబుఁ బి
 క్కటిలం జేయుచు వచ్చునప్పు డితరుల్ గాండీవినామంబు లె
@@ -906,32 +864,29 @@
 ర్ఘటముల్ వచ్చిన నిన్నెగాక రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('టు', '|'), ('ని', 'U'), ('ర్ఘా', 'U'), ('త', '|'), ('క', '|'), ('ఠో', 'U'), ('ర', '|'), ('నా', 'U'), ('ద', '|'), ('ము', '|'), ('ఘ', '|'), ('న', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డం', 'U'), ('బు', '|'), ('బి', 'U'), ('క్క', '|'), ('టి', '|'), ('లం', 'U'), ('జే', 'U'), ('యు', '|'), ('చు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డి', '|'), ('త', '|'), ('రుల్', 'U'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లె', 'U'), ('న్ను', '|'), ('ట', '|'), ('మే', 'U'), ('లం', 'U'), ('దు', '|'), ('రు', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వుల్', 'U'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('ర', 'U'), ('న్యుం', 'U'), ('గో', 'U'), ('రి', '|'), ('యెం', 'U'), ('తెం', 'U'), ('త', '|'), ('దు', 'U'), ('ర్ఘ', '|'), ('ట', '|'), ('ముల్', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('ని', 'U'), ('న్నె', '|'), ('గా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>కొడుకు ల్బ్రహ్మలు, కూఁతు రీశ్వరశిరఃకూటంబుపైఁ గాఁపురం,
 బుడురాజుం దినరాజుఁ గన్ను, లహిరా జుయ్యాలమంచంబు, నీ
@@ -939,32 +894,29 @@
 ఱడి మర్త్యు ల్గనలేరుగాక రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('డు', '|'), ('కు', 'U'), ('ల్బ్ర', 'U'), ('హ్మ', '|'), ('లు', '|'), ('కూ', 'U'), ('తు', '|'), ('రీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('శి', '|'), ('రః', 'U'), ('కూ', 'U'), ('టం', 'U'), ('బు', '|'), ('పై', 'U'), ('గా', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('డు', '|'), ('రా', 'U'), ('జుం', 'U'), ('ది', '|'), ('న', '|'), ('రా', 'U'), ('జు', '|'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('హి', '|'), ('రా', 'U'), ('జు', 'U'), ('య్యా', 'U'), ('ల', '|'), ('మం', 'U'), ('చం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ప', '|'), ('డ', '|'), ('తుల్', 'U'), ('శ్రీ', 'U'), ('యు', '|'), ('ధ', '|'), ('రి', 'U'), ('త్రి', '|'), ('యు', 'U'), ('న్స', '|'), ('వ', '|'), ('తు', '|'), ('చె', '|'), ('ప్పన్', 'U'), ('లే', 'U'), ('రు', '|'), ('నీ', 'U'), ('క', 'U'), ('న్యు', '|'), ('లా', 'U'), ('ఱ', '|'), ('డి', '|'), ('మ', 'U'), ('ర్త్యు', 'U'), ('ల్గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>వడి మీఱంగ నమోఘమై నిగుడు నీ వాలమ్ము వాలమ్ముఁ దాఁ
 కెడు నంచున్ మెడ యొడ్డినన్ జమరిపైఁ గీల్కొన్న కారుణ్య మే
@@ -972,32 +924,29 @@
 ర్పడి తౌరా విలుకాండ్రలోన రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('డి', '|'), ('మీ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('న', '|'), ('మో', 'U'), ('ఘ', '|'), ('మై', 'U'), ('ని', '|'), ('గు', '|'), ('డు', '|'), ('నీ', 'U'), ('వా', 'U'), ('ల', 'U'), ('మ్ము', '|'), ('వా', 'U'), ('ల', 'U'), ('మ్ము', '|'), ('దా', 'U'), ('కె', '|'), ('డు', '|'), ('నం', 'U'), ('చున్', 'U'), ('మె', '|'), ('డ', '|'), ('యొ', 'U'), ('డ్డి', '|'), ('నన్', 'U'), ('జ', '|'), ('మ', '|'), ('రి', '|'), ('పై', 'U'), ('గీ', 'U'), ('ల్కొ', 'U'), ('న్న', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('మే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('ము', 'U'), ('న్నే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('మ్ము', '|'), ('వే', 'U'), ('ఱె', '|'), ('యొ', '|'), ('క', '|'), ('నా', 'U'), ('రా', 'U'), ('చ', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('పే', 'U'), ('ర్ప', '|'), ('డి', '|'), ('తౌ', 'U'), ('రా', 'U'), ('వి', '|'), ('లు', '|'), ('కాం', 'U'), ('డ్ర', '|'), ('లో', 'U'), ('న', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>చెడుగన్, గష్టుఁడ, దుష్టచిత్తుఁడఁ, బరస్త్రీలోలుఁడన్, బాలుఁడన్
 జడుఁడన్, మూఢుఁడఁ, గొండెకాఁడను, దురాచారి, న్నిషిద్ధాత్ముఁడన్
@@ -1005,32 +954,29 @@
 ఱడి యున్నాఁడను నీవె దిక్కు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('డు', '|'), ('గ', 'U'), ('న్గ', 'U'), ('ష్టు', '|'), ('డ', '|'), ('దు', 'U'), ('ష్ట', '|'), ('చి', 'U'), ('త్తు', '|'), ('డ', '|'), ('బ', '|'), ('ర', 'U'), ('స్త్రీ', 'U'), ('లో', 'U'), ('లు', '|'), ('డ', 'U'), ('న్బా', 'U'), ('లు', '|'), ('డన్', 'U'), ('జ', '|'), ('డు', '|'), ('డ', 'U'), ('న్మూ', 'U'), ('ఢు', '|'), ('డ', '|'), ('గొం', 'U'), ('డె', '|'), ('కా', 'U'), ('డ', '|'), ('ను', '|'), ('దు', '|'), ('రా', 'U'), ('చా', 'U'), ('రి', 'U'), ('న్ని', '|'), ('షి', 'U'), ('ద్ధా', 'U'), ('త్ము', '|'), ('డన్', 'U'), ('గ', '|'), ('డు', '|'), ('సం', 'U'), ('గా', 'U'), ('క', '|'), ('రి', '|'), ('గ', 'U'), ('ల్ల', '|'), ('గు', 'U'), ('ల్ల', '|'), ('గ', '|'), ('ప', '|'), ('టిన్', 'U'), ('గ', '|'), ('ర్విన్', 'U'), ('న', '|'), ('నుం', 'U'), ('గా', 'U'), ('వు', '|'), ('మూ', 'U'), ('ఱ', '|'), ('డి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>అడుగున్విద్యకు లోనుజేసితివి న న్నావంత నావంతలే
 కడియాసల్ గొనుచున్ దురాత్మకుల నే నర్థించుచున్నాఁడ; నె
@@ -1038,32 +984,29 @@
 ఱడిఁ బెట్టంగ? రమావిహార! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('డు', '|'), ('గు', 'U'), ('న్వి', 'U'), ('ద్య', '|'), ('కు', '|'), ('లో', 'U'), ('ను', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('న', 'U'), ('న్నా', 'U'), ('వం', 'U'), ('త', '|'), ('నా', 'U'), ('వం', 'U'), ('త', '|'), ('లే', 'U'), ('క', '|'), ('డి', '|'), ('యా', 'U'), ('సల్', 'U'), ('గొ', '|'), ('ను', '|'), ('చున్', 'U'), ('దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('కు', '|'), ('ల', '|'), ('నే', 'U'), ('న', 'U'), ('ర్థిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దు', '|'), ('నీ', 'U'), ('వు', '|'), ('న', 'U'), ('న్ను', '|'), ('బ', '|'), ('లె', '|'), ('నె', 'U'), ('న్నం', 'U'), ('బే', 'U'), ('ద', '|'), ('వా', 'U'), ('యే', 'U'), ('ల', '|'), ('యా', 'U'), ('ఱ', '|'), ('డి', '|'), ('బె', 'U'), ('ట్టం', 'U'), ('గ', '|'), ('ర', '|'), ('మా', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>ప్రణుతింపన్ మృతదేహుఁ జూచి బ్రదికింపన్ బ్రహ్మరుద్రుల్ మరు
 ద్గణనాథాదులు నోప, రద్భుతము గాఁగన్ నీదు భృత్యుండు ల
@@ -1071,32 +1014,29 @@
 రణభూభాగములోనఁ దానె రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('పన్', 'U'), ('మృ', '|'), ('త', '|'), ('దే', 'U'), ('హు', '|'), ('జూ', 'U'), ('చి', 'U'), ('బ్ర', '|'), ('ది', '|'), ('కిం', 'U'), ('పన్', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('రు', '|'), ('ద్రుల్', 'U'), ('మ', '|'), ('రు', 'U'), ('ద్గ', '|'), ('ణ', '|'), ('నా', 'U'), ('థా', 'U'), ('దు', '|'), ('లు', '|'), ('నో', 'U'), ('ప', '|'), ('ర', 'U'), ('ద్భు', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('గన్', 'U'), ('నీ', 'U'), ('దు', '|'), ('భృ', 'U'), ('త్యుం', 'U'), ('డు', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', 'U'), ('ప్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చె', '|'), ('జ', 'U'), ('చ్చి', '|'), ('న', '|'), ('త', '|'), ('ఱిన్', 'U'), ('సం', 'U'), ('జీ', 'U'), ('వ', '|'), ('నీ', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('యన్', 'U'), ('ర', '|'), ('ణ', '|'), ('భూ', 'U'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('దా', 'U'), ('నె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>ఏ తాత్పర్యము గల్గి కొల్చెదవురా? యే నేల నిన్మెత్తురా?
 నీతో నాకుఁ బనేమిరా? యనక మన్నింపం దగున్; మున్ను నీ
@@ -1104,32 +1044,29 @@
 రాతిన్ నాతిని రాతిఁ దొల్లి రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('కొ', 'U'), ('ల్చె', '|'), ('ద', '|'), ('వు', '|'), ('రా', 'U'), ('యే', 'U'), ('నే', 'U'), ('ల', '|'), ('ని', 'U'), ('న్మె', 'U'), ('త్తు', '|'), ('రా', 'U'), ('నీ', 'U'), ('తో', 'U'), ('నా', 'U'), ('కు', '|'), ('బ', '|'), ('నే', 'U'), ('మి', '|'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('క', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('పం', 'U'), ('ద', '|'), ('గు', 'U'), ('న్ము', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('చే', 'U'), ('తన్', 'U'), ('మో', 'U'), ('క్ష', '|'), ('ము', '|'), ('గ', 'U'), ('న్న', '|'), ('వా', 'U'), ('రి', '|'), ('వి', '|'), ('న', '|'), ('మా', 'U'), ('చి', 'U'), ('త్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ని', 'U'), ('ర్జ', '|'), ('రా', 'U'), ('రా', 'U'), ('తిన్', 'U'), ('నా', 'U'), ('తి', '|'), ('ని', '|'), ('రా', 'U'), ('తి', '|'), ('దొ', 'U'), ('ల్లి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>దాతల్ ద్రాతలు తల్లిదండ్రులు మఱిన్ దైవంబు లాప్తుల్ చెలుల్
 భ్రాత ల్దక్కినవారు చుట్టములు మీపాదాలపై నాన నా
@@ -1137,32 +1074,29 @@
 భ్రాతల్ సర్వము నీవె కావె రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('తల్', 'U'), ('ద్రా', 'U'), ('త', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('మ', '|'), ('ఱిన్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లా', 'U'), ('ప్తుల్', 'U'), ('చె', '|'), ('లుల్', 'U'), ('భ్రా', 'U'), ('త', 'U'), ('ల్ద', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('పా', 'U'), ('దా', 'U'), ('ల', '|'), ('పై', 'U'), ('నా', 'U'), ('న', '|'), ('నా', 'U'), ('దా', 'U'), ('త', '|'), ('ల్ద్రా', 'U'), ('త', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('మ', '|'), ('ఱిన్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లా', 'U'), ('ప్తుల్', 'U'), ('చె', '|'), ('లుల్', 'U'), ('భ్రా', 'U'), ('తల్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>శ్రుతిపాథోధి మథించి శాస్త్రమహిమ ల్శోధించి యష్టాదశ
 స్మృతు లాలించి మహేతిహాసకథలుం జింతించి తా రొక్క స
@@ -1170,32 +1104,29 @@
 ర్మతు లీమార్గముఁ గానలేరు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('శ్రు', '|'), ('తి', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('మ', '|'), ('థిం', 'U'), ('చి', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('మ', '|'), ('హి', '|'), ('మ', 'U'), ('ల్శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('య', 'U'), ('ష్టా', 'U'), ('ద', '|'), ('శ', 'U'), ('స్మృ', '|'), ('తు', '|'), ('లా', 'U'), ('లిం', 'U'), ('చి', '|'), ('మ', '|'), ('హే', 'U'), ('తి', '|'), ('హా', 'U'), ('స', '|'), ('క', '|'), ('థ', '|'), ('లుం', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('తా', 'U'), ('రొ', 'U'), ('క్క', '|'), ('స', 'U'), ('మ్మ', '|'), ('త', '|'), ('మై', 'U'), ('స', 'U'), ('న్ము', '|'), ('ను', '|'), ('లా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('దు', '|'), ('ర్మ', '|'), ('తు', '|'), ('లీ', 'U'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>మతి నూహింపరు కొంద ఱీసుకృత మేమార్గంబునం దున్న ను
 గ్రతపోధ్యానము సామగానమును దీర్థస్నానమున్ దానమున్
@@ -1203,32 +1134,29 @@
 ప్రతిమ ల్లేవొ నమస్కరింప? రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('తి', '|'), ('నూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('రు', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱీ', 'U'), ('సు', '|'), ('కృ', '|'), ('త', '|'), ('మే', 'U'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', 'U'), ('న్న', '|'), ('ను', 'U'), ('గ్ర', '|'), ('త', '|'), ('పో', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('సా', 'U'), ('మ', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('ను', '|'), ('దీ', 'U'), ('ర్థ', 'U'), ('స్నా', 'U'), ('న', '|'), ('మున్', 'U'), ('దా', 'U'), ('న', '|'), ('మున్', 'U'), ('గ్ర', '|'), ('తు', '|'), ('సం', 'U'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('లే', 'U'), ('ల', '|'), ('నే', 'U'), ('ల', '|'), ('దు', '|'), ('ల', '|'), ('సిం', 'U'), ('గ', 'U'), ('ర్వ', 'U'), ('య్యె', '|'), ('నో', 'U'), ('యూ', 'U'), ('ర', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', 'U'), ('ల్లే', 'U'), ('వొ', '|'), ('న', '|'), ('మ', 'U'), ('స్క', '|'), ('రిం', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>సుతు లంచున్ హితు లంచు బంధుజను లంచుం దల్లులుం దండ్రులున్
 సతులుం బౌత్రులు నంచు నెంచుకొనుచున్ సంసారమోహాబ్ధిలో
@@ -1236,32 +1164,29 @@
 రతముం గొల్వని మోస గల్గె రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('తు', '|'), ('లం', 'U'), ('చున్', 'U'), ('హి', '|'), ('తు', '|'), ('లం', 'U'), ('చు', '|'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('లం', 'U'), ('చుం', 'U'), ('ద', 'U'), ('ల్లు', '|'), ('లుం', 'U'), ('దం', 'U'), ('డ్రు', '|'), ('లున్', 'U'), ('స', '|'), ('తు', '|'), ('లుం', 'U'), ('బౌ', 'U'), ('త్రు', '|'), ('లు', '|'), ('నం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చు', '|'), ('కొ', '|'), ('ను', '|'), ('చున్', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మో', 'U'), ('హా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('గ', '|'), ('త', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ల', '|'), ('దే', 'U'), ('లు', '|'), ('చున్', 'U'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('చున్', 'U'), ('గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('యే', 'U'), ('ని', 'U'), ('న్న', '|'), ('నా', 'U'), ('ర', '|'), ('త', '|'), ('ముం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('మో', 'U'), ('స', '|'), ('గ', 'U'), ('ల్గె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>క్షితిలోఁ దామును బ్రహ్మసృష్టికిఁ బునస్సృష్టిన్ వినిర్మించియున్
 గ్రతువిఘ్నం బొనరించు దానవుల వీఁకం దోలఁగా లేక నాఁ
@@ -1269,32 +1194,29 @@
 ప్రతివీరాగ్రణి యెవ్వఁ డింక? రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('క్షి', '|'), ('తి', '|'), ('లో', 'U'), ('దా', 'U'), ('ము', '|'), ('ను', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('కి', '|'), ('బు', '|'), ('న', 'U'), ('స్సృ', '|'), ('ష్టిన్', 'U'), ('వి', '|'), ('ని', '|'), ('ర్మిం', 'U'), ('చి', '|'), ('యున్', 'U'), ('గ్ర', '|'), ('తు', '|'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('వీ', 'U'), ('కం', 'U'), ('దో', 'U'), ('ల', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('నా', 'U'), ('డ', '|'), ('తి', '|'), ('బా', 'U'), ('లున్', 'U'), ('ని', '|'), ('ను', '|'), ('దో', 'U'), ('డు', '|'), ('తో', 'U'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('డా', 'U'), ('గా', 'U'), ('ధి', '|'), ('సూ', 'U'), ('నుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('వీ', 'U'), ('రా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('డిం', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>క్షితిలో నల్పులమీఁదఁ జెప్పిన కృతుల్ ఛీఛీ నిరర్థంబులౌ
 నుతిపాత్రమ్ములు గావు మేఁక మెడ చన్నుల్ నేతిబీఱల్సుమా
@@ -1302,32 +1224,29 @@
 రత రామాయణముల్ దలంప రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('క్షి', '|'), ('తి', '|'), ('లో', 'U'), ('న', 'U'), ('ల్పు', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('కృ', '|'), ('తుల్', 'U'), ('ఛీ', 'U'), ('ఛీ', 'U'), ('ని', '|'), ('ర', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లౌ', 'U'), ('ను', '|'), ('తి', '|'), ('పా', 'U'), ('త్ర', 'U'), ('మ్ము', '|'), ('లు', '|'), ('గా', 'U'), ('వు', '|'), ('మే', 'U'), ('క', '|'), ('మె', '|'), ('డ', '|'), ('చ', '|'), ('న్నుల్', 'U'), ('నే', 'U'), ('తి', '|'), ('బీ', 'U'), ('ఱ', 'U'), ('ల్సు', '|'), ('మా', 'U'), ('వి', '|'), ('త', '|'), ('త', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('నీ', 'U'), ('కు', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('కృ', '|'), ('తుల్', 'U'), ('వే', 'U'), ('దా', 'U'), ('లు', '|'), ('శా', 'U'), ('స్త్రా', 'U'), ('లు', '|'), ('భా', 'U'), ('ర', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('య', '|'), ('ణ', '|'), ('ముల్', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>సంతానంబును బారిజాతకమహీజాతంబు మందారమున్
 జింతారత్నముఁ గామధేనువు సుధాసింధూత్తమంబున్ మదిన్
@@ -1335,32 +1254,29 @@
 శ్రాంతత్యాగ వివేకపాక! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('తా', 'U'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('బా', 'U'), ('రి', '|'), ('జా', 'U'), ('త', '|'), ('క', '|'), ('మ', '|'), ('హీ', 'U'), ('జా', 'U'), ('తం', 'U'), ('బు', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మున్', 'U'), ('జిం', 'U'), ('తా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('గా', 'U'), ('మ', '|'), ('ధే', 'U'), ('ను', '|'), ('వు', '|'), ('సు', '|'), ('ధా', 'U'), ('సిం', 'U'), ('ధూ', 'U'), ('త్త', '|'), ('మం', 'U'), ('బున్', 'U'), ('మ', '|'), ('దిన్', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('పన్', 'U'), ('స', '|'), ('రి', '|'), ('గా', 'U'), ('వు', '|'), ('నీ', 'U'), ('కు', '|'), ('వి', '|'), ('జ', '|'), ('య', 'U'), ('శ్రీ', 'U'), ('ధా', 'U'), ('మ', '|'), ('యో', 'U'), ('రా', 'U'), ('మ', '|'), ('య', 'U'), ('శ్రాం', 'U'), ('త', 'U'), ('త్యా', 'U'), ('గ', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('పా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>ఏ దైవాల వరాలకంటె సులభం బెవ్వారికైనన్ మదిన్
 నీ దాతృత్వము చెప్పనేల శరణంటేన్ గాతు వింతేల నీ
@@ -1368,32 +1284,29 @@
 రా! దిక్పూరితకీర్తిపూర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('దై', 'U'), ('వా', 'U'), ('ల', '|'), ('వ', '|'), ('రా', 'U'), ('ల', '|'), ('కం', 'U'), ('టె', '|'), ('సు', '|'), ('ల', '|'), ('భం', 'U'), ('బె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కై', 'U'), ('నన్', 'U'), ('మ', '|'), ('దిన్', 'U'), ('నీ', 'U'), ('దా', 'U'), ('తృ', 'U'), ('త్వ', '|'), ('ము', '|'), ('చె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ల', '|'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('టేన్', 'U'), ('గా', 'U'), ('తు', '|'), ('విం', 'U'), ('తే', 'U'), ('ల', '|'), ('నీ', 'U'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('ర', '|'), ('జం', 'U'), ('బు', '|'), ('రా', 'U'), ('తి', '|'), ('క', '|'), ('యి', '|'), ('నన్', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లీ', 'U'), ('జా', 'U'), ('లు', '|'), ('నౌ', 'U'), ('రా', 'U'), ('ది', 'U'), ('క్పూ', 'U'), ('రి', '|'), ('త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('పూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>విందున్ వేదపురాణశాస్త్రముల గోవిందున్ ముకుందున్ హరిన్
 విందున్ వేల్పులలోన భక్తసులభున్ విశ్వంభరున్ సచ్చిదా
@@ -1401,32 +1314,29 @@
 ఱం దోలంగ నృసింహు నిన్ను రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('విం', 'U'), ('దున్', 'U'), ('వే', 'U'), ('ద', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('గో', 'U'), ('విం', 'U'), ('దున్', 'U'), ('ము', '|'), ('కుం', 'U'), ('దున్', 'U'), ('హ', '|'), ('రిన్', 'U'), ('విం', 'U'), ('దున్', 'U'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('భ', 'U'), ('క్త', '|'), ('సు', '|'), ('ల', '|'), ('భున్', 'U'), ('వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('రున్', 'U'), ('స', 'U'), ('చ్చి', '|'), ('దా', 'U'), ('నం', 'U'), ('దున్', 'U'), ('నం', 'U'), ('దు', '|'), ('డు', '|'), ('క', 'U'), ('న్న', '|'), ('చి', 'U'), ('న్న', '|'), ('శి', '|'), ('శు', '|'), ('వున్', 'U'), ('నా', 'U'), ('పా', 'U'), ('లి', '|'), ('పా', 'U'), ('పా', 'U'), ('ళి', '|'), ('బా', 'U'), ('ఱం', 'U'), ('దో', 'U'), ('లం', 'U'), ('గ', '|'), ('నృ', '|'), ('సిం', 'U'), ('హు', '|'), ('ని', 'U'), ('న్ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>సందిం బూసలలోన నీ కవచరక్షామంత్రరాజంబుఁ బెం
 పొందన్ వ్రాసి ధరించినాతఁడు రిపువ్యూహంబులో నైన నే
@@ -1434,32 +1344,29 @@
 ఱం దోలుం బగవారి నౌర రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('దిం', 'U'), ('బూ', 'U'), ('స', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('వ', '|'), ('చ', '|'), ('ర', 'U'), ('క్షా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జం', 'U'), ('బు', '|'), ('బెం', 'U'), ('పొం', 'U'), ('దన్', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('రి', '|'), ('పు', 'U'), ('వ్యూ', 'U'), ('హం', 'U'), ('బు', '|'), ('లో', 'U'), ('నై', 'U'), ('న', '|'), ('నే', 'U'), ('కం', 'U'), ('దుం', 'U'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('వ', 'U'), ('జ్ర', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('గా', 'U'), ('పు', 'U'), ('న్న', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('బా', 'U'), ('ఱం', 'U'), ('దో', 'U'), ('లుం', 'U'), ('బ', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('నౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>వృథగా దెవ్వఁడు నిన్నుఁ గొల్చినఁ గృపన్ వీక్షించి వాఁ డేమనో
 రథముల్ వేఁడిన నట్లె సేయుదువుగా రక్షావిధేయుండవై
@@ -1467,32 +1374,29 @@
 రథివై తర్జునుతేరిఁ దోల రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('వృ', '|'), ('థ', '|'), ('గా', 'U'), ('దె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('గృ', '|'), ('పన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వా', 'U'), ('డే', 'U'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('ముల్', 'U'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('న', 'U'), ('ట్లె', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('వు', '|'), ('గా', 'U'), ('ర', 'U'), ('క్షా', 'U'), ('వి', '|'), ('ధే', 'U'), ('యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('క', '|'), ('థ', '|'), ('గా', 'U'), ('దీ', 'U'), ('వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('ని', 'U'), ('క్క', '|'), ('మ', '|'), ('టు', '|'), ('లే', 'U'), ('కా', 'U'), ('దే', 'U'), ('ని', '|'), ('ము', 'U'), ('న్నే', 'U'), ('ల', '|'), ('సా', 'U'), ('ర', '|'), ('థి', '|'), ('వై', 'U'), ('త', 'U'), ('ర్జు', '|'), ('ను', '|'), ('తే', 'U'), ('రి', '|'), ('దో', 'U'), ('ల', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>ఘనసారంబును లోనికిం గొనిన శ్రీగంధంబుఁ బైఁ బూసినన్
 దినమున్ మర్దనఁ జేసినం గడిగినన్ దిష్టంబులోనం దొలం
@@ -1500,32 +1404,29 @@
 రని మూఢాత్ముల నేమి చెప్ప రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('ను', '|'), ('లో', 'U'), ('ని', '|'), ('కిం', 'U'), ('గొ', '|'), ('ని', '|'), ('న', 'U'), ('శ్రీ', 'U'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('బై', 'U'), ('బూ', 'U'), ('సి', '|'), ('నన్', 'U'), ('ది', '|'), ('న', '|'), ('మున్', 'U'), ('మ', '|'), ('ర్ద', '|'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('నం', 'U'), ('గ', '|'), ('డి', '|'), ('గి', '|'), ('నన్', 'U'), ('ది', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('లో', 'U'), ('నం', 'U'), ('దొ', '|'), ('లం', 'U'), ('గ', '|'), ('ని', '|'), ('దు', 'U'), ('ర్గం', 'U'), ('ధ', '|'), ('ము', '|'), ('నై', 'U'), ('జ', '|'), ('మీ', 'U'), ('ము', '|'), ('ఱి', '|'), ('కి', '|'), ('డొ', '|'), ('క్కల్', 'U'), ('న', 'U'), ('మ్మి', '|'), ('ని', 'U'), ('న్గొ', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('ల', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>ఇనుమా రాశ్రితు నిల్ప; వాడ వినుమా రేమాటయున్; సాయకం
 బినుమా రాహవభూమిఁ బూన; విదిగా కింకొండు మేలంచు నీ
@@ -1533,32 +1434,29 @@
 గ్రనిశాటాంతక! రామభద్ర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ను', '|'), ('మా', 'U'), ('రా', 'U'), ('శ్రి', '|'), ('తు', '|'), ('ని', 'U'), ('ల్ప', '|'), ('వా', 'U'), ('డ', '|'), ('వి', '|'), ('ను', '|'), ('మా', 'U'), ('రే', 'U'), ('మా', 'U'), ('ట', '|'), ('యు', 'U'), ('న్సా', 'U'), ('య', '|'), ('కం', 'U'), ('బి', '|'), ('ను', '|'), ('మా', 'U'), ('రా', 'U'), ('హ', '|'), ('వ', '|'), ('భూ', 'U'), ('మి', '|'), ('బూ', 'U'), ('న', '|'), ('వి', '|'), ('ది', '|'), ('గా', 'U'), ('కిం', 'U'), ('కొం', 'U'), ('డు', '|'), ('మే', 'U'), ('లం', 'U'), ('చు', '|'), ('నీ', 'U'), ('వి', '|'), ('ను', '|'), ('మా', 'U'), ('రీ', 'U'), ('దు', '|'), ('రి', '|'), ('తాం', 'U'), ('ధ', '|'), ('కా', 'U'), ('ర', '|'), ('ప', '|'), ('ట', '|'), ('లం', 'U'), ('బే', 'U'), ('రీ', 'U'), ('తి', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('తు', '|'), ('వు', 'U'), ('గ్ర', '|'), ('ని', '|'), ('శా', 'U'), ('టాం', 'U'), ('త', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>మును నే నెన్నఁడు వేదశాస్త్రపఠనంబుల్ రిత్తతీర్థాటనం
 బును దానంబును జేయఁ బోను సతతంబున్ నిన్ను సేవించి కీ
@@ -1566,32 +1464,29 @@
 రన నా దుష్కృతముల్ దొలంగు? రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ను', '|'), ('నే', 'U'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ప', '|'), ('ఠ', '|'), ('నం', 'U'), ('బుల్', 'U'), ('రి', 'U'), ('త్త', '|'), ('తీ', 'U'), ('ర్థా', 'U'), ('ట', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('బో', 'U'), ('ను', '|'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('జే', 'U'), ('యన్', 'U'), ('మ', '|'), ('తి', '|'), ('లే', 'U'), ('దు', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('న', '|'), ('క', 'U'), ('ర్థం', 'U'), ('బ', 'U'), ('ల్ప', '|'), ('మిం', 'U'), ('కె', 'U'), ('ట్లు', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('నా', 'U'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('ముల్', 'U'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>విను నా కెన్నియొ దోసముల్ గలవు నొప్పిం బొందఁగా మ్రంద ర
 మ్మని రౌద్రంబుగఁ గాలుబంటు లన నే రాఁపేరు? నా పేరుఁ బె
@@ -1599,32 +1494,29 @@
 రన సాయమ్మయి యడ్డగింపు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ను', '|'), ('నా', 'U'), ('కె', 'U'), ('న్ని', '|'), ('యొ', '|'), ('దో', 'U'), ('స', '|'), ('ముల్', 'U'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('నొ', 'U'), ('ప్పిం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('మ్రం', 'U'), ('ద', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('రౌ', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('గ', '|'), ('గా', 'U'), ('లు', '|'), ('బం', 'U'), ('టు', '|'), ('ల', '|'), ('న', '|'), ('నే', 'U'), ('రా', 'U'), ('పే', 'U'), ('రు', '|'), ('నా', 'U'), ('పే', 'U'), ('రు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('వా', 'U'), ('నిన్', 'U'), ('బ', '|'), ('ర', '|'), ('లో', 'U'), ('క', '|'), ('దూ', 'U'), ('రు', '|'), ('డ', '|'), ('ని', '|'), ('యం', 'U'), ('డ్రే', 'U'), ('పొం', 'U'), ('డు', '|'), ('పొం', 'U'), ('డం', 'U'), ('చు', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('సా', 'U'), ('య', 'U'), ('మ్మ', '|'), ('యి', '|'), ('య', 'U'), ('డ్డ', '|'), ('గిం', 'U'), ('పు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>అనఘంబైన దశాశ్వమేధకృత పుణ్యస్ఫూర్తి నీకొక్క మా
 టు నమస్కారము సేయఁ గల్గునని విందున్; యాగధర్మంబులున్
@@ -1632,32 +1524,29 @@
 ర్జననంబేది దలంచి చూడ రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('ఘం', 'U'), ('బై', 'U'), ('న', '|'), ('ద', '|'), ('శా', 'U'), ('శ్వ', '|'), ('మే', 'U'), ('ధ', '|'), ('కృ', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('కొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('టు', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('ర', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('ని', '|'), ('విం', 'U'), ('దు', 'U'), ('న్యా', 'U'), ('గ', '|'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('లున్', 'U'), ('గొ', '|'), ('న', '|'), ('సా', 'U'), ('గు', 'U'), ('న్జ', '|'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('లు', 'U'), ('క్క', '|'), ('డ', '|'), ('గు', '|'), ('నీ', 'U'), ('కున్', 'U'), ('మ్రొ', 'U'), ('క్కె', '|'), ('నే', 'U'), ('నిన్', 'U'), ('బు', '|'), ('న', 'U'), ('ర్జ', '|'), ('న', '|'), ('నం', 'U'), ('బే', 'U'), ('ది', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>దనుజారి జ్వలనాంతకాసుర సముద్రస్వామి వాయు త్రిలో
 చనమిత్రాభవ సూర్యసోమధరణీజాతాంబుజాత ద్విష
@@ -1665,32 +1554,29 @@
 ర్తనముల్ నీ విభవంబులౌర రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రి', 'U'), ('జ్వ', '|'), ('ల', '|'), ('నాం', 'U'), ('త', '|'), ('కా', 'U'), ('సు', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('ద్ర', 'U'), ('స్వా', 'U'), ('మి', '|'), ('వా', 'U'), ('యు', 'U'), ('త్రి', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('మి', 'U'), ('త్రా', 'U'), ('భ', '|'), ('వ', '|'), ('సూ', 'U'), ('ర్య', '|'), ('సో', 'U'), ('మ', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('జా', 'U'), ('తాం', 'U'), ('బు', '|'), ('జా', 'U'), ('త', 'U'), ('ద్వి', '|'), ('ష', 'U'), ('జ్జ', '|'), ('న', '|'), ('నాం', 'U'), ('గీ', 'U'), ('ర', '|'), ('స', '|'), ('శు', 'U'), ('క్ర', '|'), ('భా', 'U'), ('ను', '|'), ('త', '|'), ('న', '|'), ('య', 'U'), ('స్వ', 'U'), ('ర్భా', 'U'), ('ను', '|'), ('కే', 'U'), ('తు', 'U'), ('ప్ర', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('లౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>కనుఁగొన్నప్పుడె గుప్పఁడే కుజనులం గాలుండు కాలుండు పొం
 డనుచున్ రౌరవనారకాగ్నులఁ బడన్ హత్తించి, యయ్యగ్నుల
@@ -1698,32 +1584,29 @@
 గ్రనిశాటాంతక! రామభద్ర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ను', '|'), ('గొ', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('గు', 'U'), ('ప్ప', '|'), ('డే', 'U'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('లం', 'U'), ('గా', 'U'), ('లుం', 'U'), ('డు', '|'), ('కా', 'U'), ('లుం', 'U'), ('డు', '|'), ('పొం', 'U'), ('డ', '|'), ('ను', '|'), ('చున్', 'U'), ('రౌ', 'U'), ('ర', '|'), ('వ', '|'), ('నా', 'U'), ('ర', '|'), ('కా', 'U'), ('గ్ను', '|'), ('ల', '|'), ('బ', '|'), ('డన్', 'U'), ('హ', 'U'), ('త్తిం', 'U'), ('చి', '|'), ('య', 'U'), ('య్య', 'U'), ('గ్ను', '|'), ('ల', 'U'), ('న్ము', '|'), ('ను', '|'), ('గం', 'U'), ('జా', 'U'), ('ల', '|'), ('బ', '|'), ('రే', 'U'), ('త', '|'), ('రా', 'U'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('న', 'U'), ('న్నొ', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('బో', 'U'), ('వ', '|'), ('కు', 'U'), ('గ్ర', '|'), ('ని', '|'), ('శా', 'U'), ('టాం', 'U'), ('త', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>నిను సేవించెద నంచుఁ గోరుకొనియున్నేన్ వానికిం బూర్వక
 ర్మనిమిత్తంబులు కష్టముల్ గలుఁగఁగా మన్నించి నీవడ్డ మౌ
@@ -1731,32 +1614,29 @@
 రన రక్షించుట కల్దొ లేదొ రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('సే', 'U'), ('విం', 'U'), ('చె', '|'), ('ద', '|'), ('నం', 'U'), ('చు', '|'), ('గో', 'U'), ('రు', '|'), ('కొ', '|'), ('ని', '|'), ('యు', '|'), ('న్నేన్', 'U'), ('వా', 'U'), ('ని', '|'), ('కిం', 'U'), ('బూ', 'U'), ('ర్వ', '|'), ('క', '|'), ('ర్మ', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లు', '|'), ('క', 'U'), ('ష్ట', '|'), ('ముల్', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గా', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('వ', 'U'), ('డ్డ', '|'), ('మౌ', 'U'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పం', 'U'), ('బ', '|'), ('డు', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('దిం', 'U'), ('గ', '|'), ('రి', '|'), ('ని', 'U'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దున్', 'U'), ('ధ్రు', '|'), ('వున్', 'U'), ('ము', 'U'), ('న్ను', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('ట', '|'), ('క', 'U'), ('ల్దొ', '|'), ('లే', 'U'), ('దొ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>అనిశంబున్ నినుఁ గొల్చు మానవులు ప్రాణాంతంబునన్ రోగబా
 ధ నిమిత్తంబున రామరామ యనుచున్ దల్పంగ లేకుండినన్
@@ -1764,32 +1644,29 @@
 రన రామా! యనిపింతు వౌర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ని', '|'), ('శం', 'U'), ('బున్', 'U'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లు', 'U'), ('ప్రా', 'U'), ('ణాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('రో', 'U'), ('గ', '|'), ('బా', 'U'), ('ధ', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('ను', '|'), ('చున్', 'U'), ('ద', 'U'), ('ల్పం', 'U'), ('గ', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('జ', '|'), ('న', '|'), ('నా', 'U'), ('థా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('నీ', 'U'), ('వు', '|'), ('వా', 'U'), ('రి', '|'), ('ర', '|'), ('స', '|'), ('నా', 'U'), ('స్థా', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('న్ని', 'U'), ('ల్చి', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('య', '|'), ('ని', '|'), ('పిం', 'U'), ('తు', '|'), ('వౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>ఇనవంశోత్తమ! వేదశాస్త్రములలో నే వింటి నేవింటి వాఁ
 డును నీకుం బ్రతిగాఁడు, నీకుఁ గల బంటు, న్నన్ను రక్షింపు; కా
@@ -1797,32 +1674,29 @@
 ఱ నమోఘాస్త్రము విల్లుఁ బూని రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('న', '|'), ('వం', 'U'), ('శో', 'U'), ('త్త', '|'), ('మ', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('నే', 'U'), ('విం', 'U'), ('టి', '|'), ('నే', 'U'), ('విం', 'U'), ('టి', '|'), ('వా', 'U'), ('డు', '|'), ('ను', '|'), ('నీ', 'U'), ('కుం', 'U'), ('బ్ర', '|'), ('తి', '|'), ('గా', 'U'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('గ', '|'), ('ల', '|'), ('బం', 'U'), ('టు', 'U'), ('న్న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('కా', 'U'), ('లు', '|'), ('ని', '|'), ('బం', 'U'), ('ట్లన్', 'U'), ('వి', '|'), ('ద', '|'), ('ళిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('నా', 'U'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('గం', 'U'), ('డు', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', '|'), ('మో', 'U'), ('ఘా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('వి', 'U'), ('ల్లు', '|'), ('బూ', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>జననాథాగ్రణి! నిన్నుఁ గొల్చునతఁ డాచండాలుఁడైనం బున
 ర్జననం బొందక ముక్తిఁ గాంచు నొనరన్ సద్భక్తుఁడైనం దుదిన్,
@@ -1830,32 +1704,29 @@
 ర్తన సేయ న్నిరసించెనేని రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('నా', 'U'), ('థా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('న', '|'), ('త', '|'), ('డా', 'U'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('డై', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('ర్జ', '|'), ('న', '|'), ('నం', 'U'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('ము', 'U'), ('క్తి', '|'), ('గాం', 'U'), ('చు', '|'), ('నొ', '|'), ('న', '|'), ('రన్', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డై', 'U'), ('నం', 'U'), ('దు', '|'), ('ది', 'U'), ('న్జ', '|'), ('ను', '|'), ('జం', 'U'), ('డా', 'U'), ('ల', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('యిం', 'U'), ('చం', 'U'), ('గో', 'U'), ('రి', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('య', 'U'), ('న్ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>జనకుం డెవ్వఁడు నీకు? నీ కడుపులో సర్వంబు నుండంగ నీ
 యునికి స్థానము దుగ్ధవార్ధి నడుమన్ యోగీంద్రహృద్గేహ! యే
@@ -1863,32 +1734,29 @@
 ర్తన రాజన్యయశోవిహార రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('నీ', 'U'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('లో', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నుం', 'U'), ('డం', 'U'), ('గ', '|'), ('నీ', 'U'), ('యు', '|'), ('ని', '|'), ('కి', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('దు', 'U'), ('గ్ధ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('న', '|'), ('డు', '|'), ('మన్', 'U'), ('యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('హృ', 'U'), ('ద్గే', 'U'), ('హ', '|'), ('యే', 'U'), ('మ', '|'), ('ని', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పు', '|'), ('దు', '|'), ('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లు', '|'), ('స', 'U'), ('ర్వా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('రా', 'U'), ('జ', 'U'), ('న్య', '|'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>జనకుండా జనకుండు నీ సతికిఁ, గౌసల్యా యహల్యాఘమో
 చన!నిన్ గాంచిన తల్లి, పంక్తిరథుఁడా సర్వేశ! మీ తండ్రి, యే
@@ -1896,32 +1764,29 @@
 గ్రనిశాటాంతక! రామభద్ర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డా', 'U'), ('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('గౌ', 'U'), ('స', 'U'), ('ల్యా', 'U'), ('య', '|'), ('హ', 'U'), ('ల్యా', 'U'), ('ఘ', '|'), ('మో', 'U'), ('చ', '|'), ('న', '|'), ('నిన్', 'U'), ('గాం', 'U'), ('చి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('పం', 'U'), ('క్తి', '|'), ('ర', '|'), ('థు', '|'), ('డా', 'U'), ('స', 'U'), ('ర్వే', 'U'), ('శ', '|'), ('మీ', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('యే', 'U'), ('మి', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('ద్భ', '|'), ('విం', 'U'), ('చి', '|'), ('తి', '|'), ('వొ', '|'), ('నె', 'U'), ('మ్మి', 'U'), ('న్ని', 'U'), ('ట్టు', '|'), ('లీ', 'U'), ('పు', 'U'), ('ట్టు', '|'), ('వు', 'U'), ('గ్ర', '|'), ('ని', '|'), ('శా', 'U'), ('టాం', 'U'), ('త', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>హనుమంతుం డొక యబ్ధి దాఁటె నని యేలా ప్రస్తుతుల్ సేయఁగా
 దనుజారాతి! భవత్పదాబ్జములు హృత్పద్మంబున న్నిల్పు నా
@@ -1929,32 +1794,29 @@
 రన నెన్నైనను గొంకులేక రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('ను', '|'), ('మం', 'U'), ('తుం', 'U'), ('డొ', '|'), ('క', '|'), ('య', 'U'), ('బ్ధి', '|'), ('దా', 'U'), ('టె', '|'), ('న', '|'), ('ని', '|'), ('యే', 'U'), ('లా', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('తుల్', 'U'), ('సే', 'U'), ('య', '|'), ('గా', 'U'), ('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రా', 'U'), ('తి', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('లు', '|'), ('హృ', 'U'), ('త్ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('న', 'U'), ('న్ని', 'U'), ('ల్పు', '|'), ('నా', 'U'), ('ఘ', '|'), ('న', '|'), ('పు', 'U'), ('ణ్యుం', 'U'), ('డు', '|'), ('భ', '|'), ('వాం', 'U'), ('బు', '|'), ('రా', 'U'), ('శు', '|'), ('లు', '|'), ('తృ', '|'), ('ణీ', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('దా', 'U'), ('టు', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('నె', 'U'), ('న్నై', 'U'), ('న', '|'), ('ను', '|'), ('గొం', 'U'), ('కు', '|'), ('లే', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>నీ పాదోదక మక్షులం దదుముకొంటిం, గొంటి నాలోనికిన్,
 నీ పళ్లెంబు ప్రసాదముం గుడిచితిన్, నీ పేరునుం బెట్టితిన్,
@@ -1962,32 +1824,29 @@
 బ్రాపై ప్రోచెదొ కాని పూని రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('పా', 'U'), ('దో', 'U'), ('ద', '|'), ('క', '|'), ('మ', 'U'), ('క్షు', '|'), ('లం', 'U'), ('ద', '|'), ('దు', '|'), ('ము', '|'), ('కొం', 'U'), ('టిం', 'U'), ('గొం', 'U'), ('టి', '|'), ('నా', 'U'), ('లో', 'U'), ('ని', '|'), ('కి', 'U'), ('న్నీ', 'U'), ('ప', 'U'), ('ళ్లెం', 'U'), ('బు', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('ముం', 'U'), ('గు', '|'), ('డి', '|'), ('చి', '|'), ('తి', 'U'), ('న్నీ', 'U'), ('పే', 'U'), ('రు', '|'), ('నుం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('తి', 'U'), ('న్నీ', 'U'), ('పె', 'U'), ('న్ము', '|'), ('ద్ర', '|'), ('లు', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తిన్', 'U'), ('భు', '|'), ('జ', '|'), ('ము', '|'), ('ల', 'U'), ('న్నీ', 'U'), ('విం', 'U'), ('క', '|'), ('న', 'U'), ('న్నే', 'U'), ('గ', '|'), ('తిన్', 'U'), ('బ్రా', 'U'), ('పై', 'U'), ('ప్రో', 'U'), ('చె', '|'), ('దొ', '|'), ('కా', 'U'), ('ని', '|'), ('పూ', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>తపముల్ చేసినఁ బోనిపాపములు మంత్రంబుల్ సమర్థంబుగా
 జపముల్ చేసినఁ బోని దోషము నదీస్నానంబునం బోని ఘో
@@ -1995,32 +1854,29 @@
 ర్ణపుటం బించుక సోఁకెనేని రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ప', '|'), ('ముల్', 'U'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('బో', 'U'), ('ని', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బుల్', 'U'), ('స', '|'), ('మ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('గా', 'U'), ('జ', '|'), ('ప', '|'), ('ముల్', 'U'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('బో', 'U'), ('ని', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('న', '|'), ('దీ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బు', '|'), ('నం', 'U'), ('బో', 'U'), ('ని', '|'), ('ఘో', 'U'), ('ర', '|'), ('పు', '|'), ('గ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('లు', '|'), ('వా', 'U'), ('యు', '|'), ('నొ', 'U'), ('క్క', '|'), ('మ', '|'), ('ఱి', 'U'), ('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('య', '|'), ('నే', 'U'), ('మా', 'U'), ('ట', '|'), ('క', 'U'), ('ర్ణ', '|'), ('పు', '|'), ('టం', 'U'), ('బిం', 'U'), ('చు', '|'), ('క', '|'), ('సో', 'U'), ('కె', '|'), ('నే', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>కంపింతున్ మును దండధారికిని మత్కాయంబు వీక్షించి శం
 కింపం గారణ మేమి నాకిఁక నినున్ గీర్తించుచున్నాఁడ; బల్
@@ -2028,32 +1884,29 @@
 ఱంపంబైనది నీ చరిత్ర రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('పిం', 'U'), ('తున్', 'U'), ('ము', '|'), ('ను', '|'), ('దం', 'U'), ('డ', '|'), ('ధా', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('మ', 'U'), ('త్కా', 'U'), ('యం', 'U'), ('బు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('శం', 'U'), ('కిం', 'U'), ('పం', 'U'), ('గా', 'U'), ('ర', '|'), ('ణ', '|'), ('మే', 'U'), ('మి', '|'), ('నా', 'U'), ('కి', '|'), ('క', '|'), ('ని', '|'), ('నున్', 'U'), ('గీ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('బల్', 'U'), ('దుం', 'U'), ('పల్', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('ఘో', 'U'), ('ర', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('ధు', 'U'), ('ల్గో', 'U'), ('సి', '|'), ('వే', 'U'), ('యం', 'U'), ('గ', '|'), ('బల్', 'U'), ('ఱం', 'U'), ('పం', 'U'), ('బై', 'U'), ('న', '|'), ('ది', '|'), ('నీ', 'U'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>నీ మంత్రంబు సదా సదాశివుఁడు పత్నీయుక్తుఁడై కాశిలో
 నేమం బొప్ప జపించె నంచు శ్రుతులన్ని న్నిన్నె వర్ణింపఁగా
@@ -2061,32 +1914,29 @@
 రామా! రాఘవ! రామభద్ర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('స', '|'), ('దా', 'U'), ('స', '|'), ('దా', 'U'), ('శి', '|'), ('వు', '|'), ('డు', '|'), ('ప', 'U'), ('త్నీ', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('కా', 'U'), ('శి', '|'), ('లో', 'U'), ('నే', 'U'), ('మం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('జ', '|'), ('పిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చు', 'U'), ('శ్రు', '|'), ('తు', '|'), ('ల', 'U'), ('న్ని', 'U'), ('న్ని', 'U'), ('న్నె', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('మా', 'U'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('తిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ర', '|'), ('మ', '|'), ('యి', '|'), ('నన్', 'U'), ('ని', 'U'), ('న్నెం', 'U'), ('తు', '|'), ('నో', 'U'), ('రా', 'U'), ('ర', '|'), ('గా', 'U'), ('రా', 'U'), ('మా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>నీ మంత్రంబు జపించు మానవులకున్ నిశ్శ్రేయ మౌ నర్థముల్
 హేమంబు ల్గొడుగుల్ తురంగములు మత్తేభంబు లాందోళికల్
@@ -2094,32 +1944,29 @@
 రామారత్నము లేమిలెక్క రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('జ', '|'), ('పిం', 'U'), ('చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('కున్', 'U'), ('ని', 'U'), ('శ్శ్రే', 'U'), ('య', '|'), ('మౌ', 'U'), ('న', 'U'), ('ర్థ', '|'), ('ముల్', 'U'), ('హే', 'U'), ('మం', 'U'), ('బు', 'U'), ('ల్గొ', '|'), ('డు', '|'), ('గుల్', 'U'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('మ', 'U'), ('త్తే', 'U'), ('భం', 'U'), ('బు', '|'), ('లాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కల్', 'U'), ('గ్రా', 'U'), ('మం', 'U'), ('బుల్', 'U'), ('న', '|'), ('గ', '|'), ('రం', 'U'), ('బు', '|'), ('లున్', 'U'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('ముల్', 'U'), ('రా', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('లున్', 'U'), ('ర', 'U'), ('త్న', '|'), ('ముల్', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('లే', 'U'), ('మి', '|'), ('లె', 'U'), ('క్క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>గోమేధాధ్వర వాజిమేధశతముల్ గోదాన భూదానముల్
 హేమాద్రుల్ తిలపర్వతంబులు సువర్ణేభాశ్వదానంబులున్
@@ -2127,32 +1974,29 @@
 రామా! రాఘవ! రామభద్ర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('గో', 'U'), ('మే', 'U'), ('ధా', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('వా', 'U'), ('జి', '|'), ('మే', 'U'), ('ధ', '|'), ('శ', '|'), ('త', '|'), ('ముల్', 'U'), ('గో', 'U'), ('దా', 'U'), ('న', '|'), ('భూ', 'U'), ('దా', 'U'), ('న', '|'), ('ముల్', 'U'), ('హే', 'U'), ('మా', 'U'), ('ద్రుల్', 'U'), ('తి', '|'), ('ల', '|'), ('ప', 'U'), ('ర్వ', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణే', 'U'), ('భా', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('లున్', 'U'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('క్ష', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('తో', 'U'), ('నే', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('ముల్', 'U'), ('పో', 'U'), ('ల', '|'), ('వో', 'U'), ('రా', 'U'), ('మా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>గోమాంసాశని, మద్యపాని, నగరిన్ గొండీఁడుఁ, చండాలుఁడున్
 హేమస్తేయుఁడు, సోదరీరతుఁడు, గూ డేకాదశిన్ భుక్తిగొ
@@ -2160,32 +2004,29 @@
 రామా! యన్నను ముక్తిఁ గాంచు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('గో', 'U'), ('మాం', 'U'), ('సా', 'U'), ('శ', '|'), ('ని', '|'), ('మ', 'U'), ('ద్య', '|'), ('పా', 'U'), ('ని', '|'), ('న', '|'), ('గ', '|'), ('రిన్', 'U'), ('గొం', 'U'), ('డీ', 'U'), ('డు', '|'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('డున్', 'U'), ('హే', 'U'), ('మ', 'U'), ('స్తే', 'U'), ('యు', '|'), ('డు', '|'), ('సో', 'U'), ('ద', '|'), ('రీ', 'U'), ('ర', '|'), ('తు', '|'), ('డు', '|'), ('గూ', 'U'), ('డే', 'U'), ('కా', 'U'), ('ద', '|'), ('శిన్', 'U'), ('భు', 'U'), ('క్తి', '|'), ('గొ', 'U'), ('న్నా', 'U'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('డు', '|'), ('లో', 'U'), ('ను', '|'), ('గా', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('చా', 'U'), ('రు', '|'), ('డై', 'U'), ('నం', 'U'), ('దు', '|'), ('దిన్', 'U'), ('రా', 'U'), ('మా', 'U'), ('య', 'U'), ('న్న', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('గాం', 'U'), ('చు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>ఏమీ పాతకులార! మా పురికి రా రీపట్టునం దున్నత
 శ్రీమైఁ బోయెద రెందుకన్న జమునిం గ్రేగన్నులం జూచుచున్
@@ -2193,32 +2034,29 @@
 రామయ్యా! నినుఁ గొల్చువారు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('మీ', 'U'), ('పా', 'U'), ('త', '|'), ('కు', '|'), ('లా', 'U'), ('ర', '|'), ('మా', 'U'), ('పు', '|'), ('రి', '|'), ('కి', '|'), ('రా', 'U'), ('రీ', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('నం', 'U'), ('దు', 'U'), ('న్న', '|'), ('త', 'U'), ('శ్రీ', 'U'), ('మై', 'U'), ('బో', 'U'), ('యె', '|'), ('ద', '|'), ('రెం', 'U'), ('దు', '|'), ('క', 'U'), ('న్న', '|'), ('జ', '|'), ('ము', '|'), ('నిం', 'U'), ('గ్రే', 'U'), ('గ', 'U'), ('న్ను', '|'), ('లం', 'U'), ('జూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('రా', 'U'), ('మ', 'U'), ('య్యా', 'U'), ('యి', '|'), ('క', '|'), ('నం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('య', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', 'U'), ('స్థా', 'U'), ('న', '|'), ('మున్', 'U'), ('జొ', 'U'), ('త్తు', '|'), ('రో', 'U'), ('రా', 'U'), ('మ', 'U'), ('య్యా', 'U'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>స్వామిద్రోహికిఁ దమ్ముఁడెట్లు? ఘనరాజ్యంబేల నీవిచ్చుటె?
 ట్లామాటల్ విని కాదె నిన్నడుగ నత్యాసక్తి నాకున్న దొ
@@ -2226,32 +2064,29 @@
 గ్రామం బొక్కటి చాలు నాకు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('స్వా', 'U'), ('మి', '|'), ('ద్రో', 'U'), ('హి', '|'), ('కి', '|'), ('ద', 'U'), ('మ్ము', '|'), ('డె', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('న', '|'), ('రా', 'U'), ('జ్యం', 'U'), ('బే', 'U'), ('ల', '|'), ('నీ', 'U'), ('వి', 'U'), ('చ్చు', '|'), ('టె', 'U'), ('ట్లా', 'U'), ('మా', 'U'), ('టల్', 'U'), ('వి', '|'), ('ని', '|'), ('కా', 'U'), ('దె', '|'), ('ని', 'U'), ('న్న', '|'), ('డు', '|'), ('గ', '|'), ('న', 'U'), ('త్యా', 'U'), ('స', 'U'), ('క్తి', '|'), ('నా', 'U'), ('కు', 'U'), ('న్న', '|'), ('దొ', 'U'), ('డ్డే', 'U'), ('మిన్', 'U'), ('ప', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('వే', 'U'), ('స', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('వి', '|'), ('నే', 'U'), ('నీ', 'U'), ('రా', 'U'), ('దె', '|'), ('నీ', 'U'), ('సీ', 'U'), ('మ', '|'), ('లో', 'U'), ('గ్రా', 'U'), ('మం', 'U'), ('బొ', 'U'), ('క్క', '|'), ('టి', '|'), ('చా', 'U'), ('లు', '|'), ('నా', 'U'), ('కు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>మామా యంచును మామ యంచు నెపుడే మా యల్లుఁ డుద్యద్గతిన్
 హేమాద్రిప్రతిమానమైన యొక విల్లేపార మో పెట్టఁగా
@@ -2259,32 +2094,29 @@
 రామా! రాఘవ! రామభద్ర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('మా', 'U'), ('యం', 'U'), ('చు', '|'), ('ను', '|'), ('మా', 'U'), ('మ', '|'), ('యం', 'U'), ('చు', '|'), ('నె', '|'), ('పు', '|'), ('డే', 'U'), ('మా', 'U'), ('య', 'U'), ('ల్లు', '|'), ('డు', 'U'), ('ద్య', 'U'), ('ద్గ', '|'), ('తిన్', 'U'), ('హే', 'U'), ('మా', 'U'), ('ద్రి', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('యొ', '|'), ('క', '|'), ('వి', 'U'), ('ల్లే', 'U'), ('పా', 'U'), ('ర', '|'), ('మో', 'U'), ('పె', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('సా', 'U'), ('మ', 'U'), ('ర్థ్యం', 'U'), ('బు', '|'), ('న', '|'), ('మే', 'U'), ('టి', '|'), ('యీ', 'U'), ('త', '|'), ('డ', '|'), ('ని', '|'), ('నీ', 'U'), ('స', 'U'), ('త్త్వం', 'U'), ('బె', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('నో', 'U'), ('రా', 'U'), ('మా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>కమురం గ్రాఁగిన లోభివాని తల పున్కం, గుక్కమాంసంబు మ
 ద్యముతో వండుచుఁ దిన్న మాలఁడయినం, దత్పాపకర్మంబులన్
@@ -2292,32 +2124,29 @@
 త్రముఁ బేర్కొన్నను నొంటిమిట్ట రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ము', '|'), ('రం', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('న', '|'), ('లో', 'U'), ('భి', '|'), ('వా', 'U'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('న్కం', 'U'), ('గు', 'U'), ('క్క', '|'), ('మాం', 'U'), ('సం', 'U'), ('బు', '|'), ('మ', 'U'), ('ద్య', '|'), ('ము', '|'), ('తో', 'U'), ('వం', 'U'), ('డు', '|'), ('చు', '|'), ('ది', 'U'), ('న్న', '|'), ('మా', 'U'), ('ల', '|'), ('డ', '|'), ('యి', '|'), ('నం', 'U'), ('ద', 'U'), ('త్పా', 'U'), ('ప', '|'), ('క', '|'), ('ర్మం', 'U'), ('బు', '|'), ('లన్', 'U'), ('య', '|'), ('మ', '|'), ('కూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('బ', '|'), ('డ', '|'), ('డు', '|'), ('జి', 'U'), ('హ్వా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('నన్', 'U'), ('రా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('బే', 'U'), ('ర్కొ', 'U'), ('న్న', '|'), ('ను', '|'), ('నొం', 'U'), ('టి', '|'), ('మి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>యమకూపంబుల లోపలం బడి మహాహైన్యంబునుం బొందకుం
 డ ముదంబారఁగ నన్నుఁ బ్రోచి కరుణన్ సాయుజ్యమిమ్మీ తుదిన్
@@ -2325,32 +2154,29 @@
 భ్రమరంబుం బలెఁ బాపదూర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('య', '|'), ('మ', '|'), ('కూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('మ', '|'), ('హా', 'U'), ('హై', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('ము', '|'), ('దం', 'U'), ('బా', 'U'), ('ర', '|'), ('గ', '|'), ('న', 'U'), ('న్ను', 'U'), ('బ్రో', 'U'), ('చి', '|'), ('క', '|'), ('రు', '|'), ('ణన్', 'U'), ('సా', 'U'), ('యు', 'U'), ('జ్య', '|'), ('మి', 'U'), ('మ్మీ', 'U'), ('తు', '|'), ('దిన్', 'U'), ('గ్రి', '|'), ('మి', '|'), ('రూ', 'U'), ('పుం', 'U'), ('ద', '|'), ('న', '|'), ('రూ', 'U'), ('పు', '|'), ('గా', 'U'), ('బె', '|'), ('ని', '|'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పన్', 'U'), ('వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('చు', '|'), ('నా', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రం', 'U'), ('బుం', 'U'), ('బ', '|'), ('లె', '|'), ('బా', 'U'), ('ప', '|'), ('దూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>మమకారంబున సర్వకాలమును నీ మంత్రంబు వాక్రుచ్చు డెం
 దము నాకుం గలుగంగని మ్మటులయైనన్ మృత్యువక్త్రమ్ము దూ
@@ -2358,32 +2184,29 @@
 రము గాకుండును మాకుఁ జేర రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('మ', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ను', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చు', '|'), ('డెం', 'U'), ('ద', '|'), ('ము', '|'), ('నా', 'U'), ('కుం', 'U'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గ', '|'), ('ని', 'U'), ('మ్మ', '|'), ('టు', '|'), ('ల', '|'), ('యై', 'U'), ('నన్', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వ', 'U'), ('క్త్ర', 'U'), ('మ్ము', '|'), ('దూ', 'U'), ('ఱ', '|'), ('ము', '|'), ('ని', '|'), ('న్నున్', 'U'), ('మ', '|'), ('తి', '|'), ('దూ', 'U'), ('ఱ', '|'), ('మం', 'U'), ('త', '|'), ('న', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', 'U'), ('స్వ', 'U'), ('ర్గ', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('దూ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('కుం', 'U'), ('డు', '|'), ('ను', '|'), ('మా', 'U'), ('కు', '|'), ('జే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>తమ గర్వంబునఁ దారు పొంగిపడుచున్ దైవంబు మంత్రంబుఁ దం
 త్రములన్ వీడఁగ నాడుచున్ దిరుగు నిర్భాగ్యుల్ మహారాజులై
@@ -2391,32 +2214,29 @@
 ద్రమతిన్ వేడఁగఁ బోవుటెట్లు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('మ', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('న', '|'), ('దా', 'U'), ('రు', '|'), ('పొం', 'U'), ('గి', '|'), ('ప', '|'), ('డు', '|'), ('చున్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('దం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లన్', 'U'), ('వీ', 'U'), ('డ', '|'), ('గ', '|'), ('నా', 'U'), ('డు', '|'), ('చున్', 'U'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('గ్యుల్', 'U'), ('మ', '|'), ('హా', 'U'), ('రా', 'U'), ('జు', '|'), ('లై', 'U'), ('మ', '|'), ('ము', '|'), ('నూ', 'U'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('ము', '|'), ('ని', 'U'), ('న్నె', '|'), ('ఱి', '|'), ('గి', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బె', '|'), ('ఱిం', 'U'), ('గిన్', 'U'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('మ', '|'), ('తిన్', 'U'), ('వే', 'U'), ('డ', '|'), ('గ', '|'), ('బో', 'U'), ('వు', '|'), ('టె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>హిమధామ ప్రతిమాన కాంతియుతులై యింద్రాది దిక్పాలకుల్
 తములన్ స్తోత్రముచేయ నుండుదురు నీ దాసానుదాసుల్ సుర
@@ -2424,32 +2244,29 @@
 రములన్ మీఱుచు మీరు చూడ రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('హి', '|'), ('మ', '|'), ('ధా', 'U'), ('మ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('కాం', 'U'), ('తి', '|'), ('యు', '|'), ('తు', '|'), ('లై', 'U'), ('యిం', 'U'), ('ద్రా', 'U'), ('ది', '|'), ('ది', 'U'), ('క్పా', 'U'), ('ల', '|'), ('కుల్', 'U'), ('త', '|'), ('ము', '|'), ('లన్', 'U'), ('స్తో', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('య', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సా', 'U'), ('ను', '|'), ('దా', 'U'), ('సుల్', 'U'), ('సు', '|'), ('ర', 'U'), ('ప్ర', '|'), ('మ', '|'), ('దా', 'U'), ('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('పా', 'U'), ('ట', '|'), ('లా', 'U'), ('ధ', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('పా', 'U'), ('నా', 'U'), ('ది', '|'), ('కే', 'U'), ('లీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లన్', 'U'), ('మీ', 'U'), ('ఱు', '|'), ('చు', '|'), ('మీ', 'U'), ('రు', '|'), ('చూ', 'U'), ('డ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>మిమ్ముం గొల్చి తలంచి పాపముల నెమ్మిన్ సోఁక రానీక నే
 నెమ్మిన్ సౌఖ్యముఁ బొందువాఁడ ననుచున్ నీ మూర్తి భావించెదన్
@@ -2457,32 +2274,29 @@
 రమ్మా నన్నుఁ గృతార్థుఁ జేయ రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('మి', 'U'), ('మ్ముం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('నె', '|'), ('మ్మిన్', 'U'), ('సో', 'U'), ('క', '|'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('నే', 'U'), ('నె', '|'), ('మ్మిన్', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('బొం', 'U'), ('దు', '|'), ('వా', 'U'), ('డ', '|'), ('న', '|'), ('ను', '|'), ('చున్', 'U'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('భా', 'U'), ('విం', 'U'), ('చె', '|'), ('దన్', 'U'), ('ర', 'U'), ('మ్మా', 'U'), ('వీ', 'U'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('మే', 'U'), ('ల', '|'), ('ని', '|'), ('కృ', '|'), ('పన్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('నా', 'U'), ('లో', 'U'), ('ని', '|'), ('కిన్', 'U'), ('ర', 'U'), ('మ్మా', 'U'), ('న', 'U'), ('న్ను', '|'), ('గృ', '|'), ('తా', 'U'), ('ర్థు', '|'), ('జే', 'U'), ('య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>ప్రమదారత్న మహల్య గౌతముని శాపప్రాప్తి పాషాణరూ
 పముతోఁ బెక్కుయుగంబులుండఁగ హరబ్రహ్మాదులుం బాపలే
@@ -2490,32 +2304,29 @@
 రము నేనేమని సన్నుతింతు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('మ', '|'), ('దా', 'U'), ('ర', 'U'), ('త్న', '|'), ('మ', '|'), ('హ', 'U'), ('ల్య', '|'), ('గౌ', 'U'), ('త', '|'), ('ము', '|'), ('ని', '|'), ('శా', 'U'), ('ప', 'U'), ('ప్రా', 'U'), ('ప్తి', '|'), ('పా', 'U'), ('షా', 'U'), ('ణ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('తో', 'U'), ('బె', 'U'), ('క్కు', '|'), ('యు', '|'), ('గం', 'U'), ('బు', '|'), ('లుం', 'U'), ('డ', '|'), ('గ', '|'), ('హ', '|'), ('ర', 'U'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('దు', '|'), ('లుం', 'U'), ('బా', 'U'), ('ప', '|'), ('లే', 'U'), ('ని', '|'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('పా', 'U'), ('ప', '|'), ('నో', 'U'), ('పి', '|'), ('న', '|'), ('ది', '|'), ('గా', 'U'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('రే', 'U'), ('ణు', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('నే', 'U'), ('నే', 'U'), ('మ', '|'), ('ని', '|'), ('స', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('తు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>నా యజ్ఞానముఁ బాపుమంచు మదిలో నానాప్రకారంబులన్
 గూయం గూయ నదేమిరా యనవు నీకున్ మ్రొక్కనా? కుక్కనా?
@@ -2523,32 +2334,29 @@
 బ్రాయశ్చిత్తము నాకునెద్ది? రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('య', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('బా', 'U'), ('పు', '|'), ('మం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నా', 'U'), ('నా', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గూ', 'U'), ('యం', 'U'), ('గూ', 'U'), ('య', '|'), ('న', '|'), ('దే', 'U'), ('మి', '|'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('వు', '|'), ('నీ', 'U'), ('కున్', 'U'), ('మ్రొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('కు', 'U'), ('క్క', '|'), ('నా', 'U'), ('చీ', 'U'), ('యం', 'U'), ('చే', 'U'), ('టి', '|'), ('కి', '|'), ('రో', 'U'), ('త', '|'), ('గిం', 'U'), ('చె', '|'), ('ద', '|'), ('వు', '|'), ('నీ', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('రా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('బ్రా', 'U'), ('య', 'U'), ('శ్చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నా', 'U'), ('కు', '|'), ('నె', 'U'), ('ద్ది', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>నియమంబొప్ప ననేకజన్మములనుండిన్ దాఁచుకొన్నట్టి సం
 చయదోషంబుల మాటమాత్రమున దోఁచంబోవు చోరత్వ మె
@@ -2556,32 +2364,29 @@
 రయ నిన్ను న్వివరించుటెట్లు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('య', '|'), ('మం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('నుం', 'U'), ('డిన్', 'U'), ('దా', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('సం', 'U'), ('చ', '|'), ('య', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('దో', 'U'), ('చం', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('ర', 'U'), ('త్వ', '|'), ('మె', 'U'), ('న్ని', '|'), ('యు', '|'), ('పా', 'U'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('న', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('యో', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('వే', 'U'), ('యు', '|'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('ని', 'U'), ('న్ను', 'U'), ('న్వి', '|'), ('వ', '|'), ('రిం', 'U'), ('చు', '|'), ('టె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>సకృపాలోకన! నందగోపుని తనూజాతుండవై గొల్లవై
 సకలక్షోణుల నేలినాఁడవఁట, మించం గశ్యపబ్రహ్మ గ
@@ -2589,32 +2394,29 @@
 రక దానంబుగ వేఁడుకొంటి రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('కృ', '|'), ('పా', 'U'), ('లో', 'U'), ('క', '|'), ('న', '|'), ('నం', 'U'), ('ద', '|'), ('గో', 'U'), ('పు', '|'), ('ని', '|'), ('త', '|'), ('నూ', 'U'), ('జా', 'U'), ('తుం', 'U'), ('డ', '|'), ('వై', 'U'), ('గొ', 'U'), ('ల్ల', '|'), ('వై', 'U'), ('స', '|'), ('క', '|'), ('ల', 'U'), ('క్షో', 'U'), ('ణు', '|'), ('ల', '|'), ('నే', 'U'), ('లి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('మిం', 'U'), ('చం', 'U'), ('గ', 'U'), ('శ్య', '|'), ('ప', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('గ', 'U'), ('న్న', '|'), ('కు', '|'), ('మా', 'U'), ('రుం', 'U'), ('డ', '|'), ('న', '|'), ('మి', 'U'), ('న్ను', '|'), ('ము', 'U'), ('ట్టి', '|'), ('కు', '|'), ('ఱు', '|'), ('చై', 'U'), ('నా', 'U'), ('డే', 'U'), ('ల', '|'), ('నా', 'U'), ('డే', 'U'), ('ల', '|'), ('నే', 'U'), ('ర', '|'), ('క', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('గ', '|'), ('వే', 'U'), ('డు', '|'), ('కొం', 'U'), ('టి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>చీరల్ దీయకు చన్నుగుబ్బల పయిం జీకాకుగాఁ గాకుగాఁ
 జీరల్ దీయకు మందబోయఁడిదె వచ్చే బ్రొద్దు రావల్దు నా
@@ -2622,32 +2424,29 @@
 ప్రారంభం బిపుడేల నీకు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('చీ', 'U'), ('రల్', 'U'), ('దీ', 'U'), ('య', '|'), ('కు', '|'), ('చ', 'U'), ('న్ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ప', '|'), ('యిం', 'U'), ('జీ', 'U'), ('కా', 'U'), ('కు', '|'), ('గా', 'U'), ('గా', 'U'), ('కు', '|'), ('గా', 'U'), ('జీ', 'U'), ('రల్', 'U'), ('దీ', 'U'), ('య', '|'), ('కు', '|'), ('మం', 'U'), ('ద', '|'), ('బో', 'U'), ('య', '|'), ('డి', '|'), ('దె', '|'), ('వ', 'U'), ('చ్చే', 'U'), ('బ్రొ', 'U'), ('ద్దు', '|'), ('రా', 'U'), ('వ', 'U'), ('ల్దు', '|'), ('నా', 'U'), ('జా', 'U'), ('రా', 'U'), ('మే', 'U'), ('ల', '|'), ('ను', '|'), ('జా', 'U'), ('ర', '|'), ('లం', 'U'), ('గ', '|'), ('వ', '|'), ('యు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('యే', 'U'), ('క', '|'), ('ప', 'U'), ('త్నీ', 'U'), ('వ్ర', '|'), ('త', 'U'), ('ప్రా', 'U'), ('రం', 'U'), ('భం', 'U'), ('బి', '|'), ('పు', '|'), ('డే', 'U'), ('ల', '|'), ('నీ', 'U'), ('కు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>తిరునామంబు ధరింపఁడేని నొసలన్ దిక్పూరితంబైన నీ
 వరనామంబుఁ దలంపఁడేని మదిలో వాంఛించి నీ పాదపం
@@ -2655,32 +2454,29 @@
 ర్పరి వైకుంఠపురంబుఁ జేర రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('రు', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ధ', '|'), ('రిం', 'U'), ('ప', '|'), ('డే', 'U'), ('ని', '|'), ('నొ', '|'), ('స', '|'), ('లన్', 'U'), ('ది', 'U'), ('క్పూ', 'U'), ('రి', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('వ', '|'), ('ర', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('డే', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('వాం', 'U'), ('ఛిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('రు', '|'), ('హ', 'U'), ('శ్రీ', 'U'), ('తు', '|'), ('ల', '|'), ('సీ', 'U'), ('ద', '|'), ('ళో', 'U'), ('ద', '|'), ('క', '|'), ('ము', '|'), ('ద్రా', 'U'), ('గం', 'U'), ('డే', 'U'), ('ని', '|'), ('వా', 'U'), ('డే', 'U'), ('టి', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('జే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>శరణంబన్నను మాటమాత్రమున విశ్వద్రోహి తోఁబుట్టుకున్
 గరుణాపూర్ణవిలోకనం బొదవ లంకారాజ్యసింహాసన
@@ -2688,32 +2484,29 @@
 ర్వరలోనన్ భవరోగదూర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('బ', 'U'), ('న్న', '|'), ('ను', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('వి', 'U'), ('శ్వ', '|'), ('ద్రో', 'U'), ('హి', '|'), ('తో', 'U'), ('బు', 'U'), ('ట్టు', '|'), ('కున్', 'U'), ('గ', '|'), ('రు', '|'), ('ణా', 'U'), ('పూ', 'U'), ('ర్ణ', '|'), ('వి', '|'), ('లో', 'U'), ('క', '|'), ('నం', 'U'), ('బొ', '|'), ('ద', '|'), ('వ', '|'), ('లం', 'U'), ('కా', 'U'), ('రా', 'U'), ('జ్య', '|'), ('సిం', 'U'), ('హా', 'U'), ('స', '|'), ('న', 'U'), ('స్థి', '|'), ('ర', '|'), ('ప', 'U'), ('ట్టం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('యే', 'U'), ('దే', 'U'), ('వుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('సా', 'U'), ('టి', '|'), ('యు', 'U'), ('ర్వ', '|'), ('ర', '|'), ('లో', 'U'), ('నన్', 'U'), ('భ', '|'), ('వ', '|'), ('రో', 'U'), ('గ', '|'), ('దూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>పరనారీ కుచకుంభపాలికలపైఁ బాదాబ్జయుగ్మంబుపైఁ
 గరమూలంబులపైఁ గపోలతటిపైఁ గంఠంబుపైఁ గొప్పుపైఁ
@@ -2721,32 +2514,29 @@
 ర్వరసాధీశ్వర! నన్నుఁ బ్రోవు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('పా', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('పై', 'U'), ('బా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బు', '|'), ('పై', 'U'), ('గ', '|'), ('ర', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('పై', 'U'), ('గ', '|'), ('పో', 'U'), ('ల', '|'), ('త', '|'), ('టి', '|'), ('పై', 'U'), ('గం', 'U'), ('ఠం', 'U'), ('బు', '|'), ('పై', 'U'), ('గొ', 'U'), ('ప్పు', '|'), ('పై', 'U'), ('బ', '|'), ('రు', '|'), ('వుల్', 'U'), ('వా', 'U'), ('ఱె', '|'), ('డు', '|'), ('నా', 'U'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('లు', '|'), ('మి', '|'), ('మున్', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('స', 'U'), ('ర్వ', '|'), ('ర', '|'), ('సా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('న', 'U'), ('న్ను', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>నరకుల్ క్రాఁగిన యిన్పకంబముల నంటంగట్టఁగాఁ గొట్టఁగాఁ
 బొరలం బొర్లఁగఁ గక్కరాలఁ గొని వీఁపు ల్గోయఁగా వ్రేయఁగా
@@ -2754,32 +2544,29 @@
 ర్మరణంబు ల్గని చన్నవారు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('కుల్', 'U'), ('క్రా', 'U'), ('గి', '|'), ('న', '|'), ('యి', 'U'), ('న్ప', '|'), ('కం', 'U'), ('బ', '|'), ('ము', '|'), ('ల', '|'), ('నం', 'U'), ('టం', 'U'), ('గ', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('గొ', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('బొ', '|'), ('ర', '|'), ('లం', 'U'), ('బొ', 'U'), ('ర్ల', '|'), ('గ', '|'), ('గ', 'U'), ('క్క', '|'), ('రా', 'U'), ('ల', '|'), ('గొ', '|'), ('ని', '|'), ('వీ', 'U'), ('పు', 'U'), ('ల్గో', 'U'), ('య', '|'), ('గా', 'U'), ('వ్రే', 'U'), ('య', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('వా', 'U'), ('సు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('వ', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('దు', '|'), ('ర్మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', 'U'), ('ల్గ', '|'), ('ని', '|'), ('చ', 'U'), ('న్న', '|'), ('వా', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>పురసంహారుని చాపమున్ జివుకువంబున్ ద్రుంచి పోఁజూచినన్
 బరశూదగ్రభుజుండు పోవిడుచునే భంజించుఁగాకంచు ని
@@ -2787,32 +2574,29 @@
 ర్భరశాంతంబునఁ గాచితౌర రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('పు', '|'), ('ర', '|'), ('సం', 'U'), ('హా', 'U'), ('రు', '|'), ('ని', '|'), ('చా', 'U'), ('ప', '|'), ('మున్', 'U'), ('జి', '|'), ('వు', '|'), ('కు', '|'), ('వం', 'U'), ('బున్', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('పో', 'U'), ('జూ', 'U'), ('చి', '|'), ('నన్', 'U'), ('బ', '|'), ('ర', '|'), ('శూ', 'U'), ('ద', 'U'), ('గ్ర', '|'), ('భు', '|'), ('జుం', 'U'), ('డు', '|'), ('పో', 'U'), ('వి', '|'), ('డు', '|'), ('చు', '|'), ('నే', 'U'), ('భం', 'U'), ('జిం', 'U'), ('చు', '|'), ('గా', 'U'), ('కం', 'U'), ('చు', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('ముల్', 'U'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వున్', 'U'), ('భు', '|'), ('జ', '|'), ('బ', '|'), ('లా', 'U'), ('టో', 'U'), ('పం', 'U'), ('బు', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('శాం', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('గా', 'U'), ('చి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>స్మరసంహారుఁడు కోరి పొత్తున భుజింపన్ బిల్వ నే రాను, శ్రీ
 హరినామంబులు  వేయునెన్నవలె నిత్యంబైన నోమన్న నో
@@ -2820,32 +2604,29 @@
 త్రరహస్యంబుఁ దలంతు నేను రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('స్మ', '|'), ('ర', '|'), ('సం', 'U'), ('హా', 'U'), ('రు', '|'), ('డు', '|'), ('కో', 'U'), ('రి', '|'), ('పొ', 'U'), ('త్తు', '|'), ('న', '|'), ('భు', '|'), ('జిం', 'U'), ('పన్', 'U'), ('బి', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('రా', 'U'), ('ను', 'U'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('లె', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బై', 'U'), ('న', '|'), ('నో', 'U'), ('మ', 'U'), ('న్న', '|'), ('నో', 'U'), ('య', '|'), ('ర', '|'), ('విం', 'U'), ('దా', 'U'), ('న', '|'), ('న', '|'), ('వే', 'U'), ('యు', '|'), ('నే', 'U'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('య', 'U'), ('న్న', '|'), ('జా', 'U'), ('ల', 'U'), ('న్న', '|'), ('మం', 'U'), ('త్ర', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('నే', 'U'), ('ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>బాలత్వంబునఁ గొంతకాలము వృథా పాపంపు దుర్బుద్ధినై
 చాలన్ జవ్వనమందు గర్వమతినై సంసారినై దుష్క్రియా
@@ -2853,32 +2634,29 @@
 రాళంబైనది చింత వంత రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('ల', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('గొం', 'U'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('వృ', '|'), ('థా', 'U'), ('పా', 'U'), ('పం', 'U'), ('పు', '|'), ('దు', 'U'), ('ర్బు', 'U'), ('ద్ధి', '|'), ('నై', 'U'), ('చా', 'U'), ('లన్', 'U'), ('జ', 'U'), ('వ్వ', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('గ', 'U'), ('ర్వ', '|'), ('మ', '|'), ('తి', '|'), ('నై', 'U'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('నై', 'U'), ('దు', 'U'), ('ష్క్రి', '|'), ('యా', 'U'), ('జా', 'U'), ('ల', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('జ', '|'), ('రిం', 'U'), ('తు', '|'), ('గా', 'U'), ('ని', '|'), ('ని', '|'), ('ను', '|'), ('గాం', 'U'), ('క్షం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('లే', 'U'), ('ద', 'U'), ('య్య', '|'), ('హే', 'U'), ('రా', 'U'), ('ళం', 'U'), ('బై', 'U'), ('న', '|'), ('ది', '|'), ('చిం', 'U'), ('త', '|'), ('వం', 'U'), ('త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>సాలగ్రామ శిలాశిలోచ్చయ గయాస్నాన ప్రయాగస్థలుల్
 పోలం జూచెద నంచుఁ బోవఁదలఁతున్ బోలేను మీదాసులన్
@@ -2886,32 +2664,29 @@
 రాళంబైనది చింత వంత రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('ల', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('శి', '|'), ('లా', 'U'), ('శి', '|'), ('లో', 'U'), ('చ్చ', '|'), ('య', '|'), ('గ', '|'), ('యా', 'U'), ('స్నా', 'U'), ('న', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('గ', 'U'), ('స్థ', '|'), ('లుల్', 'U'), ('పో', 'U'), ('లం', 'U'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('నం', 'U'), ('చు', '|'), ('బో', 'U'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('తున్', 'U'), ('బో', 'U'), ('లే', 'U'), ('ను', '|'), ('మీ', 'U'), ('దా', 'U'), ('సు', '|'), ('లన్', 'U'), ('బో', 'U'), ('లం', 'U'), ('గా', 'U'), ('న', '|'), ('గ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('ది', '|'), ('క', '|'), ('నే', 'U'), ('బు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('డౌ', 'U'), ('టె', 'U'), ('ట్లు', '|'), ('హే', 'U'), ('రా', 'U'), ('ళం', 'U'), ('బై', 'U'), ('న', '|'), ('ది', '|'), ('చిం', 'U'), ('త', '|'), ('వం', 'U'), ('త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>కొలువం జాలక మాన, నీ నుతులు పెక్కుల్ సేయుటన్ మాన, నిన్
 దలఁపం జాలక మాన, నేఁ గలసి నీ దాసానువర్గంబుతో
@@ -2919,32 +2694,29 @@
 రలకుం గల్గును మోక్షలక్ష్మి రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('లు', '|'), ('వం', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('నీ', 'U'), ('ను', '|'), ('తు', '|'), ('లు', '|'), ('పె', '|'), ('క్కుల్', 'U'), ('సే', 'U'), ('యు', '|'), ('టన్', 'U'), ('మా', 'U'), ('న', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('నే', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('నీ', 'U'), ('దా', 'U'), ('సా', 'U'), ('ను', '|'), ('వ', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('తో', 'U'), ('ని', '|'), ('లు', '|'), ('వం', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('బో', 'U'), ('క', '|'), ('డ', '|'), ('ప', '|'), ('టన్', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('వి', 'U'), ('న్న', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కుం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('మో', 'U'), ('క్ష', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>తలఁపం జిత్రము మీ మహత్త్వములు మీ దాసుల్ మహాభాగ్యవం
 తులు త్రైలోక్యమునన్ బదస్థుఁడు ధ్రువుం డుండున్ నభోమండలిన్,
@@ -2952,32 +2724,29 @@
 ప్రలయంబైనను బోవరౌర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ల', '|'), ('పం', 'U'), ('జి', 'U'), ('త్ర', '|'), ('ము', '|'), ('మీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('దా', 'U'), ('సుల్', 'U'), ('మ', '|'), ('హా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('లు', 'U'), ('త్రై', 'U'), ('లో', 'U'), ('క్య', '|'), ('ము', '|'), ('నన్', 'U'), ('బ', '|'), ('ద', 'U'), ('స్థు', '|'), ('డు', 'U'), ('ధ్రు', '|'), ('వుం', 'U'), ('డుం', 'U'), ('డున్', 'U'), ('న', '|'), ('భో', 'U'), ('మం', 'U'), ('డ', '|'), ('లి', 'U'), ('న్బ', '|'), ('లి', '|'), ('పా', 'U'), ('తా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', 'U'), ('న్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డు', '|'), ('భూ', 'U'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('నం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('జ', 'U'), ('ప్ర', '|'), ('ల', '|'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('బో', 'U'), ('వ', '|'), ('రౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>చెలఁగన్ మర్త్యులు వేగి లేచి తమిచేఁ జేయంగఁ బాపంబు లీ
 కలుషంబుల్ పెడఁబాయ నేదిగతి? యింకన్ ద్రోవ యొండెద్ది? పు
@@ -2985,32 +2754,29 @@
 రలు నీ సేవకు లౌట లెస్స రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('ల', '|'), ('గన్', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('లు', '|'), ('వే', 'U'), ('గి', '|'), ('లే', 'U'), ('చి', '|'), ('త', '|'), ('మి', '|'), ('చే', 'U'), ('జే', 'U'), ('యం', 'U'), ('గ', '|'), ('బా', 'U'), ('పం', 'U'), ('బు', '|'), ('లీ', 'U'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బుల్', 'U'), ('పె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('నే', 'U'), ('ది', '|'), ('గ', '|'), ('తి', '|'), ('యిం', 'U'), ('కన్', 'U'), ('ద్రో', 'U'), ('వ', '|'), ('యొం', 'U'), ('డె', 'U'), ('ద్ది', '|'), ('పు', 'U'), ('ర్వు', '|'), ('ల', '|'), ('గుం', 'U'), ('టం', 'U'), ('బ', '|'), ('డ', '|'), ('నీ', 'U'), ('ని', '|'), ('పో', 'U'), ('క', '|'), ('డ', '|'), ('యు', '|'), ('నే', 'U'), ('ర్పున్', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('యుం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('లౌ', 'U'), ('ట', '|'), ('లె', 'U'), ('స్స', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>కలకాలంబు వ్రతంబులుం దపములుం గావించి యన్యు ల్తుదిన్
 గలకాలంబును బోలె నిర్జరపురీకాంతాకుచాలింగనం
@@ -3018,32 +2784,29 @@
 ర్మలముక్తిన్ నినుఁ గొల్చి కాంతు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', 'U'), ('వ్ర', '|'), ('తం', 'U'), ('బు', '|'), ('లుం', 'U'), ('ద', '|'), ('ప', '|'), ('ము', '|'), ('లుం', 'U'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('య', 'U'), ('న్యు', 'U'), ('ల్తు', '|'), ('దిన్', 'U'), ('గ', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('ని', 'U'), ('ర్జ', '|'), ('ర', '|'), ('పు', '|'), ('రీ', 'U'), ('కాం', 'U'), ('తా', 'U'), ('కు', '|'), ('చా', 'U'), ('లిం', 'U'), ('గ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('గొ', 'U'), ('న్నా', 'U'), ('ళ్లు', '|'), ('సు', '|'), ('ఖిం', 'U'), ('చి', 'U'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('ని', '|'), ('లం', 'U'), ('బు', 'U'), ('ట్టం', 'U'), ('గ', '|'), ('నే', 'U'), ('మె', 'U'), ('చ్చ', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('ము', '|'), ('క్తిన్', 'U'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('కాం', 'U'), ('తు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>నిలువెల్లం బులకాంకురంబు లొదవన్ నీపాదతీర్థంబుతోఁ
 దులసీపర్ణ మొకించుకంత గొనినన్ దోషాలు ఖండించుఁ గా!
@@ -3051,32 +2814,29 @@
 రలను న్నారల నేల గల్గు? రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('లు', '|'), ('వె', 'U'), ('ల్లం', 'U'), ('బు', '|'), ('ల', '|'), ('కాం', 'U'), ('కు', '|'), ('రం', 'U'), ('బు', '|'), ('లొ', '|'), ('ద', '|'), ('వన్', 'U'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('తో', 'U'), ('దు', '|'), ('ల', '|'), ('సీ', 'U'), ('ప', 'U'), ('ర్ణ', '|'), ('మొ', '|'), ('కిం', 'U'), ('చు', '|'), ('కం', 'U'), ('త', '|'), ('గొ', '|'), ('ని', '|'), ('నన్', 'U'), ('దో', 'U'), ('షా', 'U'), ('లు', '|'), ('ఖం', 'U'), ('డిం', 'U'), ('చు', '|'), ('గా', 'U'), ('పొ', '|'), ('ల', '|'), ('పా', 'U'), ('కుల్', 'U'), ('ది', '|'), ('న', '|'), ('గా', 'U'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('బ', '|'), ('డిన్', 'U'), ('బో', 'U'), ('నే', 'U'), ('ల', '|'), ('మో', 'U'), ('క్షం', 'U'), ('బు', '|'), ('కూ', 'U'), ('ర', '|'), ('ల', '|'), ('ను', 'U'), ('న్నా', 'U'), ('ర', '|'), ('ల', '|'), ('నే', 'U'), ('ల', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>చెలువంబొప్ప సువర్ణముద్ర లితరుల్ చెల్లించుటే క్రొత్త, కా
 కల నీ ముద్రలు చూడఁ జెల్లుబడి చక్రాలంచు వేయించుమం
@@ -3084,32 +2844,29 @@
 ద్రలు చెల్లించితి విందు నందు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ద్ర', '|'), ('లి', '|'), ('త', '|'), ('రుల్', 'U'), ('చె', 'U'), ('ల్లిం', 'U'), ('చు', '|'), ('టే', 'U'), ('క్రొ', 'U'), ('త్త', '|'), ('కా', 'U'), ('క', '|'), ('ల', '|'), ('నీ', 'U'), ('ము', '|'), ('ద్ర', '|'), ('లు', '|'), ('చూ', 'U'), ('డ', '|'), ('జె', 'U'), ('ల్లు', '|'), ('బ', '|'), ('డి', '|'), ('చ', 'U'), ('క్రా', 'U'), ('లం', 'U'), ('చు', '|'), ('వే', 'U'), ('యిం', 'U'), ('చు', '|'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('నా', 'U'), ('థా', 'U'), ('గ్ర', '|'), ('ణి', 'U'), ('క్రొ', 'U'), ('త్త', '|'), ('నీ', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('నా', 'U'), ('నా', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('పుం', 'U'), ('దో', 'U'), ('లు', '|'), ('ము', '|'), ('ద్ర', '|'), ('లు', '|'), ('చె', 'U'), ('ల్లిం', 'U'), ('చి', '|'), ('తి', '|'), ('విం', 'U'), ('దు', '|'), ('నం', 'U'), ('దు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>ప్రళయాపాదిత కాలమృత్యువగు నీ రాకాసి రాకాశివా
 దులు వారింపఁగ నేర రింక నెటఁ జొత్తుం జత్తుఁ గాకన్న సం
@@ -3117,32 +2874,29 @@
 ర్బలశక్తిన్ విలసిల్లితౌర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('ళ', '|'), ('యా', 'U'), ('పా', 'U'), ('ది', '|'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వ', '|'), ('గు', '|'), ('నీ', 'U'), ('రా', 'U'), ('కా', 'U'), ('సి', '|'), ('రా', 'U'), ('కా', 'U'), ('శి', '|'), ('వా', 'U'), ('దు', '|'), ('లు', '|'), ('వా', 'U'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('రిం', 'U'), ('క', '|'), ('నె', '|'), ('ట', '|'), ('జొ', 'U'), ('త్తుం', 'U'), ('జ', 'U'), ('త్తు', '|'), ('గా', 'U'), ('క', 'U'), ('న్న', '|'), ('సం', 'U'), ('చ', '|'), ('లి', '|'), ('తుం', 'U'), ('గౌ', 'U'), ('శి', '|'), ('కు', '|'), ('గా', 'U'), ('చి', '|'), ('తా', 'U'), ('ట', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('స్త్ర', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('చే', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('దో', 'U'), ('ర్బ', '|'), ('ల', '|'), ('శ', '|'), ('క్తిన్', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>చిలుకన్ ముద్దులు చిల్క బిల్చుతఱి రాజీవాక్షి యొక్కర్తు ని
 చ్చలు రామా రఘురామ రావె యనినన్ సాలోక్యసాయుజ్యమున్
@@ -3150,32 +2904,29 @@
 రల పుణ్యంబున కెద్దిమేర రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('లు', '|'), ('కన్', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('లు', '|'), ('చి', 'U'), ('ల్క', '|'), ('బి', 'U'), ('ల్చు', '|'), ('త', '|'), ('ఱి', '|'), ('రా', 'U'), ('జీ', 'U'), ('వా', 'U'), ('క్షి', '|'), ('యొ', 'U'), ('క్క', 'U'), ('ర్తు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('వె', '|'), ('య', '|'), ('ని', '|'), ('నన్', 'U'), ('సా', 'U'), ('లో', 'U'), ('క్య', '|'), ('సా', 'U'), ('యు', 'U'), ('జ్య', '|'), ('మున్', 'U'), ('కొ', '|'), ('ల', '|'), ('దు', 'U'), ('ల్మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('ని', '|'), ('న్నున్', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('పే', 'U'), ('రి', 'U'), ('డ్డ', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('న', '|'), ('కె', 'U'), ('ద్ది', '|'), ('మే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>ఇల నిన్నుం దొలుబామునం దలఁప నే నీజన్మమందైన నా
 తలఁపు ల్మీపదపంకజంబులపయిన్ దాపింతు నే నింక బు
@@ -3183,32 +2934,29 @@
 ర్మలతాబంధము మాపవయ్య! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('ని', 'U'), ('న్నుం', 'U'), ('దొ', '|'), ('లు', '|'), ('బా', 'U'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('నే', 'U'), ('నీ', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మం', 'U'), ('దై', 'U'), ('న', '|'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('ల్మీ', 'U'), ('ప', '|'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('జం', 'U'), ('బు', '|'), ('ల', '|'), ('ప', '|'), ('యిన్', 'U'), ('దా', 'U'), ('పిం', 'U'), ('తు', '|'), ('నే', 'U'), ('నిం', 'U'), ('క', '|'), ('బు', 'U'), ('ట్ట', '|'), ('ల', '|'), ('లో', 'U'), ('జె', 'U'), ('ట్టు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('వు', '|'), ('ల', '|'), ('బు', 'U'), ('ట్టం', 'U'), ('బు', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('నో', 'U'), ('ప', '|'), ('గ', '|'), ('ర్మ', '|'), ('ల', '|'), ('తా', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('మా', 'U'), ('ప', '|'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>ఇల నీ మీఁదను జాలభక్తిగలవాఁ డేచెట్టవాఁడైన నే
 ఖలుఁడైనం దుది నుత్తమోత్తముఁడగున్ గాదన్నఁ గొంగీడ్చెదన్
@@ -3216,32 +2964,29 @@
 స్త్ర లసద్వాక్యనుత ప్రతాప! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('ను', '|'), ('జా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డే', 'U'), ('చె', 'U'), ('ట్ట', '|'), ('వా', 'U'), ('డై', 'U'), ('న', '|'), ('నే', 'U'), ('ఖ', '|'), ('లు', '|'), ('డై', 'U'), ('నం', 'U'), ('దు', '|'), ('ది', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ము', '|'), ('డ', '|'), ('గున్', 'U'), ('గా', 'U'), ('ద', 'U'), ('న్న', '|'), ('గొం', 'U'), ('గీ', 'U'), ('డ్చె', '|'), ('దన్', 'U'), ('దె', '|'), ('లు', '|'), ('ప', 'U'), ('న్ని', 'U'), ('ల్చి', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('కొ', 'U'), ('న్న', '|'), ('ప', '|'), ('ర', '|'), ('వా', 'U'), ('దిన్', 'U'), ('గె', 'U'), ('ల్చె', '|'), ('దన్', 'U'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ల', '|'), ('స', 'U'), ('ద్వా', 'U'), ('క్య', '|'), ('ను', '|'), ('త', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>దేవా! నాదొక విన్నపంబు గల దేదీ యంటివా వింటివా
 త్రోవం దండధరుండు దుర్గతులకై త్రోవన్ విచారించునో
@@ -3249,32 +2994,29 @@
 రావే వెంబడి నింతనంత రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('దే', 'U'), ('వా', 'U'), ('నా', 'U'), ('దొ', '|'), ('క', '|'), ('వి', 'U'), ('న్న', '|'), ('పం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('దీ', 'U'), ('యం', 'U'), ('టి', '|'), ('వా', 'U'), ('విం', 'U'), ('టి', '|'), ('వా', 'U'), ('త్రో', 'U'), ('వం', 'U'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('రుం', 'U'), ('డు', '|'), ('దు', 'U'), ('ర్గ', '|'), ('తు', '|'), ('ల', '|'), ('కై', 'U'), ('త్రో', 'U'), ('వన్', 'U'), ('వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యే', 'U'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('రా', 'U'), ('దే', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కిం', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('రా', 'U'), ('వే', 'U'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('నిం', 'U'), ('త', '|'), ('నం', 'U'), ('త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>గోవం దొల్తటి జన్మకాలముల నీకుం బంటఁ గానైతి నం
 చీవక్రంబులె కాక నాకు నివి లక్షింపంగ జన్మంబులా
@@ -3282,32 +3024,29 @@
 రావా నా మది కింకనైన రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('గో', 'U'), ('వం', 'U'), ('దొ', 'U'), ('ల్త', '|'), ('టి', '|'), ('జ', 'U'), ('న్మ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('కుం', 'U'), ('బం', 'U'), ('ట', '|'), ('గా', 'U'), ('నై', 'U'), ('తి', '|'), ('నం', 'U'), ('చీ', 'U'), ('వ', 'U'), ('క్రం', 'U'), ('బు', '|'), ('లె', '|'), ('కా', 'U'), ('క', '|'), ('నా', 'U'), ('కు', '|'), ('ని', '|'), ('వి', '|'), ('ల', 'U'), ('క్షిం', 'U'), ('పం', 'U'), ('గ', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('లా', 'U'), ('చా', 'U'), ('వుం', 'U'), ('బు', 'U'), ('ట్టు', '|'), ('వు', '|'), ('మా', 'U'), ('న్పు', '|'), ('కో', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('నీ', 'U'), ('జ', 'U'), ('న్మా', 'U'), ('న', '|'), ('నీ', 'U'), ('వా', 'U'), ('డ', '|'), ('నై', 'U'), ('రా', 'U'), ('వా', 'U'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('కిం', 'U'), ('క', '|'), ('నై', 'U'), ('న', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>చావు ల్మర్త్యులకెల్లఁ గల్గుటలు నిస్సందేహముల్ దేహముల్
 చేవ ల్గల్గిననాఁడె శ్రీగిరి గయా శ్రీవేంకటాహోబిల
@@ -3315,32 +3054,29 @@
 ర్యావాణీస్తుత మోక్షలక్ష్మి? రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('వు', 'U'), ('ల్మ', 'U'), ('ర్త్యు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('లు', '|'), ('ని', 'U'), ('స్సం', 'U'), ('దే', 'U'), ('హ', '|'), ('ముల్', 'U'), ('దే', 'U'), ('హ', '|'), ('ముల్', 'U'), ('చే', 'U'), ('వ', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నా', 'U'), ('డె', 'U'), ('శ్రీ', 'U'), ('గి', '|'), ('రి', '|'), ('గ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('వేం', 'U'), ('క', '|'), ('టా', 'U'), ('హో', 'U'), ('బి', '|'), ('ల', 'U'), ('గ్రా', 'U'), ('వ', 'U'), ('ప్రాం', 'U'), ('త', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('జే', 'U'), ('ర', '|'), ('వ', '|'), ('లె', '|'), ('జే', 'U'), ('రం', 'U'), ('బో', 'U'), ('వ', '|'), ('కే', 'U'), ('ల', 'U'), ('బ్బు', '|'), ('నా', 'U'), ('ర్యా', 'U'), ('వా', 'U'), ('ణీ', 'U'), ('స్తు', '|'), ('త', '|'), ('మో', 'U'), ('క్ష', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>త్రోవన్ మానవుఁ డొంటిఁబోవుతఱి నీస్తోత్రంబు వాక్రుచ్చినన్
 నీవుం దమ్ముఁడుఁ దోడువత్తురటె నీ నెయ్యంబు తియ్యంబుగా
@@ -3348,32 +3084,29 @@
 ప్రావీణ్యుండును లేఁడు చూడ రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('త్రో', 'U'), ('వన్', 'U'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డొం', 'U'), ('టి', '|'), ('బో', 'U'), ('వు', '|'), ('త', '|'), ('ఱి', '|'), ('నీ', 'U'), ('స్తో', 'U'), ('త్రం', 'U'), ('బు', '|'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('నీ', 'U'), ('వుం', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('డు', '|'), ('దో', 'U'), ('డు', '|'), ('వ', 'U'), ('త్తు', '|'), ('ర', '|'), ('టె', '|'), ('నీ', 'U'), ('నె', 'U'), ('య్యం', 'U'), ('బు', '|'), ('తి', 'U'), ('య్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('నీ', 'U'), ('వం', 'U'), ('టా', 'U'), ('ప్తు', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బో', 'U'), ('లు', '|'), ('హి', '|'), ('తు', '|'), ('డున్', 'U'), ('నీ', 'U'), ('వం', 'U'), ('టి', '|'), ('భ', 'U'), ('క్త', 'U'), ('ప్రి', '|'), ('య', 'U'), ('ప్రా', 'U'), ('వీ', 'U'), ('ణ్యుం', 'U'), ('డు', '|'), ('ను', '|'), ('లే', 'U'), ('డు', '|'), ('చూ', 'U'), ('డ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>నవనీతంబుల కేల పాఱెదవురా నాయన్న! రా! యెన్నరా
 యివి దూష్యంబులు గాఁగ గోపికలు? నీయింటం బదార్థంబు లె
@@ -3381,32 +3114,29 @@
 రవినోదంబులు నేఁ దలంతు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('వ', '|'), ('నీ', 'U'), ('తం', 'U'), ('బు', '|'), ('ల', '|'), ('కే', 'U'), ('ల', '|'), ('పా', 'U'), ('ఱె', '|'), ('ద', '|'), ('వు', '|'), ('రా', 'U'), ('నా', 'U'), ('య', 'U'), ('న్న', '|'), ('రా', 'U'), ('యె', 'U'), ('న్న', '|'), ('రా', 'U'), ('యి', '|'), ('వి', '|'), ('దూ', 'U'), ('ష్యం', 'U'), ('బు', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('లు', '|'), ('నీ', 'U'), ('యిం', 'U'), ('టం', 'U'), ('బ', '|'), ('దా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లె', 'U'), ('య్య', '|'), ('వి', '|'), ('లే', 'U'), ('వం', 'U'), ('చు', '|'), ('వ', '|'), ('చిం', 'U'), ('చు', '|'), ('న', 'U'), ('మ్మ', '|'), ('క', '|'), ('డ', '|'), ('కొ', 'U'), ('య్యం', 'U'), ('జే', 'U'), ('రు', '|'), ('కై', 'U'), ('శో', 'U'), ('ర', '|'), ('చో', 'U'), ('ర', '|'), ('వి', '|'), ('నో', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('నే', 'U'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>వివిధబ్రహ్మల యంత్యకాలముల నేవే నిల్వ వావేళలన్
 ధ్రువుఁడో యొండె విభీషణుండు బలి యుందుర్ వారు నీ దాసులై
@@ -3414,32 +3144,29 @@
 ద్రవిరించిస్తుత శౌర్యసార! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('వి', '|'), ('ధ', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('ల', '|'), ('యం', 'U'), ('త్య', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('వే', 'U'), ('ని', 'U'), ('ల్వ', '|'), ('వా', 'U'), ('వే', 'U'), ('ళ', '|'), ('లన్', 'U'), ('ధ్రు', '|'), ('వు', '|'), ('డో', 'U'), ('యొం', 'U'), ('డె', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణుం', 'U'), ('డు', '|'), ('బ', '|'), ('లి', '|'), ('యుం', 'U'), ('దుర్', 'U'), ('వా', 'U'), ('రు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('లై', 'U'), ('న', '|'), ('వి', '|'), ('శే', 'U'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('త', 'U'), ('క్కొ', '|'), ('రు', '|'), ('ల', '|'), ('కుం', 'U'), ('డం', 'U'), ('బో', 'U'), ('లు', '|'), ('నే', 'U'), ('యిం', 'U'), ('ద్ర', '|'), ('రు', '|'), ('ద్ర', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', 'U'), ('స్తు', '|'), ('త', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('సా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>చెవి నీనామము విందునో యని కడున్ సెంకించి కర్ణంబులన్
 రవము ల్మీఱఁగ ఘంట లంటనిడి ఘంటాకర్ణుఁ డేతేరఁగా
@@ -3447,32 +3174,29 @@
 ప్రవరుం గాచుట యేమిలెక్క? రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('చె', '|'), ('వి', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('విం', 'U'), ('దు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('క', '|'), ('డున్', 'U'), ('సెం', 'U'), ('కిం', 'U'), ('చి', '|'), ('క', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('లన్', 'U'), ('ర', '|'), ('వ', '|'), ('ము', 'U'), ('ల్మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ఘం', 'U'), ('ట', '|'), ('లం', 'U'), ('ట', '|'), ('ని', '|'), ('డి', '|'), ('ఘం', 'U'), ('టా', 'U'), ('క', 'U'), ('ర్ణు', '|'), ('డే', 'U'), ('తే', 'U'), ('ర', '|'), ('గా', 'U'), ('న', '|'), ('వి', '|'), ('చూ', 'U'), ('చిన్', 'U'), ('వ', '|'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('నీ', 'U'), ('యం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యీ', 'U'), ('సే', 'U'), ('వ', '|'), ('క', 'U'), ('ప్ర', '|'), ('వ', '|'), ('రుం', 'U'), ('గా', 'U'), ('చు', '|'), ('ట', '|'), ('యే', 'U'), ('మి', '|'), ('లె', 'U'), ('క్క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>రవిసూనుం బరిమార్చి యింద్రసుతునిన్ రక్షించినావందునో
 రవిసూనుం గృపనేలి యింద్రసుతుఁ బోరం ద్రుంచినావందునో
@@ -3480,32 +3204,29 @@
 రవివంశాగ్రణి! తెల్పవయ్య రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('వి', '|'), ('సూ', 'U'), ('నుం', 'U'), ('బ', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('సు', '|'), ('తు', '|'), ('నిన్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వం', 'U'), ('దు', '|'), ('నో', 'U'), ('ర', '|'), ('వి', '|'), ('సూ', 'U'), ('నుం', 'U'), ('గృ', '|'), ('ప', '|'), ('నే', 'U'), ('లి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('సు', '|'), ('తు', '|'), ('బో', 'U'), ('రం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('నా', 'U'), ('వం', 'U'), ('దు', '|'), ('నో', 'U'), ('యి', '|'), ('వి', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('ను', '|'), ('రెం', 'U'), ('డు', '|'), ('నుం', 'U'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('నీ', 'U'), ('కే', 'U'), ('ది', 'U'), ('ష్ట', '|'), ('మౌ', 'U'), ('నో', 'U'), ('క', '|'), ('దా', 'U'), ('ర', '|'), ('వి', '|'), ('వం', 'U'), ('శా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('తె', 'U'), ('ల్ప', '|'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>దోసంబు ల్కులపర్వతంబుల కొలందుల్ గల్గినం గల్గనీ
 మీ సంకీర్తన శబ్దమాత్రమున భస్మీభూతమైపోవవా
@@ -3513,32 +3234,29 @@
 రాసు ల్సోఁకిన నిప్పువోలె రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('దో', 'U'), ('సం', 'U'), ('బు', 'U'), ('ల్కు', '|'), ('ల', '|'), ('ప', 'U'), ('ర్వ', '|'), ('తం', 'U'), ('బు', '|'), ('ల', '|'), ('కొ', '|'), ('లం', 'U'), ('దుల్', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('నం', 'U'), ('గ', 'U'), ('ల్గ', '|'), ('నీ', 'U'), ('మీ', 'U'), ('సం', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('శ', 'U'), ('బ్ద', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('భ', 'U'), ('స్మీ', 'U'), ('భూ', 'U'), ('త', '|'), ('మై', 'U'), ('పో', 'U'), ('వ', '|'), ('వా', 'U'), ('త్రా', 'U'), ('సు', 'U'), ('ల్కో', 'U'), ('టి', '|'), ('స', '|'), ('హ', 'U'), ('స్ర', '|'), ('ముల్', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('యె', '|'), ('త్తన్', 'U'), ('రా', 'U'), ('ని', '|'), ('కా', 'U'), ('ర్పా', 'U'), ('స', '|'), ('పున్', 'U'), ('రా', 'U'), ('సు', 'U'), ('ల్సో', 'U'), ('కి', '|'), ('న', '|'), ('ని', 'U'), ('ప్పు', '|'), ('వో', 'U'), ('లె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>కసుమాలంబగు దేహిపుట్టువుల నీ కష్టంబులం బాపి ది
 వ్యసుకాయం బొనరింతు వెవ్వఁడు నినున్ వాక్రుచ్చినన్ యోగిమా
@@ -3546,32 +3264,29 @@
 రసవాదంబులు నేర్చితౌర రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('సు', '|'), ('మా', 'U'), ('లం', 'U'), ('బ', '|'), ('గు', '|'), ('దే', 'U'), ('హి', '|'), ('పు', 'U'), ('ట్టు', '|'), ('వు', '|'), ('ల', '|'), ('నీ', 'U'), ('క', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('లం', 'U'), ('బా', 'U'), ('పి', '|'), ('ది', 'U'), ('వ్య', '|'), ('సు', '|'), ('కా', 'U'), ('యం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('తు', '|'), ('వె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ని', '|'), ('నున్', 'U'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('యో', 'U'), ('గి', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('గే', 'U'), ('హం', 'U'), ('బు', '|'), ('ల', '|'), ('నుం', 'U'), ('డి', '|'), ('లో', 'U'), ('హ', '|'), ('ము', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('గా', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('ర', '|'), ('స', '|'), ('వా', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>పసులన్ గాచిన గొల్లవాఁడవనుచున్ భావింతు నిన్నున్ దుదిన్
 ముసలిభ్రాత వటంచు నెంతు మదిలో మూర్తిత్రయాకార! నే
@@ -3579,32 +3294,29 @@
 రసపాథోనిధి! కావవయ్య రఘువీరా! జానకీనాయకా! (గద్వాల ప్రతి)</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('సు', '|'), ('లన్', 'U'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('ను', '|'), ('చున్', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('ని', '|'), ('న్నున్', 'U'), ('దు', '|'), ('దిన్', 'U'), ('ము', '|'), ('స', '|'), ('లి', 'U'), ('భ్రా', 'U'), ('త', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('నెం', 'U'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('మూ', 'U'), ('ర్తి', 'U'), ('త్ర', '|'), ('యా', 'U'), ('కా', 'U'), ('ర', '|'), ('నే', 'U'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('ధా', 'U'), ('రు', '|'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('ని', 'U'), ('క్క', '|'), ('మె', '|'), ('ఱు', '|'), ('గన్', 'U'), ('వాం', 'U'), ('ఛిం', 'U'), ('తు', '|'), ('నో', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('ర', '|'), ('స', '|'), ('పా', 'U'), ('థో', 'U'), ('ని', '|'), ('ధి', '|'), ('కా', 'U'), ('వ', '|'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U'), ('గ', 'U'), ('ద్వా', 'U'), ('ల', 'U'), ('ప్ర', '|'), ('తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>పిసినిం జూచి మహాప్రదాతయనుచున్ బీభత్సకుత్సాంగునిన్
 బ్రసవాస్త్ర ప్రతిమానరూపుఁడనుచున్ బందం బ్రియంబంద శ
@@ -3612,32 +3324,29 @@
 రసుఁడన్ నిన్ను నుతింపనేర రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('పి', '|'), ('సి', '|'), ('నిం', 'U'), ('జూ', 'U'), ('చి', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('త', '|'), ('య', '|'), ('ను', '|'), ('చున్', 'U'), ('బీ', 'U'), ('భ', 'U'), ('త్స', '|'), ('కు', 'U'), ('త్సాం', 'U'), ('గు', '|'), ('నిన్', 'U'), ('బ్ర', '|'), ('స', '|'), ('వా', 'U'), ('స్త్ర', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('రూ', 'U'), ('పు', '|'), ('డ', '|'), ('ను', '|'), ('చున్', 'U'), ('బం', 'U'), ('దం', 'U'), ('బ్రి', '|'), ('యం', 'U'), ('బం', 'U'), ('ద', '|'), ('శ', 'U'), ('త్రు', '|'), ('స', '|'), ('మూ', 'U'), ('హాం', 'U'), ('త', '|'), ('కు', '|'), ('డం', 'U'), ('చు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('న', '|'), ('ర', 'U'), ('స్తో', 'U'), ('త్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నీ', 'U'), ('ర', '|'), ('సు', '|'), ('డన్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>బహురూపాలు ధరించుకొంచును గ్రియాభాషాంగము ల్ముట్టఁగా
 బహుకాలంబులనుండి యాడితి నిఁకం బ్రాల్మాలినట్లయ్యెడిన్
@@ -3645,32 +3354,29 @@
 గ్రహ దైతేయ మదాపహార! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('హు', '|'), ('రూ', 'U'), ('పా', 'U'), ('లు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చు', '|'), ('కొం', 'U'), ('చు', '|'), ('ను', 'U'), ('గ్రి', '|'), ('యా', 'U'), ('భా', 'U'), ('షాం', 'U'), ('గ', '|'), ('ము', 'U'), ('ల్ము', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('బ', '|'), ('హు', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('నుం', 'U'), ('డి', '|'), ('యా', 'U'), ('డి', '|'), ('తి', '|'), ('ని', '|'), ('కం', 'U'), ('బ్రా', 'U'), ('ల్మా', 'U'), ('లి', '|'), ('న', 'U'), ('ట్ల', 'U'), ('య్యె', '|'), ('డిన్', 'U'), ('ద', '|'), ('హ', '|'), ('లం', 'U'), ('బె', 'U'), ('ట్ట', '|'), ('క', '|'), ('చా', 'U'), ('ల్పు', '|'), ('రే', 'U'), ('య', '|'), ('ను', '|'), ('ము', '|'), ('నీ', 'U'), ('త్యా', 'U'), ('గం', 'U'), ('బు', '|'), ('నే', 'U'), ('నొ', 'U'), ('ల్ల', '|'), ('సా', 'U'), ('గ్ర', '|'), ('హ', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('మ', '|'), ('దా', 'U'), ('ప', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>మోక్షాపేక్ష జనించె నాకు నిదియేమో కాని యీజన్మమం
 దక్షీణోదయ!ముక్తి కెవ్వఁ డొడయం డాపుణ్యునిం జెప్పెదో
@@ -3678,32 +3384,29 @@
 రక్షింతో యెఱుగంగఁ జెప్పు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('మో', 'U'), ('క్షా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('జ', '|'), ('నిం', 'U'), ('చె', '|'), ('నా', 'U'), ('కు', '|'), ('ని', '|'), ('ది', '|'), ('యే', 'U'), ('మో', 'U'), ('కా', 'U'), ('ని', '|'), ('యీ', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మం', 'U'), ('ద', 'U'), ('క్షీ', 'U'), ('ణో', 'U'), ('ద', '|'), ('య', '|'), ('ము', 'U'), ('క్తి', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డొ', '|'), ('డ', '|'), ('యం', 'U'), ('డా', 'U'), ('పు', 'U'), ('ణ్యు', '|'), ('నిం', 'U'), ('జె', 'U'), ('ప్పె', '|'), ('దో', 'U'), ('ద', 'U'), ('క్షా', 'U'), ('రి', 'U'), ('స్తు', '|'), ('త', '|'), ('నీ', 'U'), ('వె', '|'), ('క', 'U'), ('ర్త', '|'), ('వ', '|'), ('యి', '|'), ('నన్', 'U'), ('ద', 'U'), ('క్కే', 'U'), ('ల', '|'), ('నీ', 'U'), ('వే', 'U'), ('న', '|'), ('నున్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('తో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గం', 'U'), ('గ', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>అక్షీణాప్రతిమానదానవిభవాహంకారపారీణ! యో
 రక్షోదైత్యమదాపహార విబుధా! త్రైలోక్యసంరక్షకా!
@@ -3711,32 +3414,29 @@
 రక్షింపం గదవయ్య! రామ! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('క్షీ', 'U'), ('ణా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('దా', 'U'), ('న', '|'), ('వి', '|'), ('భ', '|'), ('వా', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('పా', 'U'), ('రీ', 'U'), ('ణ', '|'), ('యో', 'U'), ('ర', 'U'), ('క్షో', 'U'), ('దై', 'U'), ('త్య', '|'), ('మ', '|'), ('దా', 'U'), ('ప', '|'), ('హా', 'U'), ('ర', '|'), ('వి', '|'), ('బు', '|'), ('ధా', 'U'), ('త్రై', 'U'), ('లో', 'U'), ('క్య', '|'), ('సం', 'U'), ('ర', 'U'), ('క్ష', '|'), ('కా', 'U'), ('ద', 'U'), ('క్ష', 'U'), ('ధ్వం', 'U'), ('సి', '|'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('కా', 'U'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('నీ', 'U'), ('దా', 'U'), ('సా', 'U'), ('ను', '|'), ('దా', 'U'), ('సుం', 'U'), ('డ', '|'), ('నన్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('పం', 'U'), ('గ', '|'), ('ద', '|'), ('వ', 'U'), ('య్య', '|'), ('రా', 'U'), ('మ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>చదువు ల్దొంగిలి సోమకాసురుఁడు భాషాభర్త కూపెట్టఁగా
 నుదధుల్ సొచ్చినఁ బాఱిపట్టుటకు నుద్యోగించి మత్స్యంబవై
@@ -3744,32 +3444,29 @@
 రదకౌండిన్యనుత ప్రతాప! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్దొం', 'U'), ('గి', '|'), ('లి', '|'), ('సో', 'U'), ('మ', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('డు', '|'), ('భా', 'U'), ('షా', 'U'), ('భ', 'U'), ('ర్త', '|'), ('కూ', 'U'), ('పె', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('ను', '|'), ('ద', '|'), ('ధుల్', 'U'), ('సొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('బా', 'U'), ('ఱి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కు', '|'), ('ను', 'U'), ('ద్యో', 'U'), ('గిం', 'U'), ('చి', '|'), ('మ', 'U'), ('త్స్యం', 'U'), ('బ', '|'), ('వై', 'U'), ('య', '|'), ('ద', '|'), ('రం', 'U'), ('టన్', 'U'), ('రి', '|'), ('పు', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('దే', 'U'), ('వా', 'U'), ('దే', 'U'), ('వ', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('నా', 'U'), ('ర', '|'), ('ద', '|'), ('కౌం', 'U'), ('డి', 'U'), ('న్య', '|'), ('ను', '|'), ('త', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>అమరుల్ రాక్షసనాయకుల్ కడఁకతో నత్యంతగర్వంబునన్
 దమ సత్త్వంబుల మందరాచలముచేఁ దర్వంగ నంభోధిలో
@@ -3777,32 +3474,29 @@
 ర మనంగా మఱి నీవెకావె రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రుల్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('నా', 'U'), ('య', '|'), ('కుల్', 'U'), ('క', '|'), ('డ', '|'), ('క', '|'), ('తో', 'U'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ద', '|'), ('మ', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('ల', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('చే', 'U'), ('ద', 'U'), ('ర్వం', 'U'), ('గ', '|'), ('నం', 'U'), ('భో', 'U'), ('ధి', '|'), ('లో', 'U'), ('ర', '|'), ('మ', '|'), ('ణం', 'U'), ('ద', 'U'), ('ద్గి', '|'), ('రి', '|'), ('మో', 'U'), ('చి', '|'), ('కా', 'U'), ('చి', '|'), ('న', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్రా', 'U'), ('ణుం', 'U'), ('డ', '|'), ('కూ', 'U'), ('ర్మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మ', '|'), ('నం', 'U'), ('గా', 'U'), ('మ', '|'), ('ఱి', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>దనుజాధీశులు నిర్జరాధిపతులున్ దామందఱున్ మందరున్
 ఘనసత్త్వంబున నెత్తి వార్థి నహిపుం గవ్వంబుగాఁ ద్రచ్చుచో
@@ -3810,32 +3504,29 @@
 ర్తన మే నాత్మఁ దలంచుచుందు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('లు', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('తు', '|'), ('లున్', 'U'), ('దా', 'U'), ('మం', 'U'), ('ద', '|'), ('ఱున్', 'U'), ('మం', 'U'), ('ద', '|'), ('రున్', 'U'), ('ఘ', '|'), ('న', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('న', '|'), ('నె', 'U'), ('త్తి', '|'), ('వా', 'U'), ('ర్థి', '|'), ('న', '|'), ('హి', '|'), ('పుం', 'U'), ('గ', 'U'), ('వ్వం', 'U'), ('బు', '|'), ('గా', 'U'), ('ద్ర', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('ము', '|'), ('ను', '|'), ('గం', 'U'), ('బా', 'U'), ('ఱ', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', 'U'), ('చ్ఛ', '|'), ('ప', '|'), ('మ', '|'), ('వై', 'U'), ('ము', 'U'), ('న్నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('మే', 'U'), ('నా', 'U'), ('త్మ', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('చుం', 'U'), ('దు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>ధర కల్పాంతమునం గరంగఁబడి పాతాళంబులోనంటినన్
 దొరయం దొల్లిటియట్ల కా నిలుప నుద్యోగించి క్రోడంబవై
@@ -3843,32 +3534,29 @@
 ర్భరకారుణ్య నిరూఢచిత్త! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('క', 'U'), ('ల్పాం', 'U'), ('త', '|'), ('ము', '|'), ('నం', 'U'), ('గ', '|'), ('రం', 'U'), ('గ', '|'), ('బ', '|'), ('డి', '|'), ('పా', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లో', 'U'), ('నం', 'U'), ('టి', '|'), ('నన్', 'U'), ('దొ', '|'), ('ర', '|'), ('యం', 'U'), ('దొ', 'U'), ('ల్లి', '|'), ('టి', '|'), ('య', 'U'), ('ట్ల', '|'), ('కా', 'U'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('ను', 'U'), ('ద్యో', 'U'), ('గిం', 'U'), ('చి', 'U'), ('క్రో', 'U'), ('డం', 'U'), ('బ', '|'), ('వై', 'U'), ('పొ', '|'), ('రి', '|'), ('న', 'U'), ('బ్భూ', 'U'), ('త', '|'), ('ల', '|'), ('మె', 'U'), ('త్తి', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('న', '|'), ('ద', '|'), ('ర్పున్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', '|'), ('చి', 'U'), ('త్త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>వడుగా! నీవడుగంగనేర విట నల్పంబైన దానంబు న
 న్నడుగన్ వచ్చితి వన్నఁ గన్గొని బలీంద్రా! నాకు నీవిచ్చు మూఁ
@@ -3876,32 +3564,29 @@
 ర్పడ నాడన్ నుడికాఁడవౌర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('డు', '|'), ('గా', 'U'), ('నీ', 'U'), ('వ', '|'), ('డు', '|'), ('గం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('వి', '|'), ('ట', '|'), ('న', 'U'), ('ల్పం', 'U'), ('బై', 'U'), ('న', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('న్న', '|'), ('డు', '|'), ('గన్', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('వ', 'U'), ('న్న', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('బ', '|'), ('లీం', 'U'), ('ద్రా', 'U'), ('నా', 'U'), ('కు', '|'), ('నీ', 'U'), ('వి', 'U'), ('చ్చు', '|'), ('మూ', 'U'), ('డ', '|'), ('డు', '|'), ('గు', 'U'), ('ల్మూ', 'U'), ('డు', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', '|'), ('గొ', '|'), ('న', '|'), ('వా', 'U'), ('యా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('ముల్', 'U'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('ర్ప', '|'), ('డ', '|'), ('నా', 'U'), ('డన్', 'U'), ('ను', '|'), ('డి', '|'), ('కా', 'U'), ('డ', '|'), ('వౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>ఏతుల్ గాక మురాంతకుండు గలఁడా యెందైన నిందైన నీ
 నీతు ల్మాను మటంచుఁ దండ్రి సుతునిన్ నిట్రాతిలోఁ జూపరా
@@ -3909,32 +3594,29 @@
 రాతిం బోలిన దైత్యు మేను రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('తుల్', 'U'), ('గా', 'U'), ('క', '|'), ('ము', '|'), ('రాం', 'U'), ('త', '|'), ('కుం', 'U'), ('డు', '|'), ('గ', '|'), ('ల', '|'), ('డా', 'U'), ('యెం', 'U'), ('దై', 'U'), ('న', '|'), ('నిం', 'U'), ('దై', 'U'), ('న', '|'), ('నీ', 'U'), ('నీ', 'U'), ('తు', 'U'), ('ల్మా', 'U'), ('ను', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('సు', '|'), ('తు', '|'), ('నిన్', 'U'), ('ని', 'U'), ('ట్రా', 'U'), ('తి', '|'), ('లో', 'U'), ('జూ', 'U'), ('ప', '|'), ('రా', 'U'), ('చూ', 'U'), ('తున్', 'U'), ('నా', 'U'), ('గ', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('చ్చో', 'U'), ('నుం', 'U'), ('డ', '|'), ('వా', 'U'), ('చెం', 'U'), ('డ', '|'), ('వా', 'U'), ('రా', 'U'), ('తిం', 'U'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('దై', 'U'), ('త్యు', '|'), ('మే', 'U'), ('ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>సమరక్షోణులఁ బాఱఁ బాఱఁగ జరాసంధాదులం ద్రుంచి చం
 డమదాభీలుని ధేనుకాసురుని చట్ట ల్చీరి ముష్టిప్రహా
@@ -3942,32 +3624,29 @@
 రమణాకారముఁ దాల్చి యౌర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('మ', '|'), ('ర', 'U'), ('క్షో', 'U'), ('ణు', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('బా', 'U'), ('ఱ', '|'), ('గ', '|'), ('జ', '|'), ('రా', 'U'), ('సం', 'U'), ('ధా', 'U'), ('దు', '|'), ('లం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('చం', 'U'), ('డ', '|'), ('మ', '|'), ('దా', 'U'), ('భీ', 'U'), ('లు', '|'), ('ని', '|'), ('ధే', 'U'), ('ను', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('చ', 'U'), ('ట్ట', 'U'), ('ల్చీ', 'U'), ('రి', '|'), ('ము', 'U'), ('ష్టి', 'U'), ('ప్ర', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లన్', 'U'), ('ము', 'U'), ('ష్టి', '|'), ('కు', '|'), ('నా', 'U'), ('ప్ర', '|'), ('లం', 'U'), ('బ', '|'), ('ద', '|'), ('ను', '|'), ('జున్', 'U'), ('మ్రం', 'U'), ('దిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('రే', 'U'), ('వ', '|'), ('తీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('యౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>నిను నారాయణమూర్తిగాఁ దలఁచుచున్ నీ దండ నా దండకా
 వన వాచంయము లెల్లఁ జేరి కొలువన్ వారిం గృపం జూచుటల్
@@ -3975,32 +3654,29 @@
 ర నిరూఢాకృతి నిన్ను నౌర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చున్', 'U'), ('నీ', 'U'), ('దం', 'U'), ('డ', '|'), ('నా', 'U'), ('దం', 'U'), ('డ', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('వా', 'U'), ('చం', 'U'), ('య', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('రి', '|'), ('కొ', '|'), ('లు', '|'), ('వన్', 'U'), ('వా', 'U'), ('రిం', 'U'), ('గృ', '|'), ('పం', 'U'), ('జూ', 'U'), ('చు', '|'), ('టల్', 'U'), ('వ', '|'), ('న', '|'), ('ధిం', 'U'), ('గ', 'U'), ('ట్టు', '|'), ('ట', '|'), ('రా', 'U'), ('వ', '|'), ('ణుం', 'U'), ('దు', '|'), ('ను', '|'), ('ము', '|'), ('టల్', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('రా', 'U'), ('మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢా', 'U'), ('కృ', '|'), ('తి', '|'), ('ని', 'U'), ('న్ను', '|'), ('నౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t>అమరారాతివధూటికామణులచే నశ్వత్థనారాయణ
 ద్రుమముం గౌఁగిటఁ జేర్పఁ జేసి వ్రతము ల్దూలించి బుద్ధావతా
@@ -4008,32 +3684,29 @@
 ర! మునిస్తుత్య యశోవిహార! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', '|'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('కా', 'U'), ('మ', '|'), ('ణు', '|'), ('ల', '|'), ('చే', 'U'), ('న', 'U'), ('శ్వ', 'U'), ('త్థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('ద్రు', '|'), ('మ', '|'), ('ముం', 'U'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్ప', '|'), ('జే', 'U'), ('సి', 'U'), ('వ్ర', '|'), ('త', '|'), ('ము', 'U'), ('ల్దూ', 'U'), ('లిం', 'U'), ('చి', '|'), ('బు', 'U'), ('ద్ధా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('రు', '|'), ('ద్ర', '|'), ('స', '|'), ('హా', 'U'), ('య', '|'), ('మై', 'U'), ('త్రి', '|'), ('పు', '|'), ('ర', '|'), ('ముల్', 'U'), ('మ్ర', 'U'), ('గ్గిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('రౌ', 'U'), ('ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('ము', '|'), ('ని', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>కలికాలాంతమునన్ గిరాతజనముల్ గర్వించినం దత్కిరా
 తుల నెల్లన్ విదళించుచున్ గృతయుగోద్భూతంబుఁ గావింప నిం
@@ -4041,32 +3714,29 @@
 రలు పుణ్యాత్ము లగణ్యశూర! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('లి', '|'), ('కా', 'U'), ('లాం', 'U'), ('త', '|'), ('ము', '|'), ('నన్', 'U'), ('గి', '|'), ('రా', 'U'), ('త', '|'), ('జ', '|'), ('న', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', 'U'), ('త్కి', '|'), ('రా', 'U'), ('తు', '|'), ('ల', '|'), ('నె', '|'), ('ల్లన్', 'U'), ('వి', '|'), ('ద', '|'), ('ళిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('గృ', '|'), ('త', '|'), ('యు', '|'), ('గో', 'U'), ('ద్భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('నిం', 'U'), ('ప', '|'), ('ల', '|'), ('రం', 'U'), ('గ', 'U'), ('ల్కి', '|'), ('వి', '|'), ('గా', 'U'), ('గ', '|'), ('ను', 'U'), ('న్న', '|'), ('హ', '|'), ('రి', '|'), ('ని', 'U'), ('న్న', 'U'), ('శ్రాం', 'U'), ('త', '|'), ('ముం', 'U'), ('గొ', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('గ', 'U'), ('ణ్య', '|'), ('శూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
         <is>
           <t>త్రేతా ద్వాపరసంధి నుద్ధతమదాంధీభూత ధాత్రీధవ
 వ్రాతంబున్ జననీ ప్రతిజ్ఞకొఱ కిర్వైయొక్కమారుల్ బహు
@@ -4074,32 +3744,29 @@
 ర్ఘాతక్రూరకుఠారధార రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('త్రే', 'U'), ('తా', 'U'), ('ద్వా', 'U'), ('ప', '|'), ('ర', '|'), ('సం', 'U'), ('ధి', '|'), ('ను', 'U'), ('ద్ధ', '|'), ('త', '|'), ('మ', '|'), ('దాం', 'U'), ('ధీ', 'U'), ('భూ', 'U'), ('త', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('ధ', '|'), ('వ', 'U'), ('వ్రా', 'U'), ('తం', 'U'), ('బున్', 'U'), ('జ', '|'), ('న', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('జ్ఞ', '|'), ('కొ', '|'), ('ఱ', '|'), ('కి', 'U'), ('ర్వై', 'U'), ('యొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('రుల్', 'U'), ('బ', '|'), ('హు', 'U'), ('ప్రీ', 'U'), ('తిం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('తి', '|'), ('గా', 'U'), ('దె', '|'), ('నీ', 'U'), ('వు', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('ద్వీ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('మై', 'U'), ('ఘో', 'U'), ('ర', '|'), ('ని', 'U'), ('ర్ఘా', 'U'), ('త', 'U'), ('క్రూ', 'U'), ('ర', '|'), ('కు', '|'), ('ఠా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>కావం దొల్లిటి కాలజన్మముల నీకా బంటుఁ గానైతి నీ
 సేవాకార్యములేమొ నాకు నవి లక్షింపంగ లేవయ్యె నీ
@@ -4107,32 +3774,29 @@
 రావా నా మదిఁ గోర్కెఁ దీర్ప! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('వం', 'U'), ('దొ', 'U'), ('ల్లి', '|'), ('టి', '|'), ('కా', 'U'), ('ల', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('కా', 'U'), ('బం', 'U'), ('టు', '|'), ('గా', 'U'), ('నై', 'U'), ('తి', '|'), ('నీ', 'U'), ('సే', 'U'), ('వా', 'U'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('లే', 'U'), ('మొ', '|'), ('నా', 'U'), ('కు', '|'), ('న', '|'), ('వి', '|'), ('ల', 'U'), ('క్షిం', 'U'), ('పం', 'U'), ('గ', '|'), ('లే', 'U'), ('వ', 'U'), ('య్యె', '|'), ('నీ', 'U'), ('చా', 'U'), ('వుం', 'U'), ('బు', 'U'), ('ట్టు', '|'), ('వు', '|'), ('మా', 'U'), ('న్పు', '|'), ('కో', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('నీ', 'U'), ('జ', 'U'), ('న్మా', 'U'), ('న', '|'), ('నీ', 'U'), ('వా', 'U'), ('డ', '|'), ('నై', 'U'), ('రా', 'U'), ('వా', 'U'), ('నా', 'U'), ('మ', '|'), ('ది', '|'), ('గో', 'U'), ('ర్కె', '|'), ('దీ', 'U'), ('ర్ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
         <is>
           <t>ఉండందెక్కడ నీవు లేక వెలియై యుండేది యెచ్చోటు బ్ర
 హ్మాండంబుల్ లయమందు నీవు కనుమూయన్ లోకపర్వంబుగా
@@ -4140,32 +3804,29 @@
 ర్కండేయాదు లెఱుంగలేరు రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('ఉం', 'U'), ('డం', 'U'), ('దె', 'U'), ('క్క', '|'), ('డ', '|'), ('నీ', 'U'), ('వు', '|'), ('లే', 'U'), ('క', '|'), ('వె', '|'), ('లి', '|'), ('యై', 'U'), ('యుం', 'U'), ('డే', 'U'), ('ది', '|'), ('యె', 'U'), ('చ్చో', 'U'), ('టు', 'U'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డం', 'U'), ('బుల్', 'U'), ('ల', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('నీ', 'U'), ('వు', '|'), ('క', '|'), ('ను', '|'), ('మూ', 'U'), ('యన్', 'U'), ('లో', 'U'), ('క', '|'), ('ప', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('గా', 'U'), ('నం', 'U'), ('డం', 'U'), ('బున్', 'U'), ('బ్ర', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('వి', '|'), ('నో', 'U'), ('దా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('నీ', 'U'), ('మా', 'U'), ('య', '|'), ('మా', 'U'), ('ర్కం', 'U'), ('డే', 'U'), ('యా', 'U'), ('దు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>జననీగర్భములందు నన్నిటు బడన్ జన్మిచ్చి బాల్యంబులన్
 జనుబా లెందఱివైనఁ ద్రాపి యటు వేల్ సంబంధముల్గా పురా
@@ -4173,32 +3834,29 @@
 రని కర్మంబులు దీఱు టెట్లు? రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('నీ', 'U'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('న', 'U'), ('న్ని', '|'), ('టు', '|'), ('బ', '|'), ('డన్', 'U'), ('జ', 'U'), ('న్మి', 'U'), ('చ్చి', '|'), ('బా', 'U'), ('ల్యం', 'U'), ('బు', '|'), ('లన్', 'U'), ('జ', '|'), ('ను', '|'), ('బా', 'U'), ('లెం', 'U'), ('ద', '|'), ('ఱి', '|'), ('వై', 'U'), ('న', '|'), ('ద్రా', 'U'), ('పి', '|'), ('య', '|'), ('టు', '|'), ('వేల్', 'U'), ('సం', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్గా', 'U'), ('పు', '|'), ('రా', 'U'), ('త', '|'), ('న', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('యెం', 'U'), ('త', '|'), ('గ', '|'), ('ను', '|'), ('య', 'U'), ('త్నం', 'U'), ('బు', 'U'), ('న్న', '|'), ('నిం', 'U'), ('దా', 'U'), ('క', '|'), ('దీ', 'U'), ('ర', '|'), ('ని', '|'), ('క', '|'), ('ర్మం', 'U'), ('బు', '|'), ('లు', '|'), ('దీ', 'U'), ('ఱు', '|'), ('టె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
         <is>
           <t>వెనుకం జేసిన దోషముల్గలుగ నుర్విన్ ముక్తికిం బోదురే
 చనఁ బొయ్యే వని కాలుబంట్లె నుడువన్, సాక్షాత్తు నా బంటు వీ
@@ -4206,32 +3864,29 @@
 ప్రణతాశేష శరణ్యచిత్త! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('వె', '|'), ('ను', '|'), ('కం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('దో', 'U'), ('ష', '|'), ('ము', 'U'), ('ల్గ', '|'), ('లు', '|'), ('గ', '|'), ('ను', '|'), ('ర్విన్', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కిం', 'U'), ('బో', 'U'), ('దు', '|'), ('రే', 'U'), ('చ', '|'), ('న', '|'), ('బొ', 'U'), ('య్యే', 'U'), ('వ', '|'), ('ని', '|'), ('కా', 'U'), ('లు', '|'), ('బం', 'U'), ('ట్లె', '|'), ('ను', '|'), ('డు', '|'), ('వ', 'U'), ('న్సా', 'U'), ('క్షా', 'U'), ('త్తు', '|'), ('నా', 'U'), ('బం', 'U'), ('టు', '|'), ('వీ', 'U'), ('ని', '|'), ('ని', '|'), ('బ', '|'), ('ట్టన్', 'U'), ('గ', '|'), ('మ', '|'), ('కిం', 'U'), ('చు', '|'), ('టొ', 'U'), ('ప్ప', '|'), ('ద', '|'), ('ని', '|'), ('యున్', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ని', '|'), ('వా', 'U'), ('రిం', 'U'), ('చ', '|'), ('వా', 'U'), ('ప్ర', '|'), ('ణ', '|'), ('తా', 'U'), ('శే', 'U'), ('ష', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('చి', 'U'), ('త్త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>నానాజీవమనోనివాస! త్రిజగన్నాథా! మురారీశ! గౌ
 రీనాథస్తుత! కైటభాసురవిదారీ! చక్రి! నారాయణా!
@@ -4239,32 +3894,29 @@
 ప్రాణాపానసమానరూప! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('నా', 'U'), ('జీ', 'U'), ('వ', '|'), ('మ', '|'), ('నో', 'U'), ('ని', '|'), ('వా', 'U'), ('స', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('థా', 'U'), ('ము', '|'), ('రా', 'U'), ('రీ', 'U'), ('శ', '|'), ('గౌ', 'U'), ('రీ', 'U'), ('నా', 'U'), ('థ', 'U'), ('స్తు', '|'), ('త', '|'), ('కై', 'U'), ('ట', '|'), ('భా', 'U'), ('సు', '|'), ('ర', '|'), ('వి', '|'), ('దా', 'U'), ('రీ', 'U'), ('చ', 'U'), ('క్రి', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U'), ('యో', 'U'), ('నా', 'U'), ('ళీ', 'U'), ('క', '|'), ('ద', '|'), ('ళా', 'U'), ('య', '|'), ('తా', 'U'), ('క్ష', '|'), ('క', '|'), ('లు', '|'), ('ష', 'U'), ('వ్యూ', 'U'), ('హా', 'U'), ('ద్రి', '|'), ('వ', 'U'), ('జ్రా', 'U'), ('యు', '|'), ('ధా', 'U'), ('ప్రా', 'U'), ('ణా', 'U'), ('పా', 'U'), ('న', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('రూ', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
         <is>
           <t>నను నన్యుల్ గొనియాడ మే లనకయుండన్, నాకు నేనే మహా
 ఘనుఁడన్ విద్యకు నేనె బ్రహ్మ ననుచున్ గర్వించి దుర్వాక్యముల్
@@ -4272,32 +3924,29 @@
 యని మన్నింతువుగాని నన్ను రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('న', '|'), ('న్యుల్', 'U'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('మే', 'U'), ('ల', '|'), ('న', '|'), ('క', '|'), ('యుం', 'U'), ('డ', 'U'), ('న్నా', 'U'), ('కు', '|'), ('నే', 'U'), ('నే', 'U'), ('మ', '|'), ('హా', 'U'), ('ఘ', '|'), ('ను', '|'), ('డన్', 'U'), ('వి', 'U'), ('ద్య', '|'), ('కు', '|'), ('నే', 'U'), ('నె', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('న', '|'), ('ను', '|'), ('చున్', 'U'), ('గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('క్య', '|'), ('ముల్', 'U'), ('వి', '|'), ('ని', '|'), ('మీ', 'U'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('రో', 'U'), ('య', '|'), ('కు', '|'), ('ము', '|'), ('నా', 'U'), ('వే', 'U'), ('సా', 'U'), ('లు', 'U'), ('గ్రా', 'U'), ('సా', 'U'), ('ల', '|'), ('కే', 'U'), ('య', '|'), ('ని', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('తు', '|'), ('వు', '|'), ('గా', 'U'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
         <is>
           <t>వినుమా యాశ్రితు నిల్పువాఁడ ననుమా వేయేల నీ భక్తునిం
 గనుమా యాశ్రితరక్షణంబు ఘనమా కారుణ్యవారాశి య
@@ -4305,32 +3954,29 @@
 య్యన లక్ష్మీకమనీయవక్ష! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ను', '|'), ('మా', 'U'), ('యా', 'U'), ('శ్రి', '|'), ('తు', '|'), ('ని', 'U'), ('ల్పు', '|'), ('వా', 'U'), ('డ', '|'), ('న', '|'), ('ను', '|'), ('మా', 'U'), ('వే', 'U'), ('యే', 'U'), ('ల', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('నిం', 'U'), ('గ', '|'), ('ను', '|'), ('మా', 'U'), ('యా', 'U'), ('శ్రి', '|'), ('త', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బు', '|'), ('ఘ', '|'), ('న', '|'), ('మా', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('వా', 'U'), ('రా', 'U'), ('శి', '|'), ('య', 'U'), ('య్యు', '|'), ('న', '|'), ('తా', 'U'), ('ర్తా', 'U'), ('వ', '|'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('నీ', 'U'), ('కు', '|'), ('జ', '|'), ('గ', '|'), ('తీ', 'U'), ('వ్యో', 'U'), ('మ', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('త్కీ', 'U'), ('ర్తి', '|'), ('కొ', 'U'), ('య్య', '|'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('క', '|'), ('మ', '|'), ('నీ', 'U'), ('య', '|'), ('వ', 'U'), ('క్ష', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
         <is>
           <t>కొమరౌ నాండ్రు పదాఱువేలు గొలువన్ గోపాలకృష్ణావతా
 రమునన్ జాలక చొచ్చి గోపికల చీరల్ దీసి రాఁదీసి నె
@@ -4338,32 +3984,29 @@
 రమునన్ లోకమనోభిరామ! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('మ', '|'), ('రౌ', 'U'), ('నాం', 'U'), ('డ్రు', '|'), ('ప', '|'), ('దా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('లు', '|'), ('గొ', '|'), ('లు', '|'), ('వన్', 'U'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('చీ', 'U'), ('రల్', 'U'), ('దీ', 'U'), ('సి', '|'), ('రా', 'U'), ('దీ', 'U'), ('సి', '|'), ('నె', 'U'), ('య్య', '|'), ('ము', '|'), ('నం', 'U'), ('బొం', 'U'), ('ది', '|'), ('న', '|'), ('కొ', 'U'), ('య్య', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('గా', 'U'), ('వా', 'U'), ('నీ', 'U'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('లో', 'U'), ('క', '|'), ('మ', '|'), ('నో', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>కరుణానీరధి! నిన్ను వేడుకొనినన్ గాండీవికిం బోరిలో
 నరదం బొప్పఁగ గొప్ప సారథివి గావా కావ నోదేవ! నీ
@@ -4371,32 +4014,29 @@
 ధరణీనాయకమౌళిరత్న! రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('రు', '|'), ('ణా', 'U'), ('నీ', 'U'), ('ర', '|'), ('ధి', '|'), ('ని', 'U'), ('న్ను', '|'), ('వే', 'U'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('నన్', 'U'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('కిం', 'U'), ('బో', 'U'), ('రి', '|'), ('లో', 'U'), ('న', '|'), ('ర', '|'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('సా', 'U'), ('ర', '|'), ('థి', '|'), ('వి', '|'), ('గా', 'U'), ('వా', 'U'), ('కా', 'U'), ('వ', '|'), ('నో', 'U'), ('దే', 'U'), ('వ', '|'), ('నీ', 'U'), ('స', '|'), ('రి', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('రు', '|'), ('ను', '|'), ('లే', 'U'), ('రు', '|'), ('శి', 'U'), ('ష్ట', '|'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్షా', 'U'), ('ద', 'U'), ('క్ష', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('మ', '|'), ('ణీ', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('మౌ', 'U'), ('ళి', '|'), ('ర', 'U'), ('త్న', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
         <is>
           <t>అతులప్రౌఢిమ మీఱ రాయకవి యయ్యల్‌రాజు సత్పుత్రుఁ డ
 చ్యుతభక్తిం ద్రిపురాంతకుం డొనరిచెన్ శుద్ధంబుగా నాంధ్ర సం
@@ -4404,17 +4044,17 @@
 రత యెందాకనొ యంత దాక రఘువీరా! జానకీనాయకా!</t>
         </is>
       </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>ontimittaraguveera</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
-        <is>
-          <t>ontimittaraguveera</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
         <is>
           <t>[('అ', '|'), ('తు', '|'), ('ల', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('రా', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('య', 'U'), ('య్య', 'U'), ('ల్రా', 'U'), ('జు', '|'), ('స', 'U'), ('త్పు', 'U'), ('త్రు', '|'), ('డ', 'U'), ('చ్యు', '|'), ('త', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('ద్రి', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('కుం', 'U'), ('డొ', '|'), ('న', '|'), ('రి', '|'), ('చెన్', 'U'), ('శు', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('నాం', 'U'), ('ధ్ర', '|'), ('సం', 'U'), ('గ', '|'), ('త', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('ల', '|'), ('నూ', 'U'), ('టి', '|'), ('ని', 'U'), ('వ్వి', '|'), ('వె', '|'), ('ల', '|'), ('యుం', 'U'), ('గా', 'U'), ('తన్', 'U'), ('ర', '|'), ('వీం', 'U'), ('దు', 'U'), ('ప్ర', '|'), ('చా', 'U'), ('ర', '|'), ('త', '|'), ('యెం', 'U'), ('దా', 'U'), ('క', '|'), ('నొ', '|'), ('యం', 'U'), ('త', '|'), ('దా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>

--- a/dataset/lg/ontimittaraguveera.xlsx
+++ b/dataset/lg/ontimittaraguveera.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('గు', '|'), ('ణా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('శ్రే', 'U'), ('ణీ', 'U'), ('కి', '|'), ('రీ', 'U'), ('ట', 'U'), ('ద్యు', '|'), ('తి', 'U'), ('వ్యా', 'U'), ('కీ', 'U'), ('ర్ణాం', 'U'), ('ఘ్రి', '|'), ('స', '|'), ('రో', 'U'), ('రు', '|'), ('హ', 'U'), ('ద్వ', '|'), ('య', '|'), ('స', '|'), ('హ', '|'), ('స్రా', 'U'), ('క్ష', 'U'), ('స్తు', '|'), ('తా', 'U'), ('య', 'U'), ('చ్యు', '|'), ('తా', 'U'), ('నా', 'U'), ('కుం', 'U'), ('బ్రా', 'U'), ('పు', '|'), ('ను', '|'), ('దా', 'U'), ('పు', '|'), ('నీ', 'U'), ('వె', '|'), ('య', '|'), ('గు', '|'), ('చున్', 'U'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('మీ', 'U'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రా', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('స', '|'), ('ము', '|'), ('ద్ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('గు', '|'), ('ణా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('శ్రే', 'U'), ('ణీ', 'U'), ('కి', '|'), ('రీ', 'U'), ('ట', 'U'), ('ద్యు', '|'), ('తి', 'U'), ('వ్యా', 'U'), ('కీ', 'U'), ('ర్ణాం', 'U'), ('ఘ్రి', '|'), ('స', '|'), ('రో', 'U'), ('రు', '|'), ('హ', 'U'), ('ద్వ', '|'), ('య', '|'), ('స', '|'), ('హ', '|'), ('స్రా', 'U'), ('క్ష', 'U'), ('స్తు', '|'), ('తా', 'U'), ('య', 'U'), ('చ్యు', '|'), ('తా', 'U'), ('నా', 'U'), ('కుం', 'U'), ('బ్రా', 'U'), ('పు', '|'), ('ను', '|'), ('దా', 'U'), ('పు', '|'), ('నీ', 'U'), ('వె', '|'), ('య', '|'), ('గు', '|'), ('చు', 'U'), ('న్న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('మీ', 'U'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రా', 'U'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('స', '|'), ('ము', '|'), ('ద్ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('తా', 'U'), ('రు', 'U'), ('ణ్యో', 'U'), ('ద', '|'), ('య', '|'), ('యొం', 'U'), ('టి', '|'), ('మి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('ఘు', '|'), ('నా', 'U'), ('థా', 'U'), ('నీ', 'U'), ('కు', '|'), ('నే', 'U'), ('బ', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నూ', 'U'), ('ఱుం', 'U'), ('జె', 'U'), ('ప్పె', '|'), ('ద', '|'), ('నూ', 'U'), ('రు', '|'), ('బే', 'U'), ('రు', '|'), ('వె', '|'), ('ల', '|'), ('యన్', 'U'), ('నూ', 'U'), ('త్నం', 'U'), ('బు', '|'), ('గా', 'U'), ('నం', 'U'), ('త', '|'), ('నా', 'U'), ('నో', 'U'), ('రుం', 'U'), ('బా', 'U'), ('వ', '|'), ('న', '|'), ('మౌ', 'U'), ('ను', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గాం', 'U'), ('తు', 'U'), ('న్భ', 'U'), ('క్తి', '|'), ('న', 'U'), ('న్నం', 'U'), ('ద', '|'), ('ఱున్', 'U'), ('రా', 'U'), ('ర', 'U'), ('మ్మం', 'U'), ('దు', '|'), ('రు', '|'), ('గా', 'U'), ('ర', '|'), ('విం', 'U'), ('చి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('తా', 'U'), ('రు', 'U'), ('ణ్యో', 'U'), ('ద', '|'), ('య', '|'), ('యొం', 'U'), ('టి', '|'), ('మి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('ఘు', '|'), ('నా', 'U'), ('థా', 'U'), ('నీ', 'U'), ('కు', '|'), ('నే', 'U'), ('బ', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నూ', 'U'), ('ఱుం', 'U'), ('జె', 'U'), ('ప్పె', '|'), ('ద', '|'), ('నూ', 'U'), ('రు', '|'), ('బే', 'U'), ('రు', '|'), ('వె', '|'), ('ల', '|'), ('య', 'U'), ('న్నూ', 'U'), ('త్నం', 'U'), ('బు', '|'), ('గా', 'U'), ('నం', 'U'), ('త', '|'), ('నా', 'U'), ('నో', 'U'), ('రుం', 'U'), ('బా', 'U'), ('వ', '|'), ('న', '|'), ('మౌ', 'U'), ('ను', '|'), ('నీ', 'U'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('గాం', 'U'), ('తు', 'U'), ('న్భ', 'U'), ('క్తి', '|'), ('న', 'U'), ('న్నం', 'U'), ('ద', '|'), ('ఱున్', 'U'), ('రా', 'U'), ('ర', 'U'), ('మ్మం', 'U'), ('దు', '|'), ('రు', '|'), ('గా', 'U'), ('ర', '|'), ('విం', 'U'), ('చి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('కే', 'U'), ('లన్', 'U'), ('దృ', '|'), ('ణ', '|'), ('మం', 'U'), ('ది', '|'), ('వై', 'U'), ('వ', '|'), ('న', '|'), ('ది', '|'), ('యున్', 'U'), ('ని', 'U'), ('ర్ఘా', 'U'), ('త', '|'), ('పా', 'U'), ('త', '|'), ('క్రి', '|'), ('యన్', 'U'), ('గా', 'U'), ('కా', 'U'), ('కా', 'U'), ('ర', '|'), ('ని', '|'), ('కా', 'U'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ని', '|'), ('లో', 'U'), ('కా', 'U'), ('లో', 'U'), ('క', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('త', '|'), ('మీ', 'U'), ('లో', 'U'), ('కం', 'U'), ('బుల్', 'U'), ('ప', '|'), ('దు', '|'), ('నా', 'U'), ('ల్గు', '|'), ('త్రి', 'U'), ('ప్పి', '|'), ('న', '|'), ('ది', '|'), ('కా', 'U'), ('లు', 'U'), ('న్మో', 'U'), ('ప', '|'), ('గా', 'U'), ('నీ', 'U'), ('క', '|'), ('యౌ', 'U'), ('రా', 'U'), ('కా', 'U'), ('కు', 'U'), ('త్స్థ', '|'), ('కు', '|'), ('లా', 'U'), ('గ్ర', '|'), ('గ', 'U'), ('ణ్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('నీ', 'U'), ('కే', 'U'), ('ల', 'U'), ('న్దృ', '|'), ('ణ', '|'), ('మం', 'U'), ('ది', '|'), ('వై', 'U'), ('వ', '|'), ('న', '|'), ('ది', '|'), ('యు', 'U'), ('న్ని', 'U'), ('ర్ఘా', 'U'), ('త', '|'), ('పా', 'U'), ('త', '|'), ('క్రి', '|'), ('యన్', 'U'), ('గా', 'U'), ('కా', 'U'), ('కా', 'U'), ('ర', '|'), ('ని', '|'), ('కా', 'U'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ని', '|'), ('లో', 'U'), ('కా', 'U'), ('లో', 'U'), ('క', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('త', '|'), ('మీ', 'U'), ('లో', 'U'), ('కం', 'U'), ('బు', 'U'), ('ల్ప', '|'), ('దు', '|'), ('నా', 'U'), ('ల్గు', '|'), ('త్రి', 'U'), ('ప్పి', '|'), ('న', '|'), ('ది', '|'), ('కా', 'U'), ('లు', 'U'), ('న్మో', 'U'), ('ప', '|'), ('గా', 'U'), ('నీ', 'U'), ('క', '|'), ('యౌ', 'U'), ('రా', 'U'), ('కా', 'U'), ('కు', 'U'), ('త్స్థ', '|'), ('కు', '|'), ('లా', 'U'), ('గ్ర', '|'), ('గ', 'U'), ('ణ్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('కొం', 'U'), ('కం', 'U'), ('గా', 'U'), ('ర', '|'), ('ణ', '|'), ('మే', 'U'), ('మి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('పె', 'U'), ('క్కుల్', 'U'), ('చే', 'U'), ('సి', '|'), ('మ', 'U'), ('ర్త్యుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('వం', 'U'), ('కం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('ని', 'U'), ('ల్ప', '|'), ('లే', 'U'), ('క', '|'), ('పె', '|'), ('ర', '|'), ('త్రో', 'U'), ('వల్', 'U'), ('త్రొ', 'U'), ('క్కి', '|'), ('నన్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('ముం', 'U'), ('బొం', 'U'), ('కై', 'U'), ('పో', 'U'), ('వు', '|'), ('గు', '|'), ('రం', 'U'), ('గ', '|'), ('నే', 'U'), ('త్ర', '|'), ('త', '|'), ('గు', '|'), ('నో', 'U'), ('ముల్', 'U'), ('వే', 'U'), ('యు', '|'), ('నున్', 'U'), ('నో', 'U'), ('చి', '|'), ('తా', 'U'), ('ఱం', 'U'), ('కా', 'U'), ('డం', 'U'), ('గ', '|'), ('దొ', '|'), ('డం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('కొం', 'U'), ('కం', 'U'), ('గా', 'U'), ('ర', '|'), ('ణ', '|'), ('మే', 'U'), ('మి', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('లు', '|'), ('పె', 'U'), ('క్కు', 'U'), ('ల్చే', 'U'), ('సి', '|'), ('మ', 'U'), ('ర్త్యుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('వం', 'U'), ('కం', 'U'), ('జి', 'U'), ('త్త', '|'), ('ము', '|'), ('ని', 'U'), ('ల్ప', '|'), ('లే', 'U'), ('క', '|'), ('పె', '|'), ('ర', '|'), ('త్రో', 'U'), ('వ', 'U'), ('ల్త్రొ', 'U'), ('క్కి', '|'), ('న', 'U'), ('న్స', 'U'), ('ర్వ', '|'), ('ముం', 'U'), ('బొం', 'U'), ('కై', 'U'), ('పో', 'U'), ('వు', '|'), ('గు', '|'), ('రం', 'U'), ('గ', '|'), ('నే', 'U'), ('త్ర', '|'), ('త', '|'), ('గు', '|'), ('నో', 'U'), ('ము', 'U'), ('ల్వే', 'U'), ('యు', '|'), ('ను', 'U'), ('న్నో', 'U'), ('చి', '|'), ('తా', 'U'), ('ఱం', 'U'), ('కా', 'U'), ('డం', 'U'), ('గ', '|'), ('దొ', '|'), ('డం', 'U'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('గౌ', 'U'), ('రీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('కీ', 'U'), ('ర్త', '|'), ('నీ', 'U'), ('యు', '|'), ('డ', '|'), ('గు', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('రో', 'U'), ('గు', 'U'), ('ల్గా', 'U'), ('రొ', '|'), ('కొ', '|'), ('చా', 'U'), ('ల', '|'), ('యో', 'U'), ('గ్యు', '|'), ('ల', '|'), ('యి', '|'), ('నన్', 'U'), ('యో', 'U'), ('గా', 'U'), ('ను', '|'), ('సం', 'U'), ('ధా', 'U'), ('ను', '|'), ('లీ', 'U'), ('మా', 'U'), ('గు', 'U'), ('ల్గా', 'U'), ('న', '|'), ('య', '|'), ('థా', 'U'), ('ర్థ', '|'), ('మా', 'U'), ('డి', '|'), ('తి', '|'), ('ని', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బె', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('రా', 'U'), ('రా', 'U'), ('గ', 'U'), ('ద్వే', 'U'), ('ష', '|'), ('వి', '|'), ('దూ', 'U'), ('ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఆ', 'U'), ('గౌ', 'U'), ('రీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('కీ', 'U'), ('ర్త', '|'), ('నీ', 'U'), ('యు', '|'), ('డ', '|'), ('గు', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('రో', 'U'), ('గు', 'U'), ('ల్గా', 'U'), ('రొ', '|'), ('కొ', '|'), ('చా', 'U'), ('ల', '|'), ('యో', 'U'), ('గ్యు', '|'), ('ల', '|'), ('యి', '|'), ('న', 'U'), ('న్యో', 'U'), ('గా', 'U'), ('ను', '|'), ('సం', 'U'), ('ధా', 'U'), ('ను', '|'), ('లీ', 'U'), ('మా', 'U'), ('గు', 'U'), ('ల్గా', 'U'), ('న', '|'), ('య', '|'), ('థా', 'U'), ('ర్థ', '|'), ('మా', 'U'), ('డి', '|'), ('తి', '|'), ('ని', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బె', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('రా', 'U'), ('రా', 'U'), ('గ', 'U'), ('ద్వే', 'U'), ('ష', '|'), ('వి', '|'), ('దూ', 'U'), ('ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('మూ', 'U'), ('డు', '|'), ('సృ', '|'), ('జిం', 'U'), ('ప', '|'), ('బ్రో', 'U'), ('వ', '|'), ('బి', '|'), ('ద', '|'), ('పన్', 'U'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('ముం', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('ద్రి', '|'), ('గు', '|'), ('ణా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('వ', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తీ', 'U'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వా', 'U'), ('హ', '|'), ('రీ', 'U'), ('ని', '|'), ('గ', '|'), ('మ', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('ప', '|'), ('వి', '|'), ('త్ర', '|'), ('గా', 'U'), ('త్ర', '|'), ('నృ', '|'), ('హ', '|'), ('రీ', 'U'), ('నీ', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('వ', 'U'), ('ర్ణా', 'U'), ('మ', '|'), ('హో', 'U'), ('ర', '|'), ('గ', '|'), ('త', 'U'), ('ల్పా', 'U'), ('జ', '|'), ('న', '|'), ('క', 'U'), ('ల్ప', '|'), ('భూ', 'U'), ('జ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('జ', '|'), ('గ', '|'), ('ము', 'U'), ('ల్మూ', 'U'), ('డు', '|'), ('సృ', '|'), ('జిం', 'U'), ('ప', '|'), ('బ్రో', 'U'), ('వ', '|'), ('బి', '|'), ('ద', '|'), ('ప', 'U'), ('న్సం', 'U'), ('హా', 'U'), ('ర', '|'), ('ముం', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('ద్రి', '|'), ('గు', '|'), ('ణా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('వ', '|'), ('ర', '|'), ('మూ', 'U'), ('ర్తీ', 'U'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వా', 'U'), ('హ', '|'), ('రీ', 'U'), ('ని', '|'), ('గ', '|'), ('మ', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('ప', '|'), ('వి', '|'), ('త్ర', '|'), ('గా', 'U'), ('త్ర', '|'), ('నృ', '|'), ('హ', '|'), ('రీ', 'U'), ('నీ', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('వ', 'U'), ('ర్ణా', 'U'), ('మ', '|'), ('హో', 'U'), ('ర', '|'), ('గ', '|'), ('త', 'U'), ('ల్పా', 'U'), ('జ', '|'), ('న', '|'), ('క', 'U'), ('ల్ప', '|'), ('భూ', 'U'), ('జ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('చా', 'U'), ('రి', '|'), ('త్ర', '|'), ('ము', '|'), ('జె', 'U'), ('ప్ప', '|'), ('న', 'U'), ('ద్భు', '|'), ('త', '|'), ('మ', '|'), ('గు', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('సం', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('నం', 'U'), ('బా', 'U'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('న', '|'), ('కై', 'U'), ('న', '|'), ('మో', 'U'), ('క్ష', '|'), ('మొ', '|'), ('స', '|'), ('గు', 'U'), ('న్హ', 'U'), ('త్యా', 'U'), ('ది', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వే', 'U'), ('చిం', 'U'), ('చున్', 'U'), ('వి', '|'), ('ద', '|'), ('ళిం', 'U'), ('చు', '|'), ('ద్రుం', 'U'), ('చు', '|'), ('దు', '|'), ('ను', '|'), ('మున్', 'U'), ('వే', 'U'), ('టా', 'U'), ('డు', '|'), ('నం', 'U'), ('టం', 'U'), ('బ', '|'), ('డున్', 'U'), ('రా', 'U'), ('చుం', 'U'), ('ద్రో', 'U'), ('చు', '|'), ('న', '|'), ('డం', 'U'), ('చు', '|'), ('నొం', 'U'), ('చు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('నీ', 'U'), ('చా', 'U'), ('రి', '|'), ('త్ర', '|'), ('ము', '|'), ('జె', 'U'), ('ప్ప', '|'), ('న', 'U'), ('ద్భు', '|'), ('త', '|'), ('మ', '|'), ('గు', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('సం', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('నం', 'U'), ('బా', 'U'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('న', '|'), ('కై', 'U'), ('న', '|'), ('మో', 'U'), ('క్ష', '|'), ('మొ', '|'), ('స', '|'), ('గు', 'U'), ('న్హ', 'U'), ('త్యా', 'U'), ('ది', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వే', 'U'), ('చిం', 'U'), ('చు', 'U'), ('న్వి', '|'), ('ద', '|'), ('ళిం', 'U'), ('చు', '|'), ('ద్రుం', 'U'), ('చు', '|'), ('దు', '|'), ('ను', '|'), ('ము', 'U'), ('న్వే', 'U'), ('టా', 'U'), ('డు', '|'), ('నం', 'U'), ('టం', 'U'), ('బ', '|'), ('డున్', 'U'), ('రా', 'U'), ('చుం', 'U'), ('ద్రో', 'U'), ('చు', '|'), ('న', '|'), ('డం', 'U'), ('చు', '|'), ('నొం', 'U'), ('చు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('తే', 'U'), ('జం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('ద్రే', 'U'), ('తా', 'U'), ('యు', '|'), ('గాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('రా', 'U'), ('జై', 'U'), ('పు', 'U'), ('ట్టి', '|'), ('తి', '|'), ('విం', 'U'), ('క', '|'), ('నీ', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('గాం', 'U'), ('త్యం', 'U'), ('బం', 'U'), ('దు', '|'), ('నన్', 'U'), ('రౌ', 'U'), ('త', '|'), ('వై', 'U'), ('వా', 'U'), ('జిం', 'U'), ('దో', 'U'), ('లి', '|'), ('వి', '|'), ('రో', 'U'), ('ధు', '|'), ('లం', 'U'), ('దు', '|'), ('ను', '|'), ('మ', '|'), ('దే', 'U'), ('వా', 'U'), ('నీ', 'U'), ('వ', '|'), ('యొం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డా', 'U'), ('రా', 'U'), ('జున్', 'U'), ('రౌ', 'U'), ('తు', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('తే', 'U'), ('జం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('మొ', '|'), ('ద', '|'), ('లం', 'U'), ('ద్రే', 'U'), ('తా', 'U'), ('యు', '|'), ('గాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('రా', 'U'), ('జై', 'U'), ('పు', 'U'), ('ట్టి', '|'), ('తి', '|'), ('విం', 'U'), ('క', '|'), ('నీ', 'U'), ('క', '|'), ('లి', '|'), ('యు', '|'), ('గాం', 'U'), ('త్యం', 'U'), ('బం', 'U'), ('దు', '|'), ('న', '|'), ('న్రౌ', 'U'), ('త', '|'), ('వై', 'U'), ('వా', 'U'), ('జిం', 'U'), ('దో', 'U'), ('లి', '|'), ('వి', '|'), ('రో', 'U'), ('ధు', '|'), ('లం', 'U'), ('దు', '|'), ('ను', '|'), ('మ', '|'), ('దే', 'U'), ('వా', 'U'), ('నీ', 'U'), ('వ', '|'), ('యొం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డా', 'U'), ('రా', 'U'), ('జు', '|'), ('న్రౌ', 'U'), ('తు', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('గా', 'U'), ('జుం', 'U'), ('బూ', 'U'), ('స', '|'), ('సు', '|'), ('రేం', 'U'), ('ద్ర', '|'), ('నీ', 'U'), ('ల', '|'), ('మ', '|'), ('ణి', '|'), ('గా', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('బా', 'U'), ('జుం', 'U'), ('జ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('మీ', 'U'), ('ది', '|'), ('బే', 'U'), ('గ', '|'), ('డ', '|'), ('పొ', '|'), ('రల్', 'U'), ('బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మౌ', 'U'), ('రీ', 'U'), ('తి', '|'), ('గన్', 'U'), ('నా', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ప', '|'), ('వి', '|'), ('త్ర', '|'), ('భా', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('న', 'U'), ('న్నే', 'U'), ('ల', '|'), ('రా', 'U'), ('వే', 'U'), ('ల', '|'), ('రా', 'U'), ('రా', 'U'), ('జీ', 'U'), ('వా', 'U'), ('క్ష', '|'), ('కృ', '|'), ('పా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('గా', 'U'), ('జుం', 'U'), ('బూ', 'U'), ('స', '|'), ('సు', '|'), ('రేం', 'U'), ('ద్ర', '|'), ('నీ', 'U'), ('ల', '|'), ('మ', '|'), ('ణి', '|'), ('గా', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('చు', '|'), ('చం', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('బా', 'U'), ('జుం', 'U'), ('జ', 'U'), ('ర్మ', '|'), ('ము', '|'), ('మీ', 'U'), ('ది', '|'), ('బే', 'U'), ('గ', '|'), ('డ', '|'), ('పొ', '|'), ('ర', 'U'), ('ల్బం', 'U'), ('గా', 'U'), ('ర', '|'), ('మౌ', 'U'), ('రీ', 'U'), ('తి', '|'), ('గన్', 'U'), ('నా', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ప', '|'), ('వి', '|'), ('త్ర', '|'), ('భా', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('న', 'U'), ('న్నే', 'U'), ('ల', '|'), ('రా', 'U'), ('వే', 'U'), ('ల', '|'), ('రా', 'U'), ('రా', 'U'), ('జీ', 'U'), ('వా', 'U'), ('క్ష', '|'), ('కృ', '|'), ('పా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('నా', 'U'), ('జ', 'U'), ('న్మాం', 'U'), ('త', '|'), ('ర', '|'), ('వా', 'U'), ('స', '|'), ('నా', 'U'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('నన్', 'U'), ('నా', 'U'), ('పా', 'U'), ('లి', '|'), ('భా', 'U'), ('గ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నా', 'U'), ('జా', 'U'), ('డ్యం', 'U'), ('బు', '|'), ('లు', '|'), ('పో', 'U'), ('వు', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('త', '|'), ('ఱిన్', 'U'), ('నా', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('పా', 'U'), ('కం', 'U'), ('బు', '|'), ('నం', 'U'), ('దీ', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('లి', '|'), ('గె', 'U'), ('న్హీ', 'U'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('నిం', 'U'), ('క', '|'), ('నే', 'U'), ('రా', 'U'), ('జ', 'U'), ('న్నా', 'U'), ('కె', '|'), ('దు', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', 'U'), ('ర్వి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('నా', 'U'), ('జ', 'U'), ('న్మాం', 'U'), ('త', '|'), ('ర', '|'), ('వా', 'U'), ('స', '|'), ('నా', 'U'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('న', 'U'), ('న్నా', 'U'), ('పా', 'U'), ('లి', '|'), ('భా', 'U'), ('గ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('నా', 'U'), ('జా', 'U'), ('డ్యం', 'U'), ('బు', '|'), ('లు', '|'), ('పో', 'U'), ('వు', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('త', '|'), ('ఱి', 'U'), ('న్నా', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('పా', 'U'), ('కం', 'U'), ('బు', '|'), ('నం', 'U'), ('దీ', 'U'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('లి', '|'), ('గె', 'U'), ('న్హీ', 'U'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('నిం', 'U'), ('క', '|'), ('నే', 'U'), ('రా', 'U'), ('జ', 'U'), ('న్నా', 'U'), ('కె', '|'), ('దు', '|'), ('రె', 'U'), ('వ్వ', '|'), ('రు', 'U'), ('ర్వి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('నే', 'U'), ('టం', 'U'), ('దీ', 'U'), ('ఱె', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('నుం', 'U'), ('డి', 'U'), ('న్న', 'U'), ('న్ను', '|'), ('వెం', 'U'), ('టా', 'U'), ('డు', '|'), ('చున్', 'U'), ('వా', 'U'), ('టం', 'U'), ('బై', 'U'), ('చ', '|'), ('ను', '|'), ('దెం', 'U'), ('చు', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('శ్రీ', 'U'), ('వ', 'U'), ('త్సాం', 'U'), ('క', '|'), ('యీ', 'U'), ('వం', 'U'), ('క', '|'), ('నీ', 'U'), ('పా', 'U'), ('టల్', 'U'), ('పా', 'U'), ('ఠ', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('మ', '|'), ('ఱిం', 'U'), ('బా', 'U'), ('పం', 'U'), ('బు', '|'), ('లం', 'U'), ('బా', 'U'), ('పు', '|'), ('గ', 'U'), ('ర్ణా', 'U'), ('టా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('యొం', 'U'), ('టి', '|'), ('మి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('నే', 'U'), ('టం', 'U'), ('దీ', 'U'), ('ఱె', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('నుం', 'U'), ('డి', 'U'), ('న్న', 'U'), ('న్ను', '|'), ('వెం', 'U'), ('టా', 'U'), ('డు', '|'), ('చున్', 'U'), ('వా', 'U'), ('టం', 'U'), ('బై', 'U'), ('చ', '|'), ('ను', '|'), ('దెం', 'U'), ('చు', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('శ్రీ', 'U'), ('వ', 'U'), ('త్సాం', 'U'), ('క', '|'), ('యీ', 'U'), ('వం', 'U'), ('క', '|'), ('నీ', 'U'), ('పా', 'U'), ('ట', 'U'), ('ల్పా', 'U'), ('ఠ', '|'), ('ము', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('మ', '|'), ('ఱిం', 'U'), ('బా', 'U'), ('పం', 'U'), ('బు', '|'), ('లం', 'U'), ('బా', 'U'), ('పు', '|'), ('గ', 'U'), ('ర్ణా', 'U'), ('టా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('యొం', 'U'), ('టి', '|'), ('మి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('టు', '|'), ('ని', 'U'), ('ర్ఘా', 'U'), ('త', '|'), ('క', '|'), ('ఠో', 'U'), ('ర', '|'), ('నా', 'U'), ('ద', '|'), ('ము', '|'), ('ఘ', '|'), ('న', '|'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డం', 'U'), ('బు', '|'), ('బి', 'U'), ('క్క', '|'), ('టి', '|'), ('లం', 'U'), ('జే', 'U'), ('యు', '|'), ('చు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డి', '|'), ('త', '|'), ('రుల్', 'U'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లె', 'U'), ('న్ను', '|'), ('ట', '|'), ('మే', 'U'), ('లం', 'U'), ('దు', '|'), ('రు', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వుల్', 'U'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('ర', 'U'), ('న్యుం', 'U'), ('గో', 'U'), ('రి', '|'), ('యెం', 'U'), ('తెం', 'U'), ('త', '|'), ('దు', 'U'), ('ర్ఘ', '|'), ('ట', '|'), ('ముల్', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('ని', 'U'), ('న్నె', '|'), ('గా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ప', '|'), ('టు', '|'), ('ని', 'U'), ('ర్ఘా', 'U'), ('త', '|'), ('క', '|'), ('ఠో', 'U'), ('ర', '|'), ('నా', 'U'), ('ద', '|'), ('ము', '|'), ('ఘ', '|'), ('న', '|'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డ', '|'), ('భాం', 'U'), ('డం', 'U'), ('బు', '|'), ('బి', 'U'), ('క్క', '|'), ('టి', '|'), ('లం', 'U'), ('జే', 'U'), ('యు', '|'), ('చు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డి', '|'), ('త', '|'), ('రు', 'U'), ('ల్గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లె', 'U'), ('న్ను', '|'), ('ట', '|'), ('మే', 'U'), ('లం', 'U'), ('దు', '|'), ('రు', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వు', 'U'), ('ల్త', '|'), ('ల', '|'), ('ప', '|'), ('ర', 'U'), ('న్యుం', 'U'), ('గో', 'U'), ('రి', '|'), ('యెం', 'U'), ('తెం', 'U'), ('త', '|'), ('దు', 'U'), ('ర్ఘ', '|'), ('ట', '|'), ('ము', 'U'), ('ల్వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('ని', 'U'), ('న్నె', '|'), ('గా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('డు', '|'), ('కు', 'U'), ('ల్బ్ర', 'U'), ('హ్మ', '|'), ('లు', '|'), ('కూ', 'U'), ('తు', '|'), ('రీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('శి', '|'), ('రః', 'U'), ('కూ', 'U'), ('టం', 'U'), ('బు', '|'), ('పై', 'U'), ('గా', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('డు', '|'), ('రా', 'U'), ('జుం', 'U'), ('ది', '|'), ('న', '|'), ('రా', 'U'), ('జు', '|'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('హి', '|'), ('రా', 'U'), ('జు', 'U'), ('య్యా', 'U'), ('ల', '|'), ('మం', 'U'), ('చం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ప', '|'), ('డ', '|'), ('తుల్', 'U'), ('శ్రీ', 'U'), ('యు', '|'), ('ధ', '|'), ('రి', '|'), ('త్రి', '|'), ('యు', 'U'), ('న్స', '|'), ('వ', '|'), ('తు', '|'), ('చె', 'U'), ('ప్పన్', 'U'), ('లే', 'U'), ('రు', '|'), ('నీ', 'U'), ('క', 'U'), ('న్యు', '|'), ('లా', 'U'), ('ఱ', '|'), ('డి', '|'), ('మ', 'U'), ('ర్త్యు', 'U'), ('ల్గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('కొ', '|'), ('డు', '|'), ('కు', 'U'), ('ల్బ్ర', 'U'), ('హ్మ', '|'), ('లు', '|'), ('కూ', 'U'), ('తు', '|'), ('రీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('శి', '|'), ('రః', 'U'), ('కూ', 'U'), ('టం', 'U'), ('బు', '|'), ('పై', 'U'), ('గా', 'U'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('డు', '|'), ('రా', 'U'), ('జుం', 'U'), ('ది', '|'), ('న', '|'), ('రా', 'U'), ('జు', '|'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('హి', '|'), ('రా', 'U'), ('జు', 'U'), ('య్యా', 'U'), ('ల', '|'), ('మం', 'U'), ('చం', 'U'), ('బు', '|'), ('నీ', 'U'), ('ప', '|'), ('డ', '|'), ('తు', 'U'), ('ల్శ్రీ', 'U'), ('యు', '|'), ('ధ', '|'), ('రి', '|'), ('త్రి', '|'), ('యు', 'U'), ('న్స', '|'), ('వ', '|'), ('తు', '|'), ('చె', 'U'), ('ప్ప', 'U'), ('న్లే', 'U'), ('రు', '|'), ('నీ', 'U'), ('క', 'U'), ('న్యు', '|'), ('లా', 'U'), ('ఱ', '|'), ('డి', '|'), ('మ', 'U'), ('ర్త్యు', 'U'), ('ల్గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('గా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('డి', '|'), ('మీ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('న', '|'), ('మో', 'U'), ('ఘ', '|'), ('మై', 'U'), ('ని', '|'), ('గు', '|'), ('డు', '|'), ('నీ', 'U'), ('వా', 'U'), ('ల', 'U'), ('మ్ము', '|'), ('వా', 'U'), ('ల', 'U'), ('మ్ము', '|'), ('దా', 'U'), ('కె', '|'), ('డు', '|'), ('నం', 'U'), ('చున్', 'U'), ('మె', '|'), ('డ', '|'), ('యొ', 'U'), ('డ్డి', '|'), ('నన్', 'U'), ('జ', '|'), ('మ', '|'), ('రి', '|'), ('పై', 'U'), ('గీ', 'U'), ('ల్కొ', 'U'), ('న్న', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('మే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('ము', 'U'), ('న్నే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('మ్ము', '|'), ('వే', 'U'), ('ఱె', '|'), ('యొ', '|'), ('క', '|'), ('నా', 'U'), ('రా', 'U'), ('చ', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('పే', 'U'), ('ర్ప', '|'), ('డి', '|'), ('తౌ', 'U'), ('రా', 'U'), ('వి', '|'), ('లు', '|'), ('కాం', 'U'), ('డ్ర', '|'), ('లో', 'U'), ('న', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('వ', '|'), ('డి', '|'), ('మీ', 'U'), ('ఱం', 'U'), ('గ', '|'), ('న', '|'), ('మో', 'U'), ('ఘ', '|'), ('మై', 'U'), ('ని', '|'), ('గు', '|'), ('డు', '|'), ('నీ', 'U'), ('వా', 'U'), ('ల', 'U'), ('మ్ము', '|'), ('వా', 'U'), ('ల', 'U'), ('మ్ము', '|'), ('దా', 'U'), ('కె', '|'), ('డు', '|'), ('నం', 'U'), ('చు', 'U'), ('న్మె', '|'), ('డ', '|'), ('యొ', 'U'), ('డ్డి', '|'), ('న', 'U'), ('న్జ', '|'), ('మ', '|'), ('రి', '|'), ('పై', 'U'), ('గీ', 'U'), ('ల్కొ', 'U'), ('న్న', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('మే', 'U'), ('ర్ప', '|'), ('డ', '|'), ('ము', 'U'), ('న్నే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('మ్ము', '|'), ('వే', 'U'), ('ఱె', '|'), ('యొ', '|'), ('క', '|'), ('నా', 'U'), ('రా', 'U'), ('చ', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('పే', 'U'), ('ర్ప', '|'), ('డి', '|'), ('తౌ', 'U'), ('రా', 'U'), ('వి', '|'), ('లు', '|'), ('కాం', 'U'), ('డ్ర', '|'), ('లో', 'U'), ('న', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('డు', '|'), ('గ', 'U'), ('న్గ', 'U'), ('ష్టు', '|'), ('డ', '|'), ('దు', 'U'), ('ష్ట', '|'), ('చి', 'U'), ('త్తు', '|'), ('డ', '|'), ('బ', '|'), ('ర', 'U'), ('స్త్రీ', 'U'), ('లో', 'U'), ('లు', '|'), ('డ', 'U'), ('న్బా', 'U'), ('లు', '|'), ('డన్', 'U'), ('జ', '|'), ('డు', '|'), ('డ', 'U'), ('న్మూ', 'U'), ('ఢు', '|'), ('డ', '|'), ('గొం', 'U'), ('డె', '|'), ('కా', 'U'), ('డ', '|'), ('ను', '|'), ('దు', '|'), ('రా', 'U'), ('చా', 'U'), ('రి', 'U'), ('న్ని', '|'), ('షి', 'U'), ('ద్ధా', 'U'), ('త్ము', '|'), ('డన్', 'U'), ('గ', '|'), ('డు', '|'), ('సం', 'U'), ('గా', 'U'), ('క', '|'), ('రి', '|'), ('గ', 'U'), ('ల్ల', '|'), ('గు', 'U'), ('ల్ల', '|'), ('గ', '|'), ('ప', '|'), ('టిన్', 'U'), ('గ', 'U'), ('ర్విన్', 'U'), ('న', '|'), ('నుం', 'U'), ('గా', 'U'), ('వు', '|'), ('మూ', 'U'), ('ఱ', '|'), ('డి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('చె', '|'), ('డు', '|'), ('గ', 'U'), ('న్గ', 'U'), ('ష్టు', '|'), ('డ', '|'), ('దు', 'U'), ('ష్ట', '|'), ('చి', 'U'), ('త్తు', '|'), ('డ', '|'), ('బ', '|'), ('ర', 'U'), ('స్త్రీ', 'U'), ('లో', 'U'), ('లు', '|'), ('డ', 'U'), ('న్బా', 'U'), ('లు', '|'), ('డన్', 'U'), ('జ', '|'), ('డు', '|'), ('డ', 'U'), ('న్మూ', 'U'), ('ఢు', '|'), ('డ', '|'), ('గొం', 'U'), ('డె', '|'), ('కా', 'U'), ('డ', '|'), ('ను', '|'), ('దు', '|'), ('రా', 'U'), ('చా', 'U'), ('రి', 'U'), ('న్ని', '|'), ('షి', 'U'), ('ద్ధా', 'U'), ('త్ము', '|'), ('డన్', 'U'), ('గ', '|'), ('డు', '|'), ('సం', 'U'), ('గా', 'U'), ('క', '|'), ('రి', '|'), ('గ', 'U'), ('ల్ల', '|'), ('గు', 'U'), ('ల్ల', '|'), ('గ', '|'), ('ప', '|'), ('టి', 'U'), ('న్గ', 'U'), ('ర్వి', 'U'), ('న్న', '|'), ('నుం', 'U'), ('గా', 'U'), ('వు', '|'), ('మూ', 'U'), ('ఱ', '|'), ('డి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('డు', '|'), ('గు', 'U'), ('న్వి', 'U'), ('ద్య', '|'), ('కు', '|'), ('లో', 'U'), ('ను', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('న', 'U'), ('న్నా', 'U'), ('వం', 'U'), ('త', '|'), ('నా', 'U'), ('వం', 'U'), ('త', '|'), ('లే', 'U'), ('క', '|'), ('డి', '|'), ('యా', 'U'), ('సల్', 'U'), ('గొ', '|'), ('ను', '|'), ('చున్', 'U'), ('దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('కు', '|'), ('ల', '|'), ('నే', 'U'), ('న', 'U'), ('ర్థిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దు', '|'), ('నీ', 'U'), ('వు', '|'), ('న', 'U'), ('న్ను', '|'), ('బ', '|'), ('లె', '|'), ('నె', 'U'), ('న్నం', 'U'), ('బే', 'U'), ('ద', '|'), ('వా', 'U'), ('యే', 'U'), ('ల', '|'), ('యా', 'U'), ('ఱ', '|'), ('డి', '|'), ('బె', 'U'), ('ట్టం', 'U'), ('గ', '|'), ('ర', '|'), ('మా', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('అ', '|'), ('డు', '|'), ('గు', 'U'), ('న్వి', 'U'), ('ద్య', '|'), ('కు', '|'), ('లో', 'U'), ('ను', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వి', '|'), ('న', 'U'), ('న్నా', 'U'), ('వం', 'U'), ('త', '|'), ('నా', 'U'), ('వం', 'U'), ('త', '|'), ('లే', 'U'), ('క', '|'), ('డి', '|'), ('యా', 'U'), ('స', 'U'), ('ల్గొ', '|'), ('ను', '|'), ('చు', 'U'), ('న్దు', '|'), ('రా', 'U'), ('త్మ', '|'), ('కు', '|'), ('ల', '|'), ('నే', 'U'), ('న', 'U'), ('ర్థిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చె', '|'), ('దు', '|'), ('నీ', 'U'), ('వు', '|'), ('న', 'U'), ('న్ను', '|'), ('బ', '|'), ('లె', '|'), ('నె', 'U'), ('న్నం', 'U'), ('బే', 'U'), ('ద', '|'), ('వా', 'U'), ('యే', 'U'), ('ల', '|'), ('యా', 'U'), ('ఱ', '|'), ('డి', '|'), ('బె', 'U'), ('ట్టం', 'U'), ('గ', '|'), ('ర', '|'), ('మా', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('పన్', 'U'), ('మృ', '|'), ('త', '|'), ('దే', 'U'), ('హు', '|'), ('జూ', 'U'), ('చి', '|'), ('బ్ర', '|'), ('ది', '|'), ('కిం', 'U'), ('పన్', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('రు', '|'), ('ద్రుల్', 'U'), ('మ', '|'), ('రు', 'U'), ('ద్గ', '|'), ('ణ', '|'), ('నా', 'U'), ('థా', 'U'), ('దు', '|'), ('లు', '|'), ('నో', 'U'), ('ప', '|'), ('ర', 'U'), ('ద్భు', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('గన్', 'U'), ('నీ', 'U'), ('దు', '|'), ('భృ', 'U'), ('త్యుం', 'U'), ('డు', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ప్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చె', '|'), ('జ', 'U'), ('చ్చి', '|'), ('న', '|'), ('త', '|'), ('ఱిన్', 'U'), ('సం', 'U'), ('జీ', 'U'), ('వ', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('క్రి', '|'), ('యన్', 'U'), ('ర', '|'), ('ణ', '|'), ('భూ', 'U'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('దా', 'U'), ('నె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ప్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('ప', 'U'), ('న్మృ', '|'), ('త', '|'), ('దే', 'U'), ('హు', '|'), ('జూ', 'U'), ('చి', '|'), ('బ్ర', '|'), ('ది', '|'), ('కిం', 'U'), ('ప', 'U'), ('న్బ్ర', 'U'), ('హ్మ', '|'), ('రు', '|'), ('ద్రు', 'U'), ('ల్మ', '|'), ('రు', 'U'), ('ద్గ', '|'), ('ణ', '|'), ('నా', 'U'), ('థా', 'U'), ('దు', '|'), ('లు', '|'), ('నో', 'U'), ('ప', '|'), ('ర', 'U'), ('ద్భు', '|'), ('త', '|'), ('ము', '|'), ('గా', 'U'), ('గ', 'U'), ('న్నీ', 'U'), ('దు', '|'), ('భృ', 'U'), ('త్యుం', 'U'), ('డు', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ప్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చె', '|'), ('జ', 'U'), ('చ్చి', '|'), ('న', '|'), ('త', '|'), ('ఱి', 'U'), ('న్సం', 'U'), ('జీ', 'U'), ('వ', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('క్రి', '|'), ('యన్', 'U'), ('ర', '|'), ('ణ', '|'), ('భూ', 'U'), ('భా', 'U'), ('గ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('దా', 'U'), ('నె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('కొ', 'U'), ('ల్చె', '|'), ('ద', '|'), ('వు', '|'), ('రా', 'U'), ('యే', 'U'), ('నే', 'U'), ('ల', '|'), ('ని', 'U'), ('న్మె', 'U'), ('త్తు', '|'), ('రా', 'U'), ('నీ', 'U'), ('తో', 'U'), ('నా', 'U'), ('కు', '|'), ('బ', '|'), ('నే', 'U'), ('మి', '|'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('క', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('పం', 'U'), ('ద', '|'), ('గు', 'U'), ('న్ము', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('చే', 'U'), ('తన్', 'U'), ('మో', 'U'), ('క్ష', '|'), ('ము', '|'), ('గ', 'U'), ('న్న', '|'), ('వా', 'U'), ('రి', '|'), ('వి', '|'), ('న', '|'), ('మా', 'U'), ('చి', '|'), ('త్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ని', 'U'), ('ర్జ', '|'), ('రా', 'U'), ('రా', 'U'), ('తిన్', 'U'), ('నా', 'U'), ('తి', '|'), ('ని', '|'), ('రా', 'U'), ('తి', '|'), ('దొ', 'U'), ('ల్లి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఏ', 'U'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గి', '|'), ('కొ', 'U'), ('ల్చె', '|'), ('ద', '|'), ('వు', '|'), ('రా', 'U'), ('యే', 'U'), ('నే', 'U'), ('ల', '|'), ('ని', 'U'), ('న్మె', 'U'), ('త్తు', '|'), ('రా', 'U'), ('నీ', 'U'), ('తో', 'U'), ('నా', 'U'), ('కు', '|'), ('బ', '|'), ('నే', 'U'), ('మి', '|'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('క', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('పం', 'U'), ('ద', '|'), ('గు', 'U'), ('న్ము', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('చే', 'U'), ('త', 'U'), ('న్మో', 'U'), ('క్ష', '|'), ('ము', '|'), ('గ', 'U'), ('న్న', '|'), ('వా', 'U'), ('రి', '|'), ('వి', '|'), ('న', '|'), ('మా', 'U'), ('చి', '|'), ('త్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('ని', 'U'), ('ర్జ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', 'U'), ('న్నా', 'U'), ('తి', '|'), ('ని', '|'), ('రా', 'U'), ('తి', '|'), ('దొ', 'U'), ('ల్లి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('దా', 'U'), ('తల్', 'U'), ('ద్రా', 'U'), ('త', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('మ', '|'), ('ఱిన్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లా', 'U'), ('ప్తుల్', 'U'), ('చె', '|'), ('లుల్', 'U'), ('భ్రా', 'U'), ('త', 'U'), ('ల్ద', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('పా', 'U'), ('దా', 'U'), ('ల', '|'), ('పై', 'U'), ('నా', 'U'), ('న', '|'), ('నా', 'U'), ('దా', 'U'), ('త', 'U'), ('ల్ద్రా', 'U'), ('త', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('మ', '|'), ('ఱిన్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లా', 'U'), ('ప్తుల్', 'U'), ('చె', '|'), ('లుల్', 'U'), ('భ్రా', 'U'), ('తల్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('దా', 'U'), ('త', 'U'), ('ల్ద్రా', 'U'), ('త', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('మ', '|'), ('ఱి', 'U'), ('న్దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లా', 'U'), ('ప్తు', 'U'), ('ల్చె', '|'), ('లుల్', 'U'), ('భ్రా', 'U'), ('త', 'U'), ('ల్ద', 'U'), ('క్కి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('పా', 'U'), ('దా', 'U'), ('ల', '|'), ('పై', 'U'), ('నా', 'U'), ('న', '|'), ('నా', 'U'), ('దా', 'U'), ('త', 'U'), ('ల్ద్రా', 'U'), ('త', '|'), ('లు', '|'), ('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('మ', '|'), ('ఱి', 'U'), ('న్దై', 'U'), ('వం', 'U'), ('బు', '|'), ('లా', 'U'), ('ప్తు', 'U'), ('ల్చె', '|'), ('లుల్', 'U'), ('భ్రా', 'U'), ('త', 'U'), ('ల్స', 'U'), ('ర్వ', '|'), ('ము', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('తి', '|'), ('నూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('రు', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱీ', 'U'), ('సు', '|'), ('కృ', '|'), ('త', '|'), ('మే', 'U'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', 'U'), ('న్న', '|'), ('ను', '|'), ('గ్ర', '|'), ('త', '|'), ('పో', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('సా', 'U'), ('మ', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('ను', '|'), ('దీ', 'U'), ('ర్థ', 'U'), ('స్నా', 'U'), ('న', '|'), ('మున్', 'U'), ('దా', 'U'), ('న', '|'), ('మున్', 'U'), ('గ్ర', '|'), ('తు', '|'), ('సం', 'U'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('లే', 'U'), ('ల', '|'), ('నే', 'U'), ('ల', '|'), ('దు', '|'), ('ల', '|'), ('సిం', 'U'), ('గ', 'U'), ('ర్వ', 'U'), ('య్యె', '|'), ('నో', 'U'), ('యూ', 'U'), ('ర', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', 'U'), ('ల్లే', 'U'), ('వొ', '|'), ('న', '|'), ('మ', 'U'), ('స్క', '|'), ('రిం', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('మ', '|'), ('తి', '|'), ('నూ', 'U'), ('హిం', 'U'), ('ప', '|'), ('రు', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱీ', 'U'), ('సు', '|'), ('కృ', '|'), ('త', '|'), ('మే', 'U'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('నం', 'U'), ('దు', 'U'), ('న్న', '|'), ('ను', '|'), ('గ్ర', '|'), ('త', '|'), ('పో', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('ము', '|'), ('సా', 'U'), ('మ', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('ను', '|'), ('దీ', 'U'), ('ర్థ', 'U'), ('స్నా', 'U'), ('న', '|'), ('ము', 'U'), ('న్దా', 'U'), ('న', '|'), ('మున్', 'U'), ('గ్ర', '|'), ('తు', '|'), ('సం', 'U'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('లే', 'U'), ('ల', '|'), ('నే', 'U'), ('ల', '|'), ('దు', '|'), ('ల', '|'), ('సిం', 'U'), ('గ', 'U'), ('ర్వ', 'U'), ('య్యె', '|'), ('నో', 'U'), ('యూ', 'U'), ('ర', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', 'U'), ('ల్లే', 'U'), ('వొ', '|'), ('న', '|'), ('మ', 'U'), ('స్క', '|'), ('రిం', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('తు', '|'), ('లం', 'U'), ('చున్', 'U'), ('హి', '|'), ('తు', '|'), ('లం', 'U'), ('చు', '|'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('లం', 'U'), ('చుం', 'U'), ('ద', 'U'), ('ల్లు', '|'), ('లుం', 'U'), ('దం', 'U'), ('డ్రు', '|'), ('లున్', 'U'), ('స', '|'), ('తు', '|'), ('లుం', 'U'), ('బౌ', 'U'), ('త్రు', '|'), ('లు', '|'), ('నం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చు', '|'), ('కొ', '|'), ('ను', '|'), ('చున్', 'U'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మో', 'U'), ('హా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('గ', '|'), ('త', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ల', '|'), ('దే', 'U'), ('లు', '|'), ('చున్', 'U'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('చున్', 'U'), ('గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('యే', 'U'), ('ని', 'U'), ('న్న', '|'), ('నా', 'U'), ('ర', '|'), ('త', '|'), ('ముం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('మో', 'U'), ('స', '|'), ('గ', 'U'), ('ల్గె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('సు', '|'), ('తు', '|'), ('లం', 'U'), ('చు', 'U'), ('న్హి', '|'), ('తు', '|'), ('లం', 'U'), ('చు', '|'), ('బం', 'U'), ('ధు', '|'), ('జ', '|'), ('ను', '|'), ('లం', 'U'), ('చుం', 'U'), ('ద', 'U'), ('ల్లు', '|'), ('లుం', 'U'), ('దం', 'U'), ('డ్రు', '|'), ('లున్', 'U'), ('స', '|'), ('తు', '|'), ('లుం', 'U'), ('బౌ', 'U'), ('త్రు', '|'), ('లు', '|'), ('నం', 'U'), ('చు', '|'), ('నెం', 'U'), ('చు', '|'), ('కొ', '|'), ('ను', '|'), ('చు', 'U'), ('న్సం', 'U'), ('సా', 'U'), ('ర', '|'), ('మో', 'U'), ('హా', 'U'), ('బ్ధి', '|'), ('లో', 'U'), ('గ', '|'), ('త', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('ల', '|'), ('దే', 'U'), ('లు', '|'), ('చు', 'U'), ('న్ము', '|'), ('ను', '|'), ('గు', '|'), ('చు', 'U'), ('న్గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('యే', 'U'), ('ని', 'U'), ('న్న', '|'), ('నా', 'U'), ('ర', '|'), ('త', '|'), ('ముం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('ని', '|'), ('మో', 'U'), ('స', '|'), ('గ', 'U'), ('ల్గె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('క్షి', '|'), ('తి', '|'), ('లో', 'U'), ('దా', 'U'), ('ము', '|'), ('ను', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('కి', '|'), ('బు', '|'), ('న', 'U'), ('స్సృ', 'U'), ('ష్టిన్', 'U'), ('వి', '|'), ('ని', 'U'), ('ర్మిం', 'U'), ('చి', '|'), ('యున్', 'U'), ('గ్ర', '|'), ('తు', '|'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('వీ', 'U'), ('కం', 'U'), ('దో', 'U'), ('ల', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('నా', 'U'), ('డ', '|'), ('తి', '|'), ('బా', 'U'), ('లున్', 'U'), ('ని', '|'), ('ను', '|'), ('దో', 'U'), ('డు', '|'), ('తో', 'U'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('డా', 'U'), ('గా', 'U'), ('ధి', '|'), ('సూ', 'U'), ('నుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('వీ', 'U'), ('రా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('డిం', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('క్షి', '|'), ('తి', '|'), ('లో', 'U'), ('దా', 'U'), ('ము', '|'), ('ను', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('కి', '|'), ('బు', '|'), ('న', 'U'), ('స్సృ', 'U'), ('ష్టి', 'U'), ('న్వి', '|'), ('ని', 'U'), ('ర్మిం', 'U'), ('చి', '|'), ('యున్', 'U'), ('గ్ర', '|'), ('తు', '|'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('దా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('వీ', 'U'), ('కం', 'U'), ('దో', 'U'), ('ల', '|'), ('గా', 'U'), ('లే', 'U'), ('క', '|'), ('నా', 'U'), ('డ', '|'), ('తి', '|'), ('బా', 'U'), ('లు', 'U'), ('న్ని', '|'), ('ను', '|'), ('దో', 'U'), ('డు', '|'), ('తో', 'U'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('డా', 'U'), ('గా', 'U'), ('ధి', '|'), ('సూ', 'U'), ('నుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('వీ', 'U'), ('రా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('యె', 'U'), ('వ్వ', '|'), ('డిం', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('క్షి', '|'), ('తి', '|'), ('లో', 'U'), ('న', 'U'), ('ల్పు', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('కృ', '|'), ('తుల్', 'U'), ('ఛీ', 'U'), ('ఛీ', 'U'), ('ని', '|'), ('ర', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లౌ', 'U'), ('ను', '|'), ('తి', '|'), ('పా', 'U'), ('త్ర', 'U'), ('మ్ము', '|'), ('లు', '|'), ('గా', 'U'), ('వు', '|'), ('మే', 'U'), ('క', '|'), ('మె', '|'), ('డ', '|'), ('చ', 'U'), ('న్నుల్', 'U'), ('నే', 'U'), ('తి', '|'), ('బీ', 'U'), ('ఱ', 'U'), ('ల్సు', '|'), ('మా', 'U'), ('వి', '|'), ('త', '|'), ('త', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('నీ', 'U'), ('కు', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('కృ', '|'), ('తుల్', 'U'), ('వే', 'U'), ('దా', 'U'), ('లు', '|'), ('శా', 'U'), ('స్త్రా', 'U'), ('లు', '|'), ('భా', 'U'), ('ర', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('య', '|'), ('ణ', '|'), ('ముల్', 'U'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('క్షి', '|'), ('తి', '|'), ('లో', 'U'), ('న', 'U'), ('ల్పు', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('కృ', '|'), ('తు', 'U'), ('ల్ఛీ', 'U'), ('ఛీ', 'U'), ('ని', '|'), ('ర', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('లౌ', 'U'), ('ను', '|'), ('తి', '|'), ('పా', 'U'), ('త్ర', 'U'), ('మ్ము', '|'), ('లు', '|'), ('గా', 'U'), ('వు', '|'), ('మే', 'U'), ('క', '|'), ('మె', '|'), ('డ', '|'), ('చ', 'U'), ('న్ను', 'U'), ('ల్నే', 'U'), ('తి', '|'), ('బీ', 'U'), ('ఱ', 'U'), ('ల్సు', '|'), ('మా', 'U'), ('వి', '|'), ('త', '|'), ('త', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('నీ', 'U'), ('కు', '|'), ('జె', 'U'), ('ప్పి', '|'), ('న', '|'), ('కృ', '|'), ('తు', 'U'), ('ల్వే', 'U'), ('దా', 'U'), ('లు', '|'), ('శా', 'U'), ('స్త్రా', 'U'), ('లు', '|'), ('భా', 'U'), ('ర', '|'), ('త', '|'), ('రా', 'U'), ('మా', 'U'), ('య', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్ద', '|'), ('లం', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('సం', 'U'), ('తా', 'U'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('బా', 'U'), ('రి', '|'), ('జా', 'U'), ('త', '|'), ('క', '|'), ('మ', '|'), ('హీ', 'U'), ('జా', 'U'), ('తం', 'U'), ('బు', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మున్', 'U'), ('జిం', 'U'), ('తా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('గా', 'U'), ('మ', '|'), ('ధే', 'U'), ('ను', '|'), ('వు', '|'), ('సు', '|'), ('ధా', 'U'), ('సిం', 'U'), ('ధూ', 'U'), ('త్త', '|'), ('మం', 'U'), ('బున్', 'U'), ('మ', '|'), ('దిన్', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('పన్', 'U'), ('స', '|'), ('రి', '|'), ('గా', 'U'), ('వు', '|'), ('నీ', 'U'), ('కు', '|'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('శ్రీ', 'U'), ('ధా', 'U'), ('మ', '|'), ('యో', 'U'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('శ్రాం', 'U'), ('త', 'U'), ('త్యా', 'U'), ('గ', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('పా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('సం', 'U'), ('తా', 'U'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('బా', 'U'), ('రి', '|'), ('జా', 'U'), ('త', '|'), ('క', '|'), ('మ', '|'), ('హీ', 'U'), ('జా', 'U'), ('తం', 'U'), ('బు', '|'), ('మం', 'U'), ('దా', 'U'), ('ర', '|'), ('మున్', 'U'), ('జిం', 'U'), ('తా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('గా', 'U'), ('మ', '|'), ('ధే', 'U'), ('ను', '|'), ('వు', '|'), ('సు', '|'), ('ధా', 'U'), ('సిం', 'U'), ('ధూ', 'U'), ('త్త', '|'), ('మం', 'U'), ('బు', 'U'), ('న్మ', '|'), ('దిన్', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('ప', 'U'), ('న్స', '|'), ('రి', '|'), ('గా', 'U'), ('వు', '|'), ('నీ', 'U'), ('కు', '|'), ('వి', '|'), ('జ', '|'), ('య', '|'), ('శ్రీ', 'U'), ('ధా', 'U'), ('మ', '|'), ('యో', 'U'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('శ్రాం', 'U'), ('త', 'U'), ('త్యా', 'U'), ('గ', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('పా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('దై', 'U'), ('వా', 'U'), ('ల', '|'), ('వ', '|'), ('రా', 'U'), ('ల', '|'), ('కం', 'U'), ('టె', '|'), ('సు', '|'), ('ల', '|'), ('భం', 'U'), ('బె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కై', 'U'), ('నన్', 'U'), ('మ', '|'), ('దిన్', 'U'), ('నీ', 'U'), ('దా', 'U'), ('తృ', 'U'), ('త్వ', '|'), ('ము', '|'), ('చె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ల', '|'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('టేన్', 'U'), ('గా', 'U'), ('తు', '|'), ('విం', 'U'), ('తే', 'U'), ('ల', '|'), ('నీ', 'U'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('ర', '|'), ('జం', 'U'), ('బు', '|'), ('రా', 'U'), ('తి', '|'), ('క', '|'), ('యి', '|'), ('నన్', 'U'), ('బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లీ', 'U'), ('జా', 'U'), ('లు', '|'), ('నౌ', 'U'), ('రా', 'U'), ('ది', 'U'), ('క్పూ', 'U'), ('రి', '|'), ('త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('పూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఏ', 'U'), ('దై', 'U'), ('వా', 'U'), ('ల', '|'), ('వ', '|'), ('రా', 'U'), ('ల', '|'), ('కం', 'U'), ('టె', '|'), ('సు', '|'), ('ల', '|'), ('భం', 'U'), ('బె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కై', 'U'), ('న', 'U'), ('న్మ', '|'), ('దిన్', 'U'), ('నీ', 'U'), ('దా', 'U'), ('తృ', 'U'), ('త్వ', '|'), ('ము', '|'), ('చె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ల', '|'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('టే', 'U'), ('న్గా', 'U'), ('తు', '|'), ('విం', 'U'), ('తే', 'U'), ('ల', '|'), ('నీ', 'U'), ('పా', 'U'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('ర', '|'), ('జం', 'U'), ('బు', '|'), ('రా', 'U'), ('తి', '|'), ('క', '|'), ('యి', '|'), ('న', 'U'), ('న్బ్రా', 'U'), ('ణం', 'U'), ('బు', '|'), ('లీ', 'U'), ('జా', 'U'), ('లు', '|'), ('నౌ', 'U'), ('రా', 'U'), ('ది', 'U'), ('క్పూ', 'U'), ('రి', '|'), ('త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('పూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('విం', 'U'), ('దున్', 'U'), ('వే', 'U'), ('ద', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('గో', 'U'), ('విం', 'U'), ('దున్', 'U'), ('ము', '|'), ('కుం', 'U'), ('దున్', 'U'), ('హ', '|'), ('రిన్', 'U'), ('విం', 'U'), ('దున్', 'U'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('భ', 'U'), ('క్త', '|'), ('సు', '|'), ('ల', '|'), ('భున్', 'U'), ('వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('రున్', 'U'), ('స', 'U'), ('చ్చి', '|'), ('దా', 'U'), ('నం', 'U'), ('దున్', 'U'), ('నం', 'U'), ('దు', '|'), ('డు', '|'), ('క', 'U'), ('న్న', '|'), ('చి', 'U'), ('న్న', '|'), ('శి', '|'), ('శు', '|'), ('వున్', 'U'), ('నా', 'U'), ('పా', 'U'), ('లి', '|'), ('పా', 'U'), ('పా', 'U'), ('ళి', '|'), ('బా', 'U'), ('ఱం', 'U'), ('దో', 'U'), ('లం', 'U'), ('గ', '|'), ('నృ', '|'), ('సిం', 'U'), ('హు', '|'), ('ని', 'U'), ('న్ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('విం', 'U'), ('దు', 'U'), ('న్వే', 'U'), ('ద', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('గో', 'U'), ('విం', 'U'), ('దు', 'U'), ('న్ము', '|'), ('కుం', 'U'), ('దు', 'U'), ('న్హ', '|'), ('రిన్', 'U'), ('విం', 'U'), ('దు', 'U'), ('న్వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('భ', 'U'), ('క్త', '|'), ('సు', '|'), ('ల', '|'), ('భు', 'U'), ('న్వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('రు', 'U'), ('న్స', 'U'), ('చ్చి', '|'), ('దా', 'U'), ('నం', 'U'), ('దు', 'U'), ('న్నం', 'U'), ('దు', '|'), ('డు', '|'), ('క', 'U'), ('న్న', '|'), ('చి', 'U'), ('న్న', '|'), ('శి', '|'), ('శు', '|'), ('వు', 'U'), ('న్నా', 'U'), ('పా', 'U'), ('లి', '|'), ('పా', 'U'), ('పా', 'U'), ('ళి', '|'), ('బా', 'U'), ('ఱం', 'U'), ('దో', 'U'), ('లం', 'U'), ('గ', '|'), ('నృ', '|'), ('సిం', 'U'), ('హు', '|'), ('ని', 'U'), ('న్ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('సం', 'U'), ('దిం', 'U'), ('బూ', 'U'), ('స', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('వ', '|'), ('చ', '|'), ('ర', 'U'), ('క్షా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జం', 'U'), ('బు', '|'), ('బెం', 'U'), ('పొం', 'U'), ('దన్', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('రి', '|'), ('పు', 'U'), ('వ్యూ', 'U'), ('హం', 'U'), ('బు', '|'), ('లో', 'U'), ('నై', 'U'), ('న', '|'), ('నే', 'U'), ('కం', 'U'), ('దుం', 'U'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('వ', '|'), ('జ్ర', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('గా', 'U'), ('పు', 'U'), ('న్న', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('బా', 'U'), ('ఱం', 'U'), ('దో', 'U'), ('లుం', 'U'), ('బ', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('నౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('సం', 'U'), ('దిం', 'U'), ('బూ', 'U'), ('స', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('వ', '|'), ('చ', '|'), ('ర', 'U'), ('క్షా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('రా', 'U'), ('జం', 'U'), ('బు', '|'), ('బెం', 'U'), ('పొం', 'U'), ('ద', 'U'), ('న్వ్రా', 'U'), ('సి', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('త', '|'), ('డు', '|'), ('రి', '|'), ('పు', 'U'), ('వ్యూ', 'U'), ('హం', 'U'), ('బు', '|'), ('లో', 'U'), ('నై', 'U'), ('న', '|'), ('నే', 'U'), ('కం', 'U'), ('దుం', 'U'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('వ', '|'), ('జ్ర', '|'), ('పం', 'U'), ('జ', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('గా', 'U'), ('పు', 'U'), ('న్న', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('బా', 'U'), ('ఱం', 'U'), ('దో', 'U'), ('లుం', 'U'), ('బ', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('నౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('వృ', '|'), ('థ', '|'), ('గా', 'U'), ('దె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('గృ', '|'), ('పన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వా', 'U'), ('డే', 'U'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('ముల్', 'U'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('న', 'U'), ('ట్లె', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('వు', '|'), ('గా', 'U'), ('ర', 'U'), ('క్షా', 'U'), ('వి', '|'), ('ధే', 'U'), ('యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('క', '|'), ('థ', '|'), ('గా', 'U'), ('దీ', 'U'), ('వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('ని', 'U'), ('క్క', '|'), ('మ', '|'), ('టు', '|'), ('లే', 'U'), ('కా', 'U'), ('దే', 'U'), ('ని', '|'), ('ము', 'U'), ('న్నే', 'U'), ('ల', '|'), ('సా', 'U'), ('ర', '|'), ('థి', '|'), ('వై', 'U'), ('త', 'U'), ('ర్జు', '|'), ('ను', '|'), ('తే', 'U'), ('రి', '|'), ('దో', 'U'), ('ల', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('వృ', '|'), ('థ', '|'), ('గా', 'U'), ('దె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('న', '|'), ('గృ', '|'), ('ప', 'U'), ('న్వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('వా', 'U'), ('డే', 'U'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('ము', 'U'), ('ల్వే', 'U'), ('డి', '|'), ('న', '|'), ('న', 'U'), ('ట్లె', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('వు', '|'), ('గా', 'U'), ('ర', 'U'), ('క్షా', 'U'), ('వి', '|'), ('ధే', 'U'), ('యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('క', '|'), ('థ', '|'), ('గా', 'U'), ('దీ', 'U'), ('వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('ని', 'U'), ('క్క', '|'), ('మ', '|'), ('టు', '|'), ('లే', 'U'), ('కా', 'U'), ('దే', 'U'), ('ని', '|'), ('ము', 'U'), ('న్నే', 'U'), ('ల', '|'), ('సా', 'U'), ('ర', '|'), ('థి', '|'), ('వై', 'U'), ('త', 'U'), ('ర్జు', '|'), ('ను', '|'), ('తే', 'U'), ('రి', '|'), ('దో', 'U'), ('ల', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('ఘ', '|'), ('న', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('ను', '|'), ('లో', 'U'), ('ని', '|'), ('కిం', 'U'), ('గొ', '|'), ('ని', '|'), ('న', '|'), ('శ్రీ', 'U'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('బై', 'U'), ('బూ', 'U'), ('సి', '|'), ('నన్', 'U'), ('ది', '|'), ('న', '|'), ('మున్', 'U'), ('మ', 'U'), ('ర్ద', '|'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('నం', 'U'), ('గ', '|'), ('డి', '|'), ('గి', '|'), ('నన్', 'U'), ('ది', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('లో', 'U'), ('నం', 'U'), ('దొ', '|'), ('లం', 'U'), ('గ', '|'), ('ని', '|'), ('దు', 'U'), ('ర్గం', 'U'), ('ధ', '|'), ('ము', '|'), ('నై', 'U'), ('జ', '|'), ('మీ', 'U'), ('ము', '|'), ('ఱి', '|'), ('కి', '|'), ('డొ', 'U'), ('క్కల్', 'U'), ('న', 'U'), ('మ్మి', '|'), ('ని', 'U'), ('న్గొ', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('ల', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఘ', '|'), ('న', '|'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('ను', '|'), ('లో', 'U'), ('ని', '|'), ('కిం', 'U'), ('గొ', '|'), ('ని', '|'), ('న', '|'), ('శ్రీ', 'U'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('బై', 'U'), ('బూ', 'U'), ('సి', '|'), ('నన్', 'U'), ('ది', '|'), ('న', '|'), ('ము', 'U'), ('న్మ', 'U'), ('ర్ద', '|'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('నం', 'U'), ('గ', '|'), ('డి', '|'), ('గి', '|'), ('న', 'U'), ('న్ది', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('లో', 'U'), ('నం', 'U'), ('దొ', '|'), ('లం', 'U'), ('గ', '|'), ('ని', '|'), ('దు', 'U'), ('ర్గం', 'U'), ('ధ', '|'), ('ము', '|'), ('నై', 'U'), ('జ', '|'), ('మీ', 'U'), ('ము', '|'), ('ఱి', '|'), ('కి', '|'), ('డొ', 'U'), ('క్క', 'U'), ('ల్న', 'U'), ('మ్మి', '|'), ('ని', 'U'), ('న్గొ', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('ల', '|'), ('నే', 'U'), ('మి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('ము', '|'), ('ను', '|'), ('నే', 'U'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ప', '|'), ('ఠ', '|'), ('నం', 'U'), ('బుల్', 'U'), ('రి', 'U'), ('త్త', '|'), ('తీ', 'U'), ('ర్థా', 'U'), ('ట', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('బో', 'U'), ('ను', '|'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బున్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('జే', 'U'), ('యన్', 'U'), ('మ', '|'), ('తి', '|'), ('లే', 'U'), ('దు', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('న', '|'), ('క', 'U'), ('ర్థం', 'U'), ('బ', 'U'), ('ల్ప', '|'), ('మిం', 'U'), ('కె', 'U'), ('ట్లు', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('నా', 'U'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('ముల్', 'U'), ('దొ', '|'), ('లం', 'U'), ('గు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ము', '|'), ('ను', '|'), ('నే', 'U'), ('నె', 'U'), ('న్న', '|'), ('డు', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ప', '|'), ('ఠ', '|'), ('నం', 'U'), ('బు', '|'), ('ల్రి', 'U'), ('త్త', '|'), ('తీ', 'U'), ('ర్థా', 'U'), ('ట', '|'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('బో', 'U'), ('ను', '|'), ('స', '|'), ('త', '|'), ('తం', 'U'), ('బు', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('జే', 'U'), ('య', 'U'), ('న్మ', '|'), ('తి', '|'), ('లే', 'U'), ('దు', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('న', '|'), ('క', 'U'), ('ర్థం', 'U'), ('బ', 'U'), ('ల్ప', '|'), ('మిం', 'U'), ('కె', 'U'), ('ట్లు', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('నా', 'U'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('ము', 'U'), ('ల్దొ', '|'), ('లం', 'U'), ('గు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ను', '|'), ('నా', 'U'), ('కె', 'U'), ('న్ని', '|'), ('యొ', '|'), ('దో', 'U'), ('స', '|'), ('ముల్', 'U'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('నొ', 'U'), ('ప్పిం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('మ్రం', 'U'), ('ద', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('రౌ', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('గ', '|'), ('గా', 'U'), ('లు', '|'), ('బం', 'U'), ('టు', '|'), ('ల', '|'), ('న', '|'), ('నే', 'U'), ('రా', 'U'), ('పే', 'U'), ('రు', '|'), ('నా', 'U'), ('పే', 'U'), ('రు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('వా', 'U'), ('నిన్', 'U'), ('బ', '|'), ('ర', '|'), ('లో', 'U'), ('క', '|'), ('దూ', 'U'), ('రు', '|'), ('డ', '|'), ('ని', '|'), ('యం', 'U'), ('డ్రే', 'U'), ('పొం', 'U'), ('డు', '|'), ('పొం', 'U'), ('డం', 'U'), ('చు', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('సా', 'U'), ('య', 'U'), ('మ్మ', '|'), ('యి', '|'), ('య', 'U'), ('డ్డ', '|'), ('గిం', 'U'), ('పు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('వి', '|'), ('ను', '|'), ('నా', 'U'), ('కె', 'U'), ('న్ని', '|'), ('యొ', '|'), ('దో', 'U'), ('స', '|'), ('ము', 'U'), ('ల్గ', '|'), ('ల', '|'), ('వు', '|'), ('నొ', 'U'), ('ప్పిం', 'U'), ('బొం', 'U'), ('ద', '|'), ('గా', 'U'), ('మ్రం', 'U'), ('ద', '|'), ('ర', 'U'), ('మ్మ', '|'), ('ని', '|'), ('రౌ', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('గ', '|'), ('గా', 'U'), ('లు', '|'), ('బం', 'U'), ('టు', '|'), ('ల', '|'), ('న', '|'), ('నే', 'U'), ('రా', 'U'), ('పే', 'U'), ('రు', '|'), ('నా', 'U'), ('పే', 'U'), ('రు', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('వా', 'U'), ('ని', 'U'), ('న్బ', '|'), ('ర', '|'), ('లో', 'U'), ('క', '|'), ('దూ', 'U'), ('రు', '|'), ('డ', '|'), ('ని', '|'), ('యం', 'U'), ('డ్రే', 'U'), ('పొం', 'U'), ('డు', '|'), ('పొం', 'U'), ('డం', 'U'), ('చు', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('సా', 'U'), ('య', 'U'), ('మ్మ', '|'), ('యి', '|'), ('య', 'U'), ('డ్డ', '|'), ('గిం', 'U'), ('పు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('న', '|'), ('ఘం', 'U'), ('బై', 'U'), ('న', '|'), ('ద', '|'), ('శా', 'U'), ('శ్వ', '|'), ('మే', 'U'), ('ధ', '|'), ('కృ', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('కొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('టు', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('ర', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('ని', '|'), ('విం', 'U'), ('దు', 'U'), ('న్యా', 'U'), ('గ', '|'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('లున్', 'U'), ('గొ', '|'), ('న', '|'), ('సా', 'U'), ('గు', 'U'), ('న్జ', '|'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('లు', 'U'), ('క్క', '|'), ('డ', '|'), ('గు', '|'), ('నీ', 'U'), ('కున్', 'U'), ('మ్రొ', 'U'), ('క్కె', '|'), ('నే', 'U'), ('నిన్', 'U'), ('బు', '|'), ('న', 'U'), ('ర్జ', '|'), ('న', '|'), ('నం', 'U'), ('బే', 'U'), ('ది', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('అ', '|'), ('న', '|'), ('ఘం', 'U'), ('బై', 'U'), ('న', '|'), ('ద', '|'), ('శా', 'U'), ('శ్వ', '|'), ('మే', 'U'), ('ధ', '|'), ('కృ', '|'), ('త', '|'), ('పు', 'U'), ('ణ్య', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('కొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('టు', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('ర', '|'), ('ము', '|'), ('సే', 'U'), ('య', '|'), ('గ', 'U'), ('ల్గు', '|'), ('న', '|'), ('ని', '|'), ('విం', 'U'), ('దు', 'U'), ('న్యా', 'U'), ('గ', '|'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('లున్', 'U'), ('గొ', '|'), ('న', '|'), ('సా', 'U'), ('గు', 'U'), ('న్జ', '|'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('లు', 'U'), ('క్క', '|'), ('డ', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', 'U'), ('న్మ్రొ', 'U'), ('క్కె', '|'), ('నే', 'U'), ('ని', 'U'), ('న్బు', '|'), ('న', 'U'), ('ర్జ', '|'), ('న', '|'), ('నం', 'U'), ('బే', 'U'), ('ది', '|'), ('ద', '|'), ('లం', 'U'), ('చి', '|'), ('చూ', 'U'), ('డ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రి', 'U'), ('జ్వ', '|'), ('ల', '|'), ('నాం', 'U'), ('త', '|'), ('కా', 'U'), ('సు', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('ద్ర', 'U'), ('స్వా', 'U'), ('మి', '|'), ('వా', 'U'), ('యు', '|'), ('త్రి', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('మి', '|'), ('త్రా', 'U'), ('భ', '|'), ('వ', '|'), ('సూ', 'U'), ('ర్య', '|'), ('సో', 'U'), ('మ', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('జా', 'U'), ('తాం', 'U'), ('బు', '|'), ('జా', 'U'), ('త', 'U'), ('ద్వి', '|'), ('ష', 'U'), ('జ్జ', '|'), ('న', '|'), ('నాం', 'U'), ('గీ', 'U'), ('ర', '|'), ('స', '|'), ('శు', '|'), ('క్ర', '|'), ('భా', 'U'), ('ను', '|'), ('త', '|'), ('న', '|'), ('య', 'U'), ('స్వ', 'U'), ('ర్భా', 'U'), ('ను', '|'), ('కే', 'U'), ('తు', '|'), ('ప్ర', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('లౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రి', 'U'), ('జ్వ', '|'), ('ల', '|'), ('నాం', 'U'), ('త', '|'), ('కా', 'U'), ('సు', '|'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('ద్ర', 'U'), ('స్వా', 'U'), ('మి', '|'), ('వా', 'U'), ('యు', '|'), ('త్రి', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('మి', '|'), ('త్రా', 'U'), ('భ', '|'), ('వ', '|'), ('సూ', 'U'), ('ర్య', '|'), ('సో', 'U'), ('మ', '|'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('జా', 'U'), ('తాం', 'U'), ('బు', '|'), ('జా', 'U'), ('త', 'U'), ('ద్వి', '|'), ('ష', 'U'), ('జ్జ', '|'), ('న', '|'), ('నాం', 'U'), ('గీ', 'U'), ('ర', '|'), ('స', '|'), ('శు', '|'), ('క్ర', '|'), ('భా', 'U'), ('ను', '|'), ('త', '|'), ('న', '|'), ('య', 'U'), ('స్వ', 'U'), ('ర్భా', 'U'), ('ను', '|'), ('కే', 'U'), ('తు', '|'), ('ప్ర', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('ము', 'U'), ('ల్నీ', 'U'), ('వి', '|'), ('భ', '|'), ('వం', 'U'), ('బు', '|'), ('లౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ను', '|'), ('గొ', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('గు', 'U'), ('ప్ప', '|'), ('డే', 'U'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('లం', 'U'), ('గా', 'U'), ('లుం', 'U'), ('డు', '|'), ('కా', 'U'), ('లుం', 'U'), ('డు', '|'), ('పొం', 'U'), ('డ', '|'), ('ను', '|'), ('చున్', 'U'), ('రౌ', 'U'), ('ర', '|'), ('వ', '|'), ('నా', 'U'), ('ర', '|'), ('కా', 'U'), ('గ్ను', '|'), ('ల', '|'), ('బ', '|'), ('డన్', 'U'), ('హ', 'U'), ('త్తిం', 'U'), ('చి', '|'), ('య', 'U'), ('య్య', 'U'), ('గ్ను', '|'), ('ల', 'U'), ('న్ము', '|'), ('ను', '|'), ('గం', 'U'), ('జా', 'U'), ('ల', '|'), ('బ', '|'), ('రే', 'U'), ('త', '|'), ('రా', 'U'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('న', 'U'), ('న్నొ', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('బో', 'U'), ('వ', '|'), ('కు', '|'), ('గ్ర', '|'), ('ని', '|'), ('శా', 'U'), ('టాం', 'U'), ('త', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('క', '|'), ('ను', '|'), ('గొ', 'U'), ('న్న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('గు', 'U'), ('ప్ప', '|'), ('డే', 'U'), ('కు', '|'), ('జ', '|'), ('ను', '|'), ('లం', 'U'), ('గా', 'U'), ('లుం', 'U'), ('డు', '|'), ('కా', 'U'), ('లుం', 'U'), ('డు', '|'), ('పొం', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('న్రౌ', 'U'), ('ర', '|'), ('వ', '|'), ('నా', 'U'), ('ర', '|'), ('కా', 'U'), ('గ్ను', '|'), ('ల', '|'), ('బ', '|'), ('డ', 'U'), ('న్హ', 'U'), ('త్తిం', 'U'), ('చి', '|'), ('య', 'U'), ('య్య', 'U'), ('గ్ను', '|'), ('ల', 'U'), ('న్ము', '|'), ('ను', '|'), ('గం', 'U'), ('జా', 'U'), ('ల', '|'), ('బ', '|'), ('రే', 'U'), ('త', '|'), ('రా', 'U'), ('జు', '|'), ('న', '|'), ('కు', '|'), ('న', 'U'), ('న్నొ', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('గా', 'U'), ('బో', 'U'), ('వ', '|'), ('కు', '|'), ('గ్ర', '|'), ('ని', '|'), ('శా', 'U'), ('టాం', 'U'), ('త', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('సే', 'U'), ('విం', 'U'), ('చె', '|'), ('ద', '|'), ('నం', 'U'), ('చు', '|'), ('గో', 'U'), ('రు', '|'), ('కొ', '|'), ('ని', '|'), ('యు', 'U'), ('న్నేన్', 'U'), ('వా', 'U'), ('ని', '|'), ('కిం', 'U'), ('బూ', 'U'), ('ర్వ', '|'), ('క', 'U'), ('ర్మ', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లు', '|'), ('క', 'U'), ('ష్ట', '|'), ('ముల్', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('గా', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('వ', 'U'), ('డ్డ', '|'), ('మౌ', 'U'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పం', 'U'), ('బ', '|'), ('డు', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('దిం', 'U'), ('గ', '|'), ('రి', '|'), ('ని', '|'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దున్', 'U'), ('ధ్రు', '|'), ('వున్', 'U'), ('ము', 'U'), ('న్ను', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('ట', '|'), ('క', 'U'), ('ల్దొ', '|'), ('లే', 'U'), ('దొ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('సే', 'U'), ('విం', 'U'), ('చె', '|'), ('ద', '|'), ('నం', 'U'), ('చు', '|'), ('గో', 'U'), ('రు', '|'), ('కొ', '|'), ('ని', '|'), ('యు', 'U'), ('న్నే', 'U'), ('న్వా', 'U'), ('ని', '|'), ('కిం', 'U'), ('బూ', 'U'), ('ర్వ', '|'), ('క', 'U'), ('ర్మ', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('లు', '|'), ('క', 'U'), ('ష్ట', '|'), ('ము', 'U'), ('ల్గ', '|'), ('లు', '|'), ('గ', '|'), ('గా', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('వ', 'U'), ('డ్డ', '|'), ('మౌ', 'U'), ('ద', '|'), ('ని', '|'), ('చె', 'U'), ('ప్పం', 'U'), ('బ', '|'), ('డు', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('దిం', 'U'), ('గ', '|'), ('రి', '|'), ('ని', '|'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దు', 'U'), ('న్ధ్రు', '|'), ('వు', 'U'), ('న్ము', 'U'), ('న్ను', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('ట', '|'), ('క', 'U'), ('ల్దొ', '|'), ('లే', 'U'), ('దొ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ని', '|'), ('శం', 'U'), ('బున్', 'U'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లు', '|'), ('ప్రా', 'U'), ('ణాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('రో', 'U'), ('గ', '|'), ('బా', 'U'), ('ధ', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('ను', '|'), ('చున్', 'U'), ('ద', 'U'), ('ల్పం', 'U'), ('గ', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('జ', '|'), ('న', '|'), ('నా', 'U'), ('థా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('నీ', 'U'), ('వు', '|'), ('వా', 'U'), ('రి', '|'), ('ర', '|'), ('స', '|'), ('నా', 'U'), ('స్థా', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('న్ని', 'U'), ('ల్చి', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('య', '|'), ('ని', '|'), ('పిం', 'U'), ('తు', '|'), ('వౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('అ', '|'), ('ని', '|'), ('శం', 'U'), ('బు', 'U'), ('న్ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లు', '|'), ('ప్రా', 'U'), ('ణాం', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('న్రో', 'U'), ('గ', '|'), ('బా', 'U'), ('ధ', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్ద', 'U'), ('ల్పం', 'U'), ('గ', '|'), ('లే', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('జ', '|'), ('న', '|'), ('నా', 'U'), ('థా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('నీ', 'U'), ('వు', '|'), ('వా', 'U'), ('రి', '|'), ('ర', '|'), ('స', '|'), ('నా', 'U'), ('స్థా', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('న్ని', 'U'), ('ల్చి', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('రా', 'U'), ('మా', 'U'), ('య', '|'), ('ని', '|'), ('పిం', 'U'), ('తు', '|'), ('వౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('న', '|'), ('వం', 'U'), ('శో', 'U'), ('త్త', '|'), ('మ', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('నే', 'U'), ('విం', 'U'), ('టి', '|'), ('నే', 'U'), ('విం', 'U'), ('టి', '|'), ('వా', 'U'), ('డు', '|'), ('ను', '|'), ('నీ', 'U'), ('కుం', 'U'), ('బ్ర', '|'), ('తి', '|'), ('గా', 'U'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('గ', '|'), ('ల', '|'), ('బం', 'U'), ('టు', 'U'), ('న్న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('కా', 'U'), ('లు', '|'), ('ని', '|'), ('బం', 'U'), ('ట్లన్', 'U'), ('వి', '|'), ('ద', '|'), ('ళిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('నా', 'U'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('గం', 'U'), ('డు', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', '|'), ('మో', 'U'), ('ఘా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('వి', 'U'), ('ల్లు', '|'), ('బూ', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఇ', '|'), ('న', '|'), ('వం', 'U'), ('శో', 'U'), ('త్త', '|'), ('మ', '|'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('లో', 'U'), ('నే', 'U'), ('విం', 'U'), ('టి', '|'), ('నే', 'U'), ('విం', 'U'), ('టి', '|'), ('వా', 'U'), ('డు', '|'), ('ను', '|'), ('నీ', 'U'), ('కుం', 'U'), ('బ్ర', '|'), ('తి', '|'), ('గా', 'U'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('గ', '|'), ('ల', '|'), ('బం', 'U'), ('టు', 'U'), ('న్న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('కా', 'U'), ('లు', '|'), ('ని', '|'), ('బం', 'U'), ('ట్ల', 'U'), ('న్వి', '|'), ('ద', '|'), ('ళిం', 'U'), ('ప', '|'), ('గా', 'U'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('నా', 'U'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('మీ', 'U'), ('గం', 'U'), ('డు', '|'), ('మీ', 'U'), ('ఱ', '|'), ('న', '|'), ('మో', 'U'), ('ఘా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('వి', 'U'), ('ల్లు', '|'), ('బూ', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('న', '|'), ('నా', 'U'), ('థా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('న', '|'), ('త', '|'), ('డా', 'U'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('డై', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('ర్జ', '|'), ('న', '|'), ('నం', 'U'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('ము', 'U'), ('క్తి', '|'), ('గాం', 'U'), ('చు', '|'), ('నొ', '|'), ('న', '|'), ('రన్', 'U'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డై', 'U'), ('నం', 'U'), ('దు', '|'), ('ది', 'U'), ('న్జ', '|'), ('ను', '|'), ('జం', 'U'), ('డా', 'U'), ('ల', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('యిం', 'U'), ('చం', 'U'), ('గో', 'U'), ('రి', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('య', 'U'), ('న్ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('జ', '|'), ('న', '|'), ('నా', 'U'), ('థా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('న', '|'), ('త', '|'), ('డా', 'U'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('డై', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('ర్జ', '|'), ('న', '|'), ('నం', 'U'), ('బొం', 'U'), ('ద', '|'), ('క', '|'), ('ము', 'U'), ('క్తి', '|'), ('గాం', 'U'), ('చు', '|'), ('నొ', '|'), ('న', '|'), ('ర', 'U'), ('న్స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('డై', 'U'), ('నం', 'U'), ('దు', '|'), ('దిన్', 'U'), ('జ', '|'), ('ను', '|'), ('జం', 'U'), ('డా', 'U'), ('ల', '|'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('లో', 'U'), ('న', '|'), ('ను', '|'), ('ద', '|'), ('యిం', 'U'), ('చం', 'U'), ('గో', 'U'), ('రి', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('సే', 'U'), ('య', 'U'), ('న్ని', '|'), ('ర', '|'), ('సిం', 'U'), ('చె', '|'), ('నే', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('నీ', 'U'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('లో', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నుం', 'U'), ('డం', 'U'), ('గ', '|'), ('నీ', 'U'), ('యు', '|'), ('ని', '|'), ('కి', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('దు', 'U'), ('గ్ధ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('న', '|'), ('డు', '|'), ('మన్', 'U'), ('యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('హృ', 'U'), ('ద్గే', 'U'), ('హ', '|'), ('యే', 'U'), ('మ', '|'), ('ని', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పు', '|'), ('దు', '|'), ('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లు', '|'), ('స', 'U'), ('ర్వా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('రా', 'U'), ('జ', 'U'), ('న్య', '|'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('నీ', 'U'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('లో', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నుం', 'U'), ('డం', 'U'), ('గ', '|'), ('నీ', 'U'), ('యు', '|'), ('ని', '|'), ('కి', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', '|'), ('దు', 'U'), ('గ్ధ', '|'), ('వా', 'U'), ('ర్ధి', '|'), ('న', '|'), ('డు', '|'), ('మ', 'U'), ('న్యో', 'U'), ('గీం', 'U'), ('ద్ర', '|'), ('హృ', 'U'), ('ద్గే', 'U'), ('హ', '|'), ('యే', 'U'), ('మ', '|'), ('ని', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పు', '|'), ('దు', '|'), ('నీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లు', '|'), ('స', 'U'), ('ర్వా', 'U'), ('శ్చ', 'U'), ('ర్య', '|'), ('ము', 'U'), ('ల్పు', 'U'), ('ణ్య', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('రా', 'U'), ('జ', 'U'), ('న్య', '|'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డా', 'U'), ('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('గౌ', 'U'), ('స', 'U'), ('ల్యా', 'U'), ('య', '|'), ('హ', 'U'), ('ల్యా', 'U'), ('ఘ', '|'), ('మో', 'U'), ('చ', '|'), ('న', '|'), ('నిన్', 'U'), ('గాం', 'U'), ('చి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('పం', 'U'), ('క్తి', '|'), ('ర', '|'), ('థు', '|'), ('డా', 'U'), ('స', 'U'), ('ర్వే', 'U'), ('శ', '|'), ('మీ', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('యే', 'U'), ('మి', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('ద్భ', '|'), ('విం', 'U'), ('చి', '|'), ('తి', '|'), ('వొ', '|'), ('నె', 'U'), ('మ్మి', 'U'), ('న్ని', 'U'), ('ట్టు', '|'), ('లీ', 'U'), ('పు', 'U'), ('ట్టు', '|'), ('వు', '|'), ('గ్ర', '|'), ('ని', '|'), ('శా', 'U'), ('టాం', 'U'), ('త', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డా', 'U'), ('జ', '|'), ('న', '|'), ('కుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('స', '|'), ('తి', '|'), ('కి', '|'), ('గౌ', 'U'), ('స', 'U'), ('ల్యా', 'U'), ('య', '|'), ('హ', 'U'), ('ల్యా', 'U'), ('ఘ', '|'), ('మో', 'U'), ('చ', '|'), ('న', '|'), ('ని', 'U'), ('న్గాం', 'U'), ('చి', '|'), ('న', '|'), ('త', 'U'), ('ల్లి', '|'), ('పం', 'U'), ('క్తి', '|'), ('ర', '|'), ('థు', '|'), ('డా', 'U'), ('స', 'U'), ('ర్వే', 'U'), ('శ', '|'), ('మీ', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('యే', 'U'), ('మి', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('ద్భ', '|'), ('విం', 'U'), ('చి', '|'), ('తి', '|'), ('వొ', '|'), ('నె', 'U'), ('మ్మి', 'U'), ('న్ని', 'U'), ('ట్టు', '|'), ('లీ', 'U'), ('పు', 'U'), ('ట్టు', '|'), ('వు', '|'), ('గ్ర', '|'), ('ని', '|'), ('శా', 'U'), ('టాం', 'U'), ('త', '|'), ('క', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('ను', '|'), ('మం', 'U'), ('తుం', 'U'), ('డొ', '|'), ('క', '|'), ('య', 'U'), ('బ్ధి', '|'), ('దా', 'U'), ('టె', '|'), ('న', '|'), ('ని', '|'), ('యే', 'U'), ('లా', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('తుల్', 'U'), ('సే', 'U'), ('య', '|'), ('గా', 'U'), ('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రా', 'U'), ('తి', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('లు', '|'), ('హృ', 'U'), ('త్ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('న', 'U'), ('న్ని', 'U'), ('ల్పు', '|'), ('నా', 'U'), ('ఘ', '|'), ('న', '|'), ('పు', 'U'), ('ణ్యుం', 'U'), ('డు', '|'), ('భ', '|'), ('వాం', 'U'), ('బు', '|'), ('రా', 'U'), ('శు', '|'), ('లు', '|'), ('తృ', '|'), ('ణీ', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('దా', 'U'), ('టు', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('నె', 'U'), ('న్నై', 'U'), ('న', '|'), ('ను', '|'), ('గొం', 'U'), ('కు', '|'), ('లే', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('హ', '|'), ('ను', '|'), ('మం', 'U'), ('తుం', 'U'), ('డొ', '|'), ('క', '|'), ('య', 'U'), ('బ్ధి', '|'), ('దా', 'U'), ('టె', '|'), ('న', '|'), ('ని', '|'), ('యే', 'U'), ('లా', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('తు', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గా', 'U'), ('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రా', 'U'), ('తి', '|'), ('భ', '|'), ('వ', 'U'), ('త్ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ము', '|'), ('లు', '|'), ('హృ', 'U'), ('త్ప', 'U'), ('ద్మం', 'U'), ('బు', '|'), ('న', 'U'), ('న్ని', 'U'), ('ల్పు', '|'), ('నా', 'U'), ('ఘ', '|'), ('న', '|'), ('పు', 'U'), ('ణ్యుం', 'U'), ('డు', '|'), ('భ', '|'), ('వాం', 'U'), ('బు', '|'), ('రా', 'U'), ('శు', '|'), ('లు', '|'), ('తృ', '|'), ('ణీ', 'U'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('దా', 'U'), ('టు', '|'), ('బో', 'U'), ('ర', '|'), ('న', '|'), ('నె', 'U'), ('న్నై', 'U'), ('న', '|'), ('ను', '|'), ('గొం', 'U'), ('కు', '|'), ('లే', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('పా', 'U'), ('దో', 'U'), ('ద', '|'), ('క', '|'), ('మ', 'U'), ('క్షు', '|'), ('లం', 'U'), ('ద', '|'), ('దు', '|'), ('ము', '|'), ('కొం', 'U'), ('టిం', 'U'), ('గొం', 'U'), ('టి', '|'), ('నా', 'U'), ('లో', 'U'), ('ని', '|'), ('కి', 'U'), ('న్నీ', 'U'), ('ప', 'U'), ('ళ్లెం', 'U'), ('బు', '|'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('ముం', 'U'), ('గు', '|'), ('డి', '|'), ('చి', '|'), ('తి', 'U'), ('న్నీ', 'U'), ('పే', 'U'), ('రు', '|'), ('నుం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('తి', 'U'), ('న్నీ', 'U'), ('పె', 'U'), ('న్ము', '|'), ('ద్ర', '|'), ('లు', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తిన్', 'U'), ('భు', '|'), ('జ', '|'), ('ము', '|'), ('ల', 'U'), ('న్నీ', 'U'), ('విం', 'U'), ('క', '|'), ('న', 'U'), ('న్నే', 'U'), ('గ', '|'), ('తిన్', 'U'), ('బ్రా', 'U'), ('పై', 'U'), ('ప్రో', 'U'), ('చె', '|'), ('దొ', '|'), ('కా', 'U'), ('ని', '|'), ('పూ', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('నీ', 'U'), ('పా', 'U'), ('దో', 'U'), ('ద', '|'), ('క', '|'), ('మ', 'U'), ('క్షు', '|'), ('లం', 'U'), ('ద', '|'), ('దు', '|'), ('ము', '|'), ('కొం', 'U'), ('టిం', 'U'), ('గొం', 'U'), ('టి', '|'), ('నా', 'U'), ('లో', 'U'), ('ని', '|'), ('కిన్', 'U'), ('నీ', 'U'), ('ప', 'U'), ('ళ్లెం', 'U'), ('బు', '|'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('ముం', 'U'), ('గు', '|'), ('డి', '|'), ('చి', '|'), ('తి', 'U'), ('న్నీ', 'U'), ('పే', 'U'), ('రు', '|'), ('నుం', 'U'), ('బె', 'U'), ('ట్టి', '|'), ('తిన్', 'U'), ('నీ', 'U'), ('పె', 'U'), ('న్ము', '|'), ('ద్ర', '|'), ('లు', '|'), ('దా', 'U'), ('ల్చి', '|'), ('తి', 'U'), ('న్భు', '|'), ('జ', '|'), ('ము', '|'), ('ల', 'U'), ('న్నీ', 'U'), ('విం', 'U'), ('క', '|'), ('న', 'U'), ('న్నే', 'U'), ('గ', '|'), ('తిన్', 'U'), ('బ్రా', 'U'), ('పై', 'U'), ('ప్రో', 'U'), ('చె', '|'), ('దొ', '|'), ('కా', 'U'), ('ని', '|'), ('పూ', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ప', '|'), ('ముల్', 'U'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('బో', 'U'), ('ని', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బుల్', 'U'), ('స', '|'), ('మ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('గా', 'U'), ('జ', '|'), ('ప', '|'), ('ముల్', 'U'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('బో', 'U'), ('ని', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('న', '|'), ('దీ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బు', '|'), ('నం', 'U'), ('బో', 'U'), ('ని', '|'), ('ఘో', 'U'), ('ర', '|'), ('పు', '|'), ('గ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('లు', '|'), ('వా', 'U'), ('యు', '|'), ('నొ', 'U'), ('క్క', '|'), ('మ', '|'), ('ఱి', '|'), ('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('య', '|'), ('నే', 'U'), ('మా', 'U'), ('ట', '|'), ('క', 'U'), ('ర్ణ', '|'), ('పు', '|'), ('టం', 'U'), ('బిం', 'U'), ('చు', '|'), ('క', '|'), ('సో', 'U'), ('కె', '|'), ('నే', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('త', '|'), ('ప', '|'), ('ము', 'U'), ('ల్చే', 'U'), ('సి', '|'), ('న', '|'), ('బో', 'U'), ('ని', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బు', 'U'), ('ల్స', '|'), ('మ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('గా', 'U'), ('జ', '|'), ('ప', '|'), ('ము', 'U'), ('ల్చే', 'U'), ('సి', '|'), ('న', '|'), ('బో', 'U'), ('ని', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('న', '|'), ('దీ', 'U'), ('స్నా', 'U'), ('నం', 'U'), ('బు', '|'), ('నం', 'U'), ('బో', 'U'), ('ని', '|'), ('ఘో', 'U'), ('ర', '|'), ('పు', '|'), ('గ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('లు', '|'), ('వా', 'U'), ('యు', '|'), ('నొ', 'U'), ('క్క', '|'), ('మ', '|'), ('ఱి', '|'), ('శ్రీ', 'U'), ('రా', 'U'), ('మా', 'U'), ('య', '|'), ('నే', 'U'), ('మా', 'U'), ('ట', '|'), ('క', 'U'), ('ర్ణ', '|'), ('పు', '|'), ('టం', 'U'), ('బిం', 'U'), ('చు', '|'), ('క', '|'), ('సో', 'U'), ('కె', '|'), ('నే', 'U'), ('ని', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('కం', 'U'), ('పిం', 'U'), ('తున్', 'U'), ('ము', '|'), ('ను', '|'), ('దం', 'U'), ('డ', '|'), ('ధా', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('మ', 'U'), ('త్కా', 'U'), ('యం', 'U'), ('బు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('శం', 'U'), ('కిం', 'U'), ('పం', 'U'), ('గా', 'U'), ('ర', '|'), ('ణ', '|'), ('మే', 'U'), ('మి', '|'), ('నా', 'U'), ('కి', '|'), ('క', '|'), ('ని', '|'), ('నున్', 'U'), ('గీ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('బల్', 'U'), ('దుం', 'U'), ('పల్', 'U'), ('గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('ఘో', 'U'), ('ర', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('ధు', 'U'), ('ల్గో', 'U'), ('సి', '|'), ('వే', 'U'), ('యం', 'U'), ('గ', '|'), ('బల్', 'U'), ('ఱం', 'U'), ('పం', 'U'), ('బై', 'U'), ('న', '|'), ('ది', '|'), ('నీ', 'U'), ('చ', '|'), ('రి', '|'), ('త్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('కం', 'U'), ('పిం', 'U'), ('తు', 'U'), ('న్ము', '|'), ('ను', '|'), ('దం', 'U'), ('డ', '|'), ('ధా', 'U'), ('రి', '|'), ('కి', '|'), ('ని', '|'), ('మ', 'U'), ('త్కా', 'U'), ('యం', 'U'), ('బు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('శం', 'U'), ('కిం', 'U'), ('పం', 'U'), ('గా', 'U'), ('ర', '|'), ('ణ', '|'), ('మే', 'U'), ('మి', '|'), ('నా', 'U'), ('కి', '|'), ('క', '|'), ('ని', '|'), ('ను', 'U'), ('న్గీ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్నా', 'U'), ('డ', '|'), ('బల్', 'U'), ('దుం', 'U'), ('ప', 'U'), ('ల్గ', 'U'), ('ట్టి', '|'), ('న', '|'), ('ఘో', 'U'), ('ర', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('ధు', 'U'), ('ల్గో', 'U'), ('సి', '|'), ('వే', 'U'), ('యం', 'U'), ('గ', '|'), ('బల్', 'U'), ('ఱం', 'U'), ('పం', 'U'), ('బై', 'U'), ('న', '|'), ('ది', '|'), ('నీ', 'U'), ('చ', '|'), ('రి', '|'), ('త్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('స', '|'), ('దా', 'U'), ('స', '|'), ('దా', 'U'), ('శి', '|'), ('వు', '|'), ('డు', '|'), ('ప', 'U'), ('త్నీ', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('కా', 'U'), ('శి', '|'), ('లో', 'U'), ('నే', 'U'), ('మం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('జ', '|'), ('పిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చు', '|'), ('శ్రు', '|'), ('తు', '|'), ('ల', 'U'), ('న్ని', 'U'), ('న్ని', 'U'), ('న్నె', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('మా', 'U'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('తిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ర', '|'), ('మ', '|'), ('యి', '|'), ('నన్', 'U'), ('ని', 'U'), ('న్నెం', 'U'), ('తు', '|'), ('నో', 'U'), ('రా', 'U'), ('ర', '|'), ('గా', 'U'), ('రా', 'U'), ('మా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('స', '|'), ('దా', 'U'), ('స', '|'), ('దా', 'U'), ('శి', '|'), ('వు', '|'), ('డు', '|'), ('ప', 'U'), ('త్నీ', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('కా', 'U'), ('శి', '|'), ('లో', 'U'), ('నే', 'U'), ('మం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('జ', '|'), ('పిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చు', '|'), ('శ్రు', '|'), ('తు', '|'), ('ల', 'U'), ('న్ని', 'U'), ('న్ని', 'U'), ('న్నె', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('గా', 'U'), ('నే', 'U'), ('మా', 'U'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('తిం', 'U'), ('చు', '|'), ('వా', 'U'), ('ర', '|'), ('మ', '|'), ('యి', '|'), ('న', 'U'), ('న్ని', 'U'), ('న్నెం', 'U'), ('తు', '|'), ('నో', 'U'), ('రా', 'U'), ('ర', '|'), ('గా', 'U'), ('రా', 'U'), ('మా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('జ', '|'), ('పిం', 'U'), ('చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('కున్', 'U'), ('ని', 'U'), ('శ్శ్రే', 'U'), ('య', '|'), ('మౌ', 'U'), ('న', 'U'), ('ర్థ', '|'), ('ముల్', 'U'), ('హే', 'U'), ('మం', 'U'), ('బు', 'U'), ('ల్గొ', '|'), ('డు', '|'), ('గుల్', 'U'), ('తు', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('మ', 'U'), ('త్తే', 'U'), ('భం', 'U'), ('బు', '|'), ('లాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కల్', 'U'), ('గ్రా', 'U'), ('మం', 'U'), ('బుల్', 'U'), ('న', '|'), ('గ', '|'), ('రం', 'U'), ('బు', '|'), ('లున్', 'U'), ('వి', '|'), ('భ', '|'), ('వ', '|'), ('ముల్', 'U'), ('రా', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('లున్', 'U'), ('ర', 'U'), ('త్న', '|'), ('ముల్', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('లే', 'U'), ('మి', '|'), ('లె', 'U'), ('క్క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('జ', '|'), ('పిం', 'U'), ('చు', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('కు', 'U'), ('న్ని', 'U'), ('శ్శ్రే', 'U'), ('య', '|'), ('మౌ', 'U'), ('న', 'U'), ('ర్థ', '|'), ('ముల్', 'U'), ('హే', 'U'), ('మం', 'U'), ('బు', 'U'), ('ల్గొ', '|'), ('డు', '|'), ('గు', 'U'), ('ల్తు', '|'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('లు', '|'), ('మ', 'U'), ('త్తే', 'U'), ('భం', 'U'), ('బు', '|'), ('లాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('కల్', 'U'), ('గ్రా', 'U'), ('మం', 'U'), ('బు', 'U'), ('ల్న', '|'), ('గ', '|'), ('రం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్వి', '|'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('ల్రా', 'U'), ('జ్యం', 'U'), ('బు', '|'), ('లు', '|'), ('న్ర', 'U'), ('త్న', '|'), ('ముల్', 'U'), ('రా', 'U'), ('మా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('లే', 'U'), ('మి', '|'), ('లె', 'U'), ('క్క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('గో', 'U'), ('మే', 'U'), ('ధా', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('వా', 'U'), ('జి', '|'), ('మే', 'U'), ('ధ', '|'), ('శ', '|'), ('త', '|'), ('ముల్', 'U'), ('గో', 'U'), ('దా', 'U'), ('న', '|'), ('భూ', 'U'), ('దా', 'U'), ('న', '|'), ('ముల్', 'U'), ('హే', 'U'), ('మా', 'U'), ('ద్రుల్', 'U'), ('తి', '|'), ('ల', '|'), ('ప', 'U'), ('ర్వ', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణే', 'U'), ('భా', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('లున్', 'U'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('క్ష', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('తో', 'U'), ('నే', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('ముల్', 'U'), ('పో', 'U'), ('ల', '|'), ('వో', 'U'), ('రా', 'U'), ('మా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('గో', 'U'), ('మే', 'U'), ('ధా', 'U'), ('ధ్వ', '|'), ('ర', '|'), ('వా', 'U'), ('జి', '|'), ('మే', 'U'), ('ధ', '|'), ('శ', '|'), ('త', '|'), ('ము', 'U'), ('ల్గో', 'U'), ('దా', 'U'), ('న', '|'), ('భూ', 'U'), ('దా', 'U'), ('న', '|'), ('ముల్', 'U'), ('హే', 'U'), ('మా', 'U'), ('ద్రు', 'U'), ('ల్తి', '|'), ('ల', '|'), ('ప', 'U'), ('ర్వ', '|'), ('తం', 'U'), ('బు', '|'), ('లు', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణే', 'U'), ('భా', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('లున్', 'U'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('క్ష', '|'), ('ర', 'U'), ('ద్వ', '|'), ('య', '|'), ('ము', '|'), ('తో', 'U'), ('నే', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('ము', 'U'), ('ల్పో', 'U'), ('ల', '|'), ('వో', 'U'), ('రా', 'U'), ('మా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('గో', 'U'), ('మాం', 'U'), ('సా', 'U'), ('శ', '|'), ('ని', '|'), ('మ', 'U'), ('ద్య', '|'), ('పా', 'U'), ('ని', '|'), ('న', '|'), ('గ', '|'), ('రిన్', 'U'), ('గొం', 'U'), ('డీ', 'U'), ('డు', '|'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('డున్', 'U'), ('హే', 'U'), ('మ', 'U'), ('స్తే', 'U'), ('యు', '|'), ('డు', '|'), ('సో', 'U'), ('ద', '|'), ('రీ', 'U'), ('ర', '|'), ('తు', '|'), ('డు', '|'), ('గూ', 'U'), ('డే', 'U'), ('కా', 'U'), ('ద', '|'), ('శిన్', 'U'), ('భు', 'U'), ('క్తి', '|'), ('గొ', 'U'), ('న్నా', 'U'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('డు', '|'), ('లో', 'U'), ('ను', '|'), ('గా', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('చా', 'U'), ('రు', '|'), ('డై', 'U'), ('నం', 'U'), ('దు', '|'), ('దిన్', 'U'), ('రా', 'U'), ('మా', 'U'), ('య', 'U'), ('న్న', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('గాం', 'U'), ('చు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('గో', 'U'), ('మాం', 'U'), ('సా', 'U'), ('శ', '|'), ('ని', '|'), ('మ', 'U'), ('ద్య', '|'), ('పా', 'U'), ('ని', '|'), ('న', '|'), ('గ', '|'), ('రి', 'U'), ('న్గొం', 'U'), ('డీ', 'U'), ('డు', '|'), ('చం', 'U'), ('డా', 'U'), ('లు', '|'), ('డున్', 'U'), ('హే', 'U'), ('మ', 'U'), ('స్తే', 'U'), ('యు', '|'), ('డు', '|'), ('సో', 'U'), ('ద', '|'), ('రీ', 'U'), ('ర', '|'), ('తు', '|'), ('డు', '|'), ('గూ', 'U'), ('డే', 'U'), ('కా', 'U'), ('ద', '|'), ('శి', 'U'), ('న్భు', 'U'), ('క్తి', '|'), ('గొ', 'U'), ('న్నా', 'U'), ('మూ', 'U'), ('ఢా', 'U'), ('త్ము', '|'), ('డు', '|'), ('లో', 'U'), ('ను', '|'), ('గా', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('చా', 'U'), ('రు', '|'), ('డై', 'U'), ('నం', 'U'), ('దు', '|'), ('దిన్', 'U'), ('రా', 'U'), ('మా', 'U'), ('య', 'U'), ('న్న', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('గాం', 'U'), ('చు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('మీ', 'U'), ('పా', 'U'), ('త', '|'), ('కు', '|'), ('లా', 'U'), ('ర', '|'), ('మా', 'U'), ('పు', '|'), ('రి', '|'), ('కి', '|'), ('రా', 'U'), ('రీ', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('నం', 'U'), ('దు', 'U'), ('న్న', '|'), ('త', '|'), ('శ్రీ', 'U'), ('మై', 'U'), ('బో', 'U'), ('యె', '|'), ('ద', '|'), ('రెం', 'U'), ('దు', '|'), ('క', 'U'), ('న్న', '|'), ('జ', '|'), ('ము', '|'), ('నిం', 'U'), ('గ్రే', 'U'), ('గ', 'U'), ('న్ను', '|'), ('లం', 'U'), ('జూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('రా', 'U'), ('మ', 'U'), ('య్యా', 'U'), ('యి', '|'), ('క', '|'), ('నం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('య', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', 'U'), ('స్థా', 'U'), ('న', '|'), ('మున్', 'U'), ('జొ', 'U'), ('త్తు', '|'), ('రో', 'U'), ('రా', 'U'), ('మ', 'U'), ('య్యా', 'U'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఏ', 'U'), ('మీ', 'U'), ('పా', 'U'), ('త', '|'), ('కు', '|'), ('లా', 'U'), ('ర', '|'), ('మా', 'U'), ('పు', '|'), ('రి', '|'), ('కి', '|'), ('రా', 'U'), ('రీ', 'U'), ('ప', 'U'), ('ట్టు', '|'), ('నం', 'U'), ('దు', 'U'), ('న్న', '|'), ('త', '|'), ('శ్రీ', 'U'), ('మై', 'U'), ('బో', 'U'), ('యె', '|'), ('ద', '|'), ('రెం', 'U'), ('దు', '|'), ('క', 'U'), ('న్న', '|'), ('జ', '|'), ('ము', '|'), ('నిం', 'U'), ('గ్రే', 'U'), ('గ', 'U'), ('న్ను', '|'), ('లం', 'U'), ('జూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('రా', 'U'), ('మ', 'U'), ('య్యా', 'U'), ('యి', '|'), ('క', '|'), ('నం', 'U'), ('చు', '|'), ('బ', 'U'), ('ల్కి', '|'), ('య', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', 'U'), ('స్థా', 'U'), ('న', '|'), ('ము', 'U'), ('న్జొ', 'U'), ('త్తు', '|'), ('రో', 'U'), ('రా', 'U'), ('మ', 'U'), ('య్యా', 'U'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[('స్వా', 'U'), ('మి', '|'), ('ద్రో', 'U'), ('హి', '|'), ('కి', '|'), ('ద', 'U'), ('మ్ము', '|'), ('డె', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('న', '|'), ('రా', 'U'), ('జ్యం', 'U'), ('బే', 'U'), ('ల', '|'), ('నీ', 'U'), ('వి', 'U'), ('చ్చు', '|'), ('టె', 'U'), ('ట్లా', 'U'), ('మా', 'U'), ('టల్', 'U'), ('వి', '|'), ('ని', '|'), ('కా', 'U'), ('దె', '|'), ('ని', 'U'), ('న్న', '|'), ('డు', '|'), ('గ', '|'), ('న', 'U'), ('త్యా', 'U'), ('స', 'U'), ('క్తి', '|'), ('నా', 'U'), ('కు', 'U'), ('న్న', '|'), ('దొ', 'U'), ('డ్డే', 'U'), ('మిన్', 'U'), ('ప', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('వే', 'U'), ('స', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('వి', '|'), ('నే', 'U'), ('నీ', 'U'), ('రా', 'U'), ('దె', '|'), ('నీ', 'U'), ('సీ', 'U'), ('మ', '|'), ('లో', 'U'), ('గ్రా', 'U'), ('మం', 'U'), ('బొ', 'U'), ('క్క', '|'), ('టి', '|'), ('చా', 'U'), ('లు', '|'), ('నా', 'U'), ('కు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('స్వా', 'U'), ('మి', '|'), ('ద్రో', 'U'), ('హి', '|'), ('కి', '|'), ('ద', 'U'), ('మ్ము', '|'), ('డె', 'U'), ('ట్లు', '|'), ('ఘ', '|'), ('న', '|'), ('రా', 'U'), ('జ్యం', 'U'), ('బే', 'U'), ('ల', '|'), ('నీ', 'U'), ('వి', 'U'), ('చ్చు', '|'), ('టె', 'U'), ('ట్లా', 'U'), ('మా', 'U'), ('ట', 'U'), ('ల్వి', '|'), ('ని', '|'), ('కా', 'U'), ('దె', '|'), ('ని', 'U'), ('న్న', '|'), ('డు', '|'), ('గ', '|'), ('న', 'U'), ('త్యా', 'U'), ('స', 'U'), ('క్తి', '|'), ('నా', 'U'), ('కు', 'U'), ('న్న', '|'), ('దొ', 'U'), ('డ్డే', 'U'), ('మి', 'U'), ('న్ప', 'U'), ('ల్మ', '|'), ('ఱు', '|'), ('వే', 'U'), ('స', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('వి', '|'), ('నే', 'U'), ('నీ', 'U'), ('రా', 'U'), ('దె', '|'), ('నీ', 'U'), ('సీ', 'U'), ('మ', '|'), ('లో', 'U'), ('గ్రా', 'U'), ('మం', 'U'), ('బొ', 'U'), ('క్క', '|'), ('టి', '|'), ('చా', 'U'), ('లు', '|'), ('నా', 'U'), ('కు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ము', '|'), ('రం', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('న', '|'), ('లో', 'U'), ('భి', '|'), ('వా', 'U'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('న్కం', 'U'), ('గు', 'U'), ('క్క', '|'), ('మాం', 'U'), ('సం', 'U'), ('బు', '|'), ('మ', 'U'), ('ద్య', '|'), ('ము', '|'), ('తో', 'U'), ('వం', 'U'), ('డు', '|'), ('చు', '|'), ('ది', 'U'), ('న్న', '|'), ('మా', 'U'), ('ల', '|'), ('డ', '|'), ('యి', '|'), ('నం', 'U'), ('ద', 'U'), ('త్పా', 'U'), ('ప', '|'), ('క', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('లన్', 'U'), ('య', '|'), ('మ', '|'), ('కూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('బ', '|'), ('డ', '|'), ('డు', '|'), ('జి', 'U'), ('హ్వా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('నన్', 'U'), ('రా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('బే', 'U'), ('ర్కొ', 'U'), ('న్న', '|'), ('ను', '|'), ('నొం', 'U'), ('టి', '|'), ('మి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('క', '|'), ('ము', '|'), ('రం', 'U'), ('గ్రా', 'U'), ('గి', '|'), ('న', '|'), ('లో', 'U'), ('భి', '|'), ('వా', 'U'), ('ని', '|'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('న్కం', 'U'), ('గు', 'U'), ('క్క', '|'), ('మాం', 'U'), ('సం', 'U'), ('బు', '|'), ('మ', 'U'), ('ద్య', '|'), ('ము', '|'), ('తో', 'U'), ('వం', 'U'), ('డు', '|'), ('చు', '|'), ('ది', 'U'), ('న్న', '|'), ('మా', 'U'), ('ల', '|'), ('డ', '|'), ('యి', '|'), ('నం', 'U'), ('ద', 'U'), ('త్పా', 'U'), ('ప', '|'), ('క', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('లన్', 'U'), ('య', '|'), ('మ', '|'), ('కూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('బ', '|'), ('డ', '|'), ('డు', '|'), ('జి', 'U'), ('హ్వా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('న', '|'), ('న్రా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('బే', 'U'), ('ర్కొ', 'U'), ('న్న', '|'), ('ను', '|'), ('నొం', 'U'), ('టి', '|'), ('మి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('య', '|'), ('మ', '|'), ('కూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('మ', '|'), ('హా', 'U'), ('హై', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('ము', '|'), ('దం', 'U'), ('బా', 'U'), ('ర', '|'), ('గ', '|'), ('న', 'U'), ('న్ను', '|'), ('బ్రో', 'U'), ('చి', '|'), ('క', '|'), ('రు', '|'), ('ణన్', 'U'), ('సా', 'U'), ('యు', 'U'), ('జ్య', '|'), ('మి', 'U'), ('మ్మీ', 'U'), ('తు', '|'), ('దిన్', 'U'), ('గ్రి', '|'), ('మి', '|'), ('రూ', 'U'), ('పుం', 'U'), ('ద', '|'), ('న', '|'), ('రూ', 'U'), ('పు', '|'), ('గా', 'U'), ('బె', '|'), ('ని', '|'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పన్', 'U'), ('వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('చు', '|'), ('నా', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రం', 'U'), ('బుం', 'U'), ('బ', '|'), ('లె', '|'), ('బా', 'U'), ('ప', '|'), ('దూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('య', '|'), ('మ', '|'), ('కూ', 'U'), ('పం', 'U'), ('బు', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('లం', 'U'), ('బ', '|'), ('డి', '|'), ('మ', '|'), ('హా', 'U'), ('హై', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నుం', 'U'), ('బొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('ము', '|'), ('దం', 'U'), ('బా', 'U'), ('ర', '|'), ('గ', '|'), ('న', 'U'), ('న్ను', '|'), ('బ్రో', 'U'), ('చి', '|'), ('క', '|'), ('రు', '|'), ('ణ', 'U'), ('న్సా', 'U'), ('యు', 'U'), ('జ్య', '|'), ('మి', 'U'), ('మ్మీ', 'U'), ('తు', '|'), ('దిన్', 'U'), ('గ్రి', '|'), ('మి', '|'), ('రూ', 'U'), ('పుం', 'U'), ('ద', '|'), ('న', '|'), ('రూ', 'U'), ('పు', '|'), ('గా', 'U'), ('బె', '|'), ('ని', '|'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', 'U'), ('న్వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('చు', '|'), ('నా', 'U'), ('భ్ర', '|'), ('మ', '|'), ('రం', 'U'), ('బుం', 'U'), ('బ', '|'), ('లె', '|'), ('బా', 'U'), ('ప', '|'), ('దూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('మ', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ను', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చు', '|'), ('డెం', 'U'), ('ద', '|'), ('ము', '|'), ('నా', 'U'), ('కుం', 'U'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గ', '|'), ('ని', 'U'), ('మ్మ', '|'), ('టు', '|'), ('ల', '|'), ('యై', 'U'), ('నన్', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వ', 'U'), ('క్త్ర', 'U'), ('మ్ము', '|'), ('దూ', 'U'), ('ఱ', '|'), ('ము', '|'), ('ని', 'U'), ('న్నున్', 'U'), ('మ', '|'), ('తి', '|'), ('దూ', 'U'), ('ఱ', '|'), ('మం', 'U'), ('త', '|'), ('న', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', 'U'), ('స్వ', 'U'), ('ర్గ', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('దూ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('కుం', 'U'), ('డు', '|'), ('ను', '|'), ('మా', 'U'), ('కు', '|'), ('జే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('మ', '|'), ('మ', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ను', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చు', '|'), ('డెం', 'U'), ('ద', '|'), ('ము', '|'), ('నా', 'U'), ('కుం', 'U'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గ', '|'), ('ని', 'U'), ('మ్మ', '|'), ('టు', '|'), ('ల', '|'), ('యై', 'U'), ('న', 'U'), ('న్మృ', 'U'), ('త్యు', '|'), ('వ', 'U'), ('క్త్ర', 'U'), ('మ్ము', '|'), ('దూ', 'U'), ('ఱ', '|'), ('ము', '|'), ('ని', 'U'), ('న్ను', 'U'), ('న్మ', '|'), ('తి', '|'), ('దూ', 'U'), ('ఱ', '|'), ('మం', 'U'), ('త', '|'), ('న', '|'), ('ప', '|'), ('వ', 'U'), ('ర్గ', 'U'), ('స్వ', 'U'), ('ర్గ', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('దూ', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('కుం', 'U'), ('డు', '|'), ('ను', '|'), ('మా', 'U'), ('కు', '|'), ('జే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('మ', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('న', '|'), ('దా', 'U'), ('రు', '|'), ('పొం', 'U'), ('గి', '|'), ('ప', '|'), ('డు', '|'), ('చున్', 'U'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('దం', 'U'), ('త్ర', '|'), ('ము', '|'), ('లన్', 'U'), ('వీ', 'U'), ('డ', '|'), ('గ', '|'), ('నా', 'U'), ('డు', '|'), ('చున్', 'U'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('గ్యుల్', 'U'), ('మ', '|'), ('హా', 'U'), ('రా', 'U'), ('జు', '|'), ('లై', 'U'), ('మ', '|'), ('ము', '|'), ('నూ', 'U'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('ము', '|'), ('ని', 'U'), ('న్నె', '|'), ('ఱి', '|'), ('గి', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బె', '|'), ('ఱిం', 'U'), ('గిన్', 'U'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('మ', '|'), ('తిన్', 'U'), ('వే', 'U'), ('డ', '|'), ('గ', '|'), ('బో', 'U'), ('వు', '|'), ('టె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('త', '|'), ('మ', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('న', '|'), ('దా', 'U'), ('రు', '|'), ('పొం', 'U'), ('గి', '|'), ('ప', '|'), ('డు', '|'), ('చు', 'U'), ('న్దై', 'U'), ('వం', 'U'), ('బు', '|'), ('మం', 'U'), ('త్రం', 'U'), ('బు', '|'), ('దం', 'U'), ('త్ర', '|'), ('ము', '|'), ('ల', 'U'), ('న్వీ', 'U'), ('డ', '|'), ('గ', '|'), ('నా', 'U'), ('డు', '|'), ('చు', 'U'), ('న్ది', '|'), ('రు', '|'), ('గు', '|'), ('ని', 'U'), ('ర్భా', 'U'), ('గ్యు', 'U'), ('ల్మ', '|'), ('హా', 'U'), ('రా', 'U'), ('జు', '|'), ('లై', 'U'), ('మ', '|'), ('ము', '|'), ('నూ', 'U'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('ము', '|'), ('ని', 'U'), ('న్నె', '|'), ('ఱి', '|'), ('గి', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్రం', 'U'), ('బె', '|'), ('ఱిం', 'U'), ('గి', 'U'), ('న్ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('మ', '|'), ('తి', 'U'), ('న్వే', 'U'), ('డ', '|'), ('గ', '|'), ('బో', 'U'), ('వు', '|'), ('టె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('హి', '|'), ('మ', '|'), ('ధా', 'U'), ('మ', '|'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('కాం', 'U'), ('తి', '|'), ('యు', '|'), ('తు', '|'), ('లై', 'U'), ('యిం', 'U'), ('ద్రా', 'U'), ('ది', '|'), ('ది', 'U'), ('క్పా', 'U'), ('ల', '|'), ('కుల్', 'U'), ('త', '|'), ('ము', '|'), ('లన్', 'U'), ('స్తో', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('య', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సా', 'U'), ('ను', '|'), ('దా', 'U'), ('సుల్', 'U'), ('సు', '|'), ('ర', '|'), ('ప్ర', '|'), ('మ', '|'), ('దా', 'U'), ('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('పా', 'U'), ('ట', '|'), ('లా', 'U'), ('ధ', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('పా', 'U'), ('నా', 'U'), ('ది', '|'), ('కే', 'U'), ('లీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లన్', 'U'), ('మీ', 'U'), ('ఱు', '|'), ('చు', '|'), ('మీ', 'U'), ('రు', '|'), ('చూ', 'U'), ('డ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('హి', '|'), ('మ', '|'), ('ధా', 'U'), ('మ', '|'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('కాం', 'U'), ('తి', '|'), ('యు', '|'), ('తు', '|'), ('లై', 'U'), ('యిం', 'U'), ('ద్రా', 'U'), ('ది', '|'), ('ది', 'U'), ('క్పా', 'U'), ('ల', '|'), ('కుల్', 'U'), ('త', '|'), ('ము', '|'), ('ల', 'U'), ('న్స్తో', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('య', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సా', 'U'), ('ను', '|'), ('దా', 'U'), ('సు', 'U'), ('ల్సు', '|'), ('ర', '|'), ('ప్ర', '|'), ('మ', '|'), ('దా', 'U'), ('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('పా', 'U'), ('ట', '|'), ('లా', 'U'), ('ధ', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('పా', 'U'), ('నా', 'U'), ('ది', '|'), ('కే', 'U'), ('లీ', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', 'U'), ('న్మీ', 'U'), ('ఱు', '|'), ('చు', '|'), ('మీ', 'U'), ('రు', '|'), ('చూ', 'U'), ('డ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('మి', 'U'), ('మ్ముం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('నె', 'U'), ('మ్మిన్', 'U'), ('సో', 'U'), ('క', '|'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('నే', 'U'), ('నె', 'U'), ('మ్మిన్', 'U'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('బొం', 'U'), ('దు', '|'), ('వా', 'U'), ('డ', '|'), ('న', '|'), ('ను', '|'), ('చున్', 'U'), ('నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('భా', 'U'), ('విం', 'U'), ('చె', '|'), ('దన్', 'U'), ('ర', 'U'), ('మ్మా', 'U'), ('వీ', 'U'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('మే', 'U'), ('ల', '|'), ('ని', '|'), ('కృ', '|'), ('పన్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('నా', 'U'), ('లో', 'U'), ('ని', '|'), ('కిన్', 'U'), ('ర', 'U'), ('మ్మా', 'U'), ('న', 'U'), ('న్ను', '|'), ('గృ', '|'), ('తా', 'U'), ('ర్థు', '|'), ('జే', 'U'), ('య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('మి', 'U'), ('మ్ముం', 'U'), ('గొ', 'U'), ('ల్చి', '|'), ('త', '|'), ('లం', 'U'), ('చి', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ల', '|'), ('నె', 'U'), ('మ్మి', 'U'), ('న్సో', 'U'), ('క', '|'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('నే', 'U'), ('నె', 'U'), ('మ్మి', 'U'), ('న్సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('బొం', 'U'), ('దు', '|'), ('వా', 'U'), ('డ', '|'), ('న', '|'), ('ను', '|'), ('చు', 'U'), ('న్నీ', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('భా', 'U'), ('విం', 'U'), ('చె', '|'), ('దన్', 'U'), ('ర', 'U'), ('మ్మా', 'U'), ('వీ', 'U'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('మే', 'U'), ('ల', '|'), ('ని', '|'), ('కృ', '|'), ('ప', '|'), ('న్ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('నా', 'U'), ('లో', 'U'), ('ని', '|'), ('కిన్', 'U'), ('ర', 'U'), ('మ్మా', 'U'), ('న', 'U'), ('న్ను', '|'), ('గృ', '|'), ('తా', 'U'), ('ర్థు', '|'), ('జే', 'U'), ('య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('నా', 'U'), ('య', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('బా', 'U'), ('పు', '|'), ('మం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నా', 'U'), ('నా', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గూ', 'U'), ('యం', 'U'), ('గూ', 'U'), ('య', '|'), ('న', '|'), ('దే', 'U'), ('మి', '|'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('వు', '|'), ('నీ', 'U'), ('కున్', 'U'), ('మ్రొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('కు', 'U'), ('క్క', '|'), ('నా', 'U'), ('చీ', 'U'), ('యం', 'U'), ('చే', 'U'), ('టి', '|'), ('కి', '|'), ('రో', 'U'), ('త', '|'), ('గిం', 'U'), ('చె', '|'), ('ద', '|'), ('వు', '|'), ('నీ', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('రా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('బ్రా', 'U'), ('య', 'U'), ('శ్చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నా', 'U'), ('కు', '|'), ('నె', 'U'), ('ద్ది', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('నా', 'U'), ('య', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('బా', 'U'), ('పు', '|'), ('మం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('నా', 'U'), ('నా', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గూ', 'U'), ('యం', 'U'), ('గూ', 'U'), ('య', '|'), ('న', '|'), ('దే', 'U'), ('మి', '|'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('వు', '|'), ('నీ', 'U'), ('కు', 'U'), ('న్మ్రొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('కు', 'U'), ('క్క', '|'), ('నా', 'U'), ('చీ', 'U'), ('యం', 'U'), ('చే', 'U'), ('టి', '|'), ('కి', '|'), ('రో', 'U'), ('త', '|'), ('గిం', 'U'), ('చె', '|'), ('ద', '|'), ('వు', '|'), ('నీ', 'U'), ('చి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('రా', 'U'), ('కుం', 'U'), ('డి', '|'), ('నన్', 'U'), ('బ్రా', 'U'), ('య', 'U'), ('శ్చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నా', 'U'), ('కు', '|'), ('నె', 'U'), ('ద్ది', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('య', '|'), ('మం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('నుం', 'U'), ('డిన్', 'U'), ('దా', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('సం', 'U'), ('చ', '|'), ('య', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('దో', 'U'), ('చం', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('ర', 'U'), ('త్వ', '|'), ('మె', 'U'), ('న్ని', '|'), ('యు', '|'), ('పా', 'U'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('న', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('యో', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('వే', 'U'), ('యు', '|'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('ని', 'U'), ('న్ను', 'U'), ('న్వి', '|'), ('వ', '|'), ('రిం', 'U'), ('చు', '|'), ('టె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ని', '|'), ('య', '|'), ('మం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('న', '|'), ('నే', 'U'), ('క', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('ల', '|'), ('నుం', 'U'), ('డి', 'U'), ('న్దా', 'U'), ('చు', '|'), ('కొ', 'U'), ('న్న', 'U'), ('ట్టి', '|'), ('సం', 'U'), ('చ', '|'), ('య', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('దో', 'U'), ('చం', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('ర', 'U'), ('త్వ', '|'), ('మె', 'U'), ('న్ని', '|'), ('యు', '|'), ('పా', 'U'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('న', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('వి', '|'), ('యో', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', 'U'), ('ల్వే', 'U'), ('యు', '|'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('ని', 'U'), ('న్ను', 'U'), ('న్వి', '|'), ('వ', '|'), ('రిం', 'U'), ('చు', '|'), ('టె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('చీ', 'U'), ('రల్', 'U'), ('దీ', 'U'), ('య', '|'), ('కు', '|'), ('చ', 'U'), ('న్ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ప', '|'), ('యిం', 'U'), ('జీ', 'U'), ('కా', 'U'), ('కు', '|'), ('గా', 'U'), ('గా', 'U'), ('కు', '|'), ('గా', 'U'), ('జీ', 'U'), ('రల్', 'U'), ('దీ', 'U'), ('య', '|'), ('కు', '|'), ('మం', 'U'), ('ద', '|'), ('బో', 'U'), ('య', '|'), ('డి', '|'), ('దె', '|'), ('వ', 'U'), ('చ్చే', 'U'), ('బ్రొ', 'U'), ('ద్దు', '|'), ('రా', 'U'), ('వ', 'U'), ('ల్దు', '|'), ('నా', 'U'), ('జా', 'U'), ('రా', 'U'), ('మే', 'U'), ('ల', '|'), ('ను', '|'), ('జా', 'U'), ('ర', '|'), ('లం', 'U'), ('గ', '|'), ('వ', '|'), ('యు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('యే', 'U'), ('క', '|'), ('ప', 'U'), ('త్నీ', 'U'), ('వ్ర', '|'), ('త', '|'), ('ప్రా', 'U'), ('రం', 'U'), ('భం', 'U'), ('బి', '|'), ('పు', '|'), ('డే', 'U'), ('ల', '|'), ('నీ', 'U'), ('కు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('చీ', 'U'), ('ర', 'U'), ('ల్దీ', 'U'), ('య', '|'), ('కు', '|'), ('చ', 'U'), ('న్ను', '|'), ('గు', 'U'), ('బ్బ', '|'), ('ల', '|'), ('ప', '|'), ('యిం', 'U'), ('జీ', 'U'), ('కా', 'U'), ('కు', '|'), ('గా', 'U'), ('గా', 'U'), ('కు', '|'), ('గా', 'U'), ('జీ', 'U'), ('ర', 'U'), ('ల్దీ', 'U'), ('య', '|'), ('కు', '|'), ('మం', 'U'), ('ద', '|'), ('బో', 'U'), ('య', '|'), ('డి', '|'), ('దె', '|'), ('వ', 'U'), ('చ్చే', 'U'), ('బ్రొ', 'U'), ('ద్దు', '|'), ('రా', 'U'), ('వ', 'U'), ('ల్దు', '|'), ('నా', 'U'), ('జా', 'U'), ('రా', 'U'), ('మే', 'U'), ('ల', '|'), ('ను', '|'), ('జా', 'U'), ('ర', '|'), ('లం', 'U'), ('గ', '|'), ('వ', '|'), ('యు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('యే', 'U'), ('క', '|'), ('ప', 'U'), ('త్నీ', 'U'), ('వ్ర', '|'), ('త', '|'), ('ప్రా', 'U'), ('రం', 'U'), ('భం', 'U'), ('బి', '|'), ('పు', '|'), ('డే', 'U'), ('ల', '|'), ('నీ', 'U'), ('కు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('తి', '|'), ('రు', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ధ', '|'), ('రిం', 'U'), ('ప', '|'), ('డే', 'U'), ('ని', '|'), ('నొ', '|'), ('స', '|'), ('లన్', 'U'), ('ది', 'U'), ('క్పూ', 'U'), ('రి', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('వ', '|'), ('ర', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('డే', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('వాం', 'U'), ('ఛిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('రు', '|'), ('హ', '|'), ('శ్రీ', 'U'), ('తు', '|'), ('ల', '|'), ('సీ', 'U'), ('ద', '|'), ('ళో', 'U'), ('ద', '|'), ('క', '|'), ('ము', '|'), ('ద్రా', 'U'), ('గం', 'U'), ('డే', 'U'), ('ని', '|'), ('వా', 'U'), ('డే', 'U'), ('టి', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('జే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('తి', '|'), ('రు', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ధ', '|'), ('రిం', 'U'), ('ప', '|'), ('డే', 'U'), ('ని', '|'), ('నొ', '|'), ('స', '|'), ('ల', 'U'), ('న్ది', 'U'), ('క్పూ', 'U'), ('రి', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('నీ', 'U'), ('వ', '|'), ('ర', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('ప', '|'), ('డే', 'U'), ('ని', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('వాం', 'U'), ('ఛిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('రు', '|'), ('హ', '|'), ('శ్రీ', 'U'), ('తు', '|'), ('ల', '|'), ('సీ', 'U'), ('ద', '|'), ('ళో', 'U'), ('ద', '|'), ('క', '|'), ('ము', '|'), ('ద్రా', 'U'), ('గం', 'U'), ('డే', 'U'), ('ని', '|'), ('వా', 'U'), ('డే', 'U'), ('టి', '|'), ('నే', 'U'), ('ర్ప', '|'), ('రి', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('పు', '|'), ('రం', 'U'), ('బు', '|'), ('జే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('బ', 'U'), ('న్న', '|'), ('ను', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('వి', 'U'), ('శ్వ', '|'), ('ద్రో', 'U'), ('హి', '|'), ('తో', 'U'), ('బు', 'U'), ('ట్టు', '|'), ('కున్', 'U'), ('గ', '|'), ('రు', '|'), ('ణా', 'U'), ('పూ', 'U'), ('ర్ణ', '|'), ('వి', '|'), ('లో', 'U'), ('క', '|'), ('నం', 'U'), ('బొ', '|'), ('ద', '|'), ('వ', '|'), ('లం', 'U'), ('కా', 'U'), ('రా', 'U'), ('జ్య', '|'), ('సిం', 'U'), ('హా', 'U'), ('స', '|'), ('న', 'U'), ('స్థి', '|'), ('ర', '|'), ('ప', 'U'), ('ట్టం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('యే', 'U'), ('దే', 'U'), ('వుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('సా', 'U'), ('టి', '|'), ('యు', 'U'), ('ర్వ', '|'), ('ర', '|'), ('లో', 'U'), ('నన్', 'U'), ('భ', '|'), ('వ', '|'), ('రో', 'U'), ('గ', '|'), ('దూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('బ', 'U'), ('న్న', '|'), ('ను', '|'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('వి', 'U'), ('శ్వ', '|'), ('ద్రో', 'U'), ('హి', '|'), ('తో', 'U'), ('బు', 'U'), ('ట్టు', '|'), ('కున్', 'U'), ('గ', '|'), ('రు', '|'), ('ణా', 'U'), ('పూ', 'U'), ('ర్ణ', '|'), ('వి', '|'), ('లో', 'U'), ('క', '|'), ('నం', 'U'), ('బొ', '|'), ('ద', '|'), ('వ', '|'), ('లం', 'U'), ('కా', 'U'), ('రా', 'U'), ('జ్య', '|'), ('సిం', 'U'), ('హా', 'U'), ('స', '|'), ('న', 'U'), ('స్థి', '|'), ('ర', '|'), ('ప', 'U'), ('ట్టం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('యే', 'U'), ('దే', 'U'), ('వుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('సా', 'U'), ('టి', '|'), ('యు', 'U'), ('ర్వ', '|'), ('ర', '|'), ('లో', 'U'), ('న', 'U'), ('న్భ', '|'), ('వ', '|'), ('రో', 'U'), ('గ', '|'), ('దూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('పా', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('పై', 'U'), ('బా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బు', '|'), ('పై', 'U'), ('గ', '|'), ('ర', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('పై', 'U'), ('గ', '|'), ('పో', 'U'), ('ల', '|'), ('త', '|'), ('టి', '|'), ('పై', 'U'), ('గం', 'U'), ('ఠం', 'U'), ('బు', '|'), ('పై', 'U'), ('గొ', 'U'), ('ప్పు', '|'), ('పై', 'U'), ('బ', '|'), ('రు', '|'), ('వుల్', 'U'), ('వా', 'U'), ('ఱె', '|'), ('డు', '|'), ('నా', 'U'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('లు', '|'), ('మి', '|'), ('మున్', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('స', 'U'), ('ర్వ', '|'), ('ర', '|'), ('సా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('న', 'U'), ('న్ను', '|'), ('బ్రో', 'U'), ('వు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ప', '|'), ('ర', '|'), ('నా', 'U'), ('రీ', 'U'), ('కు', '|'), ('చ', '|'), ('కుం', 'U'), ('భ', '|'), ('పా', 'U'), ('లి', '|'), ('క', '|'), ('ల', '|'), ('పై', 'U'), ('బా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బు', '|'), ('పై', 'U'), ('గ', '|'), ('ర', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('పై', 'U'), ('గ', '|'), ('పో', 'U'), ('ల', '|'), ('త', '|'), ('టి', '|'), ('పై', 'U'), ('గం', 'U'), ('ఠం', 'U'), ('బు', '|'), ('పై', 'U'), ('గొ', 'U'), ('ప్పు', '|'), ('పై', 'U'), ('బ', '|'), ('రు', '|'), ('వు', 'U'), ('ల్వా', 'U'), ('ఱె', '|'), ('డు', '|'), ('నా', 'U'), ('త', '|'), ('లం', 'U'), ('పు', '|'), ('లు', '|'), ('మి', '|'), ('ము', 'U'), ('న్భా', 'U'), ('విం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('స', 'U'), ('ర్వ', '|'), ('ర', '|'), ('సా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('న', 'U'), ('న్ను', '|'), ('బ్రో', 'U'), ('వు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('ర', '|'), ('కుల్', 'U'), ('క్రా', 'U'), ('గి', '|'), ('న', '|'), ('యి', 'U'), ('న్ప', '|'), ('కం', 'U'), ('బ', '|'), ('ము', '|'), ('ల', '|'), ('నం', 'U'), ('టం', 'U'), ('గ', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('గొ', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('బొ', '|'), ('ర', '|'), ('లం', 'U'), ('బొ', 'U'), ('ర్ల', '|'), ('గ', '|'), ('గ', 'U'), ('క్క', '|'), ('రా', 'U'), ('ల', '|'), ('గొ', '|'), ('ని', '|'), ('వీ', 'U'), ('పు', 'U'), ('ల్గో', 'U'), ('య', '|'), ('గా', 'U'), ('వ్రే', 'U'), ('య', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('వా', 'U'), ('సు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('వ', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('దు', 'U'), ('ర్మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', 'U'), ('ల్గ', '|'), ('ని', '|'), ('చ', 'U'), ('న్న', '|'), ('వా', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('న', '|'), ('ర', '|'), ('కు', 'U'), ('ల్క్రా', 'U'), ('గి', '|'), ('న', '|'), ('యి', 'U'), ('న్ప', '|'), ('కం', 'U'), ('బ', '|'), ('ము', '|'), ('ల', '|'), ('నం', 'U'), ('టం', 'U'), ('గ', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('గొ', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('బొ', '|'), ('ర', '|'), ('లం', 'U'), ('బొ', 'U'), ('ర్ల', '|'), ('గ', '|'), ('గ', 'U'), ('క్క', '|'), ('రా', 'U'), ('ల', '|'), ('గొ', '|'), ('ని', '|'), ('వీ', 'U'), ('పు', 'U'), ('ల్గో', 'U'), ('య', '|'), ('గా', 'U'), ('వ్రే', 'U'), ('య', '|'), ('గా', 'U'), ('న', '|'), ('ర', '|'), ('కా', 'U'), ('వా', 'U'), ('సు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నుం', 'U'), ('డు', '|'), ('దు', '|'), ('రు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('వ', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('దు', 'U'), ('ర్మ', '|'), ('ర', '|'), ('ణం', 'U'), ('బు', 'U'), ('ల్గ', '|'), ('ని', '|'), ('చ', 'U'), ('న్న', '|'), ('వా', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('పు', '|'), ('ర', '|'), ('సం', 'U'), ('హా', 'U'), ('రు', '|'), ('ని', '|'), ('చా', 'U'), ('ప', '|'), ('మున్', 'U'), ('జి', '|'), ('వు', '|'), ('కు', '|'), ('వం', 'U'), ('బున్', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('పో', 'U'), ('జూ', 'U'), ('చి', '|'), ('నన్', 'U'), ('బ', '|'), ('ర', '|'), ('శూ', 'U'), ('ద', '|'), ('గ్ర', '|'), ('భు', '|'), ('జుం', 'U'), ('డు', '|'), ('పో', 'U'), ('వి', '|'), ('డు', '|'), ('చు', '|'), ('నే', 'U'), ('భం', 'U'), ('జిం', 'U'), ('చు', '|'), ('గా', 'U'), ('కం', 'U'), ('చు', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('ముల్', 'U'), ('ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వున్', 'U'), ('భు', '|'), ('జ', '|'), ('బ', '|'), ('లా', 'U'), ('టో', 'U'), ('పం', 'U'), ('బు', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('శాం', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('గా', 'U'), ('చి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('పు', '|'), ('ర', '|'), ('సం', 'U'), ('హా', 'U'), ('రు', '|'), ('ని', '|'), ('చా', 'U'), ('ప', '|'), ('ము', 'U'), ('న్జి', '|'), ('వు', '|'), ('కు', '|'), ('వం', 'U'), ('బు', 'U'), ('న్ద్రుం', 'U'), ('చి', '|'), ('పో', 'U'), ('జూ', 'U'), ('చి', '|'), ('నన్', 'U'), ('బ', '|'), ('ర', '|'), ('శూ', 'U'), ('ద', '|'), ('గ్ర', '|'), ('భు', '|'), ('జుం', 'U'), ('డు', '|'), ('పో', 'U'), ('వి', '|'), ('డు', '|'), ('చు', '|'), ('నే', 'U'), ('భం', 'U'), ('జిం', 'U'), ('చు', '|'), ('గా', 'U'), ('కం', 'U'), ('చు', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('ము', 'U'), ('ల్ప', 'U'), ('ల్కి', '|'), ('న', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వు', 'U'), ('న్భు', '|'), ('జ', '|'), ('బ', '|'), ('లా', 'U'), ('టో', 'U'), ('పం', 'U'), ('బు', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('శాం', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('గా', 'U'), ('చి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('స్మ', '|'), ('ర', '|'), ('సం', 'U'), ('హా', 'U'), ('రు', '|'), ('డు', '|'), ('కో', 'U'), ('రి', '|'), ('పొ', 'U'), ('త్తు', '|'), ('న', '|'), ('భు', '|'), ('జిం', 'U'), ('పన్', 'U'), ('బి', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('రా', 'U'), ('ను', '|'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('లె', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బై', 'U'), ('న', '|'), ('నో', 'U'), ('మ', 'U'), ('న్న', '|'), ('నో', 'U'), ('య', '|'), ('ర', '|'), ('విం', 'U'), ('దా', 'U'), ('న', '|'), ('న', '|'), ('వే', 'U'), ('యు', '|'), ('నే', 'U'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('య', 'U'), ('న్న', '|'), ('జా', 'U'), ('ల', 'U'), ('న్న', '|'), ('మం', 'U'), ('త్ర', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('నే', 'U'), ('ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('స్మ', '|'), ('ర', '|'), ('సం', 'U'), ('హా', 'U'), ('రు', '|'), ('డు', '|'), ('కో', 'U'), ('రి', '|'), ('పొ', 'U'), ('త్తు', '|'), ('న', '|'), ('భు', '|'), ('జిం', 'U'), ('ప', 'U'), ('న్బి', 'U'), ('ల్వ', '|'), ('నే', 'U'), ('రా', 'U'), ('ను', '|'), ('శ్రీ', 'U'), ('హ', '|'), ('రి', '|'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('నె', 'U'), ('న్న', '|'), ('వ', '|'), ('లె', '|'), ('ని', 'U'), ('త్యం', 'U'), ('బై', 'U'), ('న', '|'), ('నో', 'U'), ('మ', 'U'), ('న్న', '|'), ('నో', 'U'), ('య', '|'), ('ర', '|'), ('విం', 'U'), ('దా', 'U'), ('న', '|'), ('న', '|'), ('వే', 'U'), ('యు', '|'), ('నే', 'U'), ('టి', '|'), ('కి', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('య', 'U'), ('న్న', '|'), ('జా', 'U'), ('ల', 'U'), ('న్న', '|'), ('మం', 'U'), ('త్ర', '|'), ('ర', '|'), ('హ', 'U'), ('స్యం', 'U'), ('బు', '|'), ('ద', '|'), ('లం', 'U'), ('తు', '|'), ('నే', 'U'), ('ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('బా', 'U'), ('ల', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('గొం', 'U'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('వృ', '|'), ('థా', 'U'), ('పా', 'U'), ('పం', 'U'), ('పు', '|'), ('దు', 'U'), ('ర్బు', 'U'), ('ద్ధి', '|'), ('నై', 'U'), ('చా', 'U'), ('లన్', 'U'), ('జ', 'U'), ('వ్వ', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('గ', 'U'), ('ర్వ', '|'), ('మ', '|'), ('తి', '|'), ('నై', 'U'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('నై', 'U'), ('దు', 'U'), ('ష్క్రి', '|'), ('యా', 'U'), ('జా', 'U'), ('ల', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('జ', '|'), ('రిం', 'U'), ('తు', '|'), ('గా', 'U'), ('ని', '|'), ('ని', '|'), ('ను', '|'), ('గాం', 'U'), ('క్షం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('లే', 'U'), ('ద', 'U'), ('య్య', '|'), ('హే', 'U'), ('రా', 'U'), ('ళం', 'U'), ('బై', 'U'), ('న', '|'), ('ది', '|'), ('చిం', 'U'), ('త', '|'), ('వం', 'U'), ('త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('బా', 'U'), ('ల', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('గొం', 'U'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('వృ', '|'), ('థా', 'U'), ('పా', 'U'), ('పం', 'U'), ('పు', '|'), ('దు', 'U'), ('ర్బు', 'U'), ('ద్ధి', '|'), ('నై', 'U'), ('చా', 'U'), ('ల', 'U'), ('న్జ', 'U'), ('వ్వ', '|'), ('న', '|'), ('మం', 'U'), ('దు', '|'), ('గ', 'U'), ('ర్వ', '|'), ('మ', '|'), ('తి', '|'), ('నై', 'U'), ('సం', 'U'), ('సా', 'U'), ('రి', '|'), ('నై', 'U'), ('దు', 'U'), ('ష్క్రి', '|'), ('యా', 'U'), ('జా', 'U'), ('ల', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('జ', '|'), ('రిం', 'U'), ('తు', '|'), ('గా', 'U'), ('ని', '|'), ('ని', '|'), ('ను', '|'), ('గాం', 'U'), ('క్షం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('లే', 'U'), ('ద', 'U'), ('య్య', '|'), ('హే', 'U'), ('రా', 'U'), ('ళం', 'U'), ('బై', 'U'), ('న', '|'), ('ది', '|'), ('చిం', 'U'), ('త', '|'), ('వం', 'U'), ('త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('సా', 'U'), ('ల', '|'), ('గ్రా', 'U'), ('మ', '|'), ('శి', '|'), ('లా', 'U'), ('శి', '|'), ('లో', 'U'), ('చ్చ', '|'), ('య', '|'), ('గ', '|'), ('యా', 'U'), ('స్నా', 'U'), ('న', '|'), ('ప్ర', '|'), ('యా', 'U'), ('గ', 'U'), ('స్థ', '|'), ('లుల్', 'U'), ('పో', 'U'), ('లం', 'U'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('నం', 'U'), ('చు', '|'), ('బో', 'U'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('తున్', 'U'), ('బో', 'U'), ('లే', 'U'), ('ను', '|'), ('మీ', 'U'), ('దా', 'U'), ('సు', '|'), ('లన్', 'U'), ('బో', 'U'), ('లం', 'U'), ('గా', 'U'), ('న', '|'), ('గ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('ది', '|'), ('క', '|'), ('నే', 'U'), ('బు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('డౌ', 'U'), ('టె', 'U'), ('ట్లు', '|'), ('హే', 'U'), ('రా', 'U'), ('ళం', 'U'), ('బై', 'U'), ('న', '|'), ('ది', '|'), ('చిం', 'U'), ('త', '|'), ('వం', 'U'), ('త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('సా', 'U'), ('ల', '|'), ('గ్రా', 'U'), ('మ', '|'), ('శి', '|'), ('లా', 'U'), ('శి', '|'), ('లో', 'U'), ('చ్చ', '|'), ('య', '|'), ('గ', '|'), ('యా', 'U'), ('స్నా', 'U'), ('న', '|'), ('ప్ర', '|'), ('యా', 'U'), ('గ', 'U'), ('స్థ', '|'), ('లుల్', 'U'), ('పో', 'U'), ('లం', 'U'), ('జూ', 'U'), ('చె', '|'), ('ద', '|'), ('నం', 'U'), ('చు', '|'), ('బో', 'U'), ('వ', '|'), ('ద', '|'), ('ల', '|'), ('తు', 'U'), ('న్బో', 'U'), ('లే', 'U'), ('ను', '|'), ('మీ', 'U'), ('దా', 'U'), ('సు', '|'), ('లన్', 'U'), ('బో', 'U'), ('లం', 'U'), ('గా', 'U'), ('న', '|'), ('గ', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('పు', 'U'), ('ట్ట', '|'), ('ది', '|'), ('క', '|'), ('నే', 'U'), ('బు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('డౌ', 'U'), ('టె', 'U'), ('ట్లు', '|'), ('హే', 'U'), ('రా', 'U'), ('ళం', 'U'), ('బై', 'U'), ('న', '|'), ('ది', '|'), ('చిం', 'U'), ('త', '|'), ('వం', 'U'), ('త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('లు', '|'), ('వం', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('నీ', 'U'), ('ను', '|'), ('తు', '|'), ('లు', '|'), ('పె', 'U'), ('క్కుల్', 'U'), ('సే', 'U'), ('యు', '|'), ('టన్', 'U'), ('మా', 'U'), ('న', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('నే', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('నీ', 'U'), ('దా', 'U'), ('సా', 'U'), ('ను', '|'), ('వ', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('తో', 'U'), ('ని', '|'), ('లు', '|'), ('వం', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('బో', 'U'), ('క', '|'), ('డ', '|'), ('ప', '|'), ('టన్', 'U'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ముల్', 'U'), ('వి', 'U'), ('న్న', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కుం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('మో', 'U'), ('క్ష', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('కొ', '|'), ('లు', '|'), ('వం', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('నీ', 'U'), ('ను', '|'), ('తు', '|'), ('లు', '|'), ('పె', 'U'), ('క్కు', 'U'), ('ల్సే', 'U'), ('యు', '|'), ('ట', 'U'), ('న్మా', 'U'), ('న', '|'), ('నిన్', 'U'), ('ద', '|'), ('ల', '|'), ('పం', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('నే', 'U'), ('గ', '|'), ('ల', '|'), ('సి', '|'), ('నీ', 'U'), ('దా', 'U'), ('సా', 'U'), ('ను', '|'), ('వ', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('తో', 'U'), ('ని', '|'), ('లు', '|'), ('వం', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('మా', 'U'), ('న', '|'), ('బో', 'U'), ('క', '|'), ('డ', '|'), ('ప', '|'), ('ట', 'U'), ('న్నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', 'U'), ('ల్వి', 'U'), ('న్న', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కుం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('ను', '|'), ('మో', 'U'), ('క్ష', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ల', '|'), ('పం', 'U'), ('జి', '|'), ('త్ర', '|'), ('ము', '|'), ('మీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('దా', 'U'), ('సుల్', 'U'), ('మ', '|'), ('హా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('లు', '|'), ('త్రై', 'U'), ('లో', 'U'), ('క్య', '|'), ('ము', '|'), ('నన్', 'U'), ('బ', '|'), ('ద', 'U'), ('స్థు', '|'), ('డు', '|'), ('ధ్రు', '|'), ('వుం', 'U'), ('డుం', 'U'), ('డున్', 'U'), ('న', '|'), ('భో', 'U'), ('మం', 'U'), ('డ', '|'), ('లి', 'U'), ('న్బ', '|'), ('లి', '|'), ('పా', 'U'), ('తా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', 'U'), ('న్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డు', '|'), ('భూ', 'U'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('నం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('జ', '|'), ('ప్ర', '|'), ('ల', '|'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('బో', 'U'), ('వ', '|'), ('రౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('త', '|'), ('ల', '|'), ('పం', 'U'), ('జి', '|'), ('త్ర', '|'), ('ము', '|'), ('మీ', 'U'), ('మ', '|'), ('హ', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('లు', '|'), ('మీ', 'U'), ('దా', 'U'), ('సు', 'U'), ('ల్మ', '|'), ('హా', 'U'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('లు', '|'), ('త్రై', 'U'), ('లో', 'U'), ('క్య', '|'), ('ము', '|'), ('న', 'U'), ('న్బ', '|'), ('ద', 'U'), ('స్థు', '|'), ('డు', '|'), ('ధ్రు', '|'), ('వుం', 'U'), ('డుం', 'U'), ('డు', 'U'), ('న్న', '|'), ('భో', 'U'), ('మం', 'U'), ('డ', '|'), ('లిన్', 'U'), ('బ', '|'), ('లి', '|'), ('పా', 'U'), ('తా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', 'U'), ('న్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డు', '|'), ('భూ', 'U'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('నం', 'U'), ('బ', 'U'), ('ద్మ', '|'), ('జ', '|'), ('ప్ర', '|'), ('ల', '|'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('ను', '|'), ('బో', 'U'), ('వ', '|'), ('రౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('ల', '|'), ('గన్', 'U'), ('మ', 'U'), ('ర్త్యు', '|'), ('లు', '|'), ('వే', 'U'), ('గి', '|'), ('లే', 'U'), ('చి', '|'), ('త', '|'), ('మి', '|'), ('చే', 'U'), ('జే', 'U'), ('యం', 'U'), ('గ', '|'), ('బా', 'U'), ('పం', 'U'), ('బు', '|'), ('లీ', 'U'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బుల్', 'U'), ('పె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('నే', 'U'), ('ది', '|'), ('గ', '|'), ('తి', '|'), ('యిం', 'U'), ('కన్', 'U'), ('ద్రో', 'U'), ('వ', '|'), ('యొం', 'U'), ('డె', 'U'), ('ద్ది', '|'), ('పు', 'U'), ('ర్వు', '|'), ('ల', '|'), ('గుం', 'U'), ('టం', 'U'), ('బ', '|'), ('డ', '|'), ('నీ', 'U'), ('ని', '|'), ('పో', 'U'), ('క', '|'), ('డ', '|'), ('యు', '|'), ('నే', 'U'), ('ర్పున్', 'U'), ('బు', 'U'), ('ద్ధి', '|'), ('యుం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('లౌ', 'U'), ('ట', '|'), ('లె', 'U'), ('స్స', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('చె', '|'), ('ల', '|'), ('గ', 'U'), ('న్మ', 'U'), ('ర్త్యు', '|'), ('లు', '|'), ('వే', 'U'), ('గి', '|'), ('లే', 'U'), ('చి', '|'), ('త', '|'), ('మి', '|'), ('చే', 'U'), ('జే', 'U'), ('యం', 'U'), ('గ', '|'), ('బా', 'U'), ('పం', 'U'), ('బు', '|'), ('లీ', 'U'), ('క', '|'), ('లు', '|'), ('షం', 'U'), ('బు', 'U'), ('ల్పె', '|'), ('డ', '|'), ('బా', 'U'), ('య', '|'), ('నే', 'U'), ('ది', '|'), ('గ', '|'), ('తి', '|'), ('యిం', 'U'), ('క', 'U'), ('న్ద్రో', 'U'), ('వ', '|'), ('యొం', 'U'), ('డె', 'U'), ('ద్ది', '|'), ('పు', 'U'), ('ర్వు', '|'), ('ల', '|'), ('గుం', 'U'), ('టం', 'U'), ('బ', '|'), ('డ', '|'), ('నీ', 'U'), ('ని', '|'), ('పో', 'U'), ('క', '|'), ('డ', '|'), ('యు', '|'), ('నే', 'U'), ('ర్పు', 'U'), ('న్బు', 'U'), ('ద్ధి', '|'), ('యుం', 'U'), ('గ', 'U'), ('ల్గు', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('లౌ', 'U'), ('ట', '|'), ('లె', 'U'), ('స్స', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('వ్ర', '|'), ('తం', 'U'), ('బు', '|'), ('లుం', 'U'), ('ద', '|'), ('ప', '|'), ('ము', '|'), ('లుం', 'U'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('య', 'U'), ('న్యు', 'U'), ('ల్తు', '|'), ('దిన్', 'U'), ('గ', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('ని', 'U'), ('ర్జ', '|'), ('ర', '|'), ('పు', '|'), ('రీ', 'U'), ('కాం', 'U'), ('తా', 'U'), ('కు', '|'), ('చా', 'U'), ('లిం', 'U'), ('గ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('గొ', 'U'), ('న్నా', 'U'), ('ళ్లు', '|'), ('సు', '|'), ('ఖిం', 'U'), ('చి', '|'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('ని', '|'), ('లం', 'U'), ('బు', 'U'), ('ట్టం', 'U'), ('గ', '|'), ('నే', 'U'), ('మె', 'U'), ('చ్చ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('ము', 'U'), ('క్తిన్', 'U'), ('ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('కాం', 'U'), ('తు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('క', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('వ్ర', '|'), ('తం', 'U'), ('బు', '|'), ('లుం', 'U'), ('ద', '|'), ('ప', '|'), ('ము', '|'), ('లుం', 'U'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('య', 'U'), ('న్యు', 'U'), ('ల్తు', '|'), ('దిన్', 'U'), ('గ', '|'), ('ల', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('ని', 'U'), ('ర్జ', '|'), ('ర', '|'), ('పు', '|'), ('రీ', 'U'), ('కాం', 'U'), ('తా', 'U'), ('కు', '|'), ('చా', 'U'), ('లిం', 'U'), ('గ', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('గొ', 'U'), ('న్నా', 'U'), ('ళ్లు', '|'), ('సు', '|'), ('ఖిం', 'U'), ('చి', '|'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱ', '|'), ('ని', '|'), ('లం', 'U'), ('బు', 'U'), ('ట్టం', 'U'), ('గ', '|'), ('నే', 'U'), ('మె', 'U'), ('చ్చ', '|'), ('ని', 'U'), ('ర్మ', '|'), ('ల', '|'), ('ము', 'U'), ('క్తి', 'U'), ('న్ని', '|'), ('ను', '|'), ('గొ', 'U'), ('ల్చి', '|'), ('కాం', 'U'), ('తు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('లు', '|'), ('వె', 'U'), ('ల్లం', 'U'), ('బు', '|'), ('ల', '|'), ('కాం', 'U'), ('కు', '|'), ('రం', 'U'), ('బు', '|'), ('లొ', '|'), ('ద', '|'), ('వన్', 'U'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('తో', 'U'), ('దు', '|'), ('ల', '|'), ('సీ', 'U'), ('ప', 'U'), ('ర్ణ', '|'), ('మొ', '|'), ('కిం', 'U'), ('చు', '|'), ('కం', 'U'), ('త', '|'), ('గొ', '|'), ('ని', '|'), ('నన్', 'U'), ('దో', 'U'), ('షా', 'U'), ('లు', '|'), ('ఖం', 'U'), ('డిం', 'U'), ('చు', '|'), ('గా', 'U'), ('పొ', '|'), ('ల', '|'), ('పా', 'U'), ('కుల్', 'U'), ('ది', '|'), ('న', '|'), ('గా', 'U'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('బ', '|'), ('డిన్', 'U'), ('బో', 'U'), ('నే', 'U'), ('ల', '|'), ('మో', 'U'), ('క్షం', 'U'), ('బు', '|'), ('కూ', 'U'), ('ర', '|'), ('ల', '|'), ('ను', 'U'), ('న్నా', 'U'), ('ర', '|'), ('ల', '|'), ('నే', 'U'), ('ల', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ని', '|'), ('లు', '|'), ('వె', 'U'), ('ల్లం', 'U'), ('బు', '|'), ('ల', '|'), ('కాం', 'U'), ('కు', '|'), ('రం', 'U'), ('బు', '|'), ('లొ', '|'), ('ద', '|'), ('వ', 'U'), ('న్నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('తీ', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('తో', 'U'), ('దు', '|'), ('ల', '|'), ('సీ', 'U'), ('ప', 'U'), ('ర్ణ', '|'), ('మొ', '|'), ('కిం', 'U'), ('చు', '|'), ('కం', 'U'), ('త', '|'), ('గొ', '|'), ('ని', '|'), ('న', 'U'), ('న్దో', 'U'), ('షా', 'U'), ('లు', '|'), ('ఖం', 'U'), ('డిం', 'U'), ('చు', '|'), ('గా', 'U'), ('పొ', '|'), ('ల', '|'), ('పా', 'U'), ('కు', 'U'), ('ల్ది', '|'), ('న', '|'), ('గా', 'U'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('ల', '|'), ('బ', '|'), ('డి', 'U'), ('న్బో', 'U'), ('నే', 'U'), ('ల', '|'), ('మో', 'U'), ('క్షం', 'U'), ('బు', '|'), ('కూ', 'U'), ('ర', '|'), ('ల', '|'), ('ను', 'U'), ('న్నా', 'U'), ('ర', '|'), ('ల', '|'), ('నే', 'U'), ('ల', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ద్ర', '|'), ('లి', '|'), ('త', '|'), ('రుల్', 'U'), ('చె', 'U'), ('ల్లిం', 'U'), ('చు', '|'), ('టే', 'U'), ('క్రొ', 'U'), ('త్త', '|'), ('కా', 'U'), ('క', '|'), ('ల', '|'), ('నీ', 'U'), ('ము', '|'), ('ద్ర', '|'), ('లు', '|'), ('చూ', 'U'), ('డ', '|'), ('జె', 'U'), ('ల్లు', '|'), ('బ', '|'), ('డి', '|'), ('చ', '|'), ('క్రా', 'U'), ('లం', 'U'), ('చు', '|'), ('వే', 'U'), ('యిం', 'U'), ('చు', '|'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('నా', 'U'), ('థా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('క్రొ', 'U'), ('త్త', '|'), ('నీ', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('నా', 'U'), ('నా', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('పుం', 'U'), ('దో', 'U'), ('లు', '|'), ('ము', '|'), ('ద్ర', '|'), ('లు', '|'), ('చె', 'U'), ('ల్లిం', 'U'), ('చి', '|'), ('తి', '|'), ('విం', 'U'), ('దు', '|'), ('నం', 'U'), ('దు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('చె', '|'), ('లు', '|'), ('వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ద్ర', '|'), ('లి', '|'), ('త', '|'), ('రు', 'U'), ('ల్చె', 'U'), ('ల్లిం', 'U'), ('చు', '|'), ('టే', 'U'), ('క్రొ', 'U'), ('త్త', '|'), ('కా', 'U'), ('క', '|'), ('ల', '|'), ('నీ', 'U'), ('ము', '|'), ('ద్ర', '|'), ('లు', '|'), ('చూ', 'U'), ('డ', '|'), ('జె', 'U'), ('ల్లు', '|'), ('బ', '|'), ('డి', '|'), ('చ', '|'), ('క్రా', 'U'), ('లం', 'U'), ('చు', '|'), ('వే', 'U'), ('యిం', 'U'), ('చు', '|'), ('మం', 'U'), ('డ', '|'), ('ల', '|'), ('నా', 'U'), ('థా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('క్రొ', 'U'), ('త్త', '|'), ('నీ', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('నా', 'U'), ('నా', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('పుం', 'U'), ('దో', 'U'), ('లు', '|'), ('ము', '|'), ('ద్ర', '|'), ('లు', '|'), ('చె', 'U'), ('ల్లిం', 'U'), ('చి', '|'), ('తి', '|'), ('విం', 'U'), ('దు', '|'), ('నం', 'U'), ('దు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('ళ', '|'), ('యా', 'U'), ('పా', 'U'), ('ది', '|'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వ', '|'), ('గు', '|'), ('నీ', 'U'), ('రా', 'U'), ('కా', 'U'), ('సి', '|'), ('రా', 'U'), ('కా', 'U'), ('శి', '|'), ('వా', 'U'), ('దు', '|'), ('లు', '|'), ('వా', 'U'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('రిం', 'U'), ('క', '|'), ('నె', '|'), ('ట', '|'), ('జొ', 'U'), ('త్తుం', 'U'), ('జ', 'U'), ('త్తు', '|'), ('గా', 'U'), ('క', 'U'), ('న్న', '|'), ('సం', 'U'), ('చ', '|'), ('లి', '|'), ('తుం', 'U'), ('గౌ', 'U'), ('శి', '|'), ('కు', '|'), ('గా', 'U'), ('చి', '|'), ('తా', 'U'), ('ట', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('స్త్ర', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('చే', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('దో', 'U'), ('ర్బ', '|'), ('ల', '|'), ('శ', 'U'), ('క్తిన్', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ప్ర', '|'), ('ళ', '|'), ('యా', 'U'), ('పా', 'U'), ('ది', '|'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వ', '|'), ('గు', '|'), ('నీ', 'U'), ('రా', 'U'), ('కా', 'U'), ('సి', '|'), ('రా', 'U'), ('కా', 'U'), ('శి', '|'), ('వా', 'U'), ('దు', '|'), ('లు', '|'), ('వా', 'U'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('రిం', 'U'), ('క', '|'), ('నె', '|'), ('ట', '|'), ('జొ', 'U'), ('త్తుం', 'U'), ('జ', 'U'), ('త్తు', '|'), ('గా', 'U'), ('క', 'U'), ('న్న', '|'), ('సం', 'U'), ('చ', '|'), ('లి', '|'), ('తుం', 'U'), ('గౌ', 'U'), ('శి', '|'), ('కు', '|'), ('గా', 'U'), ('చి', '|'), ('తా', 'U'), ('ట', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('స్త్ర', 'U'), ('జ్వా', 'U'), ('ల', '|'), ('చే', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('దో', 'U'), ('ర్బ', '|'), ('ల', '|'), ('శ', 'U'), ('క్తి', 'U'), ('న్వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('లు', '|'), ('కన్', 'U'), ('ము', 'U'), ('ద్దు', '|'), ('లు', '|'), ('చి', 'U'), ('ల్క', '|'), ('బి', 'U'), ('ల్చు', '|'), ('త', '|'), ('ఱి', '|'), ('రా', 'U'), ('జీ', 'U'), ('వా', 'U'), ('క్షి', '|'), ('యొ', 'U'), ('క్క', 'U'), ('ర్తు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('వె', '|'), ('య', '|'), ('ని', '|'), ('నన్', 'U'), ('సా', 'U'), ('లో', 'U'), ('క్య', '|'), ('సా', 'U'), ('యు', 'U'), ('జ్య', '|'), ('మున్', 'U'), ('కొ', '|'), ('ల', '|'), ('దు', 'U'), ('ల్మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('ని', 'U'), ('న్నున్', 'U'), ('బి', 'U'), ('డ్డ', '|'), ('పే', 'U'), ('రి', 'U'), ('డ్డ', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('న', '|'), ('కె', 'U'), ('ద్ది', '|'), ('మే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('చి', '|'), ('లు', '|'), ('క', 'U'), ('న్ము', 'U'), ('ద్దు', '|'), ('లు', '|'), ('చి', 'U'), ('ల్క', '|'), ('బి', 'U'), ('ల్చు', '|'), ('త', '|'), ('ఱి', '|'), ('రా', 'U'), ('జీ', 'U'), ('వా', 'U'), ('క్షి', '|'), ('యొ', 'U'), ('క్క', 'U'), ('ర్తు', '|'), ('ని', 'U'), ('చ్చ', '|'), ('లు', '|'), ('రా', 'U'), ('మా', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('వె', '|'), ('య', '|'), ('ని', '|'), ('న', 'U'), ('న్సా', 'U'), ('లో', 'U'), ('క్య', '|'), ('సా', 'U'), ('యు', 'U'), ('జ్య', '|'), ('మున్', 'U'), ('కొ', '|'), ('ల', '|'), ('దు', 'U'), ('ల్మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('ని', 'U'), ('న్ను', 'U'), ('న్బి', 'U'), ('డ్డ', '|'), ('పే', 'U'), ('రి', 'U'), ('డ్డ', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('పు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('న', '|'), ('కె', 'U'), ('ద్ది', '|'), ('మే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ల', '|'), ('ని', 'U'), ('న్నుం', 'U'), ('దొ', '|'), ('లు', '|'), ('బా', 'U'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('నే', 'U'), ('నీ', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మం', 'U'), ('దై', 'U'), ('న', '|'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('ల్మీ', 'U'), ('ప', '|'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('జం', 'U'), ('బు', '|'), ('ల', '|'), ('ప', '|'), ('యిన్', 'U'), ('దా', 'U'), ('పిం', 'U'), ('తు', '|'), ('నే', 'U'), ('నిం', 'U'), ('క', '|'), ('బు', 'U'), ('ట్ట', '|'), ('ల', '|'), ('లో', 'U'), ('జె', 'U'), ('ట్టు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('వు', '|'), ('ల', '|'), ('బు', 'U'), ('ట్టం', 'U'), ('బు', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('నో', 'U'), ('ప', '|'), ('గ', 'U'), ('ర్మ', '|'), ('ల', '|'), ('తా', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('మా', 'U'), ('ప', '|'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఇ', '|'), ('ల', '|'), ('ని', 'U'), ('న్నుం', 'U'), ('దొ', '|'), ('లు', '|'), ('బా', 'U'), ('ము', '|'), ('నం', 'U'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('నే', 'U'), ('నీ', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మం', 'U'), ('దై', 'U'), ('న', '|'), ('నా', 'U'), ('త', '|'), ('ల', '|'), ('పు', 'U'), ('ల్మీ', 'U'), ('ప', '|'), ('ద', '|'), ('పం', 'U'), ('క', '|'), ('జం', 'U'), ('బు', '|'), ('ల', '|'), ('ప', '|'), ('యి', 'U'), ('న్దా', 'U'), ('పిం', 'U'), ('తు', '|'), ('నే', 'U'), ('నిం', 'U'), ('క', '|'), ('బు', 'U'), ('ట్ట', '|'), ('ల', '|'), ('లో', 'U'), ('జె', 'U'), ('ట్టు', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నం', 'U'), ('బు', '|'), ('వు', '|'), ('ల', '|'), ('బు', 'U'), ('ట్టం', 'U'), ('బు', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('నో', 'U'), ('ప', '|'), ('గ', 'U'), ('ర్మ', '|'), ('ల', '|'), ('తా', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', '|'), ('మా', 'U'), ('ప', '|'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ల', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('ను', '|'), ('జా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డే', 'U'), ('చె', 'U'), ('ట్ట', '|'), ('వా', 'U'), ('డై', 'U'), ('న', '|'), ('నే', 'U'), ('ఖ', '|'), ('లు', '|'), ('డై', 'U'), ('నం', 'U'), ('దు', '|'), ('ది', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ము', '|'), ('డ', '|'), ('గున్', 'U'), ('గా', 'U'), ('ద', 'U'), ('న్న', '|'), ('గొం', 'U'), ('గీ', 'U'), ('డ్చె', '|'), ('దన్', 'U'), ('దె', '|'), ('లు', '|'), ('ప', 'U'), ('న్ని', 'U'), ('ల్చి', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('కొ', 'U'), ('న్న', '|'), ('ప', '|'), ('ర', '|'), ('వా', 'U'), ('దిన్', 'U'), ('గె', 'U'), ('ల్చె', '|'), ('దన్', 'U'), ('వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ల', '|'), ('స', 'U'), ('ద్వా', 'U'), ('క్య', '|'), ('ను', '|'), ('త', '|'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఇ', '|'), ('ల', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('ను', '|'), ('జా', 'U'), ('ల', '|'), ('భ', 'U'), ('క్తి', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డే', 'U'), ('చె', 'U'), ('ట్ట', '|'), ('వా', 'U'), ('డై', 'U'), ('న', '|'), ('నే', 'U'), ('ఖ', '|'), ('లు', '|'), ('డై', 'U'), ('నం', 'U'), ('దు', '|'), ('ది', '|'), ('ను', 'U'), ('త్త', '|'), ('మో', 'U'), ('త్త', '|'), ('ము', '|'), ('డ', '|'), ('గు', 'U'), ('న్గా', 'U'), ('ద', 'U'), ('న్న', '|'), ('గొం', 'U'), ('గీ', 'U'), ('డ్చె', '|'), ('దన్', 'U'), ('దె', '|'), ('లు', '|'), ('ప', 'U'), ('న్ని', 'U'), ('ల్చి', '|'), ('న', '|'), ('నా', 'U'), ('డు', '|'), ('కొ', 'U'), ('న్న', '|'), ('ప', '|'), ('ర', '|'), ('వా', 'U'), ('ది', 'U'), ('న్గె', 'U'), ('ల్చె', '|'), ('ద', 'U'), ('న్వే', 'U'), ('ద', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ల', '|'), ('స', 'U'), ('ద్వా', 'U'), ('క్య', '|'), ('ను', '|'), ('త', '|'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('దే', 'U'), ('వా', 'U'), ('నా', 'U'), ('దొ', '|'), ('క', '|'), ('వి', 'U'), ('న్న', '|'), ('పం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('దీ', 'U'), ('యం', 'U'), ('టి', '|'), ('వా', 'U'), ('విం', 'U'), ('టి', '|'), ('వా', 'U'), ('త్రో', 'U'), ('వం', 'U'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('రుం', 'U'), ('డు', '|'), ('దు', 'U'), ('ర్గ', '|'), ('తు', '|'), ('ల', '|'), ('కై', 'U'), ('త్రో', 'U'), ('వన్', 'U'), ('వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యే', 'U'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('రా', 'U'), ('దే', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కిం', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('రా', 'U'), ('వే', 'U'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('నిం', 'U'), ('త', '|'), ('నం', 'U'), ('త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('దే', 'U'), ('వా', 'U'), ('నా', 'U'), ('దొ', '|'), ('క', '|'), ('వి', 'U'), ('న్న', '|'), ('పం', 'U'), ('బు', '|'), ('గ', '|'), ('ల', '|'), ('దే', 'U'), ('దీ', 'U'), ('యం', 'U'), ('టి', '|'), ('వా', 'U'), ('విం', 'U'), ('టి', '|'), ('వా', 'U'), ('త్రో', 'U'), ('వం', 'U'), ('దం', 'U'), ('డ', '|'), ('ధ', '|'), ('రుం', 'U'), ('డు', '|'), ('దు', 'U'), ('ర్గ', '|'), ('తు', '|'), ('ల', '|'), ('కై', 'U'), ('త్రో', 'U'), ('వ', 'U'), ('న్వి', '|'), ('చా', 'U'), ('రిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యే', 'U'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('నో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గ', '|'), ('రా', 'U'), ('దే', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కిం', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('రా', 'U'), ('వే', 'U'), ('వెం', 'U'), ('బ', '|'), ('డి', '|'), ('నిం', 'U'), ('త', '|'), ('నం', 'U'), ('త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('చా', 'U'), ('వు', 'U'), ('ల్మ', 'U'), ('ర్త్యు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('లు', '|'), ('ని', 'U'), ('స్సం', 'U'), ('దే', 'U'), ('హ', '|'), ('ముల్', 'U'), ('దే', 'U'), ('హ', '|'), ('ముల్', 'U'), ('చే', 'U'), ('వ', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నా', 'U'), ('డె', '|'), ('శ్రీ', 'U'), ('గి', '|'), ('రి', '|'), ('గ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('వేం', 'U'), ('క', '|'), ('టా', 'U'), ('హో', 'U'), ('బి', '|'), ('ల', '|'), ('గ్రా', 'U'), ('వ', '|'), ('ప్రాం', 'U'), ('త', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('జే', 'U'), ('ర', '|'), ('వ', '|'), ('లె', '|'), ('జే', 'U'), ('రం', 'U'), ('బో', 'U'), ('వ', '|'), ('కే', 'U'), ('ల', 'U'), ('బ్బు', '|'), ('నా', 'U'), ('ర్యా', 'U'), ('వా', 'U'), ('ణీ', 'U'), ('స్తు', '|'), ('త', '|'), ('మో', 'U'), ('క్ష', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('చా', 'U'), ('వు', 'U'), ('ల్మ', 'U'), ('ర్త్యు', '|'), ('ల', '|'), ('కె', 'U'), ('ల్ల', '|'), ('గ', 'U'), ('ల్గు', '|'), ('ట', '|'), ('లు', '|'), ('ని', 'U'), ('స్సం', 'U'), ('దే', 'U'), ('హ', '|'), ('ము', 'U'), ('ల్దే', 'U'), ('హ', '|'), ('ముల్', 'U'), ('చే', 'U'), ('వ', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('నా', 'U'), ('డె', '|'), ('శ్రీ', 'U'), ('గి', '|'), ('రి', '|'), ('గ', '|'), ('యా', 'U'), ('శ్రీ', 'U'), ('వేం', 'U'), ('క', '|'), ('టా', 'U'), ('హో', 'U'), ('బి', '|'), ('ల', '|'), ('గ్రా', 'U'), ('వ', '|'), ('ప్రాం', 'U'), ('త', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('జే', 'U'), ('ర', '|'), ('వ', '|'), ('లె', '|'), ('జే', 'U'), ('రం', 'U'), ('బో', 'U'), ('వ', '|'), ('కే', 'U'), ('ల', 'U'), ('బ్బు', '|'), ('నా', 'U'), ('ర్యా', 'U'), ('వా', 'U'), ('ణీ', 'U'), ('స్తు', '|'), ('త', '|'), ('మో', 'U'), ('క్ష', '|'), ('ల', 'U'), ('క్ష్మి', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('త్రో', 'U'), ('వన్', 'U'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డొం', 'U'), ('టి', '|'), ('బో', 'U'), ('వు', '|'), ('త', '|'), ('ఱి', '|'), ('నీ', 'U'), ('స్తో', 'U'), ('త్రం', 'U'), ('బు', '|'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('నీ', 'U'), ('వుం', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('డు', '|'), ('దో', 'U'), ('డు', '|'), ('వ', 'U'), ('త్తు', '|'), ('ర', '|'), ('టె', '|'), ('నీ', 'U'), ('నె', 'U'), ('య్యం', 'U'), ('బు', '|'), ('తి', 'U'), ('య్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('నీ', 'U'), ('వం', 'U'), ('టా', 'U'), ('ప్తు', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బో', 'U'), ('లు', '|'), ('హి', '|'), ('తు', '|'), ('డున్', 'U'), ('నీ', 'U'), ('వం', 'U'), ('టి', '|'), ('భ', 'U'), ('క్త', '|'), ('ప్రి', '|'), ('య', '|'), ('ప్రా', 'U'), ('వీ', 'U'), ('ణ్యుం', 'U'), ('డు', '|'), ('ను', '|'), ('లే', 'U'), ('డు', '|'), ('చూ', 'U'), ('డ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('త్రో', 'U'), ('వ', 'U'), ('న్మా', 'U'), ('న', '|'), ('వు', '|'), ('డొం', 'U'), ('టి', '|'), ('బో', 'U'), ('వు', '|'), ('త', '|'), ('ఱి', '|'), ('నీ', 'U'), ('స్తో', 'U'), ('త్రం', 'U'), ('బు', '|'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('నీ', 'U'), ('వుం', 'U'), ('ద', 'U'), ('మ్ము', '|'), ('డు', '|'), ('దో', 'U'), ('డు', '|'), ('వ', 'U'), ('త్తు', '|'), ('ర', '|'), ('టె', '|'), ('నీ', 'U'), ('నె', 'U'), ('య్యం', 'U'), ('బు', '|'), ('తి', 'U'), ('య్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('నీ', 'U'), ('వం', 'U'), ('టా', 'U'), ('ప్తు', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బో', 'U'), ('లు', '|'), ('హి', '|'), ('తు', '|'), ('డు', 'U'), ('న్నీ', 'U'), ('వం', 'U'), ('టి', '|'), ('భ', 'U'), ('క్త', '|'), ('ప్రి', '|'), ('య', '|'), ('ప్రా', 'U'), ('వీ', 'U'), ('ణ్యుం', 'U'), ('డు', '|'), ('ను', '|'), ('లే', 'U'), ('డు', '|'), ('చూ', 'U'), ('డ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('వి', '|'), ('ధ', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('ల', '|'), ('యం', 'U'), ('త్య', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('వే', 'U'), ('ని', 'U'), ('ల్వ', '|'), ('వా', 'U'), ('వే', 'U'), ('ళ', '|'), ('లన్', 'U'), ('ధ్రు', '|'), ('వు', '|'), ('డో', 'U'), ('యొం', 'U'), ('డె', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణుం', 'U'), ('డు', '|'), ('బ', '|'), ('లి', '|'), ('యుం', 'U'), ('దుర్', 'U'), ('వా', 'U'), ('రు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('లై', 'U'), ('న', '|'), ('వి', '|'), ('శే', 'U'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('త', 'U'), ('క్కొ', '|'), ('రు', '|'), ('ల', '|'), ('కుం', 'U'), ('డం', 'U'), ('బో', 'U'), ('లు', '|'), ('నే', 'U'), ('యిం', 'U'), ('ద్ర', '|'), ('రు', '|'), ('ద్ర', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', 'U'), ('స్తు', '|'), ('త', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('సా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('వి', '|'), ('వి', '|'), ('ధ', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('ల', '|'), ('యం', 'U'), ('త్య', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('వే', 'U'), ('ని', 'U'), ('ల్వ', '|'), ('వా', 'U'), ('వే', 'U'), ('ళ', '|'), ('లన్', 'U'), ('ధ్రు', '|'), ('వు', '|'), ('డో', 'U'), ('యొం', 'U'), ('డె', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణుం', 'U'), ('డు', '|'), ('బ', '|'), ('లి', '|'), ('యుం', 'U'), ('దు', 'U'), ('ర్వా', 'U'), ('రు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('లై', 'U'), ('న', '|'), ('వి', '|'), ('శే', 'U'), ('షం', 'U'), ('బు', '|'), ('న', '|'), ('గా', 'U'), ('క', '|'), ('త', 'U'), ('క్కొ', '|'), ('రు', '|'), ('ల', '|'), ('కుం', 'U'), ('డం', 'U'), ('బో', 'U'), ('లు', '|'), ('నే', 'U'), ('యిం', 'U'), ('ద్ర', '|'), ('రు', '|'), ('ద్ర', '|'), ('వి', '|'), ('రిం', 'U'), ('చి', 'U'), ('స్తు', '|'), ('త', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('సా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[('చె', '|'), ('వి', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('విం', 'U'), ('దు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('క', '|'), ('డున్', 'U'), ('సెం', 'U'), ('కిం', 'U'), ('చి', '|'), ('క', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('లన్', 'U'), ('ర', '|'), ('వ', '|'), ('ము', 'U'), ('ల్మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ఘం', 'U'), ('ట', '|'), ('లం', 'U'), ('ట', '|'), ('ని', '|'), ('డి', '|'), ('ఘం', 'U'), ('టా', 'U'), ('క', 'U'), ('ర్ణు', '|'), ('డే', 'U'), ('తే', 'U'), ('ర', '|'), ('గా', 'U'), ('న', '|'), ('వి', '|'), ('చూ', 'U'), ('చిన్', 'U'), ('వ', '|'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('నీ', 'U'), ('యం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యీ', 'U'), ('సే', 'U'), ('వ', '|'), ('క', '|'), ('ప్ర', '|'), ('వ', '|'), ('రుం', 'U'), ('గా', 'U'), ('చు', '|'), ('ట', '|'), ('యే', 'U'), ('మి', '|'), ('లె', 'U'), ('క్క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('చె', '|'), ('వి', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('ము', '|'), ('విం', 'U'), ('దు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('క', '|'), ('డు', 'U'), ('న్సెం', 'U'), ('కిం', 'U'), ('చి', '|'), ('క', 'U'), ('ర్ణం', 'U'), ('బు', '|'), ('లన్', 'U'), ('ర', '|'), ('వ', '|'), ('ము', 'U'), ('ల్మీ', 'U'), ('ఱ', '|'), ('గ', '|'), ('ఘం', 'U'), ('ట', '|'), ('లం', 'U'), ('ట', '|'), ('ని', '|'), ('డి', '|'), ('ఘం', 'U'), ('టా', 'U'), ('క', 'U'), ('ర్ణు', '|'), ('డే', 'U'), ('తే', 'U'), ('ర', '|'), ('గా', 'U'), ('న', '|'), ('వి', '|'), ('చూ', 'U'), ('చి', 'U'), ('న్వ', '|'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('డ', '|'), ('వ', '|'), ('ట', '|'), ('నీ', 'U'), ('యం', 'U'), ('ఘ్రి', 'U'), ('ద్వ', '|'), ('యీ', 'U'), ('సే', 'U'), ('వ', '|'), ('క', '|'), ('ప్ర', '|'), ('వ', '|'), ('రుం', 'U'), ('గా', 'U'), ('చు', '|'), ('ట', '|'), ('యే', 'U'), ('మి', '|'), ('లె', 'U'), ('క్క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('వి', '|'), ('సూ', 'U'), ('నుం', 'U'), ('బ', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('సు', '|'), ('తు', '|'), ('నిన్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వం', 'U'), ('దు', '|'), ('నో', 'U'), ('ర', '|'), ('వి', '|'), ('సూ', 'U'), ('నుం', 'U'), ('గృ', '|'), ('ప', '|'), ('నే', 'U'), ('లి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('సు', '|'), ('తు', '|'), ('బో', 'U'), ('రం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('నా', 'U'), ('వం', 'U'), ('దు', '|'), ('నో', 'U'), ('యి', '|'), ('వి', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('ను', '|'), ('రెం', 'U'), ('డు', '|'), ('నుం', 'U'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('నీ', 'U'), ('కే', 'U'), ('ది', 'U'), ('ష్ట', '|'), ('మౌ', 'U'), ('నో', 'U'), ('క', '|'), ('దా', 'U'), ('ర', '|'), ('వి', '|'), ('వం', 'U'), ('శా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('తె', 'U'), ('ల్ప', '|'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ర', '|'), ('వి', '|'), ('సూ', 'U'), ('నుం', 'U'), ('బ', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('సు', '|'), ('తు', '|'), ('ని', '|'), ('న్ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వం', 'U'), ('దు', '|'), ('నో', 'U'), ('ర', '|'), ('వి', '|'), ('సూ', 'U'), ('నుం', 'U'), ('గృ', '|'), ('ప', '|'), ('నే', 'U'), ('లి', '|'), ('యిం', 'U'), ('ద్ర', '|'), ('సు', '|'), ('తు', '|'), ('బో', 'U'), ('రం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('నా', 'U'), ('వం', 'U'), ('దు', '|'), ('నో', 'U'), ('యి', '|'), ('వి', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('ను', '|'), ('రెం', 'U'), ('డు', '|'), ('నుం', 'U'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('నీ', 'U'), ('కే', 'U'), ('ది', 'U'), ('ష్ట', '|'), ('మౌ', 'U'), ('నో', 'U'), ('క', '|'), ('దా', 'U'), ('ర', '|'), ('వి', '|'), ('వం', 'U'), ('శా', 'U'), ('గ్ర', '|'), ('ణి', '|'), ('తె', 'U'), ('ల్ప', '|'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('దో', 'U'), ('సం', 'U'), ('బు', 'U'), ('ల్కు', '|'), ('ల', '|'), ('ప', 'U'), ('ర్వ', '|'), ('తం', 'U'), ('బు', '|'), ('ల', '|'), ('కొ', '|'), ('లం', 'U'), ('దుల్', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('నం', 'U'), ('గ', 'U'), ('ల్గ', '|'), ('నీ', 'U'), ('మీ', 'U'), ('సం', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('శ', 'U'), ('బ్ద', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('భ', 'U'), ('స్మీ', 'U'), ('భూ', 'U'), ('త', '|'), ('మై', 'U'), ('పో', 'U'), ('వ', '|'), ('వా', 'U'), ('త్రా', 'U'), ('సు', 'U'), ('ల్కో', 'U'), ('టి', '|'), ('స', '|'), ('హ', '|'), ('స్ర', '|'), ('ముల్', 'U'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('యె', 'U'), ('త్తన్', 'U'), ('రా', 'U'), ('ని', '|'), ('కా', 'U'), ('ర్పా', 'U'), ('స', '|'), ('పున్', 'U'), ('రా', 'U'), ('సు', 'U'), ('ల్సో', 'U'), ('కి', '|'), ('న', '|'), ('ని', 'U'), ('ప్పు', '|'), ('వో', 'U'), ('లె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('దో', 'U'), ('సం', 'U'), ('బు', 'U'), ('ల్కు', '|'), ('ల', '|'), ('ప', 'U'), ('ర్వ', '|'), ('తం', 'U'), ('బు', '|'), ('ల', '|'), ('కొ', '|'), ('లం', 'U'), ('దు', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('నం', 'U'), ('గ', 'U'), ('ల్గ', '|'), ('నీ', 'U'), ('మీ', 'U'), ('సం', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('శ', 'U'), ('బ్ద', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('న', '|'), ('భ', 'U'), ('స్మీ', 'U'), ('భూ', 'U'), ('త', '|'), ('మై', 'U'), ('పో', 'U'), ('వ', '|'), ('వా', 'U'), ('త్రా', 'U'), ('సు', 'U'), ('ల్కో', 'U'), ('టి', '|'), ('స', '|'), ('హ', '|'), ('స్ర', '|'), ('ము', 'U'), ('ల్గ', '|'), ('లి', '|'), ('గి', '|'), ('యె', 'U'), ('త్త', '|'), ('న్రా', 'U'), ('ని', '|'), ('కా', 'U'), ('ర్పా', 'U'), ('స', '|'), ('పున్', 'U'), ('రా', 'U'), ('సు', 'U'), ('ల్సో', 'U'), ('కి', '|'), ('న', '|'), ('ని', 'U'), ('ప్పు', '|'), ('వో', 'U'), ('లె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('సు', '|'), ('మా', 'U'), ('లం', 'U'), ('బ', '|'), ('గు', '|'), ('దే', 'U'), ('హి', '|'), ('పు', 'U'), ('ట్టు', '|'), ('వు', '|'), ('ల', '|'), ('నీ', 'U'), ('క', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('లం', 'U'), ('బా', 'U'), ('పి', '|'), ('ది', 'U'), ('వ్య', '|'), ('సు', '|'), ('కా', 'U'), ('యం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('తు', '|'), ('వె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ని', '|'), ('నున్', 'U'), ('వా', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('యో', 'U'), ('గి', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('గే', 'U'), ('హం', 'U'), ('బు', '|'), ('ల', '|'), ('నుం', 'U'), ('డి', '|'), ('లో', 'U'), ('హ', '|'), ('ము', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('గా', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('ర', '|'), ('స', '|'), ('వా', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('క', '|'), ('సు', '|'), ('మా', 'U'), ('లం', 'U'), ('బ', '|'), ('గు', '|'), ('దే', 'U'), ('హి', '|'), ('పు', 'U'), ('ట్టు', '|'), ('వు', '|'), ('ల', '|'), ('నీ', 'U'), ('క', 'U'), ('ష్టం', 'U'), ('బు', '|'), ('లం', 'U'), ('బా', 'U'), ('పి', '|'), ('ది', 'U'), ('వ్య', '|'), ('సు', '|'), ('కా', 'U'), ('యం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('తు', '|'), ('వె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('ని', '|'), ('ను', 'U'), ('న్వా', 'U'), ('క్రు', 'U'), ('చ్చి', '|'), ('న', 'U'), ('న్యో', 'U'), ('గి', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('గే', 'U'), ('హం', 'U'), ('బు', '|'), ('ల', '|'), ('నుం', 'U'), ('డి', '|'), ('లో', 'U'), ('హ', '|'), ('ము', '|'), ('సు', '|'), ('వ', 'U'), ('ర్ణ', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('గా', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('ర', '|'), ('స', '|'), ('వా', 'U'), ('దం', 'U'), ('బు', '|'), ('లు', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('సు', '|'), ('లన్', 'U'), ('గా', 'U'), ('చి', '|'), ('న', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('ను', '|'), ('చున్', 'U'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్నున్', 'U'), ('దు', '|'), ('దిన్', 'U'), ('ము', '|'), ('స', '|'), ('లి', '|'), ('భ్రా', 'U'), ('త', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('నెం', 'U'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('త్ర', '|'), ('యా', 'U'), ('కా', 'U'), ('ర', '|'), ('నే', 'U'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('ధా', 'U'), ('రు', '|'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('ని', 'U'), ('క్క', '|'), ('మె', '|'), ('ఱు', '|'), ('గన్', 'U'), ('వాం', 'U'), ('ఛిం', 'U'), ('తు', '|'), ('నో', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('ర', '|'), ('స', '|'), ('పా', 'U'), ('థో', 'U'), ('ని', '|'), ('ధి', '|'), ('కా', 'U'), ('వ', '|'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ప', '|'), ('సు', '|'), ('ల', 'U'), ('న్గా', 'U'), ('చి', '|'), ('న', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('ను', '|'), ('చు', 'U'), ('న్భా', 'U'), ('విం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్ను', 'U'), ('న్దు', '|'), ('దిన్', 'U'), ('ము', '|'), ('స', '|'), ('లి', '|'), ('భ్రా', 'U'), ('త', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('నెం', 'U'), ('తు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('మూ', 'U'), ('ర్తి', '|'), ('త్ర', '|'), ('యా', 'U'), ('కా', 'U'), ('ర', '|'), ('నే', 'U'), ('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('ధా', 'U'), ('రు', '|'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('ని', 'U'), ('క్క', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', 'U'), ('న్వాం', 'U'), ('ఛిం', 'U'), ('తు', '|'), ('నో', 'U'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('ర', '|'), ('స', '|'), ('పా', 'U'), ('థో', 'U'), ('ని', '|'), ('ధి', '|'), ('కా', 'U'), ('వ', '|'), ('వ', 'U'), ('య్య', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('పి', '|'), ('సి', '|'), ('నిం', 'U'), ('జూ', 'U'), ('చి', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('త', '|'), ('య', '|'), ('ను', '|'), ('చున్', 'U'), ('బీ', 'U'), ('భ', 'U'), ('త్స', '|'), ('కు', 'U'), ('త్సాం', 'U'), ('గు', '|'), ('నిన్', 'U'), ('బ్ర', '|'), ('స', '|'), ('వా', 'U'), ('స్త్ర', '|'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('రూ', 'U'), ('పు', '|'), ('డ', '|'), ('ను', '|'), ('చున్', 'U'), ('బం', 'U'), ('దం', 'U'), ('బ్రి', '|'), ('యం', 'U'), ('బం', 'U'), ('ద', '|'), ('శ', '|'), ('త్రు', '|'), ('స', '|'), ('మూ', 'U'), ('హాం', 'U'), ('త', '|'), ('కు', '|'), ('డం', 'U'), ('చు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('న', '|'), ('ర', 'U'), ('స్తో', 'U'), ('త్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నీ', 'U'), ('ర', '|'), ('సు', '|'), ('డన్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('పి', '|'), ('సి', '|'), ('నిం', 'U'), ('జూ', 'U'), ('చి', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('త', '|'), ('య', '|'), ('ను', '|'), ('చు', 'U'), ('న్బీ', 'U'), ('భ', 'U'), ('త్స', '|'), ('కు', 'U'), ('త్సాం', 'U'), ('గు', '|'), ('నిన్', 'U'), ('బ్ర', '|'), ('స', '|'), ('వా', 'U'), ('స్త్ర', '|'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('రూ', 'U'), ('పు', '|'), ('డ', '|'), ('ను', '|'), ('చు', 'U'), ('న్బం', 'U'), ('దం', 'U'), ('బ్రి', '|'), ('యం', 'U'), ('బం', 'U'), ('ద', '|'), ('శ', '|'), ('త్రు', '|'), ('స', '|'), ('మూ', 'U'), ('హాం', 'U'), ('త', '|'), ('కు', '|'), ('డం', 'U'), ('చు', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('న', '|'), ('ర', 'U'), ('స్తో', 'U'), ('త్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('నీ', 'U'), ('ర', '|'), ('సు', '|'), ('డ', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[('మో', 'U'), ('క్షా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('జ', '|'), ('నిం', 'U'), ('చె', '|'), ('నా', 'U'), ('కు', '|'), ('ని', '|'), ('ది', '|'), ('యే', 'U'), ('మో', 'U'), ('కా', 'U'), ('ని', '|'), ('యీ', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మం', 'U'), ('ద', 'U'), ('క్షీ', 'U'), ('ణో', 'U'), ('ద', '|'), ('య', '|'), ('ము', 'U'), ('క్తి', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డొ', '|'), ('డ', '|'), ('యం', 'U'), ('డా', 'U'), ('పు', 'U'), ('ణ్యు', '|'), ('నిం', 'U'), ('జె', 'U'), ('ప్పె', '|'), ('దో', 'U'), ('ద', 'U'), ('క్షా', 'U'), ('రి', 'U'), ('స్తు', '|'), ('త', '|'), ('నీ', 'U'), ('వె', '|'), ('క', 'U'), ('ర్త', '|'), ('వ', '|'), ('యి', '|'), ('నన్', 'U'), ('ద', 'U'), ('క్కే', 'U'), ('ల', '|'), ('నీ', 'U'), ('వే', 'U'), ('న', '|'), ('నున్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('తో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గం', 'U'), ('గ', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('మో', 'U'), ('క్షా', 'U'), ('పే', 'U'), ('క్ష', '|'), ('జ', '|'), ('నిం', 'U'), ('చె', '|'), ('నా', 'U'), ('కు', '|'), ('ని', '|'), ('ది', '|'), ('యే', 'U'), ('మో', 'U'), ('కా', 'U'), ('ని', '|'), ('యీ', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మం', 'U'), ('ద', 'U'), ('క్షీ', 'U'), ('ణో', 'U'), ('ద', '|'), ('య', '|'), ('ము', 'U'), ('క్తి', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డొ', '|'), ('డ', '|'), ('యం', 'U'), ('డా', 'U'), ('పు', 'U'), ('ణ్యు', '|'), ('నిం', 'U'), ('జె', 'U'), ('ప్పె', '|'), ('దో', 'U'), ('ద', 'U'), ('క్షా', 'U'), ('రి', 'U'), ('స్తు', '|'), ('త', '|'), ('నీ', 'U'), ('వె', '|'), ('క', 'U'), ('ర్త', '|'), ('వ', '|'), ('యి', '|'), ('న', 'U'), ('న్ద', 'U'), ('క్కే', 'U'), ('ల', '|'), ('నీ', 'U'), ('వే', 'U'), ('న', '|'), ('నున్', 'U'), ('ర', 'U'), ('క్షిం', 'U'), ('తో', 'U'), ('యె', '|'), ('ఱు', '|'), ('గం', 'U'), ('గ', '|'), ('జె', 'U'), ('ప్పు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్దొం', 'U'), ('గి', '|'), ('లి', '|'), ('సో', 'U'), ('మ', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('డు', '|'), ('భా', 'U'), ('షా', 'U'), ('భ', 'U'), ('ర్త', '|'), ('కూ', 'U'), ('పె', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('ను', '|'), ('ద', '|'), ('ధుల్', 'U'), ('సొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('బా', 'U'), ('ఱి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కు', '|'), ('ను', 'U'), ('ద్యో', 'U'), ('గిం', 'U'), ('చి', '|'), ('మ', 'U'), ('త్స్యం', 'U'), ('బ', '|'), ('వై', 'U'), ('య', '|'), ('ద', '|'), ('రం', 'U'), ('టన్', 'U'), ('రి', '|'), ('పు', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('దే', 'U'), ('వా', 'U'), ('దే', 'U'), ('వ', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('నా', 'U'), ('ర', '|'), ('ద', '|'), ('కౌం', 'U'), ('డి', 'U'), ('న్య', '|'), ('ను', '|'), ('త', '|'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('చ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్దొం', 'U'), ('గి', '|'), ('లి', '|'), ('సో', 'U'), ('మ', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('డు', '|'), ('భా', 'U'), ('షా', 'U'), ('భ', 'U'), ('ర్త', '|'), ('కూ', 'U'), ('పె', 'U'), ('ట్ట', '|'), ('గా', 'U'), ('ను', '|'), ('ద', '|'), ('ధు', 'U'), ('ల్సొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('బా', 'U'), ('ఱి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('ట', '|'), ('కు', '|'), ('ను', 'U'), ('ద్యో', 'U'), ('గిం', 'U'), ('చి', '|'), ('మ', 'U'), ('త్స్యం', 'U'), ('బ', '|'), ('వై', 'U'), ('య', '|'), ('ద', '|'), ('రం', 'U'), ('ట', '|'), ('న్రి', '|'), ('పు', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('లు', '|'), ('దే', 'U'), ('వా', 'U'), ('దే', 'U'), ('వ', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('నా', 'U'), ('ర', '|'), ('ద', '|'), ('కౌం', 'U'), ('డి', 'U'), ('న్య', '|'), ('ను', '|'), ('త', '|'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రుల్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('నా', 'U'), ('య', '|'), ('కుల్', 'U'), ('క', '|'), ('డ', '|'), ('క', '|'), ('తో', 'U'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ద', '|'), ('మ', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('ల', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('చే', 'U'), ('ద', 'U'), ('ర్వం', 'U'), ('గ', '|'), ('నం', 'U'), ('భో', 'U'), ('ధి', '|'), ('లో', 'U'), ('ర', '|'), ('మ', '|'), ('ణం', 'U'), ('ద', 'U'), ('ద్గి', '|'), ('రి', '|'), ('మో', 'U'), ('చి', '|'), ('కా', 'U'), ('చి', '|'), ('న', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్రా', 'U'), ('ణుం', 'U'), ('డ', '|'), ('కూ', 'U'), ('ర్మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మ', '|'), ('నం', 'U'), ('గా', 'U'), ('మ', '|'), ('ఱి', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రు', '|'), ('ల్రా', 'U'), ('క్ష', '|'), ('స', '|'), ('నా', 'U'), ('య', '|'), ('కు', 'U'), ('ల్క', '|'), ('డ', '|'), ('క', '|'), ('తో', 'U'), ('న', 'U'), ('త్యం', 'U'), ('త', '|'), ('గ', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ద', '|'), ('మ', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('ల', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('చే', 'U'), ('ద', 'U'), ('ర్వం', 'U'), ('గ', '|'), ('నం', 'U'), ('భో', 'U'), ('ధి', '|'), ('లో', 'U'), ('ర', '|'), ('మ', '|'), ('ణం', 'U'), ('ద', 'U'), ('ద్గి', '|'), ('రి', '|'), ('మో', 'U'), ('చి', '|'), ('కా', 'U'), ('చి', '|'), ('న', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్రా', 'U'), ('ణుం', 'U'), ('డ', '|'), ('కూ', 'U'), ('ర్మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మ', '|'), ('నం', 'U'), ('గా', 'U'), ('మ', '|'), ('ఱి', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('వె', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('లు', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('తు', '|'), ('లున్', 'U'), ('దా', 'U'), ('మం', 'U'), ('ద', '|'), ('ఱున్', 'U'), ('మం', 'U'), ('ద', '|'), ('రున్', 'U'), ('ఘ', '|'), ('న', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('న', '|'), ('నె', 'U'), ('త్తి', '|'), ('వా', 'U'), ('ర్థి', '|'), ('న', '|'), ('హి', '|'), ('పుం', 'U'), ('గ', 'U'), ('వ్వం', 'U'), ('బు', '|'), ('గా', 'U'), ('ద్ర', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('ము', '|'), ('ను', '|'), ('గం', 'U'), ('బా', 'U'), ('ఱ', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', 'U'), ('చ్ఛ', '|'), ('ప', '|'), ('మ', '|'), ('వై', 'U'), ('ము', 'U'), ('న్నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('మే', 'U'), ('నా', 'U'), ('త్మ', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('చుం', 'U'), ('దు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('లు', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('తు', '|'), ('లు', 'U'), ('న్దా', 'U'), ('మం', 'U'), ('ద', '|'), ('ఱు', 'U'), ('న్మం', 'U'), ('ద', '|'), ('రున్', 'U'), ('ఘ', '|'), ('న', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('న', '|'), ('నె', 'U'), ('త్తి', '|'), ('వా', 'U'), ('ర్థి', '|'), ('న', '|'), ('హి', '|'), ('పుం', 'U'), ('గ', 'U'), ('వ్వం', 'U'), ('బు', '|'), ('గా', 'U'), ('ద్ర', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('ము', '|'), ('ను', '|'), ('గం', 'U'), ('బా', 'U'), ('ఱ', '|'), ('క', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', 'U'), ('చ్ఛ', '|'), ('ప', '|'), ('మ', '|'), ('వై', 'U'), ('ము', 'U'), ('న్నీ', 'U'), ('టి', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('వ', 'U'), ('ర్త', '|'), ('న', '|'), ('మే', 'U'), ('నా', 'U'), ('త్మ', '|'), ('ద', '|'), ('లం', 'U'), ('చు', '|'), ('చుం', 'U'), ('దు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[('ధ', '|'), ('ర', '|'), ('క', 'U'), ('ల్పాం', 'U'), ('త', '|'), ('ము', '|'), ('నం', 'U'), ('గ', '|'), ('రం', 'U'), ('గ', '|'), ('బ', '|'), ('డి', '|'), ('పా', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లో', 'U'), ('నం', 'U'), ('టి', '|'), ('నన్', 'U'), ('దొ', '|'), ('ర', '|'), ('యం', 'U'), ('దొ', 'U'), ('ల్లి', '|'), ('టి', '|'), ('య', 'U'), ('ట్ల', '|'), ('కా', 'U'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('ను', 'U'), ('ద్యో', 'U'), ('గిం', 'U'), ('చి', '|'), ('క్రో', 'U'), ('డం', 'U'), ('బ', '|'), ('వై', 'U'), ('పొ', '|'), ('రి', '|'), ('న', 'U'), ('బ్భూ', 'U'), ('త', '|'), ('ల', '|'), ('మె', 'U'), ('త్తి', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('న', '|'), ('ద', 'U'), ('ర్పున్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', '|'), ('చి', 'U'), ('త్త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ధ', '|'), ('ర', '|'), ('క', 'U'), ('ల్పాం', 'U'), ('త', '|'), ('ము', '|'), ('నం', 'U'), ('గ', '|'), ('రం', 'U'), ('గ', '|'), ('బ', '|'), ('డి', '|'), ('పా', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లో', 'U'), ('నం', 'U'), ('టి', '|'), ('నన్', 'U'), ('దొ', '|'), ('ర', '|'), ('యం', 'U'), ('దొ', 'U'), ('ల్లి', '|'), ('టి', '|'), ('య', 'U'), ('ట్ల', '|'), ('కా', 'U'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('ను', 'U'), ('ద్యో', 'U'), ('గిం', 'U'), ('చి', '|'), ('క్రో', 'U'), ('డం', 'U'), ('బ', '|'), ('వై', 'U'), ('పొ', '|'), ('రి', '|'), ('న', 'U'), ('బ్భూ', 'U'), ('త', '|'), ('ల', '|'), ('మె', 'U'), ('త్తి', '|'), ('న', 'U'), ('ట్టి', '|'), ('ఘ', '|'), ('న', '|'), ('ద', 'U'), ('ర్పు', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('భా', 'U'), ('విం', 'U'), ('తు', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్య', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', '|'), ('చి', 'U'), ('త్త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('డు', '|'), ('గా', 'U'), ('నీ', 'U'), ('వ', '|'), ('డు', '|'), ('గం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('వి', '|'), ('ట', '|'), ('న', 'U'), ('ల్పం', 'U'), ('బై', 'U'), ('న', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('న్న', '|'), ('డు', '|'), ('గన్', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('వ', 'U'), ('న్న', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('బ', '|'), ('లీం', 'U'), ('ద్రా', 'U'), ('నా', 'U'), ('కు', '|'), ('నీ', 'U'), ('వి', 'U'), ('చ్చు', '|'), ('మూ', 'U'), ('డ', '|'), ('డు', '|'), ('గు', 'U'), ('ల్మూ', 'U'), ('డు', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', '|'), ('గొ', '|'), ('న', '|'), ('వా', 'U'), ('యా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('ముల్', 'U'), ('మా', 'U'), ('ట', '|'), ('మా', 'U'), ('ర్ప', '|'), ('డ', '|'), ('నా', 'U'), ('డన్', 'U'), ('ను', '|'), ('డి', '|'), ('కా', 'U'), ('డ', '|'), ('వౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('వ', '|'), ('డు', '|'), ('గా', 'U'), ('నీ', 'U'), ('వ', '|'), ('డు', '|'), ('గం', 'U'), ('గ', '|'), ('నే', 'U'), ('ర', '|'), ('వి', '|'), ('ట', '|'), ('న', 'U'), ('ల్పం', 'U'), ('బై', 'U'), ('న', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('న్న', '|'), ('డు', '|'), ('గ', 'U'), ('న్వ', 'U'), ('చ్చి', '|'), ('తి', '|'), ('వ', 'U'), ('న్న', '|'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('బ', '|'), ('లీం', 'U'), ('ద్రా', 'U'), ('నా', 'U'), ('కు', '|'), ('నీ', 'U'), ('వి', 'U'), ('చ్చు', '|'), ('మూ', 'U'), ('డ', '|'), ('డు', '|'), ('గు', 'U'), ('ల్మూ', 'U'), ('డు', '|'), ('జ', '|'), ('గం', 'U'), ('బు', '|'), ('లం', 'U'), ('చు', '|'), ('గొ', '|'), ('న', '|'), ('వా', 'U'), ('యా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('ట', '|'), ('మా', 'U'), ('ర్ప', '|'), ('డ', '|'), ('నా', 'U'), ('డ', 'U'), ('న్ను', '|'), ('డి', '|'), ('కా', 'U'), ('డ', '|'), ('వౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('తుల్', 'U'), ('గా', 'U'), ('క', '|'), ('ము', '|'), ('రాం', 'U'), ('త', '|'), ('కుం', 'U'), ('డు', '|'), ('గ', '|'), ('ల', '|'), ('డా', 'U'), ('యెం', 'U'), ('దై', 'U'), ('న', '|'), ('నిం', 'U'), ('దై', 'U'), ('న', '|'), ('నీ', 'U'), ('నీ', 'U'), ('తు', 'U'), ('ల్మా', 'U'), ('ను', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('సు', '|'), ('తు', '|'), ('నిన్', 'U'), ('ని', '|'), ('ట్రా', 'U'), ('తి', '|'), ('లో', 'U'), ('జూ', 'U'), ('ప', '|'), ('రా', 'U'), ('చూ', 'U'), ('తున్', 'U'), ('నా', 'U'), ('గ', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('చ్చో', 'U'), ('నుం', 'U'), ('డ', '|'), ('వా', 'U'), ('చెం', 'U'), ('డ', '|'), ('వా', 'U'), ('రా', 'U'), ('తిం', 'U'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('దై', 'U'), ('త్యు', '|'), ('మే', 'U'), ('ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఏ', 'U'), ('తు', 'U'), ('ల్గా', 'U'), ('క', '|'), ('ము', '|'), ('రాం', 'U'), ('త', '|'), ('కుం', 'U'), ('డు', '|'), ('గ', '|'), ('ల', '|'), ('డా', 'U'), ('యెం', 'U'), ('దై', 'U'), ('న', '|'), ('నిం', 'U'), ('దై', 'U'), ('న', '|'), ('నీ', 'U'), ('నీ', 'U'), ('తు', 'U'), ('ల్మా', 'U'), ('ను', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('సు', '|'), ('తు', '|'), ('ని', 'U'), ('న్ని', '|'), ('ట్రా', 'U'), ('తి', '|'), ('లో', 'U'), ('జూ', 'U'), ('ప', '|'), ('రా', 'U'), ('చూ', 'U'), ('తు', 'U'), ('న్నా', 'U'), ('గ', '|'), ('నృ', '|'), ('సిం', 'U'), ('హ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('చ్చో', 'U'), ('నుం', 'U'), ('డ', '|'), ('వా', 'U'), ('చెం', 'U'), ('డ', '|'), ('వా', 'U'), ('రా', 'U'), ('తిం', 'U'), ('బో', 'U'), ('లి', '|'), ('న', '|'), ('దై', 'U'), ('త్యు', '|'), ('మే', 'U'), ('ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('మ', '|'), ('ర', 'U'), ('క్షో', 'U'), ('ణు', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('బా', 'U'), ('ఱ', '|'), ('గ', '|'), ('జ', '|'), ('రా', 'U'), ('సం', 'U'), ('ధా', 'U'), ('దు', '|'), ('లం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('చం', 'U'), ('డ', '|'), ('మ', '|'), ('దా', 'U'), ('భీ', 'U'), ('లు', '|'), ('ని', '|'), ('ధే', 'U'), ('ను', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('చ', 'U'), ('ట్ట', 'U'), ('ల్చీ', 'U'), ('రి', '|'), ('ము', 'U'), ('ష్టి', '|'), ('ప్ర', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('లన్', 'U'), ('ము', 'U'), ('ష్టి', '|'), ('కు', '|'), ('నా', 'U'), ('ప్ర', '|'), ('లం', 'U'), ('బ', '|'), ('ద', '|'), ('ను', '|'), ('జున్', 'U'), ('మ్రం', 'U'), ('దిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('రే', 'U'), ('వ', '|'), ('తీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('యౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('స', '|'), ('మ', '|'), ('ర', 'U'), ('క్షో', 'U'), ('ణు', '|'), ('ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('బా', 'U'), ('ఱ', '|'), ('గ', '|'), ('జ', '|'), ('రా', 'U'), ('సం', 'U'), ('ధా', 'U'), ('దు', '|'), ('లం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('చం', 'U'), ('డ', '|'), ('మ', '|'), ('దా', 'U'), ('భీ', 'U'), ('లు', '|'), ('ని', '|'), ('ధే', 'U'), ('ను', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('ని', '|'), ('చ', 'U'), ('ట్ట', 'U'), ('ల్చీ', 'U'), ('రి', '|'), ('ము', 'U'), ('ష్టి', '|'), ('ప్ర', '|'), ('హా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', 'U'), ('న్ము', 'U'), ('ష్టి', '|'), ('కు', '|'), ('నా', 'U'), ('ప్ర', '|'), ('లం', 'U'), ('బ', '|'), ('ద', '|'), ('ను', '|'), ('జు', 'U'), ('న్మ్రం', 'U'), ('దిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('రే', 'U'), ('వ', '|'), ('తీ', 'U'), ('ర', '|'), ('మ', '|'), ('ణా', 'U'), ('కా', 'U'), ('ర', '|'), ('ము', '|'), ('దా', 'U'), ('ల్చి', '|'), ('యౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చున్', 'U'), ('నీ', 'U'), ('దం', 'U'), ('డ', '|'), ('నా', 'U'), ('దం', 'U'), ('డ', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('వా', 'U'), ('చం', 'U'), ('య', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('రి', '|'), ('కొ', '|'), ('లు', '|'), ('వన్', 'U'), ('వా', 'U'), ('రిం', 'U'), ('గృ', '|'), ('పం', 'U'), ('జూ', 'U'), ('చు', '|'), ('టల్', 'U'), ('వ', '|'), ('న', '|'), ('ధిం', 'U'), ('గ', 'U'), ('ట్టు', '|'), ('ట', '|'), ('రా', 'U'), ('వ', '|'), ('ణుం', 'U'), ('దు', '|'), ('ను', '|'), ('ము', '|'), ('టల్', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('రా', 'U'), ('మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢా', 'U'), ('కృ', '|'), ('తి', '|'), ('ని', 'U'), ('న్ను', '|'), ('నౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('చు', 'U'), ('న్నీ', 'U'), ('దం', 'U'), ('డ', '|'), ('నా', 'U'), ('దం', 'U'), ('డ', '|'), ('కా', 'U'), ('వ', '|'), ('న', '|'), ('వా', 'U'), ('చం', 'U'), ('య', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('రి', '|'), ('కొ', '|'), ('లు', '|'), ('వ', 'U'), ('న్వా', 'U'), ('రిం', 'U'), ('గృ', '|'), ('పం', 'U'), ('జూ', 'U'), ('చు', '|'), ('టల్', 'U'), ('వ', '|'), ('న', '|'), ('ధిం', 'U'), ('గ', 'U'), ('ట్టు', '|'), ('ట', '|'), ('రా', 'U'), ('వ', '|'), ('ణుం', 'U'), ('దు', '|'), ('ను', '|'), ('ము', '|'), ('ట', 'U'), ('ల్వ', 'U'), ('ర్ణిం', 'U'), ('తు', '|'), ('రా', 'U'), ('మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢా', 'U'), ('కృ', '|'), ('తి', '|'), ('ని', 'U'), ('న్ను', '|'), ('నౌ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', '|'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('కా', 'U'), ('మ', '|'), ('ణు', '|'), ('ల', '|'), ('చే', 'U'), ('న', 'U'), ('శ్వ', 'U'), ('త్థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('ద్రు', '|'), ('మ', '|'), ('ముం', 'U'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్ప', '|'), ('జే', 'U'), ('సి', '|'), ('వ్ర', '|'), ('త', '|'), ('ము', 'U'), ('ల్దూ', 'U'), ('లిం', 'U'), ('చి', '|'), ('బు', 'U'), ('ద్ధా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('రు', '|'), ('ద్ర', '|'), ('స', '|'), ('హా', 'U'), ('య', '|'), ('మై', 'U'), ('త్రి', '|'), ('పు', '|'), ('ర', '|'), ('ముల్', 'U'), ('మ్ర', 'U'), ('గ్గిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('రౌ', 'U'), ('ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('ము', '|'), ('ని', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', '|'), ('వ', '|'), ('ధూ', 'U'), ('టి', '|'), ('కా', 'U'), ('మ', '|'), ('ణు', '|'), ('ల', '|'), ('చే', 'U'), ('న', 'U'), ('శ్వ', 'U'), ('త్థ', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('ద్రు', '|'), ('మ', '|'), ('ముం', 'U'), ('గౌ', 'U'), ('గి', '|'), ('ట', '|'), ('జే', 'U'), ('ర్ప', '|'), ('జే', 'U'), ('సి', '|'), ('వ్ర', '|'), ('త', '|'), ('ము', 'U'), ('ల్దూ', 'U'), ('లిం', 'U'), ('చి', '|'), ('బు', 'U'), ('ద్ధా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('న్రు', '|'), ('ద్ర', '|'), ('స', '|'), ('హా', 'U'), ('య', '|'), ('మై', 'U'), ('త్రి', '|'), ('పు', '|'), ('ర', '|'), ('ము', 'U'), ('ల్మ్ర', 'U'), ('గ్గిం', 'U'), ('చి', '|'), ('తౌ', 'U'), ('రౌ', 'U'), ('ర', '|'), ('ధీ', 'U'), ('ర', '|'), ('ము', '|'), ('ని', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('లి', '|'), ('కా', 'U'), ('లాం', 'U'), ('త', '|'), ('ము', '|'), ('నన్', 'U'), ('గి', '|'), ('రా', 'U'), ('త', '|'), ('జ', '|'), ('న', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', 'U'), ('త్కి', '|'), ('రా', 'U'), ('తు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్లన్', 'U'), ('వి', '|'), ('ద', '|'), ('ళిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('గృ', '|'), ('త', '|'), ('యు', '|'), ('గో', 'U'), ('ద్భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('నిం', 'U'), ('ప', '|'), ('ల', '|'), ('రం', 'U'), ('గ', 'U'), ('ల్కి', '|'), ('వి', '|'), ('గా', 'U'), ('గ', '|'), ('ను', 'U'), ('న్న', '|'), ('హ', '|'), ('రి', '|'), ('ని', 'U'), ('న్న', '|'), ('శ్రాం', 'U'), ('త', '|'), ('ముం', 'U'), ('గొ', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('గ', 'U'), ('ణ్య', '|'), ('శూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('క', '|'), ('లి', '|'), ('కా', 'U'), ('లాం', 'U'), ('త', '|'), ('ము', '|'), ('న', 'U'), ('న్గి', '|'), ('రా', 'U'), ('త', '|'), ('జ', '|'), ('న', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('నం', 'U'), ('ద', 'U'), ('త్కి', '|'), ('రా', 'U'), ('తు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', 'U'), ('న్వి', '|'), ('ద', '|'), ('ళిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్గృ', '|'), ('త', '|'), ('యు', '|'), ('గో', 'U'), ('ద్భూ', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('నిం', 'U'), ('ప', '|'), ('ల', '|'), ('రం', 'U'), ('గ', 'U'), ('ల్కి', '|'), ('వి', '|'), ('గా', 'U'), ('గ', '|'), ('ను', 'U'), ('న్న', '|'), ('హ', '|'), ('రి', '|'), ('ని', 'U'), ('న్న', '|'), ('శ్రాం', 'U'), ('త', '|'), ('ముం', 'U'), ('గొ', 'U'), ('ల్చు', '|'), ('వా', 'U'), ('ర', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('త్ము', '|'), ('ల', '|'), ('గ', 'U'), ('ణ్య', '|'), ('శూ', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[('త్రే', 'U'), ('తా', 'U'), ('ద్వా', 'U'), ('ప', '|'), ('ర', '|'), ('సం', 'U'), ('ధి', '|'), ('ను', 'U'), ('ద్ధ', '|'), ('త', '|'), ('మ', '|'), ('దాం', 'U'), ('ధీ', 'U'), ('భూ', 'U'), ('త', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('ధ', '|'), ('వ', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బున్', 'U'), ('జ', '|'), ('న', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('జ్ఞ', '|'), ('కొ', '|'), ('ఱ', '|'), ('కి', 'U'), ('ర్వై', 'U'), ('యొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('రుల్', 'U'), ('బ', '|'), ('హు', '|'), ('ప్రీ', 'U'), ('తిం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('తి', '|'), ('గా', 'U'), ('దె', '|'), ('నీ', 'U'), ('వు', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('ద్వీ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('మై', 'U'), ('ఘో', 'U'), ('ర', '|'), ('ని', 'U'), ('ర్ఘా', 'U'), ('త', '|'), ('క్రూ', 'U'), ('ర', '|'), ('కు', '|'), ('ఠా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('త్రే', 'U'), ('తా', 'U'), ('ద్వా', 'U'), ('ప', '|'), ('ర', '|'), ('సం', 'U'), ('ధి', '|'), ('ను', 'U'), ('ద్ధ', '|'), ('త', '|'), ('మ', '|'), ('దాం', 'U'), ('ధీ', 'U'), ('భూ', 'U'), ('త', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('ధ', '|'), ('వ', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', 'U'), ('న్జ', '|'), ('న', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('జ్ఞ', '|'), ('కొ', '|'), ('ఱ', '|'), ('కి', 'U'), ('ర్వై', 'U'), ('యొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('రు', 'U'), ('ల్బ', '|'), ('హు', '|'), ('ప్రీ', 'U'), ('తిం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('తి', '|'), ('గా', 'U'), ('దె', '|'), ('నీ', 'U'), ('వు', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('ద్వీ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('మై', 'U'), ('ఘో', 'U'), ('ర', '|'), ('ని', 'U'), ('ర్ఘా', 'U'), ('త', '|'), ('క్రూ', 'U'), ('ర', '|'), ('కు', '|'), ('ఠా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[('ఉం', 'U'), ('డం', 'U'), ('దె', 'U'), ('క్క', '|'), ('డ', '|'), ('నీ', 'U'), ('వు', '|'), ('లే', 'U'), ('క', '|'), ('వె', '|'), ('లి', '|'), ('యై', 'U'), ('యుం', 'U'), ('డే', 'U'), ('ది', '|'), ('యె', 'U'), ('చ్చో', 'U'), ('టు', '|'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డం', 'U'), ('బుల్', 'U'), ('ల', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('నీ', 'U'), ('వు', '|'), ('క', '|'), ('ను', '|'), ('మూ', 'U'), ('యన్', 'U'), ('లో', 'U'), ('క', '|'), ('ప', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('గా', 'U'), ('నం', 'U'), ('డం', 'U'), ('బున్', 'U'), ('బ్ర', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('వి', '|'), ('నో', 'U'), ('దా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('నీ', 'U'), ('మా', 'U'), ('య', '|'), ('మా', 'U'), ('ర్కం', 'U'), ('డే', 'U'), ('యా', 'U'), ('దు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('ఉం', 'U'), ('డం', 'U'), ('దె', 'U'), ('క్క', '|'), ('డ', '|'), ('నీ', 'U'), ('వు', '|'), ('లే', 'U'), ('క', '|'), ('వె', '|'), ('లి', '|'), ('యై', 'U'), ('యుం', 'U'), ('డే', 'U'), ('ది', '|'), ('యె', 'U'), ('చ్చో', 'U'), ('టు', '|'), ('బ్ర', 'U'), ('హ్మాం', 'U'), ('డం', 'U'), ('బు', 'U'), ('ల్ల', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('నీ', 'U'), ('వు', '|'), ('క', '|'), ('ను', '|'), ('మూ', 'U'), ('య', 'U'), ('న్లో', 'U'), ('క', '|'), ('ప', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('గా', 'U'), ('నం', 'U'), ('డం', 'U'), ('బు', 'U'), ('న్బ్ర', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('ను', '|'), ('వి', '|'), ('నో', 'U'), ('దా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('నీ', 'U'), ('మా', 'U'), ('య', '|'), ('మా', 'U'), ('ర్కం', 'U'), ('డే', 'U'), ('యా', 'U'), ('దు', '|'), ('లె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('లే', 'U'), ('రు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('న', '|'), ('నీ', 'U'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('న', 'U'), ('న్ని', '|'), ('టు', '|'), ('బ', '|'), ('డన్', 'U'), ('జ', 'U'), ('న్మి', 'U'), ('చ్చి', '|'), ('బా', 'U'), ('ల్యం', 'U'), ('బు', '|'), ('లన్', 'U'), ('జ', '|'), ('ను', '|'), ('బా', 'U'), ('లెం', 'U'), ('ద', '|'), ('ఱి', '|'), ('వై', 'U'), ('న', '|'), ('ద్రా', 'U'), ('పి', '|'), ('య', '|'), ('టు', '|'), ('వేల్', 'U'), ('సం', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్గా', 'U'), ('పు', '|'), ('రా', 'U'), ('త', '|'), ('న', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('యెం', 'U'), ('త', '|'), ('గ', '|'), ('ను', '|'), ('య', 'U'), ('త్నం', 'U'), ('బు', 'U'), ('న్న', '|'), ('నిం', 'U'), ('దా', 'U'), ('క', '|'), ('దీ', 'U'), ('ర', '|'), ('ని', '|'), ('క', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('లు', '|'), ('దీ', 'U'), ('ఱు', '|'), ('టె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('జ', '|'), ('న', '|'), ('నీ', 'U'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('లం', 'U'), ('దు', '|'), ('న', 'U'), ('న్ని', '|'), ('టు', '|'), ('బ', '|'), ('డ', 'U'), ('న్జ', 'U'), ('న్మి', 'U'), ('చ్చి', '|'), ('బా', 'U'), ('ల్యం', 'U'), ('బు', '|'), ('లన్', 'U'), ('జ', '|'), ('ను', '|'), ('బా', 'U'), ('లెం', 'U'), ('ద', '|'), ('ఱి', '|'), ('వై', 'U'), ('న', '|'), ('ద్రా', 'U'), ('పి', '|'), ('య', '|'), ('టు', '|'), ('వే', 'U'), ('ల్సం', 'U'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('ల్గా', 'U'), ('పు', '|'), ('రా', 'U'), ('త', '|'), ('న', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('యెం', 'U'), ('త', '|'), ('గ', '|'), ('ను', '|'), ('య', 'U'), ('త్నం', 'U'), ('బు', 'U'), ('న్న', '|'), ('నిం', 'U'), ('దా', 'U'), ('క', '|'), ('దీ', 'U'), ('ర', '|'), ('ని', '|'), ('క', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('లు', '|'), ('దీ', 'U'), ('ఱు', '|'), ('టె', 'U'), ('ట్లు', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[('వె', '|'), ('ను', '|'), ('కం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('దో', 'U'), ('ష', '|'), ('ము', 'U'), ('ల్గ', '|'), ('లు', '|'), ('గ', '|'), ('ను', 'U'), ('ర్విన్', 'U'), ('ము', 'U'), ('క్తి', '|'), ('కిం', 'U'), ('బో', 'U'), ('దు', '|'), ('రే', 'U'), ('చ', '|'), ('న', '|'), ('బొ', 'U'), ('య్యే', 'U'), ('వ', '|'), ('ని', '|'), ('కా', 'U'), ('లు', '|'), ('బం', 'U'), ('ట్లె', '|'), ('ను', '|'), ('డు', '|'), ('వ', 'U'), ('న్సా', 'U'), ('క్షా', 'U'), ('త్తు', '|'), ('నా', 'U'), ('బం', 'U'), ('టు', '|'), ('వీ', 'U'), ('ని', '|'), ('ని', '|'), ('బ', 'U'), ('ట్టన్', 'U'), ('గ', '|'), ('మ', '|'), ('కిం', 'U'), ('చు', '|'), ('టొ', 'U'), ('ప్ప', '|'), ('ద', '|'), ('ని', '|'), ('యున్', 'U'), ('నీ', 'U'), ('వే', 'U'), ('ని', '|'), ('వా', 'U'), ('రిం', 'U'), ('చ', '|'), ('వా', 'U'), ('ప్ర', '|'), ('ణ', '|'), ('తా', 'U'), ('శే', 'U'), ('ష', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('చి', 'U'), ('త్త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('వె', '|'), ('ను', '|'), ('కం', 'U'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('దో', 'U'), ('ష', '|'), ('ము', 'U'), ('ల్గ', '|'), ('లు', '|'), ('గ', '|'), ('ను', 'U'), ('ర్వి', 'U'), ('న్ము', 'U'), ('క్తి', '|'), ('కిం', 'U'), ('బో', 'U'), ('దు', '|'), ('రే', 'U'), ('చ', '|'), ('న', '|'), ('బొ', 'U'), ('య్యే', 'U'), ('వ', '|'), ('ని', '|'), ('కా', 'U'), ('లు', '|'), ('బం', 'U'), ('ట్లె', '|'), ('ను', '|'), ('డు', '|'), ('వ', 'U'), ('న్సా', 'U'), ('క్షా', 'U'), ('త్తు', '|'), ('నా', 'U'), ('బం', 'U'), ('టు', '|'), ('వీ', 'U'), ('ని', '|'), ('ని', '|'), ('బ', 'U'), ('ట్ట', 'U'), ('న్గ', '|'), ('మ', '|'), ('కిం', 'U'), ('చు', '|'), ('టొ', 'U'), ('ప్ప', '|'), ('ద', '|'), ('ని', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('వే', 'U'), ('ని', '|'), ('వా', 'U'), ('రిం', 'U'), ('చ', '|'), ('వా', 'U'), ('ప్ర', '|'), ('ణ', '|'), ('తా', 'U'), ('శే', 'U'), ('ష', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('చి', 'U'), ('త్త', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('ను', '|'), ('న', 'U'), ('న్యుల్', 'U'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('మే', 'U'), ('ల', '|'), ('న', '|'), ('క', '|'), ('యుం', 'U'), ('డ', 'U'), ('న్నా', 'U'), ('కు', '|'), ('నే', 'U'), ('నే', 'U'), ('మ', '|'), ('హా', 'U'), ('ఘ', '|'), ('ను', '|'), ('డన్', 'U'), ('వి', 'U'), ('ద్య', '|'), ('కు', '|'), ('నే', 'U'), ('నె', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('న', '|'), ('ను', '|'), ('చున్', 'U'), ('గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('క్య', '|'), ('ముల్', 'U'), ('వి', '|'), ('ని', '|'), ('మీ', 'U'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('రో', 'U'), ('య', '|'), ('కు', '|'), ('ము', '|'), ('నా', 'U'), ('వే', 'U'), ('సా', 'U'), ('లు', '|'), ('గ్రా', 'U'), ('సా', 'U'), ('ల', '|'), ('కే', 'U'), ('య', '|'), ('ని', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('తు', '|'), ('వు', '|'), ('గా', 'U'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('న', '|'), ('ను', '|'), ('న', 'U'), ('న్యు', 'U'), ('ల్గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('మే', 'U'), ('ల', '|'), ('న', '|'), ('క', '|'), ('యుం', 'U'), ('డ', 'U'), ('న్నా', 'U'), ('కు', '|'), ('నే', 'U'), ('నే', 'U'), ('మ', '|'), ('హా', 'U'), ('ఘ', '|'), ('ను', '|'), ('డ', 'U'), ('న్వి', 'U'), ('ద్య', '|'), ('కు', '|'), ('నే', 'U'), ('నె', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('న', '|'), ('ను', '|'), ('చు', 'U'), ('న్గ', 'U'), ('ర్విం', 'U'), ('చి', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('క్య', '|'), ('ముల్', 'U'), ('వి', '|'), ('ని', '|'), ('మీ', 'U'), ('చి', 'U'), ('త్త', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('రో', 'U'), ('య', '|'), ('కు', '|'), ('ము', '|'), ('నా', 'U'), ('వే', 'U'), ('సా', 'U'), ('లు', '|'), ('గ్రా', 'U'), ('సా', 'U'), ('ల', '|'), ('కే', 'U'), ('య', '|'), ('ని', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('తు', '|'), ('వు', '|'), ('గా', 'U'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('మ', '|'), ('రౌ', 'U'), ('నాం', 'U'), ('డ్రు', '|'), ('ప', '|'), ('దా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('లు', '|'), ('గొ', '|'), ('లు', '|'), ('వన్', 'U'), ('గో', 'U'), ('పా', 'U'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('చీ', 'U'), ('రల్', 'U'), ('దీ', 'U'), ('సి', '|'), ('రా', 'U'), ('దీ', 'U'), ('సి', '|'), ('నె', 'U'), ('య్య', '|'), ('ము', '|'), ('నం', 'U'), ('బొం', 'U'), ('ది', '|'), ('న', '|'), ('కొ', 'U'), ('య్య', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('గా', 'U'), ('వా', 'U'), ('నీ', 'U'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('లో', 'U'), ('క', '|'), ('మ', '|'), ('నో', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('కొ', '|'), ('మ', '|'), ('రౌ', 'U'), ('నాం', 'U'), ('డ్రు', '|'), ('ప', '|'), ('దా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('లు', '|'), ('గొ', '|'), ('లు', '|'), ('వ', 'U'), ('న్గో', 'U'), ('పా', 'U'), ('ల', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('న్జా', 'U'), ('ల', '|'), ('క', '|'), ('చొ', 'U'), ('చ్చి', '|'), ('గో', 'U'), ('పి', '|'), ('క', '|'), ('ల', '|'), ('చీ', 'U'), ('ర', 'U'), ('ల్దీ', 'U'), ('సి', '|'), ('రా', 'U'), ('దీ', 'U'), ('సి', '|'), ('నె', 'U'), ('య్య', '|'), ('ము', '|'), ('నం', 'U'), ('బొం', 'U'), ('ది', '|'), ('న', '|'), ('కొ', 'U'), ('య్య', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('గా', 'U'), ('వా', 'U'), ('నీ', 'U'), ('వు', '|'), ('కృ', 'U'), ('ష్ణా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('న్లో', 'U'), ('క', '|'), ('మ', '|'), ('నో', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('రు', '|'), ('ణా', 'U'), ('నీ', 'U'), ('ర', '|'), ('ధి', '|'), ('ని', 'U'), ('న్ను', '|'), ('వే', 'U'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('నన్', 'U'), ('గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('కిం', 'U'), ('బో', 'U'), ('రి', '|'), ('లో', 'U'), ('న', '|'), ('ర', '|'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('సా', 'U'), ('ర', '|'), ('థి', '|'), ('వి', '|'), ('గా', 'U'), ('వా', 'U'), ('కా', 'U'), ('వ', '|'), ('నో', 'U'), ('దే', 'U'), ('వ', '|'), ('నీ', 'U'), ('స', '|'), ('రి', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('రు', '|'), ('ను', '|'), ('లే', 'U'), ('రు', '|'), ('శి', 'U'), ('ష్ట', '|'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్షా', 'U'), ('ద', 'U'), ('క్ష', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('మ', '|'), ('ణీ', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('మౌ', 'U'), ('ళి', '|'), ('ర', 'U'), ('త్న', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('క', '|'), ('రు', '|'), ('ణా', 'U'), ('నీ', 'U'), ('ర', '|'), ('ధి', '|'), ('ని', 'U'), ('న్ను', '|'), ('వే', 'U'), ('డు', '|'), ('కొ', '|'), ('ని', '|'), ('న', 'U'), ('న్గాం', 'U'), ('డీ', 'U'), ('వి', '|'), ('కిం', 'U'), ('బో', 'U'), ('రి', '|'), ('లో', 'U'), ('న', '|'), ('ర', '|'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('సా', 'U'), ('ర', '|'), ('థి', '|'), ('వి', '|'), ('గా', 'U'), ('వా', 'U'), ('కా', 'U'), ('వ', '|'), ('నో', 'U'), ('దే', 'U'), ('వ', '|'), ('నీ', 'U'), ('స', '|'), ('రి', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('రు', '|'), ('ను', '|'), ('లే', 'U'), ('రు', '|'), ('శి', 'U'), ('ష్ట', '|'), ('జ', '|'), ('న', '|'), ('ర', 'U'), ('క్షా', 'U'), ('ద', 'U'), ('క్ష', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('మ', '|'), ('ణీ', 'U'), ('ధ', '|'), ('ర', '|'), ('ణీ', 'U'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('మౌ', 'U'), ('ళి', '|'), ('ర', 'U'), ('త్న', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('తు', '|'), ('ల', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('రా', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('య', 'U'), ('య్య', '|'), ('ల్రా', 'U'), ('జు', '|'), ('స', 'U'), ('త్పు', '|'), ('త్రు', '|'), ('డ', 'U'), ('చ్యు', '|'), ('త', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('ద్రి', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('కుం', 'U'), ('డొ', '|'), ('న', '|'), ('రి', '|'), ('చెన్', 'U'), ('శు', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('నాం', 'U'), ('ధ్ర', '|'), ('సం', 'U'), ('గ', '|'), ('త', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('ల', '|'), ('నూ', 'U'), ('టి', '|'), ('ని', 'U'), ('వ్వి', '|'), ('వె', '|'), ('ల', '|'), ('యుం', 'U'), ('గా', 'U'), ('తన్', 'U'), ('ర', '|'), ('వీం', 'U'), ('దు', '|'), ('ప్ర', '|'), ('చా', 'U'), ('ర', '|'), ('త', '|'), ('యెం', 'U'), ('దా', 'U'), ('క', '|'), ('నొ', '|'), ('యం', 'U'), ('త', '|'), ('దా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
+          <t>[('అ', '|'), ('తు', '|'), ('ల', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('మీ', 'U'), ('ఱ', '|'), ('రా', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('య', 'U'), ('య్య', '|'), ('ల్రా', 'U'), ('జు', '|'), ('స', 'U'), ('త్పు', '|'), ('త్రు', '|'), ('డ', 'U'), ('చ్యు', '|'), ('త', '|'), ('భ', 'U'), ('క్తిం', 'U'), ('ద్రి', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('కుం', 'U'), ('డొ', '|'), ('న', '|'), ('రి', '|'), ('చె', 'U'), ('న్శు', 'U'), ('ద్ధం', 'U'), ('బు', '|'), ('గా', 'U'), ('నాం', 'U'), ('ధ్ర', '|'), ('సం', 'U'), ('గ', '|'), ('త', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('ల', '|'), ('నూ', 'U'), ('టి', '|'), ('ని', 'U'), ('వ్వి', '|'), ('వె', '|'), ('ల', '|'), ('యుం', 'U'), ('గా', 'U'), ('త', '|'), ('న్ర', '|'), ('వీం', 'U'), ('దు', '|'), ('ప్ర', '|'), ('చా', 'U'), ('ర', '|'), ('త', '|'), ('యెం', 'U'), ('దా', 'U'), ('క', '|'), ('నొ', '|'), ('యం', 'U'), ('త', '|'), ('దా', 'U'), ('క', '|'), ('ర', '|'), ('ఘు', '|'), ('వీ', 'U'), ('రా', 'U'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('నా', 'U'), ('య', '|'), ('కా', 'U')]</t>
         </is>
       </c>
     </row>
